--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="2489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2491">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8051,6 +8051,14 @@
     <t>장이사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RM_870에서 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-09이후로 탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8064,7 +8072,7 @@
     <numFmt numFmtId="179" formatCode="&quot;대기업&quot;\ #,##0\ &quot;개 사&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9073,104 +9081,104 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>2212</v>
       </c>
@@ -9190,7 +9198,7 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
@@ -9198,7 +9206,7 @@
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2389</v>
       </c>
@@ -9207,13 +9215,13 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>981</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>984</v>
       </c>
@@ -9235,7 +9243,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>987</v>
       </c>
@@ -9249,7 +9257,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>990</v>
       </c>
@@ -9260,7 +9268,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>992</v>
       </c>
@@ -9271,7 +9279,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>994</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>997</v>
       </c>
@@ -9293,7 +9301,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>999</v>
       </c>
@@ -9304,7 +9312,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1002</v>
       </c>
@@ -9315,7 +9323,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1004</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1007</v>
       </c>
@@ -9337,7 +9345,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1010</v>
       </c>
@@ -9348,7 +9356,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1013</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1016</v>
       </c>
@@ -9370,7 +9378,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1019</v>
       </c>
@@ -9381,7 +9389,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>1021</v>
       </c>
@@ -9392,7 +9400,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>1023</v>
       </c>
@@ -9403,7 +9411,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>1025</v>
       </c>
@@ -9414,7 +9422,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>1027</v>
       </c>
@@ -9425,7 +9433,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>1029</v>
       </c>
@@ -9436,7 +9444,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>1032</v>
       </c>
@@ -9447,7 +9455,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>1035</v>
       </c>
@@ -9458,7 +9466,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>1038</v>
       </c>
@@ -9469,7 +9477,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>1041</v>
       </c>
@@ -9480,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>1043</v>
       </c>
@@ -9491,7 +9499,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>1046</v>
       </c>
@@ -9502,7 +9510,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>1049</v>
       </c>
@@ -9516,7 +9524,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>1052</v>
       </c>
@@ -9527,7 +9535,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>1055</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>1058</v>
       </c>
@@ -9549,7 +9557,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>1061</v>
       </c>
@@ -9560,7 +9568,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>1064</v>
       </c>
@@ -9571,7 +9579,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>1067</v>
       </c>
@@ -9582,7 +9590,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>1069</v>
       </c>
@@ -9593,7 +9601,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>1071</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>1073</v>
       </c>
@@ -9615,7 +9623,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>1075</v>
       </c>
@@ -9626,7 +9634,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>1076</v>
       </c>
@@ -9637,7 +9645,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>2353</v>
       </c>
@@ -9666,7 +9674,7 @@
       <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -9675,7 +9683,7 @@
     <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2390</v>
       </c>
@@ -9684,13 +9692,13 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="C2" s="4">
         <f>COUNTA(C3:C45)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>892</v>
       </c>
@@ -9701,7 +9709,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>894</v>
       </c>
@@ -9712,7 +9720,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>896</v>
       </c>
@@ -9723,7 +9731,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>897</v>
       </c>
@@ -9734,7 +9742,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>901</v>
       </c>
@@ -9745,7 +9753,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>903</v>
       </c>
@@ -9756,7 +9764,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>906</v>
       </c>
@@ -9767,7 +9775,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>909</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>910</v>
       </c>
@@ -9789,7 +9797,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>913</v>
       </c>
@@ -9800,7 +9808,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>916</v>
       </c>
@@ -9811,7 +9819,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>919</v>
       </c>
@@ -9828,7 +9836,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>921</v>
       </c>
@@ -9842,7 +9850,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>924</v>
       </c>
@@ -9853,7 +9861,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>927</v>
       </c>
@@ -9864,7 +9872,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>930</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>933</v>
       </c>
@@ -9886,7 +9894,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>936</v>
       </c>
@@ -9897,7 +9905,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>944</v>
       </c>
@@ -9908,7 +9916,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>947</v>
       </c>
@@ -9919,7 +9927,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>952</v>
       </c>
@@ -9930,7 +9938,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>955</v>
       </c>
@@ -9941,7 +9949,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>958</v>
       </c>
@@ -9952,7 +9960,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>961</v>
       </c>
@@ -9963,7 +9971,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>964</v>
       </c>
@@ -9974,7 +9982,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>967</v>
       </c>
@@ -9985,7 +9993,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>972</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
         <v>2325</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>973</v>
       </c>
@@ -10027,7 +10035,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
         <v>2318</v>
       </c>
@@ -10041,7 +10049,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>978</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>2278</v>
       </c>
@@ -10072,7 +10080,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="23" customFormat="1">
       <c r="A35" s="23" t="s">
         <v>942</v>
       </c>
@@ -10089,7 +10097,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>975</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>899</v>
       </c>
@@ -10117,7 +10125,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>939</v>
       </c>
@@ -10132,7 +10140,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>969</v>
       </c>
@@ -10144,7 +10152,7 @@
       </c>
       <c r="E40" s="130"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>2350</v>
       </c>
@@ -10158,7 +10166,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>2351</v>
       </c>
@@ -10197,7 +10205,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -10208,7 +10216,7 @@
     <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="77" t="s">
         <v>2458</v>
       </c>
@@ -10219,7 +10227,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
@@ -10236,7 +10244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>262</v>
       </c>
@@ -10251,7 +10259,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>263</v>
       </c>
@@ -10266,7 +10274,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>264</v>
       </c>
@@ -10281,7 +10289,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>265</v>
       </c>
@@ -10296,7 +10304,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>269</v>
       </c>
@@ -10311,7 +10319,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
@@ -10326,7 +10334,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="7" t="s">
         <v>2335</v>
       </c>
@@ -10343,7 +10351,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>2336</v>
       </c>
@@ -10364,7 +10372,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
@@ -10381,7 +10389,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -10415,7 +10423,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="7" t="s">
         <v>271</v>
       </c>
@@ -10432,7 +10440,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="50" customFormat="1">
       <c r="A15" s="34" t="s">
         <v>270</v>
       </c>
@@ -10452,7 +10460,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
         <v>2301</v>
       </c>
@@ -10495,7 +10503,7 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -10505,7 +10513,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2391</v>
       </c>
@@ -10515,7 +10523,7 @@
       </c>
       <c r="D1" s="64"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>11</v>
@@ -10524,7 +10532,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>1274</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1277</v>
       </c>
@@ -10552,7 +10560,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>1278</v>
       </c>
@@ -10566,7 +10574,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1281</v>
       </c>
@@ -10580,7 +10588,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>1283</v>
       </c>
@@ -10594,7 +10602,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>1284</v>
       </c>
@@ -10608,7 +10616,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>1286</v>
       </c>
@@ -10622,7 +10630,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="26" customFormat="1">
       <c r="A10" s="26" t="s">
         <v>1288</v>
       </c>
@@ -10639,7 +10647,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>1290</v>
       </c>
@@ -10653,7 +10661,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>1292</v>
       </c>
@@ -10667,7 +10675,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>1294</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>1296</v>
       </c>
@@ -10695,7 +10703,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>2475</v>
       </c>
@@ -10710,7 +10718,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="119" t="s">
         <v>2479</v>
       </c>
@@ -10722,7 +10730,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
@@ -10749,7 +10757,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
@@ -10757,7 +10765,7 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2392</v>
       </c>
@@ -10767,7 +10775,7 @@
       </c>
       <c r="D1" s="64"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>7</v>
@@ -10776,7 +10784,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1260</v>
       </c>
@@ -10790,7 +10798,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1262</v>
       </c>
@@ -10804,7 +10812,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1264</v>
       </c>
@@ -10818,7 +10826,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1266</v>
       </c>
@@ -10832,7 +10840,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1269</v>
       </c>
@@ -10846,7 +10854,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1271</v>
       </c>
@@ -10863,7 +10871,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1273</v>
       </c>
@@ -10892,7 +10900,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -10900,7 +10908,7 @@
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2393</v>
       </c>
@@ -10909,13 +10917,13 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1185</v>
       </c>
@@ -10926,7 +10934,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1188</v>
       </c>
@@ -10937,7 +10945,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1191</v>
       </c>
@@ -10948,7 +10956,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1194</v>
       </c>
@@ -10959,7 +10967,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1197</v>
       </c>
@@ -10970,7 +10978,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1200</v>
       </c>
@@ -10981,7 +10989,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1203</v>
       </c>
@@ -10992,7 +11000,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
       <c r="A10" t="s">
         <v>1206</v>
       </c>
@@ -11003,7 +11011,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="51" t="s">
         <v>1209</v>
       </c>
@@ -11015,7 +11023,7 @@
       </c>
       <c r="D11" s="53"/>
     </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1">
       <c r="A12" s="54" t="s">
         <v>1234</v>
       </c>
@@ -11027,7 +11035,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1212</v>
       </c>
@@ -11038,7 +11046,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1215</v>
       </c>
@@ -11049,7 +11057,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1217</v>
       </c>
@@ -11060,7 +11068,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1">
       <c r="A16" t="s">
         <v>1219</v>
       </c>
@@ -11071,7 +11079,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="51" t="s">
         <v>1222</v>
       </c>
@@ -11083,7 +11091,7 @@
       </c>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1">
       <c r="A18" s="54" t="s">
         <v>1225</v>
       </c>
@@ -11095,7 +11103,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1228</v>
       </c>
@@ -11106,7 +11114,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>1231</v>
       </c>
@@ -11117,7 +11125,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>1237</v>
       </c>
@@ -11128,7 +11136,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>1239</v>
       </c>
@@ -11139,7 +11147,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>1242</v>
       </c>
@@ -11150,7 +11158,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>1245</v>
       </c>
@@ -11161,7 +11169,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>1248</v>
       </c>
@@ -11172,7 +11180,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>1251</v>
       </c>
@@ -11183,7 +11191,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>1254</v>
       </c>
@@ -11194,7 +11202,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>1257</v>
       </c>
@@ -11220,7 +11228,7 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11229,7 +11237,7 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2394</v>
       </c>
@@ -11241,13 +11249,13 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="C2" s="10">
         <f>COUNTA(C3:C19)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1146</v>
       </c>
@@ -11258,7 +11266,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1148</v>
       </c>
@@ -11269,7 +11277,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1150</v>
       </c>
@@ -11280,7 +11288,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1152</v>
       </c>
@@ -11291,7 +11299,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1154</v>
       </c>
@@ -11302,7 +11310,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1156</v>
       </c>
@@ -11313,7 +11321,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1158</v>
       </c>
@@ -11324,7 +11332,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1161</v>
       </c>
@@ -11335,7 +11343,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1163</v>
       </c>
@@ -11346,7 +11354,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1165</v>
       </c>
@@ -11357,7 +11365,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1168</v>
       </c>
@@ -11368,7 +11376,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1171</v>
       </c>
@@ -11379,7 +11387,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1173</v>
       </c>
@@ -11390,7 +11398,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>1176</v>
       </c>
@@ -11401,7 +11409,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>1178</v>
       </c>
@@ -11412,7 +11420,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>1181</v>
       </c>
@@ -11423,7 +11431,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1183</v>
       </c>
@@ -11434,7 +11442,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="12" customFormat="1">
       <c r="A20" s="12" t="s">
         <v>2282</v>
       </c>
@@ -11463,7 +11471,7 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11471,7 +11479,7 @@
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2395</v>
       </c>
@@ -11480,13 +11488,13 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="17.25" thickBot="1">
       <c r="C2" s="43">
         <f>COUNTA(C3:C19)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="51" t="s">
         <v>1130</v>
       </c>
@@ -11498,7 +11506,7 @@
       </c>
       <c r="D3" s="53"/>
     </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="17.25" thickBot="1">
       <c r="A4" s="54" t="s">
         <v>1144</v>
       </c>
@@ -11510,7 +11518,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="51" t="s">
         <v>1132</v>
       </c>
@@ -11522,7 +11530,7 @@
       </c>
       <c r="D5" s="53"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="17.25" thickBot="1">
       <c r="A6" s="54" t="s">
         <v>1134</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1136</v>
       </c>
@@ -11545,7 +11553,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1138</v>
       </c>
@@ -11556,7 +11564,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1140</v>
       </c>
@@ -11567,7 +11575,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1142</v>
       </c>
@@ -11578,7 +11586,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
         <v>2354</v>
       </c>
@@ -11607,7 +11615,7 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11616,7 +11624,7 @@
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2396</v>
       </c>
@@ -11628,13 +11636,13 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1103</v>
       </c>
@@ -11645,7 +11653,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1105</v>
       </c>
@@ -11656,7 +11664,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1106</v>
       </c>
@@ -11667,7 +11675,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1108</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1110</v>
       </c>
@@ -11689,7 +11697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1111</v>
       </c>
@@ -11700,7 +11708,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1113</v>
       </c>
@@ -11711,7 +11719,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1115</v>
       </c>
@@ -11722,7 +11730,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1117</v>
       </c>
@@ -11733,7 +11741,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1118</v>
       </c>
@@ -11744,7 +11752,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1120</v>
       </c>
@@ -11755,7 +11763,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1122</v>
       </c>
@@ -11766,7 +11774,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1124</v>
       </c>
@@ -11777,7 +11785,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1126</v>
       </c>
@@ -11788,7 +11796,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1128</v>
       </c>
@@ -11814,7 +11822,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11823,7 +11831,7 @@
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2397</v>
       </c>
@@ -11835,13 +11843,13 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1079</v>
       </c>
@@ -11852,7 +11860,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1081</v>
       </c>
@@ -11863,7 +11871,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1083</v>
       </c>
@@ -11874,7 +11882,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1085</v>
       </c>
@@ -11885,7 +11893,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1087</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1089</v>
       </c>
@@ -11907,7 +11915,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1091</v>
       </c>
@@ -11918,7 +11926,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1093</v>
       </c>
@@ -11932,7 +11940,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1095</v>
       </c>
@@ -11943,7 +11951,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1096</v>
       </c>
@@ -11954,7 +11962,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1098</v>
       </c>
@@ -11965,7 +11973,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1100</v>
       </c>
@@ -11997,7 +12005,7 @@
       <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12014,7 +12022,7 @@
     <col min="14" max="14" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="77" t="s">
         <v>592</v>
       </c>
@@ -12042,7 +12050,7 @@
       </c>
       <c r="M1" s="80"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="82"/>
       <c r="B2" s="32"/>
       <c r="C2" s="86">
@@ -12072,7 +12080,7 @@
       </c>
       <c r="M2" s="63"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>364</v>
       </c>
@@ -12106,7 +12114,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>367</v>
       </c>
@@ -12138,7 +12146,7 @@
       <c r="M4" s="123"/>
       <c r="N4" s="124"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>370</v>
       </c>
@@ -12174,7 +12182,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>372</v>
       </c>
@@ -12210,7 +12218,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>375</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>378</v>
       </c>
@@ -12260,7 +12268,7 @@
       <c r="E8" s="37"/>
       <c r="F8" s="59"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>381</v>
       </c>
@@ -12282,7 +12290,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>384</v>
       </c>
@@ -12304,7 +12312,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>387</v>
       </c>
@@ -12326,7 +12334,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>390</v>
       </c>
@@ -12348,7 +12356,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>393</v>
       </c>
@@ -12361,7 +12369,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>396</v>
       </c>
@@ -12374,7 +12382,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>399</v>
       </c>
@@ -12387,7 +12395,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>402</v>
       </c>
@@ -12400,7 +12408,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>405</v>
       </c>
@@ -12413,7 +12421,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>408</v>
       </c>
@@ -12426,7 +12434,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
         <v>411</v>
       </c>
@@ -12439,7 +12447,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>413</v>
       </c>
@@ -12452,7 +12460,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
         <v>416</v>
       </c>
@@ -12465,7 +12473,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>419</v>
       </c>
@@ -12478,7 +12486,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>422</v>
       </c>
@@ -12491,7 +12499,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>425</v>
       </c>
@@ -12504,7 +12512,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>428</v>
       </c>
@@ -12517,7 +12525,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>431</v>
       </c>
@@ -12530,7 +12538,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
         <v>434</v>
       </c>
@@ -12543,7 +12551,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>437</v>
       </c>
@@ -12556,7 +12564,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
         <v>440</v>
       </c>
@@ -12569,7 +12577,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>443</v>
       </c>
@@ -12582,7 +12590,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>446</v>
       </c>
@@ -12595,7 +12603,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>449</v>
       </c>
@@ -12608,7 +12616,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
         <v>452</v>
       </c>
@@ -12621,7 +12629,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
         <v>455</v>
       </c>
@@ -12634,7 +12642,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>458</v>
       </c>
@@ -12647,7 +12655,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>461</v>
       </c>
@@ -12660,7 +12668,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>464</v>
       </c>
@@ -12673,7 +12681,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>467</v>
       </c>
@@ -12686,7 +12694,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
         <v>470</v>
       </c>
@@ -12699,7 +12707,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>473</v>
       </c>
@@ -12712,7 +12720,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>476</v>
       </c>
@@ -12725,7 +12733,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>479</v>
       </c>
@@ -12738,7 +12746,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>482</v>
       </c>
@@ -12751,7 +12759,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
         <v>485</v>
       </c>
@@ -12766,7 +12774,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
         <v>489</v>
       </c>
@@ -12779,7 +12787,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
         <v>492</v>
       </c>
@@ -12792,7 +12800,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A47" s="114" t="s">
         <v>495</v>
       </c>
@@ -12811,7 +12819,7 @@
       <c r="K47" s="116"/>
       <c r="M47" s="117"/>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="7" t="s">
         <v>498</v>
       </c>
@@ -12823,7 +12831,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
         <v>501</v>
       </c>
@@ -12836,7 +12844,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
         <v>504</v>
       </c>
@@ -12849,7 +12857,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
         <v>507</v>
       </c>
@@ -12862,7 +12870,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
         <v>510</v>
       </c>
@@ -12875,7 +12883,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="7" t="s">
         <v>513</v>
       </c>
@@ -12890,7 +12898,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>516</v>
       </c>
@@ -12903,7 +12911,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="7" t="s">
         <v>518</v>
       </c>
@@ -12916,7 +12924,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>521</v>
       </c>
@@ -12929,7 +12937,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" s="7" t="s">
         <v>524</v>
       </c>
@@ -12942,7 +12950,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
         <v>527</v>
       </c>
@@ -12955,7 +12963,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="7" t="s">
         <v>530</v>
       </c>
@@ -12968,7 +12976,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="7" t="s">
         <v>533</v>
       </c>
@@ -12981,7 +12989,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="7" t="s">
         <v>536</v>
       </c>
@@ -12994,7 +13002,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>539</v>
       </c>
@@ -13007,7 +13015,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
         <v>542</v>
       </c>
@@ -13020,7 +13028,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="7" t="s">
         <v>545</v>
       </c>
@@ -13033,7 +13041,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>547</v>
       </c>
@@ -13046,7 +13054,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>550</v>
       </c>
@@ -13059,7 +13067,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>553</v>
       </c>
@@ -13072,7 +13080,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>556</v>
       </c>
@@ -13085,7 +13093,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
         <v>559</v>
       </c>
@@ -13098,7 +13106,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>562</v>
       </c>
@@ -13116,7 +13124,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>2469</v>
       </c>
@@ -13134,7 +13142,7 @@
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
         <v>2484</v>
       </c>
@@ -13167,12 +13175,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13186,7 +13194,7 @@
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2386</v>
       </c>
@@ -13199,7 +13207,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>134</v>
@@ -13209,7 +13217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1861</v>
       </c>
@@ -13235,7 +13243,7 @@
         <v>42464</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1863</v>
       </c>
@@ -13261,7 +13269,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1865</v>
       </c>
@@ -13287,7 +13295,7 @@
         <v>43019</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>1867</v>
       </c>
@@ -13313,7 +13321,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>1869</v>
       </c>
@@ -13339,7 +13347,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
@@ -13365,7 +13373,7 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1873</v>
       </c>
@@ -13391,7 +13399,7 @@
         <v>42403</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1875</v>
       </c>
@@ -13417,7 +13425,7 @@
         <v>42450</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>1878</v>
       </c>
@@ -13431,7 +13439,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>1881</v>
       </c>
@@ -13445,7 +13453,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1884</v>
       </c>
@@ -13459,7 +13467,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1886</v>
       </c>
@@ -13473,7 +13481,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>1887</v>
       </c>
@@ -13490,7 +13498,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>1890</v>
       </c>
@@ -13504,7 +13512,7 @@
         <v>43202</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>1892</v>
       </c>
@@ -13518,7 +13526,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>1894</v>
       </c>
@@ -13532,7 +13540,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>1897</v>
       </c>
@@ -13546,7 +13554,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>1898</v>
       </c>
@@ -13560,7 +13568,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>1900</v>
       </c>
@@ -13574,7 +13582,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>1903</v>
       </c>
@@ -13588,7 +13596,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>1905</v>
       </c>
@@ -13602,7 +13610,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>1907</v>
       </c>
@@ -13616,7 +13624,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>1910</v>
       </c>
@@ -13630,7 +13638,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>1913</v>
       </c>
@@ -13644,7 +13652,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>1915</v>
       </c>
@@ -13658,7 +13666,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>1918</v>
       </c>
@@ -13672,7 +13680,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>1921</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>1923</v>
       </c>
@@ -13700,7 +13708,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>1925</v>
       </c>
@@ -13714,7 +13722,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>1927</v>
       </c>
@@ -13728,7 +13736,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>1929</v>
       </c>
@@ -13742,7 +13750,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>1931</v>
       </c>
@@ -13756,7 +13764,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>1933</v>
       </c>
@@ -13770,7 +13778,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>1935</v>
       </c>
@@ -13784,7 +13792,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>1937</v>
       </c>
@@ -13798,7 +13806,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>1939</v>
       </c>
@@ -13812,7 +13820,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>1942</v>
       </c>
@@ -13826,7 +13834,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>1945</v>
       </c>
@@ -13840,7 +13848,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>1946</v>
       </c>
@@ -13854,7 +13862,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>1949</v>
       </c>
@@ -13868,7 +13876,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>1951</v>
       </c>
@@ -13882,7 +13890,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>1954</v>
       </c>
@@ -13896,7 +13904,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>1957</v>
       </c>
@@ -13910,7 +13918,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>1959</v>
       </c>
@@ -13924,7 +13932,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>1962</v>
       </c>
@@ -13938,7 +13946,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>1964</v>
       </c>
@@ -13952,7 +13960,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>1966</v>
       </c>
@@ -13966,7 +13974,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>1968</v>
       </c>
@@ -13980,7 +13988,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>1970</v>
       </c>
@@ -13994,7 +14002,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>1973</v>
       </c>
@@ -14008,7 +14016,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>1975</v>
       </c>
@@ -14022,7 +14030,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>1976</v>
       </c>
@@ -14036,7 +14044,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>1978</v>
       </c>
@@ -14050,7 +14058,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>1980</v>
       </c>
@@ -14064,7 +14072,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>1982</v>
       </c>
@@ -14078,7 +14086,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>1984</v>
       </c>
@@ -14092,7 +14100,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>1986</v>
       </c>
@@ -14106,7 +14114,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>1989</v>
       </c>
@@ -14120,7 +14128,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>1991</v>
       </c>
@@ -14134,7 +14142,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>1993</v>
       </c>
@@ -14148,7 +14156,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>1995</v>
       </c>
@@ -14162,7 +14170,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>1997</v>
       </c>
@@ -14176,7 +14184,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>1999</v>
       </c>
@@ -14190,7 +14198,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>2001</v>
       </c>
@@ -14204,7 +14212,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>2003</v>
       </c>
@@ -14218,7 +14226,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>2006</v>
       </c>
@@ -14232,7 +14240,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>2008</v>
       </c>
@@ -14246,7 +14254,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>2010</v>
       </c>
@@ -14260,7 +14268,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>2012</v>
       </c>
@@ -14274,7 +14282,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>2014</v>
       </c>
@@ -14288,7 +14296,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>2016</v>
       </c>
@@ -14302,7 +14310,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>2019</v>
       </c>
@@ -14316,7 +14324,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>2022</v>
       </c>
@@ -14330,7 +14338,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>2024</v>
       </c>
@@ -14344,7 +14352,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>2026</v>
       </c>
@@ -14358,7 +14366,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>2028</v>
       </c>
@@ -14372,7 +14380,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>2029</v>
       </c>
@@ -14386,7 +14394,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>2031</v>
       </c>
@@ -14400,7 +14408,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>2033</v>
       </c>
@@ -14414,7 +14422,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>2035</v>
       </c>
@@ -14428,7 +14436,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>2038</v>
       </c>
@@ -14442,7 +14450,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>2040</v>
       </c>
@@ -14456,7 +14464,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>2043</v>
       </c>
@@ -14470,7 +14478,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>2046</v>
       </c>
@@ -14484,7 +14492,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>2049</v>
       </c>
@@ -14498,7 +14506,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>2052</v>
       </c>
@@ -14512,7 +14520,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>2054</v>
       </c>
@@ -14526,7 +14534,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>2056</v>
       </c>
@@ -14540,7 +14548,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>2059</v>
       </c>
@@ -14554,7 +14562,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>2062</v>
       </c>
@@ -14568,7 +14576,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>2065</v>
       </c>
@@ -14582,7 +14590,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>2068</v>
       </c>
@@ -14596,7 +14604,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>2071</v>
       </c>
@@ -14610,7 +14618,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>2074</v>
       </c>
@@ -14624,7 +14632,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>2077</v>
       </c>
@@ -14638,7 +14646,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>2080</v>
       </c>
@@ -14652,7 +14660,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>2083</v>
       </c>
@@ -14666,7 +14674,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>2086</v>
       </c>
@@ -14680,7 +14688,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>2089</v>
       </c>
@@ -14694,7 +14702,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>2091</v>
       </c>
@@ -14708,7 +14716,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>2094</v>
       </c>
@@ -14722,7 +14730,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>2097</v>
       </c>
@@ -14736,7 +14744,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>2100</v>
       </c>
@@ -14750,7 +14758,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>2103</v>
       </c>
@@ -14764,7 +14772,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>2106</v>
       </c>
@@ -14778,7 +14786,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>2108</v>
       </c>
@@ -14792,7 +14800,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>2111</v>
       </c>
@@ -14806,7 +14814,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>2113</v>
       </c>
@@ -14820,7 +14828,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>2116</v>
       </c>
@@ -14834,7 +14842,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>2118</v>
       </c>
@@ -14848,7 +14856,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>2121</v>
       </c>
@@ -14862,7 +14870,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>2123</v>
       </c>
@@ -14876,7 +14884,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>2126</v>
       </c>
@@ -14890,7 +14898,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>2129</v>
       </c>
@@ -14904,7 +14912,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>2132</v>
       </c>
@@ -14918,7 +14926,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>2134</v>
       </c>
@@ -14932,7 +14940,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>2136</v>
       </c>
@@ -14946,7 +14954,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>2138</v>
       </c>
@@ -14960,7 +14968,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>2140</v>
       </c>
@@ -14974,7 +14982,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>2142</v>
       </c>
@@ -14988,7 +14996,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>2144</v>
       </c>
@@ -15002,7 +15010,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>2147</v>
       </c>
@@ -15016,7 +15024,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>2150</v>
       </c>
@@ -15030,7 +15038,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>2152</v>
       </c>
@@ -15044,7 +15052,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>2154</v>
       </c>
@@ -15058,7 +15066,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>2157</v>
       </c>
@@ -15072,7 +15080,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>2159</v>
       </c>
@@ -15086,7 +15094,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>2160</v>
       </c>
@@ -15100,7 +15108,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>2162</v>
       </c>
@@ -15114,7 +15122,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>2164</v>
       </c>
@@ -15128,7 +15136,7 @@
         <v>43209</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>2167</v>
       </c>
@@ -15142,7 +15150,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>2169</v>
       </c>
@@ -15156,7 +15164,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>2255</v>
       </c>
@@ -15170,7 +15178,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>2286</v>
       </c>
@@ -15206,7 +15214,7 @@
       <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -15226,7 +15234,7 @@
     <col min="16" max="16" width="49.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2266</v>
       </c>
@@ -15248,7 +15256,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -15262,7 +15270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>274</v>
       </c>
@@ -15297,7 +15305,7 @@
       <c r="O3" s="20"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>275</v>
       </c>
@@ -15332,7 +15340,7 @@
       <c r="O4" s="20"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>276</v>
       </c>
@@ -15369,7 +15377,7 @@
       </c>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>277</v>
       </c>
@@ -15406,7 +15414,7 @@
       </c>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>278</v>
       </c>
@@ -15423,7 +15431,7 @@
       <c r="O7" s="20"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>279</v>
       </c>
@@ -15449,7 +15457,7 @@
       <c r="O8" s="20"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>280</v>
       </c>
@@ -15466,7 +15474,7 @@
       <c r="O9" s="20"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="100" customFormat="1">
       <c r="A10" s="99" t="s">
         <v>258</v>
       </c>
@@ -15486,7 +15494,7 @@
       </c>
       <c r="O10" s="71"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>281</v>
       </c>
@@ -15503,7 +15511,7 @@
       <c r="O11" s="20"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>282</v>
       </c>
@@ -15522,7 +15530,7 @@
       <c r="O12" s="20"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>283</v>
       </c>
@@ -15539,7 +15547,7 @@
       <c r="O13" s="20"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>284</v>
       </c>
@@ -15556,7 +15564,7 @@
       <c r="O14" s="20"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>285</v>
       </c>
@@ -15573,7 +15581,7 @@
       <c r="O15" s="20"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>287</v>
       </c>
@@ -15590,7 +15598,7 @@
       <c r="O16" s="20"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>288</v>
       </c>
@@ -15607,7 +15615,7 @@
       <c r="O17" s="20"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>289</v>
       </c>
@@ -15624,7 +15632,7 @@
       <c r="O18" s="20"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>290</v>
       </c>
@@ -15641,7 +15649,7 @@
       <c r="O19" s="20"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>291</v>
       </c>
@@ -15658,7 +15666,7 @@
       <c r="O20" s="20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>292</v>
       </c>
@@ -15675,7 +15683,7 @@
       <c r="O21" s="20"/>
       <c r="P21"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
         <v>293</v>
       </c>
@@ -15692,7 +15700,7 @@
       <c r="O22" s="20"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
@@ -15709,7 +15717,7 @@
       <c r="O23" s="20"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>295</v>
       </c>
@@ -15726,7 +15734,7 @@
       <c r="O24" s="20"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>296</v>
       </c>
@@ -15743,7 +15751,7 @@
       <c r="O25" s="20"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>297</v>
       </c>
@@ -15760,7 +15768,7 @@
       <c r="O26" s="20"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>298</v>
       </c>
@@ -15777,7 +15785,7 @@
       <c r="O27" s="20"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>299</v>
       </c>
@@ -15794,7 +15802,7 @@
       <c r="O28" s="20"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>300</v>
       </c>
@@ -15811,7 +15819,7 @@
       <c r="O29" s="20"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>301</v>
       </c>
@@ -15828,7 +15836,7 @@
       <c r="O30" s="20"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>302</v>
       </c>
@@ -15845,7 +15853,7 @@
       <c r="O31" s="20"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>303</v>
       </c>
@@ -15862,7 +15870,7 @@
       <c r="O32" s="20"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>304</v>
       </c>
@@ -15879,7 +15887,7 @@
       <c r="O33" s="20"/>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
         <v>305</v>
       </c>
@@ -15896,7 +15904,7 @@
       <c r="O34" s="20"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>306</v>
       </c>
@@ -15913,7 +15921,7 @@
       <c r="O35" s="20"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>307</v>
       </c>
@@ -15930,7 +15938,7 @@
       <c r="O36" s="20"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>308</v>
       </c>
@@ -15947,7 +15955,7 @@
       <c r="O37" s="20"/>
       <c r="P37"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>309</v>
       </c>
@@ -15964,7 +15972,7 @@
       <c r="O38" s="20"/>
       <c r="P38"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>310</v>
       </c>
@@ -15981,7 +15989,7 @@
       <c r="O39" s="20"/>
       <c r="P39"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>311</v>
       </c>
@@ -15998,7 +16006,7 @@
       <c r="O40" s="20"/>
       <c r="P40"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>312</v>
       </c>
@@ -16015,7 +16023,7 @@
       <c r="O41" s="20"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>313</v>
       </c>
@@ -16032,7 +16040,7 @@
       <c r="O42" s="20"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>314</v>
       </c>
@@ -16049,7 +16057,7 @@
       <c r="O43" s="20"/>
       <c r="P43"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>315</v>
       </c>
@@ -16066,7 +16074,7 @@
       <c r="O44" s="20"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>316</v>
       </c>
@@ -16083,7 +16091,7 @@
       <c r="O45" s="20"/>
       <c r="P45"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>317</v>
       </c>
@@ -16100,7 +16108,7 @@
       <c r="O46" s="20"/>
       <c r="P46"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>318</v>
       </c>
@@ -16117,7 +16125,7 @@
       <c r="O47" s="20"/>
       <c r="P47"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>319</v>
       </c>
@@ -16134,7 +16142,7 @@
       <c r="O48" s="20"/>
       <c r="P48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>320</v>
       </c>
@@ -16151,7 +16159,7 @@
       <c r="O49" s="20"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>321</v>
       </c>
@@ -16168,7 +16176,7 @@
       <c r="O50" s="20"/>
       <c r="P50"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>322</v>
       </c>
@@ -16185,7 +16193,7 @@
       <c r="O51" s="20"/>
       <c r="P51"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>323</v>
       </c>
@@ -16202,7 +16210,7 @@
       <c r="O52" s="20"/>
       <c r="P52"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>324</v>
       </c>
@@ -16219,7 +16227,7 @@
       <c r="O53" s="20"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>325</v>
       </c>
@@ -16236,7 +16244,7 @@
       <c r="O54" s="20"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>326</v>
       </c>
@@ -16253,7 +16261,7 @@
       <c r="O55" s="20"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
         <v>327</v>
       </c>
@@ -16272,7 +16280,7 @@
       <c r="O56" s="20"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>328</v>
       </c>
@@ -16289,7 +16297,7 @@
       <c r="O57" s="20"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>329</v>
       </c>
@@ -16306,7 +16314,7 @@
       <c r="O58" s="20"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="2" t="s">
         <v>331</v>
       </c>
@@ -16325,7 +16333,7 @@
       <c r="O59" s="20"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
         <v>332</v>
       </c>
@@ -16342,7 +16350,7 @@
       <c r="O60" s="20"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" s="23" customFormat="1">
       <c r="A61" s="45" t="s">
         <v>333</v>
       </c>
@@ -16358,7 +16366,7 @@
       <c r="G61" s="57"/>
       <c r="O61" s="25"/>
     </row>
-    <row r="62" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" s="100" customFormat="1">
       <c r="A62" s="99" t="s">
         <v>257</v>
       </c>
@@ -16378,7 +16386,7 @@
       <c r="H62" s="71"/>
       <c r="O62" s="71"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
         <v>334</v>
       </c>
@@ -16395,7 +16403,7 @@
       <c r="O63" s="20"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
         <v>335</v>
       </c>
@@ -16412,7 +16420,7 @@
       <c r="O64" s="20"/>
       <c r="P64"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>336</v>
       </c>
@@ -16429,7 +16437,7 @@
       <c r="O65" s="20"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>337</v>
       </c>
@@ -16446,7 +16454,7 @@
       <c r="O66" s="20"/>
       <c r="P66"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>338</v>
       </c>
@@ -16463,7 +16471,7 @@
       <c r="O67" s="20"/>
       <c r="P67"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>339</v>
       </c>
@@ -16480,7 +16488,7 @@
       <c r="O68" s="20"/>
       <c r="P68"/>
     </row>
-    <row r="69" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" s="100" customFormat="1">
       <c r="A69" s="99" t="s">
         <v>340</v>
       </c>
@@ -16505,7 +16513,7 @@
       <c r="H69" s="101"/>
       <c r="O69" s="71"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>341</v>
       </c>
@@ -16524,7 +16532,7 @@
       <c r="O70" s="20"/>
       <c r="P70"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
         <v>342</v>
       </c>
@@ -16541,7 +16549,7 @@
       <c r="O71" s="20"/>
       <c r="P71"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
         <v>343</v>
       </c>
@@ -16564,7 +16572,7 @@
       <c r="O72" s="20"/>
       <c r="P72"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
         <v>345</v>
       </c>
@@ -16583,7 +16591,7 @@
       <c r="O73" s="20"/>
       <c r="P73"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -16602,7 +16610,7 @@
       <c r="O74" s="20"/>
       <c r="P74"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
         <v>347</v>
       </c>
@@ -16622,7 +16630,7 @@
       <c r="O75" s="20"/>
       <c r="P75"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
         <v>348</v>
       </c>
@@ -16641,7 +16649,7 @@
       <c r="O76" s="20"/>
       <c r="P76"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
         <v>349</v>
       </c>
@@ -16660,7 +16668,7 @@
       <c r="O77" s="20"/>
       <c r="P77"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
         <v>350</v>
       </c>
@@ -16679,7 +16687,7 @@
       <c r="O78" s="20"/>
       <c r="P78"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>351</v>
       </c>
@@ -16698,7 +16706,7 @@
       <c r="O79" s="20"/>
       <c r="P79"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
         <v>352</v>
       </c>
@@ -16717,7 +16725,7 @@
       <c r="O80" s="20"/>
       <c r="P80"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
         <v>353</v>
       </c>
@@ -16736,7 +16744,7 @@
       <c r="O81" s="20"/>
       <c r="P81"/>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" hidden="1">
       <c r="A82" s="2" t="s">
         <v>354</v>
       </c>
@@ -16755,7 +16763,7 @@
       <c r="O82" s="20"/>
       <c r="P82"/>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" hidden="1">
       <c r="A83" s="2" t="s">
         <v>355</v>
       </c>
@@ -16774,7 +16782,7 @@
       <c r="O83" s="20"/>
       <c r="P83"/>
     </row>
-    <row r="84" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" s="100" customFormat="1">
       <c r="A84" s="99" t="s">
         <v>356</v>
       </c>
@@ -16796,7 +16804,7 @@
       </c>
       <c r="O84" s="71"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
         <v>357</v>
       </c>
@@ -16815,7 +16823,7 @@
       <c r="O85" s="20"/>
       <c r="P85"/>
     </row>
-    <row r="86" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="100" customFormat="1">
       <c r="A86" s="99" t="s">
         <v>358</v>
       </c>
@@ -16837,7 +16845,7 @@
       </c>
       <c r="O86" s="71"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87" s="2" t="s">
         <v>359</v>
       </c>
@@ -16855,7 +16863,7 @@
       <c r="O87" s="20"/>
       <c r="P87"/>
     </row>
-    <row r="88" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" s="100" customFormat="1">
       <c r="A88" s="99" t="s">
         <v>360</v>
       </c>
@@ -16877,7 +16885,7 @@
       </c>
       <c r="O88" s="71"/>
     </row>
-    <row r="89" spans="1:16" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" s="13" customFormat="1" hidden="1">
       <c r="A89" s="32" t="s">
         <v>344</v>
       </c>
@@ -16901,7 +16909,7 @@
       <c r="N89"/>
       <c r="O89" s="19"/>
     </row>
-    <row r="90" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" s="13" customFormat="1">
       <c r="A90" s="32" t="s">
         <v>361</v>
       </c>
@@ -16927,7 +16935,7 @@
       <c r="N90"/>
       <c r="O90" s="19"/>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" hidden="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -16938,7 +16946,7 @@
       <c r="O91" s="20"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="1:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" s="23" customFormat="1" hidden="1">
       <c r="A92" s="45" t="s">
         <v>286</v>
       </c>
@@ -16956,7 +16964,7 @@
       <c r="G92" s="72"/>
       <c r="O92" s="25"/>
     </row>
-    <row r="93" spans="1:16" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" s="23" customFormat="1" hidden="1">
       <c r="A93" s="45" t="s">
         <v>330</v>
       </c>
@@ -16974,7 +16982,7 @@
       <c r="G93" s="72"/>
       <c r="O93" s="25"/>
     </row>
-    <row r="94" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" s="24" customFormat="1">
       <c r="A94" s="45" t="s">
         <v>2221</v>
       </c>
@@ -16994,7 +17002,7 @@
       </c>
       <c r="O94" s="25"/>
     </row>
-    <row r="95" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" s="24" customFormat="1">
       <c r="A95" s="46" t="s">
         <v>2220</v>
       </c>
@@ -17012,7 +17020,7 @@
       <c r="G95" s="25"/>
       <c r="O95" s="25"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96" s="111" t="s">
         <v>2234</v>
       </c>
@@ -17033,7 +17041,7 @@
       <c r="O96" s="20"/>
       <c r="P96"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97" s="2" t="s">
         <v>2243</v>
       </c>
@@ -17056,7 +17064,7 @@
       <c r="O97" s="20"/>
       <c r="P97"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -17067,7 +17075,7 @@
       <c r="O98" s="20"/>
       <c r="P98"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -17078,7 +17086,7 @@
       <c r="O99" s="20"/>
       <c r="P99"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -17089,7 +17097,7 @@
       <c r="O100" s="20"/>
       <c r="P100"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -17100,7 +17108,7 @@
       <c r="O101" s="20"/>
       <c r="P101"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -17111,7 +17119,7 @@
       <c r="O102" s="20"/>
       <c r="P102"/>
     </row>
-    <row r="103" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="24" customFormat="1">
       <c r="A103" s="125" t="s">
         <v>2437</v>
       </c>
@@ -17124,7 +17132,7 @@
       <c r="H103" s="25"/>
       <c r="P103" s="25"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104" s="44" t="s">
         <v>2292</v>
       </c>
@@ -17148,7 +17156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="44" t="s">
         <v>2293</v>
       </c>
@@ -17173,7 +17181,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106" s="44" t="s">
         <v>2294</v>
       </c>
@@ -17197,16 +17205,16 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="H107" s="24"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="H109" s="24"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="H110" s="24"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="H111" s="24"/>
     </row>
   </sheetData>
@@ -17235,7 +17243,7 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="27" customWidth="1"/>
@@ -17250,7 +17258,7 @@
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="49" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="49" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2265</v>
       </c>
@@ -17262,7 +17270,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10">
@@ -17275,7 +17283,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="35" t="s">
         <v>242</v>
       </c>
@@ -17294,7 +17302,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="35" t="s">
         <v>243</v>
       </c>
@@ -17312,7 +17320,7 @@
       </c>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="35" t="s">
         <v>244</v>
       </c>
@@ -17328,7 +17336,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="35" t="s">
         <v>245</v>
       </c>
@@ -17349,7 +17357,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="35" t="s">
         <v>246</v>
       </c>
@@ -17365,7 +17373,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="69"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="35" t="s">
         <v>247</v>
       </c>
@@ -17381,7 +17389,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="35" t="s">
         <v>248</v>
       </c>
@@ -17398,7 +17406,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="35" t="s">
         <v>249</v>
       </c>
@@ -17416,7 +17424,7 @@
       </c>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="35" t="s">
         <v>250</v>
       </c>
@@ -17432,7 +17440,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="69"/>
     </row>
-    <row r="12" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="106" customFormat="1">
       <c r="A12" s="102" t="s">
         <v>239</v>
       </c>
@@ -17456,7 +17464,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="106" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="106" customFormat="1">
       <c r="A13" s="107" t="s">
         <v>251</v>
       </c>
@@ -17480,7 +17488,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="35" t="s">
         <v>252</v>
       </c>
@@ -17499,7 +17507,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="35" t="s">
         <v>253</v>
       </c>
@@ -17515,7 +17523,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="69"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="47" t="s">
         <v>254</v>
       </c>
@@ -17531,7 +17539,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="106" customFormat="1">
       <c r="A17" s="107" t="s">
         <v>255</v>
       </c>
@@ -17557,7 +17565,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="106" customFormat="1">
       <c r="A18" s="107" t="s">
         <v>256</v>
       </c>
@@ -17583,7 +17591,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="106" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="106" customFormat="1">
       <c r="A19" s="107" t="s">
         <v>2341</v>
       </c>
@@ -17611,7 +17619,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="95"/>
       <c r="B20" s="96"/>
       <c r="C20" s="70"/>
@@ -17621,7 +17629,7 @@
       <c r="G20" s="70"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="95"/>
       <c r="B21" s="96"/>
       <c r="C21" s="70"/>
@@ -17631,7 +17639,7 @@
       <c r="G21" s="70"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="95"/>
       <c r="B22" s="96"/>
       <c r="C22" s="70"/>
@@ -17641,7 +17649,7 @@
       <c r="G22" s="70"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="95"/>
       <c r="B23" s="96"/>
       <c r="C23" s="70"/>
@@ -17651,14 +17659,14 @@
       <c r="G23" s="70"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="39" customHeight="1">
       <c r="A25" s="126" t="s">
         <v>2439</v>
       </c>
@@ -17670,7 +17678,7 @@
       <c r="G25" s="128"/>
       <c r="H25" s="69"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="67" t="s">
         <v>2344</v>
       </c>
@@ -17693,7 +17701,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="67" t="s">
         <v>2343</v>
       </c>
@@ -17716,7 +17724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="67" t="s">
         <v>2342</v>
       </c>
@@ -17739,7 +17747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="67" t="s">
         <v>2340</v>
       </c>
@@ -17762,7 +17770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="67" t="s">
         <v>2339</v>
       </c>
@@ -17807,7 +17815,7 @@
       <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -17816,7 +17824,7 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>2387</v>
       </c>
@@ -17828,13 +17836,13 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="C2" s="10">
         <f>COUNTA(C3:C202)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1471</v>
       </c>
@@ -17845,7 +17853,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1474</v>
       </c>
@@ -17856,7 +17864,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1477</v>
       </c>
@@ -17867,7 +17875,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1480</v>
       </c>
@@ -17878,7 +17886,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1483</v>
       </c>
@@ -17889,7 +17897,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1486</v>
       </c>
@@ -17900,7 +17908,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1488</v>
       </c>
@@ -17911,7 +17919,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>1491</v>
       </c>
@@ -17922,7 +17930,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>1494</v>
       </c>
@@ -17933,7 +17941,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1497</v>
       </c>
@@ -17944,7 +17952,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1500</v>
       </c>
@@ -17955,7 +17963,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1503</v>
       </c>
@@ -17966,7 +17974,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1506</v>
       </c>
@@ -17977,7 +17985,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>1508</v>
       </c>
@@ -17988,7 +17996,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1511</v>
       </c>
@@ -17999,7 +18007,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1514</v>
       </c>
@@ -18010,7 +18018,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1516</v>
       </c>
@@ -18021,7 +18029,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1519</v>
       </c>
@@ -18032,7 +18040,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1521</v>
       </c>
@@ -18043,7 +18051,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1524</v>
       </c>
@@ -18054,7 +18062,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1527</v>
       </c>
@@ -18065,7 +18073,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1530</v>
       </c>
@@ -18076,7 +18084,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1533</v>
       </c>
@@ -18087,7 +18095,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1536</v>
       </c>
@@ -18098,7 +18106,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1539</v>
       </c>
@@ -18109,7 +18117,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1542</v>
       </c>
@@ -18120,7 +18128,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1545</v>
       </c>
@@ -18131,7 +18139,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1548</v>
       </c>
@@ -18142,7 +18150,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1551</v>
       </c>
@@ -18153,7 +18161,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1554</v>
       </c>
@@ -18164,7 +18172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1556</v>
       </c>
@@ -18175,7 +18183,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1559</v>
       </c>
@@ -18186,7 +18194,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1562</v>
       </c>
@@ -18197,7 +18205,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1565</v>
       </c>
@@ -18208,7 +18216,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1568</v>
       </c>
@@ -18219,7 +18227,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1571</v>
       </c>
@@ -18230,7 +18238,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1574</v>
       </c>
@@ -18241,7 +18249,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1577</v>
       </c>
@@ -18252,7 +18260,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1580</v>
       </c>
@@ -18263,7 +18271,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1582</v>
       </c>
@@ -18274,7 +18282,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>1585</v>
       </c>
@@ -18285,7 +18293,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1588</v>
       </c>
@@ -18296,7 +18304,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1591</v>
       </c>
@@ -18307,7 +18315,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>1594</v>
       </c>
@@ -18318,7 +18326,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>1597</v>
       </c>
@@ -18329,7 +18337,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>1599</v>
       </c>
@@ -18340,7 +18348,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>1602</v>
       </c>
@@ -18351,7 +18359,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>1605</v>
       </c>
@@ -18362,7 +18370,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>1608</v>
       </c>
@@ -18373,7 +18381,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>1611</v>
       </c>
@@ -18384,7 +18392,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>1614</v>
       </c>
@@ -18395,7 +18403,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>1617</v>
       </c>
@@ -18406,7 +18414,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>1620</v>
       </c>
@@ -18417,7 +18425,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>1623</v>
       </c>
@@ -18428,7 +18436,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>1626</v>
       </c>
@@ -18439,7 +18447,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="12" t="s">
         <v>1629</v>
       </c>
@@ -18453,7 +18461,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>1632</v>
       </c>
@@ -18464,7 +18472,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>1635</v>
       </c>
@@ -18475,7 +18483,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>1638</v>
       </c>
@@ -18486,7 +18494,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>1641</v>
       </c>
@@ -18497,7 +18505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>1643</v>
       </c>
@@ -18508,7 +18516,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>1646</v>
       </c>
@@ -18519,7 +18527,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1649</v>
       </c>
@@ -18530,7 +18538,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>1652</v>
       </c>
@@ -18541,7 +18549,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>1655</v>
       </c>
@@ -18552,7 +18560,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>1658</v>
       </c>
@@ -18563,7 +18571,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>1660</v>
       </c>
@@ -18574,7 +18582,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>1663</v>
       </c>
@@ -18585,7 +18593,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>1666</v>
       </c>
@@ -18596,7 +18604,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>1669</v>
       </c>
@@ -18607,7 +18615,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>1672</v>
       </c>
@@ -18618,7 +18626,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>1675</v>
       </c>
@@ -18629,7 +18637,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>1678</v>
       </c>
@@ -18640,7 +18648,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>1681</v>
       </c>
@@ -18651,7 +18659,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>1684</v>
       </c>
@@ -18662,7 +18670,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>1687</v>
       </c>
@@ -18673,7 +18681,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>1690</v>
       </c>
@@ -18684,7 +18692,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>1693</v>
       </c>
@@ -18695,7 +18703,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>1696</v>
       </c>
@@ -18706,7 +18714,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>1699</v>
       </c>
@@ -18717,7 +18725,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>1702</v>
       </c>
@@ -18728,7 +18736,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>1705</v>
       </c>
@@ -18739,7 +18747,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>1708</v>
       </c>
@@ -18750,7 +18758,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>1711</v>
       </c>
@@ -18761,7 +18769,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>1714</v>
       </c>
@@ -18772,7 +18780,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>1717</v>
       </c>
@@ -18783,7 +18791,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>1720</v>
       </c>
@@ -18794,7 +18802,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>1723</v>
       </c>
@@ -18808,7 +18816,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>1727</v>
       </c>
@@ -18819,7 +18827,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>1730</v>
       </c>
@@ -18830,7 +18838,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>1733</v>
       </c>
@@ -18841,7 +18849,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>1736</v>
       </c>
@@ -18852,7 +18860,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>1739</v>
       </c>
@@ -18863,7 +18871,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>1742</v>
       </c>
@@ -18874,7 +18882,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>1745</v>
       </c>
@@ -18885,7 +18893,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>1747</v>
       </c>
@@ -18896,7 +18904,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>1750</v>
       </c>
@@ -18907,7 +18915,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>1753</v>
       </c>
@@ -18918,7 +18926,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>1755</v>
       </c>
@@ -18929,7 +18937,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>1758</v>
       </c>
@@ -18940,7 +18948,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>1761</v>
       </c>
@@ -18951,7 +18959,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>1764</v>
       </c>
@@ -18962,7 +18970,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>1767</v>
       </c>
@@ -18973,7 +18981,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>1770</v>
       </c>
@@ -18984,7 +18992,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>1773</v>
       </c>
@@ -18995,7 +19003,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>1776</v>
       </c>
@@ -19006,7 +19014,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>1779</v>
       </c>
@@ -19017,7 +19025,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>1782</v>
       </c>
@@ -19028,7 +19036,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>1785</v>
       </c>
@@ -19039,7 +19047,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>1788</v>
       </c>
@@ -19050,7 +19058,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>1791</v>
       </c>
@@ -19061,7 +19069,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>1794</v>
       </c>
@@ -19072,7 +19080,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>1797</v>
       </c>
@@ -19083,7 +19091,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>1800</v>
       </c>
@@ -19094,7 +19102,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" s="12" customFormat="1">
       <c r="A117" s="12" t="s">
         <v>1803</v>
       </c>
@@ -19108,7 +19116,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>1806</v>
       </c>
@@ -19119,7 +19127,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>1809</v>
       </c>
@@ -19130,7 +19138,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>1812</v>
       </c>
@@ -19141,7 +19149,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>1815</v>
       </c>
@@ -19152,7 +19160,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>1817</v>
       </c>
@@ -19163,7 +19171,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>1820</v>
       </c>
@@ -19174,7 +19182,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>1823</v>
       </c>
@@ -19185,7 +19193,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>1825</v>
       </c>
@@ -19196,7 +19204,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>1828</v>
       </c>
@@ -19207,7 +19215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>1830</v>
       </c>
@@ -19218,7 +19226,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>1832</v>
       </c>
@@ -19229,7 +19237,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>1834</v>
       </c>
@@ -19240,7 +19248,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>1837</v>
       </c>
@@ -19251,7 +19259,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>1840</v>
       </c>
@@ -19262,7 +19270,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>1843</v>
       </c>
@@ -19273,7 +19281,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>1846</v>
       </c>
@@ -19284,7 +19292,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>1849</v>
       </c>
@@ -19295,7 +19303,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>1852</v>
       </c>
@@ -19306,7 +19314,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="12" t="s">
         <v>1855</v>
       </c>
@@ -19320,8 +19328,8 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" s="19" customFormat="1"/>
+    <row r="138" spans="1:5" s="19" customFormat="1">
       <c r="A138" s="19" t="s">
         <v>2424</v>
       </c>
@@ -19335,7 +19343,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" s="19" customFormat="1">
       <c r="A139" s="19" t="s">
         <v>2315</v>
       </c>
@@ -19349,7 +19357,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="140" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
         <v>2314</v>
       </c>
@@ -19363,7 +19371,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" s="19" customFormat="1">
       <c r="A141" s="19" t="s">
         <v>2264</v>
       </c>
@@ -19377,7 +19385,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:5" s="19" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19394,7 +19402,7 @@
       <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -19408,7 +19416,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>1859</v>
       </c>
@@ -19424,7 +19432,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>46</v>
@@ -19434,7 +19442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -19454,7 +19462,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>599</v>
       </c>
@@ -19474,7 +19482,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>601</v>
       </c>
@@ -19494,7 +19502,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>603</v>
       </c>
@@ -19514,7 +19522,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>605</v>
       </c>
@@ -19534,7 +19542,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>619</v>
       </c>
@@ -19554,7 +19562,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>621</v>
       </c>
@@ -19574,7 +19582,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>629</v>
       </c>
@@ -19594,7 +19602,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>631</v>
       </c>
@@ -19614,7 +19622,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>637</v>
       </c>
@@ -19634,7 +19642,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>639</v>
       </c>
@@ -19654,7 +19662,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>648</v>
       </c>
@@ -19674,7 +19682,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>650</v>
       </c>
@@ -19694,7 +19702,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>652</v>
       </c>
@@ -19714,7 +19722,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>654</v>
       </c>
@@ -19734,7 +19742,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>656</v>
       </c>
@@ -19754,7 +19762,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>662</v>
       </c>
@@ -19774,7 +19782,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>666</v>
       </c>
@@ -19794,7 +19802,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>668</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>670</v>
       </c>
@@ -19834,7 +19842,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>674</v>
       </c>
@@ -19854,7 +19862,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>676</v>
       </c>
@@ -19874,7 +19882,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>694</v>
       </c>
@@ -19894,7 +19902,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>696</v>
       </c>
@@ -19914,7 +19922,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>698</v>
       </c>
@@ -19934,7 +19942,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>700</v>
       </c>
@@ -19954,7 +19962,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -19974,7 +19982,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>712</v>
       </c>
@@ -19994,7 +20002,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>716</v>
       </c>
@@ -20014,7 +20022,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>724</v>
       </c>
@@ -20034,7 +20042,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>726</v>
       </c>
@@ -20054,7 +20062,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>730</v>
       </c>
@@ -20074,7 +20082,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>734</v>
       </c>
@@ -20094,7 +20102,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>738</v>
       </c>
@@ -20114,7 +20122,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>748</v>
       </c>
@@ -20137,7 +20145,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>750</v>
       </c>
@@ -20157,7 +20165,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>754</v>
       </c>
@@ -20177,7 +20185,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>756</v>
       </c>
@@ -20197,7 +20205,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>758</v>
       </c>
@@ -20217,7 +20225,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>768</v>
       </c>
@@ -20237,7 +20245,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>770</v>
       </c>
@@ -20257,7 +20265,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>774</v>
       </c>
@@ -20277,7 +20285,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>776</v>
       </c>
@@ -20297,7 +20305,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>780</v>
       </c>
@@ -20317,7 +20325,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>782</v>
       </c>
@@ -20337,7 +20345,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>784</v>
       </c>
@@ -20360,7 +20368,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>2241</v>
       </c>
@@ -20383,7 +20391,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="G50" t="s">
         <v>762</v>
       </c>
@@ -20394,7 +20402,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="G51" t="s">
         <v>764</v>
       </c>
@@ -20408,7 +20416,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="G52" t="s">
         <v>766</v>
       </c>
@@ -20419,7 +20427,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="G53" t="s">
         <v>772</v>
       </c>
@@ -20430,7 +20438,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="G54" t="s">
         <v>778</v>
       </c>
@@ -20441,7 +20449,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="G55" t="s">
         <v>2239</v>
       </c>
@@ -20455,7 +20463,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>2237</v>
       </c>
@@ -20487,7 +20495,7 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -20502,7 +20510,7 @@
     <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>1468</v>
       </c>
@@ -20525,7 +20533,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>31</v>
@@ -20539,7 +20547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1308</v>
       </c>
@@ -20568,7 +20576,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1310</v>
       </c>
@@ -20597,7 +20605,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1312</v>
       </c>
@@ -20626,7 +20634,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>1316</v>
       </c>
@@ -20655,7 +20663,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>1321</v>
       </c>
@@ -20684,7 +20692,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>1324</v>
       </c>
@@ -20713,7 +20721,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1327</v>
       </c>
@@ -20742,7 +20750,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>1330</v>
       </c>
@@ -20771,7 +20779,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>1333</v>
       </c>
@@ -20800,7 +20808,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>1335</v>
       </c>
@@ -20829,7 +20837,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>1338</v>
       </c>
@@ -20858,7 +20866,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>1341</v>
       </c>
@@ -20887,7 +20895,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>1344</v>
       </c>
@@ -20916,7 +20924,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>1345</v>
       </c>
@@ -20945,7 +20953,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1346</v>
       </c>
@@ -20974,7 +20982,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>1405</v>
       </c>
@@ -21003,7 +21011,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>1408</v>
       </c>
@@ -21032,7 +21040,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>1410</v>
       </c>
@@ -21064,7 +21072,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>1412</v>
       </c>
@@ -21075,7 +21083,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>1415</v>
       </c>
@@ -21086,7 +21094,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>1418</v>
       </c>
@@ -21097,7 +21105,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>1421</v>
       </c>
@@ -21108,7 +21116,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>1424</v>
       </c>
@@ -21119,7 +21127,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>1433</v>
       </c>
@@ -21130,7 +21138,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>1436</v>
       </c>
@@ -21141,7 +21149,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>1439</v>
       </c>
@@ -21152,7 +21160,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>1450</v>
       </c>
@@ -21163,7 +21171,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>1453</v>
       </c>
@@ -21174,7 +21182,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>1456</v>
       </c>
@@ -21185,7 +21193,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>1459</v>
       </c>
@@ -21196,7 +21204,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1465</v>
       </c>
@@ -21218,21 +21226,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2388</v>
       </c>
@@ -21244,13 +21252,13 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C203)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>786</v>
       </c>
@@ -21261,7 +21269,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>788</v>
       </c>
@@ -21272,7 +21280,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>791</v>
       </c>
@@ -21283,7 +21291,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>794</v>
       </c>
@@ -21297,7 +21305,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>797</v>
       </c>
@@ -21308,7 +21316,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>800</v>
       </c>
@@ -21319,7 +21327,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>803</v>
       </c>
@@ -21330,7 +21338,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>805</v>
       </c>
@@ -21341,7 +21349,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>807</v>
       </c>
@@ -21352,7 +21360,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>810</v>
       </c>
@@ -21363,7 +21371,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>812</v>
       </c>
@@ -21374,7 +21382,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>815</v>
       </c>
@@ -21388,7 +21396,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>818</v>
       </c>
@@ -21399,7 +21407,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>821</v>
       </c>
@@ -21410,7 +21418,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>824</v>
       </c>
@@ -21421,7 +21429,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>826</v>
       </c>
@@ -21432,7 +21440,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>829</v>
       </c>
@@ -21443,7 +21451,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>832</v>
       </c>
@@ -21454,7 +21462,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>835</v>
       </c>
@@ -21465,7 +21473,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>838</v>
       </c>
@@ -21476,7 +21484,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>841</v>
       </c>
@@ -21487,7 +21495,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>844</v>
       </c>
@@ -21498,18 +21506,21 @@
         <v>846</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" t="s">
         <v>847</v>
       </c>
       <c r="B25" t="s">
         <v>848</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>850</v>
       </c>
@@ -21520,7 +21531,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>853</v>
       </c>
@@ -21531,7 +21542,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>856</v>
       </c>
@@ -21542,7 +21553,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>859</v>
       </c>
@@ -21553,7 +21564,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>862</v>
       </c>
@@ -21564,7 +21575,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>865</v>
       </c>
@@ -21575,7 +21586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>867</v>
       </c>
@@ -21586,7 +21597,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>870</v>
       </c>
@@ -21600,7 +21611,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>873</v>
       </c>
@@ -21611,7 +21622,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>876</v>
       </c>
@@ -21622,7 +21633,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>879</v>
       </c>
@@ -21633,7 +21644,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>882</v>
       </c>
@@ -21644,7 +21655,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>885</v>
       </c>
@@ -21655,7 +21666,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>888</v>
       </c>
@@ -21666,7 +21677,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>2260</v>
       </c>
@@ -21676,11 +21687,14 @@
       <c r="C41" t="s">
         <v>1196</v>
       </c>
+      <c r="D41" t="s">
+        <v>2489</v>
+      </c>
       <c r="E41" s="12" t="s">
         <v>2487</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>2259</v>
       </c>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="2495">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8057,6 +8057,22 @@
   </si>
   <si>
     <t>2018-09이후로 탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_1A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)정선레미콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_184에서 사업자 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8400,7 +8416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8770,6 +8786,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10118,7 +10137,7 @@
       <c r="C38" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="E38" s="129" t="s">
+      <c r="E38" s="130" t="s">
         <v>2457</v>
       </c>
       <c r="F38" t="s">
@@ -10135,7 +10154,7 @@
       <c r="C39" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E39" s="130"/>
+      <c r="E39" s="131"/>
       <c r="F39" t="s">
         <v>2328</v>
       </c>
@@ -10150,7 +10169,7 @@
       <c r="C40" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E40" s="130"/>
+      <c r="E40" s="131"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -11996,13 +12015,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12107,10 +12126,10 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="123" t="s">
+      <c r="M3" s="124" t="s">
         <v>2246</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="125" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -12143,8 +12162,8 @@
       <c r="L4" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -12918,10 +12937,9 @@
       <c r="B55" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5">
@@ -13159,6 +13177,24 @@
       <c r="F72" s="61"/>
       <c r="G72" s="121"/>
       <c r="H72" s="121"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E73" s="38"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17120,13 +17156,13 @@
       <c r="P102"/>
     </row>
     <row r="103" spans="1:16" s="24" customFormat="1">
-      <c r="A103" s="125" t="s">
+      <c r="A103" s="126" t="s">
         <v>2437</v>
       </c>
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -17667,15 +17703,15 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="39" customHeight="1">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="127" t="s">
         <v>2439</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
       <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:11">
@@ -21226,7 +21262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -13,24 +13,25 @@
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
-    <sheet name="RJ_001" sheetId="1" r:id="rId2"/>
-    <sheet name="RJ_002" sheetId="2" r:id="rId3"/>
-    <sheet name="RJ_004" sheetId="3" r:id="rId4"/>
-    <sheet name="RJ_019" sheetId="4" r:id="rId5"/>
-    <sheet name="RJ_005" sheetId="5" r:id="rId6"/>
-    <sheet name="RJ_006" sheetId="6" r:id="rId7"/>
-    <sheet name="RJ_007" sheetId="7" r:id="rId8"/>
-    <sheet name="RJ_008" sheetId="8" r:id="rId9"/>
-    <sheet name="RJ_108" sheetId="9" r:id="rId10"/>
-    <sheet name="RJ_013" sheetId="10" r:id="rId11"/>
-    <sheet name="RJ_009" sheetId="11" r:id="rId12"/>
-    <sheet name="RJ_010" sheetId="12" r:id="rId13"/>
-    <sheet name="RJ_011" sheetId="13" r:id="rId14"/>
-    <sheet name="RJ_012" sheetId="14" r:id="rId15"/>
-    <sheet name="RJ_014" sheetId="15" r:id="rId16"/>
-    <sheet name="RJ_015" sheetId="16" r:id="rId17"/>
-    <sheet name="RJ_016" sheetId="17" r:id="rId18"/>
-    <sheet name="RJ_017" sheetId="18" r:id="rId19"/>
+    <sheet name="12월말(년발행)" sheetId="20" r:id="rId2"/>
+    <sheet name="RJ_001" sheetId="1" r:id="rId3"/>
+    <sheet name="RJ_002" sheetId="2" r:id="rId4"/>
+    <sheet name="RJ_004" sheetId="3" r:id="rId5"/>
+    <sheet name="RJ_019" sheetId="4" r:id="rId6"/>
+    <sheet name="RJ_005" sheetId="5" r:id="rId7"/>
+    <sheet name="RJ_006" sheetId="6" r:id="rId8"/>
+    <sheet name="RJ_007" sheetId="7" r:id="rId9"/>
+    <sheet name="RJ_008" sheetId="8" r:id="rId10"/>
+    <sheet name="RJ_108" sheetId="9" r:id="rId11"/>
+    <sheet name="RJ_013" sheetId="10" r:id="rId12"/>
+    <sheet name="RJ_009" sheetId="11" r:id="rId13"/>
+    <sheet name="RJ_010" sheetId="12" r:id="rId14"/>
+    <sheet name="RJ_011" sheetId="13" r:id="rId15"/>
+    <sheet name="RJ_012" sheetId="14" r:id="rId16"/>
+    <sheet name="RJ_014" sheetId="15" r:id="rId17"/>
+    <sheet name="RJ_015" sheetId="16" r:id="rId18"/>
+    <sheet name="RJ_016" sheetId="17" r:id="rId19"/>
+    <sheet name="RJ_017" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="2495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="2516">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -7298,10 +7299,6 @@
   </si>
   <si>
     <t>2018-10부터 사용료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 - 2018-09-11부터 배정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -7441,10 +7438,6 @@
   </si>
   <si>
     <t>개별(대기업)사용</t>
-  </si>
-  <si>
-    <t>경북 레미콘 공업 협동조합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대전세종충남 레미콘 공업 협동조합</t>
@@ -8075,6 +8068,94 @@
     <t>← RM_184에서 사업자 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>신규 발생시 cm_jiyeok_cust 
+해당 지역에 추가 해야함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(12월)1년계약 40만원_선발행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월부터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 - 2018-09-11부터 배정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-10부터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 - 2018-10부터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>년발행 계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJ_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 아스콘 공업협동조합</t>
+  </si>
+  <si>
+    <t>대구 레미콘 사업 협동조합</t>
+  </si>
+  <si>
+    <t>대구 레미콘 공업 협동조합</t>
+  </si>
+  <si>
+    <t>12월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RJ_005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 레미콘 공업 협동조합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년도 전자세금계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년도 회원사 프로그램 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>= 134 * 55,000 (황상걸 차장)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_271</t>
+  </si>
+  <si>
+    <t>보성산업(주)</t>
+  </si>
+  <si>
+    <t>신규-2018-09-18일부터 배정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8088,7 +8169,7 @@
     <numFmt numFmtId="179" formatCode="&quot;대기업&quot;\ #,##0\ &quot;개 사&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8225,8 +8306,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8248,6 +8337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8416,7 +8511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8789,6 +8884,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8812,6 +8934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9210,6 +9335,498 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1">
+      <c r="A1" s="75" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="41" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" s="10">
+        <f>COUNTA(C3:C203)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B6" t="s">
+        <v>795</v>
+      </c>
+      <c r="D6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B7" t="s">
+        <v>798</v>
+      </c>
+      <c r="C7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" t="s">
+        <v>808</v>
+      </c>
+      <c r="C11" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B14" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" t="s">
+        <v>817</v>
+      </c>
+      <c r="E14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>821</v>
+      </c>
+      <c r="B16" t="s">
+        <v>822</v>
+      </c>
+      <c r="C16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>824</v>
+      </c>
+      <c r="B17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C18" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B19" t="s">
+        <v>830</v>
+      </c>
+      <c r="C19" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>832</v>
+      </c>
+      <c r="B20" t="s">
+        <v>833</v>
+      </c>
+      <c r="C20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B21" t="s">
+        <v>836</v>
+      </c>
+      <c r="C21" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>838</v>
+      </c>
+      <c r="B22" t="s">
+        <v>839</v>
+      </c>
+      <c r="C22" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>841</v>
+      </c>
+      <c r="B23" t="s">
+        <v>842</v>
+      </c>
+      <c r="C23" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24" t="s">
+        <v>845</v>
+      </c>
+      <c r="C24" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1">
+      <c r="A25" t="s">
+        <v>847</v>
+      </c>
+      <c r="B25" t="s">
+        <v>848</v>
+      </c>
+      <c r="D25" t="s">
+        <v>849</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>850</v>
+      </c>
+      <c r="B26" t="s">
+        <v>851</v>
+      </c>
+      <c r="C26" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>853</v>
+      </c>
+      <c r="B27" t="s">
+        <v>854</v>
+      </c>
+      <c r="C27" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>856</v>
+      </c>
+      <c r="B28" t="s">
+        <v>857</v>
+      </c>
+      <c r="C28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>859</v>
+      </c>
+      <c r="B29" t="s">
+        <v>860</v>
+      </c>
+      <c r="C29" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>862</v>
+      </c>
+      <c r="B30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B31" t="s">
+        <v>866</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>867</v>
+      </c>
+      <c r="B32" t="s">
+        <v>868</v>
+      </c>
+      <c r="C32" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>870</v>
+      </c>
+      <c r="B33" t="s">
+        <v>871</v>
+      </c>
+      <c r="C33" t="s">
+        <v>717</v>
+      </c>
+      <c r="D33" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>873</v>
+      </c>
+      <c r="B34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C34" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>876</v>
+      </c>
+      <c r="B35" t="s">
+        <v>877</v>
+      </c>
+      <c r="C35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>879</v>
+      </c>
+      <c r="B36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>882</v>
+      </c>
+      <c r="B37" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>885</v>
+      </c>
+      <c r="B38" t="s">
+        <v>886</v>
+      </c>
+      <c r="C38" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>888</v>
+      </c>
+      <c r="B39" t="s">
+        <v>889</v>
+      </c>
+      <c r="C39" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9227,11 +9844,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9684,7 +10301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -9704,11 +10321,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10137,8 +10754,8 @@
       <c r="C38" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="E38" s="130" t="s">
-        <v>2457</v>
+      <c r="E38" s="139" t="s">
+        <v>2455</v>
       </c>
       <c r="F38" t="s">
         <v>2329</v>
@@ -10154,7 +10771,7 @@
       <c r="C39" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E39" s="131"/>
+      <c r="E39" s="140"/>
       <c r="F39" t="s">
         <v>2328</v>
       </c>
@@ -10169,7 +10786,7 @@
       <c r="C40" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E40" s="131"/>
+      <c r="E40" s="140"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -10182,7 +10799,7 @@
         <v>2345</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10211,7 +10828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10221,7 +10838,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10237,25 +10854,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="77" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
-        <f>COUNTA(C3:C18)</f>
-        <v>6</v>
+        <f>COUNTA(C3:C17)</f>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
-        <f>COUNTA(D3:D18)</f>
-        <v>7</v>
+        <f>COUNTA(D3:D17)</f>
+        <v>8</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="89"/>
@@ -10295,13 +10912,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10310,13 +10927,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10325,99 +10942,101 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>272</v>
+        <v>2335</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2337</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="32" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2335</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>2334</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2337</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>2303</v>
+        <v>266</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="32" t="s">
-        <v>2302</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2333</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2335</v>
-      </c>
+      <c r="D10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>228</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>2338</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -10427,99 +11046,102 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="50" customFormat="1">
-      <c r="A15" s="34" t="s">
+    <row r="14" spans="1:9" s="50" customFormat="1">
+      <c r="A14" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>2254</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>2462</v>
+      </c>
       <c r="G15" s="37" t="s">
-        <v>2254</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>2466</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>2461</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>2464</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>2463</v>
-      </c>
-      <c r="H16" s="110" t="s">
-        <v>2459</v>
+      <c r="H15" s="110" t="s">
+        <v>2457</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1">
+      <c r="A16" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
+        <v>2494</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>2462</v>
+        <v>2495</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F17"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10534,11 +11156,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="D1" s="64"/>
     </row>
@@ -10724,29 +11346,29 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F15" s="118" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="119" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="D16" s="115"/>
       <c r="E16" s="12" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F16" s="120" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -10754,10 +11376,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
   </sheetData>
@@ -10767,13 +11389,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10786,11 +11408,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D1" s="64"/>
     </row>
@@ -10910,7 +11532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -10929,11 +11551,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11238,7 +11860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -11258,14 +11880,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11481,7 +12103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -11500,11 +12122,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -11625,7 +12247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -11645,14 +12267,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11832,7 +12454,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="124" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="126" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="126" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1">
+      <c r="A1" s="132" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="90" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1"/>
+      <c r="G1"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="29" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D4" s="128">
+        <f>F4*G4</f>
+        <v>7370000</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F4" s="126">
+        <v>134</v>
+      </c>
+      <c r="G4" s="126">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+      <c r="B7" s="7" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D7" s="129">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="130"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D8" s="129">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="130"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D9" s="129">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -11852,14 +12590,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12009,7 +12747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12017,11 +12755,11 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12047,7 +12785,7 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="41" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="D1" s="74"/>
       <c r="F1" s="76"/>
@@ -12056,10 +12794,10 @@
       </c>
       <c r="H1" s="109"/>
       <c r="I1" s="41" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>590</v>
@@ -12092,10 +12830,10 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="81" t="s">
+        <v>2397</v>
+      </c>
+      <c r="L2" s="82" t="s">
         <v>2398</v>
-      </c>
-      <c r="L2" s="82" t="s">
-        <v>2399</v>
       </c>
       <c r="M2" s="63"/>
     </row>
@@ -12126,10 +12864,10 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="124" t="s">
+      <c r="M3" s="133" t="s">
         <v>2246</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="134" t="s">
         <v>2250</v>
       </c>
     </row>
@@ -12162,8 +12900,8 @@
       <c r="L4" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="125"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -12830,7 +13568,7 @@
         <v>497</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="115"/>
@@ -13132,46 +13870,48 @@
         <v>2300</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="38" t="s">
-        <v>2376</v>
+        <v>2498</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>2375</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>2469</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>2470</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>2471</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>2472</v>
-      </c>
       <c r="E71" s="38"/>
-      <c r="F71" s="61"/>
+      <c r="F71" s="38" t="s">
+        <v>2496</v>
+      </c>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="61"/>
@@ -13180,16 +13920,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>2491</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>2492</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2493</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>2494</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="61"/>
@@ -13203,17 +13943,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13232,21 +13972,21 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="D1" s="74"/>
       <c r="H1" s="75" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J2" s="16">
         <f>COUNTA(J3:J7)</f>
@@ -13263,9 +14003,7 @@
       <c r="C3" t="s">
         <v>1862</v>
       </c>
-      <c r="F3" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F3" s="11"/>
       <c r="H3" t="s">
         <v>2172</v>
       </c>
@@ -13275,9 +14013,7 @@
       <c r="J3" t="s">
         <v>2173</v>
       </c>
-      <c r="M3" s="11">
-        <v>42464</v>
-      </c>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -13289,9 +14025,7 @@
       <c r="C4" t="s">
         <v>1864</v>
       </c>
-      <c r="F4" s="11">
-        <v>43206</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="H4" t="s">
         <v>2174</v>
       </c>
@@ -13301,9 +14035,7 @@
       <c r="J4" t="s">
         <v>2175</v>
       </c>
-      <c r="M4" s="11">
-        <v>42499</v>
-      </c>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
@@ -13315,9 +14047,7 @@
       <c r="C5" t="s">
         <v>1866</v>
       </c>
-      <c r="F5" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="H5" t="s">
         <v>2176</v>
       </c>
@@ -13327,9 +14057,7 @@
       <c r="J5" t="s">
         <v>2177</v>
       </c>
-      <c r="M5" s="11">
-        <v>43019</v>
-      </c>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -13341,9 +14069,7 @@
       <c r="C6" t="s">
         <v>1868</v>
       </c>
-      <c r="F6" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="H6" t="s">
         <v>2178</v>
       </c>
@@ -13353,9 +14079,7 @@
       <c r="J6" t="s">
         <v>2180</v>
       </c>
-      <c r="M6" s="11">
-        <v>42782</v>
-      </c>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
@@ -13367,9 +14091,7 @@
       <c r="C7" t="s">
         <v>1870</v>
       </c>
-      <c r="F7" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="H7" t="s">
         <v>2181</v>
       </c>
@@ -13379,9 +14101,7 @@
       <c r="J7" t="s">
         <v>2183</v>
       </c>
-      <c r="M7" s="11">
-        <v>42619</v>
-      </c>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -13393,9 +14113,7 @@
       <c r="C8" t="s">
         <v>1872</v>
       </c>
-      <c r="F8" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="H8" t="s">
         <v>2184</v>
       </c>
@@ -13405,9 +14123,7 @@
       <c r="J8" t="s">
         <v>2186</v>
       </c>
-      <c r="M8" s="11">
-        <v>42466</v>
-      </c>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -13419,9 +14135,7 @@
       <c r="C9" t="s">
         <v>1874</v>
       </c>
-      <c r="F9" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F9" s="11"/>
       <c r="H9" t="s">
         <v>2187</v>
       </c>
@@ -13431,9 +14145,7 @@
       <c r="J9" t="s">
         <v>2189</v>
       </c>
-      <c r="M9" s="11">
-        <v>42403</v>
-      </c>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -13445,9 +14157,7 @@
       <c r="C10" t="s">
         <v>1877</v>
       </c>
-      <c r="F10" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F10" s="11"/>
       <c r="H10" t="s">
         <v>2190</v>
       </c>
@@ -13457,9 +14167,7 @@
       <c r="J10" t="s">
         <v>2192</v>
       </c>
-      <c r="M10" s="11">
-        <v>42450</v>
-      </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -13471,9 +14179,7 @@
       <c r="C11" t="s">
         <v>1880</v>
       </c>
-      <c r="F11" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -13485,9 +14191,7 @@
       <c r="C12" t="s">
         <v>1883</v>
       </c>
-      <c r="F12" s="11">
-        <v>43203</v>
-      </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -13499,9 +14203,7 @@
       <c r="C13" t="s">
         <v>1885</v>
       </c>
-      <c r="F13" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -13513,9 +14215,7 @@
       <c r="C14" t="s">
         <v>1020</v>
       </c>
-      <c r="F14" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
@@ -13530,9 +14230,7 @@
       <c r="D15" t="s">
         <v>1889</v>
       </c>
-      <c r="F15" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
@@ -13544,9 +14242,7 @@
       <c r="C16" t="s">
         <v>1891</v>
       </c>
-      <c r="F16" s="11">
-        <v>43202</v>
-      </c>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -13558,9 +14254,7 @@
       <c r="C17" t="s">
         <v>1893</v>
       </c>
-      <c r="F17" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -13572,9 +14266,7 @@
       <c r="C18" t="s">
         <v>1896</v>
       </c>
-      <c r="F18" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -13586,9 +14278,7 @@
       <c r="C19" t="s">
         <v>1619</v>
       </c>
-      <c r="F19" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
@@ -13600,9 +14290,7 @@
       <c r="C20" t="s">
         <v>1899</v>
       </c>
-      <c r="F20" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -13614,9 +14302,7 @@
       <c r="C21" t="s">
         <v>1902</v>
       </c>
-      <c r="F21" s="11">
-        <v>43207</v>
-      </c>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -13628,9 +14314,7 @@
       <c r="C22" t="s">
         <v>1904</v>
       </c>
-      <c r="F22" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -13642,9 +14326,7 @@
       <c r="C23" t="s">
         <v>1906</v>
       </c>
-      <c r="F23" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -13656,9 +14338,7 @@
       <c r="C24" t="s">
         <v>1909</v>
       </c>
-      <c r="F24" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -13670,9 +14350,7 @@
       <c r="C25" t="s">
         <v>1912</v>
       </c>
-      <c r="F25" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -13684,9 +14362,7 @@
       <c r="C26" t="s">
         <v>1914</v>
       </c>
-      <c r="F26" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -13698,9 +14374,7 @@
       <c r="C27" t="s">
         <v>1917</v>
       </c>
-      <c r="F27" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -13712,9 +14386,7 @@
       <c r="C28" t="s">
         <v>1920</v>
       </c>
-      <c r="F28" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -13726,9 +14398,7 @@
       <c r="C29" t="s">
         <v>1922</v>
       </c>
-      <c r="F29" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
@@ -13740,9 +14410,7 @@
       <c r="C30" t="s">
         <v>1924</v>
       </c>
-      <c r="F30" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -13754,9 +14422,7 @@
       <c r="C31" t="s">
         <v>1926</v>
       </c>
-      <c r="F31" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -13768,9 +14434,7 @@
       <c r="C32" t="s">
         <v>1928</v>
       </c>
-      <c r="F32" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -13782,9 +14446,7 @@
       <c r="C33" t="s">
         <v>1930</v>
       </c>
-      <c r="F33" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
@@ -13796,9 +14458,7 @@
       <c r="C34" t="s">
         <v>1932</v>
       </c>
-      <c r="F34" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
@@ -13810,9 +14470,7 @@
       <c r="C35" t="s">
         <v>1934</v>
       </c>
-      <c r="F35" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
@@ -13824,9 +14482,7 @@
       <c r="C36" t="s">
         <v>1936</v>
       </c>
-      <c r="F36" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -13838,9 +14494,7 @@
       <c r="C37" t="s">
         <v>1938</v>
       </c>
-      <c r="F37" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
@@ -13852,9 +14506,7 @@
       <c r="C38" t="s">
         <v>1941</v>
       </c>
-      <c r="F38" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
@@ -13866,9 +14518,7 @@
       <c r="C39" t="s">
         <v>1944</v>
       </c>
-      <c r="F39" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
@@ -13880,9 +14530,7 @@
       <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
@@ -13894,9 +14542,7 @@
       <c r="C41" t="s">
         <v>1948</v>
       </c>
-      <c r="F41" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -13908,9 +14554,7 @@
       <c r="C42" t="s">
         <v>1950</v>
       </c>
-      <c r="F42" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -13922,9 +14566,7 @@
       <c r="C43" t="s">
         <v>1953</v>
       </c>
-      <c r="F43" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
@@ -13936,9 +14578,7 @@
       <c r="C44" t="s">
         <v>1956</v>
       </c>
-      <c r="F44" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
@@ -13950,9 +14590,7 @@
       <c r="C45" t="s">
         <v>1958</v>
       </c>
-      <c r="F45" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
@@ -13964,9 +14602,7 @@
       <c r="C46" t="s">
         <v>1961</v>
       </c>
-      <c r="F46" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
@@ -13978,9 +14614,7 @@
       <c r="C47" t="s">
         <v>1963</v>
       </c>
-      <c r="F47" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
@@ -13992,9 +14626,7 @@
       <c r="C48" t="s">
         <v>1965</v>
       </c>
-      <c r="F48" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -14006,9 +14638,7 @@
       <c r="C49" t="s">
         <v>1967</v>
       </c>
-      <c r="F49" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
@@ -14020,9 +14650,7 @@
       <c r="C50" t="s">
         <v>1969</v>
       </c>
-      <c r="F50" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
@@ -14034,9 +14662,7 @@
       <c r="C51" t="s">
         <v>1972</v>
       </c>
-      <c r="F51" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
@@ -14048,9 +14674,7 @@
       <c r="C52" t="s">
         <v>1974</v>
       </c>
-      <c r="F52" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
@@ -14062,9 +14686,7 @@
       <c r="C53" t="s">
         <v>831</v>
       </c>
-      <c r="F53" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
@@ -14076,9 +14698,7 @@
       <c r="C54" t="s">
         <v>1977</v>
       </c>
-      <c r="F54" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
@@ -14090,9 +14710,7 @@
       <c r="C55" t="s">
         <v>1979</v>
       </c>
-      <c r="F55" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
@@ -14104,9 +14722,7 @@
       <c r="C56" t="s">
         <v>1981</v>
       </c>
-      <c r="F56" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
@@ -14118,9 +14734,7 @@
       <c r="C57" t="s">
         <v>1983</v>
       </c>
-      <c r="F57" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
@@ -14132,9 +14746,7 @@
       <c r="C58" t="s">
         <v>1985</v>
       </c>
-      <c r="F58" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
@@ -14146,9 +14758,7 @@
       <c r="C59" t="s">
         <v>1988</v>
       </c>
-      <c r="F59" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
@@ -14160,9 +14770,7 @@
       <c r="C60" t="s">
         <v>1990</v>
       </c>
-      <c r="F60" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
@@ -14174,9 +14782,7 @@
       <c r="C61" t="s">
         <v>1992</v>
       </c>
-      <c r="F61" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
@@ -14188,9 +14794,7 @@
       <c r="C62" t="s">
         <v>1994</v>
       </c>
-      <c r="F62" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
@@ -14202,9 +14806,7 @@
       <c r="C63" t="s">
         <v>1996</v>
       </c>
-      <c r="F63" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
@@ -14216,9 +14818,7 @@
       <c r="C64" t="s">
         <v>1998</v>
       </c>
-      <c r="F64" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
@@ -14230,9 +14830,7 @@
       <c r="C65" t="s">
         <v>2000</v>
       </c>
-      <c r="F65" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
@@ -14244,9 +14842,7 @@
       <c r="C66" t="s">
         <v>2002</v>
       </c>
-      <c r="F66" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
@@ -14258,9 +14854,7 @@
       <c r="C67" t="s">
         <v>2005</v>
       </c>
-      <c r="F67" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
@@ -14272,9 +14866,7 @@
       <c r="C68" t="s">
         <v>2007</v>
       </c>
-      <c r="F68" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
@@ -14286,9 +14878,7 @@
       <c r="C69" t="s">
         <v>2009</v>
       </c>
-      <c r="F69" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -14300,9 +14890,7 @@
       <c r="C70" t="s">
         <v>2011</v>
       </c>
-      <c r="F70" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
@@ -14314,9 +14902,7 @@
       <c r="C71" t="s">
         <v>2013</v>
       </c>
-      <c r="F71" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
@@ -14328,9 +14914,7 @@
       <c r="C72" t="s">
         <v>2015</v>
       </c>
-      <c r="F72" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
@@ -14342,9 +14926,7 @@
       <c r="C73" t="s">
         <v>2018</v>
       </c>
-      <c r="F73" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
@@ -14356,9 +14938,7 @@
       <c r="C74" t="s">
         <v>2021</v>
       </c>
-      <c r="F74" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
@@ -14370,9 +14950,7 @@
       <c r="C75" t="s">
         <v>2023</v>
       </c>
-      <c r="F75" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
@@ -14384,9 +14962,7 @@
       <c r="C76" t="s">
         <v>2025</v>
       </c>
-      <c r="F76" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
@@ -14398,9 +14974,7 @@
       <c r="C77" t="s">
         <v>2027</v>
       </c>
-      <c r="F77" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
@@ -14412,9 +14986,7 @@
       <c r="C78" t="s">
         <v>1057</v>
       </c>
-      <c r="F78" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
@@ -14426,9 +14998,7 @@
       <c r="C79" t="s">
         <v>2030</v>
       </c>
-      <c r="F79" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
@@ -14440,9 +15010,7 @@
       <c r="C80" t="s">
         <v>2032</v>
       </c>
-      <c r="F80" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
@@ -14454,9 +15022,7 @@
       <c r="C81" t="s">
         <v>2034</v>
       </c>
-      <c r="F81" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
@@ -14468,9 +15034,7 @@
       <c r="C82" t="s">
         <v>2037</v>
       </c>
-      <c r="F82" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
@@ -14482,9 +15046,7 @@
       <c r="C83" t="s">
         <v>2039</v>
       </c>
-      <c r="F83" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
@@ -14496,9 +15058,7 @@
       <c r="C84" t="s">
         <v>2042</v>
       </c>
-      <c r="F84" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
@@ -14510,9 +15070,7 @@
       <c r="C85" t="s">
         <v>2045</v>
       </c>
-      <c r="F85" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
@@ -14524,9 +15082,7 @@
       <c r="C86" t="s">
         <v>2048</v>
       </c>
-      <c r="F86" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
@@ -14538,9 +15094,7 @@
       <c r="C87" t="s">
         <v>2051</v>
       </c>
-      <c r="F87" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
@@ -14552,9 +15106,7 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-      <c r="F88" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
@@ -14566,9 +15118,7 @@
       <c r="C89" t="s">
         <v>843</v>
       </c>
-      <c r="F89" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
@@ -14580,9 +15130,7 @@
       <c r="C90" t="s">
         <v>2058</v>
       </c>
-      <c r="F90" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
@@ -14594,9 +15142,7 @@
       <c r="C91" t="s">
         <v>2061</v>
       </c>
-      <c r="F91" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
@@ -14608,9 +15154,7 @@
       <c r="C92" t="s">
         <v>2064</v>
       </c>
-      <c r="F92" s="11">
-        <v>43207</v>
-      </c>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
@@ -14622,9 +15166,7 @@
       <c r="C93" t="s">
         <v>2067</v>
       </c>
-      <c r="F93" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
@@ -14636,9 +15178,7 @@
       <c r="C94" t="s">
         <v>2070</v>
       </c>
-      <c r="F94" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
@@ -14650,9 +15190,7 @@
       <c r="C95" t="s">
         <v>2073</v>
       </c>
-      <c r="F95" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
@@ -14664,9 +15202,7 @@
       <c r="C96" t="s">
         <v>2076</v>
       </c>
-      <c r="F96" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
@@ -14678,9 +15214,7 @@
       <c r="C97" t="s">
         <v>2079</v>
       </c>
-      <c r="F97" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
@@ -14692,9 +15226,7 @@
       <c r="C98" t="s">
         <v>2082</v>
       </c>
-      <c r="F98" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
@@ -14706,9 +15238,7 @@
       <c r="C99" t="s">
         <v>2085</v>
       </c>
-      <c r="F99" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
@@ -14720,51 +15250,52 @@
       <c r="C100" t="s">
         <v>2088</v>
       </c>
-      <c r="F100" s="11">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" s="12" customFormat="1" hidden="1">
+      <c r="A101" s="12" t="s">
         <v>2089</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="12" t="s">
         <v>1339</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="12" t="s">
         <v>2090</v>
       </c>
-      <c r="F101" s="11">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
+      <c r="E101" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F101" s="141"/>
+    </row>
+    <row r="102" spans="1:6" s="12" customFormat="1" hidden="1">
+      <c r="A102" s="12" t="s">
         <v>2091</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="12" t="s">
         <v>2092</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" s="12" t="s">
         <v>2093</v>
       </c>
-      <c r="F102" s="11">
-        <v>43203</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
+      <c r="E102" s="12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F102" s="141"/>
+    </row>
+    <row r="103" spans="1:6" s="12" customFormat="1" hidden="1">
+      <c r="A103" s="12" t="s">
         <v>2094</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="12" t="s">
         <v>2095</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="12" t="s">
         <v>2096</v>
       </c>
-      <c r="F103" s="11">
-        <v>43208</v>
-      </c>
+      <c r="E103" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F103" s="141"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
@@ -14776,9 +15307,7 @@
       <c r="C104" t="s">
         <v>2099</v>
       </c>
-      <c r="F104" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
@@ -14790,9 +15319,7 @@
       <c r="C105" t="s">
         <v>2102</v>
       </c>
-      <c r="F105" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
@@ -14804,9 +15331,7 @@
       <c r="C106" t="s">
         <v>2105</v>
       </c>
-      <c r="F106" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
@@ -14818,9 +15343,7 @@
       <c r="C107" t="s">
         <v>941</v>
       </c>
-      <c r="F107" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
@@ -14832,9 +15355,7 @@
       <c r="C108" t="s">
         <v>2110</v>
       </c>
-      <c r="F108" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
@@ -14846,9 +15367,7 @@
       <c r="C109" t="s">
         <v>2112</v>
       </c>
-      <c r="F109" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
@@ -14860,9 +15379,7 @@
       <c r="C110" t="s">
         <v>2115</v>
       </c>
-      <c r="F110" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
@@ -14874,9 +15391,7 @@
       <c r="C111" t="s">
         <v>2117</v>
       </c>
-      <c r="F111" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
@@ -14888,9 +15403,7 @@
       <c r="C112" t="s">
         <v>2120</v>
       </c>
-      <c r="F112" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
@@ -14902,9 +15415,7 @@
       <c r="C113" t="s">
         <v>2122</v>
       </c>
-      <c r="F113" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
@@ -14916,9 +15427,7 @@
       <c r="C114" t="s">
         <v>2125</v>
       </c>
-      <c r="F114" s="11">
-        <v>43207</v>
-      </c>
+      <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
@@ -14930,9 +15439,7 @@
       <c r="C115" t="s">
         <v>2128</v>
       </c>
-      <c r="F115" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
@@ -14944,9 +15451,7 @@
       <c r="C116" t="s">
         <v>2131</v>
       </c>
-      <c r="F116" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
@@ -14958,9 +15463,7 @@
       <c r="C117" t="s">
         <v>2133</v>
       </c>
-      <c r="F117" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
@@ -14972,23 +15475,22 @@
       <c r="C118" t="s">
         <v>2135</v>
       </c>
-      <c r="F118" s="11">
-        <v>43209</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="F118" s="11"/>
+    </row>
+    <row r="119" spans="1:6" s="12" customFormat="1" hidden="1">
+      <c r="A119" s="12" t="s">
         <v>2136</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" s="12" t="s">
         <v>2137</v>
       </c>
-      <c r="F119" s="11">
-        <v>43208</v>
-      </c>
+      <c r="E119" s="12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F119" s="141"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
@@ -15000,9 +15502,7 @@
       <c r="C120" t="s">
         <v>2139</v>
       </c>
-      <c r="F120" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
@@ -15014,9 +15514,7 @@
       <c r="C121" t="s">
         <v>2141</v>
       </c>
-      <c r="F121" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
@@ -15028,9 +15526,7 @@
       <c r="C122" t="s">
         <v>2143</v>
       </c>
-      <c r="F122" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
@@ -15042,9 +15538,7 @@
       <c r="C123" t="s">
         <v>2146</v>
       </c>
-      <c r="F123" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
@@ -15056,9 +15550,7 @@
       <c r="C124" t="s">
         <v>2149</v>
       </c>
-      <c r="F124" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
@@ -15070,9 +15562,7 @@
       <c r="C125" t="s">
         <v>2151</v>
       </c>
-      <c r="F125" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
@@ -15084,9 +15574,7 @@
       <c r="C126" t="s">
         <v>2153</v>
       </c>
-      <c r="F126" s="11">
-        <v>43208</v>
-      </c>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
@@ -15098,9 +15586,7 @@
       <c r="C127" t="s">
         <v>2156</v>
       </c>
-      <c r="F127" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
@@ -15112,9 +15598,7 @@
       <c r="C128" t="s">
         <v>2158</v>
       </c>
-      <c r="F128" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
@@ -15126,9 +15610,7 @@
       <c r="C129" t="s">
         <v>1139</v>
       </c>
-      <c r="F129" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
@@ -15140,9 +15622,7 @@
       <c r="C130" t="s">
         <v>2161</v>
       </c>
-      <c r="F130" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
@@ -15154,9 +15634,7 @@
       <c r="C131" t="s">
         <v>2163</v>
       </c>
-      <c r="F131" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
@@ -15168,9 +15646,7 @@
       <c r="C132" t="s">
         <v>2166</v>
       </c>
-      <c r="F132" s="11">
-        <v>43209</v>
-      </c>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
@@ -15182,9 +15658,7 @@
       <c r="C133" t="s">
         <v>2168</v>
       </c>
-      <c r="F133" s="11">
-        <v>43207</v>
-      </c>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
@@ -15196,8 +15670,20 @@
       <c r="C134" t="s">
         <v>2171</v>
       </c>
-      <c r="F134" s="11">
-        <v>43207</v>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>2515</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -15211,7 +15697,7 @@
         <v>2256</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -15225,10 +15711,7 @@
         <v>2288</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>2361</v>
-      </c>
-      <c r="F137" t="s">
-        <v>2136</v>
+        <v>2360</v>
       </c>
     </row>
   </sheetData>
@@ -15238,7 +15721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15247,7 +15730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15276,10 +15759,10 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E1" s="73"/>
       <c r="G1" s="73"/>
@@ -15289,7 +15772,7 @@
       </c>
       <c r="J1" s="40"/>
       <c r="K1" s="41" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15523,7 +16006,7 @@
       <c r="D10" s="99"/>
       <c r="E10" s="99"/>
       <c r="F10" s="97" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>256</v>
@@ -16414,7 +16897,7 @@
       </c>
       <c r="E62" s="99"/>
       <c r="F62" s="97" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="G62" s="65" t="s">
         <v>255</v>
@@ -16535,16 +17018,16 @@
         <v>54</v>
       </c>
       <c r="D69" s="99" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E69" s="99" t="s">
         <v>2381</v>
       </c>
-      <c r="E69" s="99" t="s">
-        <v>2382</v>
-      </c>
       <c r="F69" s="97" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G69" s="65" t="s">
         <v>2446</v>
-      </c>
-      <c r="G69" s="65" t="s">
-        <v>2448</v>
       </c>
       <c r="H69" s="101"/>
       <c r="O69" s="71"/>
@@ -16661,7 +17144,7 @@
         <v>56</v>
       </c>
       <c r="G75" s="67" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="O75" s="20"/>
       <c r="P75"/>
@@ -16833,10 +17316,10 @@
         <v>63</v>
       </c>
       <c r="F84" s="97" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="G84" s="65" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="O84" s="71"/>
     </row>
@@ -16874,7 +17357,7 @@
       </c>
       <c r="E86" s="99"/>
       <c r="F86" s="97" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="G86" s="65" t="s">
         <v>2341</v>
@@ -16914,10 +17397,10 @@
       </c>
       <c r="E88" s="99"/>
       <c r="F88" s="97" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="G88" s="65" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="O88" s="71"/>
     </row>
@@ -17082,20 +17565,20 @@
         <v>2243</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="F97" s="58" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="O97" s="20"/>
       <c r="P97"/>
@@ -17156,13 +17639,13 @@
       <c r="P102"/>
     </row>
     <row r="103" spans="1:16" s="24" customFormat="1">
-      <c r="A103" s="126" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
+      <c r="A103" s="135" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B103" s="135"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="135"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -17183,7 +17666,7 @@
         <v>2372</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G104" t="s">
         <v>245</v>
@@ -17207,7 +17690,7 @@
         <v>2373</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G105" t="s">
         <v>242</v>
@@ -17232,13 +17715,13 @@
         <v>2362</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G106" t="s">
         <v>252</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -17267,7 +17750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17300,10 +17783,10 @@
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="90" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -17433,7 +17916,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>213</v>
@@ -17485,7 +17968,7 @@
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="E12" s="104" t="s">
         <v>54</v>
@@ -17494,10 +17977,10 @@
       <c r="G12" s="103"/>
       <c r="H12" s="105"/>
       <c r="I12" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="106" customFormat="1">
@@ -17511,17 +17994,17 @@
         <v>64</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="103"/>
       <c r="G13" s="103"/>
       <c r="H13" s="105"/>
       <c r="I13" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -17580,7 +18063,7 @@
         <v>255</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="C17" s="103" t="s">
         <v>224</v>
@@ -17595,7 +18078,7 @@
       </c>
       <c r="H17" s="105"/>
       <c r="I17" s="97" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="J17" s="65" t="s">
         <v>257</v>
@@ -17621,7 +18104,7 @@
       </c>
       <c r="H18" s="105"/>
       <c r="I18" s="97" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="J18" s="65" t="s">
         <v>258</v>
@@ -17645,11 +18128,11 @@
         <v>2375</v>
       </c>
       <c r="G19" s="103" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="97" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="J19" s="65" t="s">
         <v>358</v>
@@ -17703,15 +18186,15 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="39" customHeight="1">
-      <c r="A25" s="127" t="s">
-        <v>2439</v>
-      </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
+      <c r="A25" s="136" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:11">
@@ -17842,13 +18325,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17862,20 +18345,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2402</v>
+        <v>2508</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C202)</f>
-        <v>135</v>
+        <f>COUNTA(C3:C201)</f>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -18483,7 +18966,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="12" t="s">
         <v>1629</v>
       </c>
@@ -18508,15 +18991,18 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" s="12" customFormat="1" hidden="1">
+      <c r="A60" s="12" t="s">
         <v>1635</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>1636</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="12" t="s">
         <v>1637</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2257</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -19138,7 +19624,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1">
+    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1">
       <c r="A117" s="12" t="s">
         <v>1803</v>
       </c>
@@ -19302,7 +19788,7 @@
       <c r="B131" t="s">
         <v>1841</v>
       </c>
-      <c r="C131" s="39" t="s">
+      <c r="C131" s="13" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -19350,12 +19836,12 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="12" t="s">
         <v>1855</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1856</v>
@@ -19364,64 +19850,63 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="19" customFormat="1"/>
+    <row r="137" spans="1:5" s="19" customFormat="1">
+      <c r="A137" s="19" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E137" s="91" t="s">
+        <v>2426</v>
+      </c>
+    </row>
     <row r="138" spans="1:5" s="19" customFormat="1">
       <c r="A138" s="19" t="s">
-        <v>2424</v>
+        <v>2315</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>2425</v>
+        <v>2451</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="E138" s="91" t="s">
-        <v>2428</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="19" customFormat="1">
       <c r="A139" s="19" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>2453</v>
+        <v>2424</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="E139" s="91" t="s">
-        <v>2454</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
-        <v>2314</v>
+        <v>2264</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="E140" s="91" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="19" customFormat="1">
-      <c r="A141" s="19" t="s">
-        <v>2264</v>
-      </c>
-      <c r="B141" s="19" t="s">
         <v>2427</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E141" s="91" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="19" customFormat="1"/>
+    </row>
+    <row r="141" spans="1:5" s="19" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19429,13 +19914,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -19458,14 +19943,14 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="G1" s="75" t="s">
         <v>1860</v>
       </c>
       <c r="H1" s="39"/>
       <c r="I1" s="41" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -20392,7 +20877,7 @@
         <v>785</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="G48" t="s">
         <v>752</v>
@@ -20496,7 +20981,7 @@
         <v>2240</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -20522,13 +21007,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20543,33 +21028,36 @@
     <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>1468</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>1469</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="41" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="I1" s="75" t="s">
         <v>1470</v>
       </c>
       <c r="J1" s="39"/>
       <c r="K1" s="41" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>2411</v>
+      </c>
+      <c r="M1" s="125" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>31</v>
@@ -20583,7 +21071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1308</v>
       </c>
@@ -20612,7 +21100,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1310</v>
       </c>
@@ -20641,7 +21129,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1312</v>
       </c>
@@ -20670,7 +21158,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>1316</v>
       </c>
@@ -20699,7 +21187,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>1321</v>
       </c>
@@ -20728,7 +21216,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>1324</v>
       </c>
@@ -20757,7 +21245,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1327</v>
       </c>
@@ -20786,7 +21274,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1330</v>
       </c>
@@ -20815,7 +21303,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>1333</v>
       </c>
@@ -20844,7 +21332,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>1335</v>
       </c>
@@ -20873,7 +21361,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1338</v>
       </c>
@@ -20902,7 +21390,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1341</v>
       </c>
@@ -20931,7 +21419,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>1344</v>
       </c>
@@ -20960,7 +21448,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>1345</v>
       </c>
@@ -20968,7 +21456,7 @@
         <v>819</v>
       </c>
       <c r="C16" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="E16" t="s">
         <v>1374</v>
@@ -20989,7 +21477,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>1346</v>
       </c>
@@ -21018,7 +21506,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>1405</v>
       </c>
@@ -21047,7 +21535,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>1408</v>
       </c>
@@ -21076,7 +21564,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>1410</v>
       </c>
@@ -21104,11 +21592,11 @@
       <c r="K20" t="s">
         <v>2298</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="12" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>1412</v>
       </c>
@@ -21119,7 +21607,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>1415</v>
       </c>
@@ -21130,7 +21618,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>1418</v>
       </c>
@@ -21141,7 +21629,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>1421</v>
       </c>
@@ -21152,7 +21640,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>1424</v>
       </c>
@@ -21163,7 +21651,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>1433</v>
       </c>
@@ -21174,7 +21662,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>1436</v>
       </c>
@@ -21185,7 +21673,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>1439</v>
       </c>
@@ -21196,7 +21684,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>1450</v>
       </c>
@@ -21207,7 +21695,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>1453</v>
       </c>
@@ -21218,7 +21706,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>1456</v>
       </c>
@@ -21229,7 +21717,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>1459</v>
       </c>
@@ -21256,496 +21744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
-        <v>2415</v>
-      </c>
-      <c r="D1" s="122" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="10">
-        <f>COUNTA(C3:C203)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>791</v>
-      </c>
-      <c r="B5" t="s">
-        <v>792</v>
-      </c>
-      <c r="C5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D6" t="s">
-        <v>796</v>
-      </c>
-      <c r="E6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>797</v>
-      </c>
-      <c r="B7" t="s">
-        <v>798</v>
-      </c>
-      <c r="C7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>800</v>
-      </c>
-      <c r="B8" t="s">
-        <v>801</v>
-      </c>
-      <c r="C8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>803</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>805</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>807</v>
-      </c>
-      <c r="B11" t="s">
-        <v>808</v>
-      </c>
-      <c r="C11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>810</v>
-      </c>
-      <c r="B12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>812</v>
-      </c>
-      <c r="B13" t="s">
-        <v>813</v>
-      </c>
-      <c r="C13" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>815</v>
-      </c>
-      <c r="B14" t="s">
-        <v>816</v>
-      </c>
-      <c r="D14" t="s">
-        <v>817</v>
-      </c>
-      <c r="E14" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>818</v>
-      </c>
-      <c r="B15" t="s">
-        <v>819</v>
-      </c>
-      <c r="C15" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>821</v>
-      </c>
-      <c r="B16" t="s">
-        <v>822</v>
-      </c>
-      <c r="C16" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B17" t="s">
-        <v>825</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>826</v>
-      </c>
-      <c r="B18" t="s">
-        <v>827</v>
-      </c>
-      <c r="C18" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>829</v>
-      </c>
-      <c r="B19" t="s">
-        <v>830</v>
-      </c>
-      <c r="C19" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>832</v>
-      </c>
-      <c r="B20" t="s">
-        <v>833</v>
-      </c>
-      <c r="C20" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>835</v>
-      </c>
-      <c r="B21" t="s">
-        <v>836</v>
-      </c>
-      <c r="C21" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>838</v>
-      </c>
-      <c r="B22" t="s">
-        <v>839</v>
-      </c>
-      <c r="C22" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>841</v>
-      </c>
-      <c r="B23" t="s">
-        <v>842</v>
-      </c>
-      <c r="C23" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>844</v>
-      </c>
-      <c r="B24" t="s">
-        <v>845</v>
-      </c>
-      <c r="C24" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1">
-      <c r="A25" t="s">
-        <v>847</v>
-      </c>
-      <c r="B25" t="s">
-        <v>848</v>
-      </c>
-      <c r="D25" t="s">
-        <v>849</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>850</v>
-      </c>
-      <c r="B26" t="s">
-        <v>851</v>
-      </c>
-      <c r="C26" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>853</v>
-      </c>
-      <c r="B27" t="s">
-        <v>854</v>
-      </c>
-      <c r="C27" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>856</v>
-      </c>
-      <c r="B28" t="s">
-        <v>857</v>
-      </c>
-      <c r="C28" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>859</v>
-      </c>
-      <c r="B29" t="s">
-        <v>860</v>
-      </c>
-      <c r="C29" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>862</v>
-      </c>
-      <c r="B30" t="s">
-        <v>863</v>
-      </c>
-      <c r="C30" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>865</v>
-      </c>
-      <c r="B31" t="s">
-        <v>866</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>867</v>
-      </c>
-      <c r="B32" t="s">
-        <v>868</v>
-      </c>
-      <c r="C32" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>870</v>
-      </c>
-      <c r="B33" t="s">
-        <v>871</v>
-      </c>
-      <c r="C33" t="s">
-        <v>717</v>
-      </c>
-      <c r="D33" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>873</v>
-      </c>
-      <c r="B34" t="s">
-        <v>874</v>
-      </c>
-      <c r="C34" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>876</v>
-      </c>
-      <c r="B35" t="s">
-        <v>877</v>
-      </c>
-      <c r="C35" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>879</v>
-      </c>
-      <c r="B36" t="s">
-        <v>880</v>
-      </c>
-      <c r="C36" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>882</v>
-      </c>
-      <c r="B37" t="s">
-        <v>883</v>
-      </c>
-      <c r="C37" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>885</v>
-      </c>
-      <c r="B38" t="s">
-        <v>886</v>
-      </c>
-      <c r="C38" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>888</v>
-      </c>
-      <c r="B39" t="s">
-        <v>889</v>
-      </c>
-      <c r="C39" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2489</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2258</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2316</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="2522">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -5591,9 +5591,6 @@
     <t>다055</t>
   </si>
   <si>
-    <t>(주)동남레미콘동지점</t>
-  </si>
-  <si>
     <t>RM_A06</t>
   </si>
   <si>
@@ -5607,9 +5604,6 @@
   </si>
   <si>
     <t>아040</t>
-  </si>
-  <si>
-    <t>(주)에이치씨레미콘</t>
   </si>
   <si>
     <t>RN_505</t>
@@ -8135,14 +8129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2019년도 회원사 프로그램 사용료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>= 134 * 55,000 (황상걸 차장)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>탈퇴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -8154,6 +8140,44 @@
   </si>
   <si>
     <t>신규-2018-09-18일부터 배정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에이치씨레미콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)동남레미콘동지점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>= 133 회원사 * 55,000 (황상걸 차장)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년도 회원사 프로그램 사용료 (1년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_5L5</t>
+  </si>
+  <si>
+    <t>상신산업주식회사 북지점</t>
+  </si>
+  <si>
+    <t>사077</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 - 2018-08-14부터 배정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한업체로 보기로 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8511,7 +8535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8908,6 +8932,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8935,7 +8962,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9229,102 +9259,102 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
   </sheetData>
@@ -9353,14 +9383,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9628,7 +9658,7 @@
         <v>849</v>
       </c>
       <c r="E25" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9790,33 +9820,33 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B41" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C41" t="s">
         <v>1196</v>
       </c>
       <c r="D41" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B42" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C42" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
   </sheetData>
@@ -9844,11 +9874,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9890,7 +9920,7 @@
         <v>989</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10283,16 +10313,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B43" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="C43" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
   </sheetData>
@@ -10321,11 +10351,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10463,13 +10493,13 @@
         <v>920</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D14" t="s">
         <v>2347</v>
       </c>
-      <c r="D14" t="s">
-        <v>2349</v>
-      </c>
       <c r="E14" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
@@ -10483,7 +10513,7 @@
         <v>923</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10642,16 +10672,16 @@
     </row>
     <row r="30" spans="1:5" hidden="1">
       <c r="A30" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D30" t="s">
         <v>2325</v>
       </c>
-      <c r="B30" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2327</v>
-      </c>
       <c r="E30" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10665,24 +10695,24 @@
         <v>974</v>
       </c>
       <c r="D31" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="E31" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1">
       <c r="A32" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B32" t="s">
         <v>951</v>
       </c>
       <c r="D32" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E32" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10696,7 +10726,7 @@
         <v>980</v>
       </c>
       <c r="D33" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="E33" t="s">
         <v>950</v>
@@ -10704,16 +10734,16 @@
     </row>
     <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B34" t="s">
         <v>943</v>
       </c>
       <c r="D34" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="E34" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="23" customFormat="1">
@@ -10721,16 +10751,16 @@
         <v>942</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10754,11 +10784,11 @@
       <c r="C38" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="E38" s="139" t="s">
-        <v>2455</v>
+      <c r="E38" s="140" t="s">
+        <v>2453</v>
       </c>
       <c r="F38" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -10771,9 +10801,9 @@
       <c r="C39" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="E39" s="140"/>
+      <c r="E39" s="141"/>
       <c r="F39" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10786,34 +10816,34 @@
       <c r="C40" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E40" s="140"/>
+      <c r="E40" s="141"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B43" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="C43" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B44" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C44" t="s">
         <v>1291</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F44" t="s">
         <v>923</v>
@@ -10854,13 +10884,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="77" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10957,7 +10987,7 @@
     </row>
     <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="7" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -10965,29 +10995,29 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="32" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2333</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2335</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>228</v>
@@ -11007,7 +11037,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11075,37 +11105,37 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>2459</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>2462</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>2461</v>
-      </c>
       <c r="H15" s="110" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1">
@@ -11122,10 +11152,10 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
   </sheetData>
@@ -11156,11 +11186,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="D1" s="64"/>
     </row>
@@ -11170,7 +11200,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11184,7 +11214,7 @@
         <v>1276</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11198,7 +11228,7 @@
         <v>1082</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11212,7 +11242,7 @@
         <v>1280</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11226,7 +11256,7 @@
         <v>1282</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11240,7 +11270,7 @@
         <v>861</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11254,7 +11284,7 @@
         <v>1285</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11268,7 +11298,7 @@
         <v>1287</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="26" customFormat="1">
@@ -11276,13 +11306,13 @@
         <v>1288</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>2230</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>2232</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>1289</v>
@@ -11299,7 +11329,7 @@
         <v>1291</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11313,7 +11343,7 @@
         <v>1293</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11327,7 +11357,7 @@
         <v>1295</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11341,34 +11371,34 @@
         <v>1298</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="D15" s="115"/>
       <c r="E15" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F15" s="118" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="119" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="D16" s="115"/>
       <c r="E16" s="12" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="F16" s="120" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -11376,10 +11406,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
   </sheetData>
@@ -11408,11 +11438,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="D1" s="64"/>
     </row>
@@ -11422,7 +11452,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11436,7 +11466,7 @@
         <v>1261</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11450,7 +11480,7 @@
         <v>1263</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11464,7 +11494,7 @@
         <v>1265</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11478,7 +11508,7 @@
         <v>1268</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11492,7 +11522,7 @@
         <v>1270</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11506,10 +11536,10 @@
         <v>1272</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="E8" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11523,7 +11553,7 @@
         <v>806</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
     </row>
   </sheetData>
@@ -11551,11 +11581,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11880,14 +11910,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12085,16 +12115,16 @@
     </row>
     <row r="20" spans="1:4" s="12" customFormat="1">
       <c r="A20" s="12" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>2282</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>2284</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
   </sheetData>
@@ -12122,11 +12152,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -12229,16 +12259,16 @@
     </row>
     <row r="11" spans="1:4" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>2354</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>2356</v>
-      </c>
       <c r="D11" s="62" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
   </sheetData>
@@ -12267,14 +12297,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E1" s="94" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12456,10 +12486,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1"/>
@@ -12467,18 +12500,19 @@
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="124" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="126" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.375" style="126" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="132" t="s">
-        <v>2506</v>
-      </c>
-      <c r="B1" s="132"/>
+      <c r="A1" s="133" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B1" s="133"/>
       <c r="C1" s="90" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="D1" s="90"/>
       <c r="E1" s="90"/>
@@ -12487,26 +12521,26 @@
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>2510</v>
+        <v>2515</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="D4" s="128">
-        <f>F4*G4</f>
-        <v>7370000</v>
+        <f>(F4*G4)*12</f>
+        <v>87780000</v>
       </c>
       <c r="E4" s="131" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="F4" s="126">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="126">
         <v>55000</v>
@@ -12518,7 +12552,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B6" s="29"/>
       <c r="D6" s="127"/>
@@ -12526,10 +12560,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="B7" s="7" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>2502</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2504</v>
       </c>
       <c r="D7" s="129">
         <v>50000</v>
@@ -12538,10 +12572,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="D8" s="129">
         <v>100000</v>
@@ -12550,10 +12584,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="B9" s="7" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2501</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2503</v>
       </c>
       <c r="D9" s="129">
         <v>100000</v>
@@ -12566,7 +12600,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12590,14 +12624,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12785,7 +12819,7 @@
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="41" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="D1" s="74"/>
       <c r="F1" s="76"/>
@@ -12794,10 +12828,10 @@
       </c>
       <c r="H1" s="109"/>
       <c r="I1" s="41" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>590</v>
@@ -12815,7 +12849,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E2" s="84">
         <f>40000*C2*3</f>
@@ -12830,10 +12864,10 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="81" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="M2" s="63"/>
     </row>
@@ -12858,17 +12892,17 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="32" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="K3" s="33">
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="133" t="s">
-        <v>2246</v>
-      </c>
-      <c r="N3" s="134" t="s">
-        <v>2250</v>
+      <c r="M3" s="134" t="s">
+        <v>2244</v>
+      </c>
+      <c r="N3" s="135" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -12900,8 +12934,8 @@
       <c r="L4" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="135"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -12933,10 +12967,10 @@
         <v>589</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N5" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -12960,7 +12994,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="K6" s="15">
         <v>8057.5</v>
@@ -12969,10 +13003,10 @@
         <v>589</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N6" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -13002,13 +13036,13 @@
         <v>3452.65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="O7" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13568,7 +13602,7 @@
         <v>497</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="115"/>
@@ -13867,51 +13901,51 @@
         <v>562</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="38" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="F70" s="61" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>2467</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>2468</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>2470</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="61"/>
@@ -13920,16 +13954,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>2489</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>2490</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2491</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>2492</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="61"/>
@@ -13972,15 +14006,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="D1" s="74"/>
       <c r="H1" s="75" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13995,219 +14029,219 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B3" t="s">
         <v>928</v>
       </c>
       <c r="C3" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="F3" s="11"/>
       <c r="H3" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="I3" t="s">
         <v>1267</v>
       </c>
       <c r="J3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B4" t="s">
         <v>1275</v>
       </c>
       <c r="C4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="I4" t="s">
         <v>1017</v>
       </c>
       <c r="J4" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B5" t="s">
         <v>988</v>
       </c>
       <c r="C5" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="F5" s="11"/>
       <c r="H5" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="I5" t="s">
         <v>907</v>
       </c>
       <c r="J5" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B6" t="s">
         <v>1159</v>
       </c>
       <c r="C6" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="F6" s="11"/>
       <c r="H6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="J6" t="s">
         <v>2178</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2179</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2180</v>
       </c>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B7" t="s">
         <v>931</v>
       </c>
       <c r="C7" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F7" s="11"/>
       <c r="H7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J7" t="s">
         <v>2181</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2182</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2183</v>
       </c>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B8" t="s">
         <v>789</v>
       </c>
       <c r="C8" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="F8" s="11"/>
       <c r="H8" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J8" t="s">
         <v>2184</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2185</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2186</v>
       </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B9" t="s">
         <v>836</v>
       </c>
       <c r="C9" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="F9" s="11"/>
       <c r="H9" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="J9" t="s">
         <v>2187</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2188</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2189</v>
       </c>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C10" t="s">
         <v>1875</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1877</v>
       </c>
       <c r="F10" s="11"/>
       <c r="H10" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J10" t="s">
         <v>2190</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2191</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2192</v>
       </c>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C11" t="s">
         <v>1878</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1880</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C12" t="s">
         <v>1881</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1883</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B13" t="s">
         <v>940</v>
       </c>
       <c r="C13" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B14" t="s">
         <v>917</v>
@@ -14219,58 +14253,58 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B15" t="s">
         <v>945</v>
       </c>
       <c r="C15" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D15" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B16" t="s">
         <v>956</v>
       </c>
       <c r="C16" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B17" t="s">
         <v>953</v>
       </c>
       <c r="C17" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C18" t="s">
         <v>1894</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1896</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B19" t="s">
         <v>833</v>
@@ -14282,247 +14316,247 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="B20" t="s">
         <v>1008</v>
       </c>
       <c r="C20" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C21" t="s">
         <v>1900</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1902</v>
       </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="B22" t="s">
         <v>1053</v>
       </c>
       <c r="C22" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B23" t="s">
         <v>825</v>
       </c>
       <c r="C23" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C24" t="s">
         <v>1907</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1909</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C25" t="s">
         <v>1910</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1912</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B26" t="s">
         <v>1401</v>
       </c>
       <c r="C26" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C27" t="s">
         <v>1915</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1917</v>
       </c>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C28" t="s">
         <v>1918</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1920</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B29" t="s">
         <v>1005</v>
       </c>
       <c r="C29" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="B30" t="s">
         <v>822</v>
       </c>
       <c r="C30" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="B31" t="s">
         <v>970</v>
       </c>
       <c r="C31" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="B32" t="s">
         <v>808</v>
       </c>
       <c r="C32" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="B33" t="s">
         <v>959</v>
       </c>
       <c r="C33" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C38" t="s">
         <v>1939</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1941</v>
       </c>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C39" t="s">
         <v>1942</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1944</v>
       </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B40" t="s">
         <v>792</v>
@@ -14534,151 +14568,151 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C41" t="s">
         <v>1946</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1948</v>
       </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B42" t="s">
         <v>1328</v>
       </c>
       <c r="C42" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C43" t="s">
         <v>1951</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1952</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1953</v>
       </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C44" t="s">
         <v>1954</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1956</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B45" t="s">
         <v>982</v>
       </c>
       <c r="C45" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C46" t="s">
         <v>1959</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1960</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1961</v>
       </c>
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="B48" t="s">
         <v>995</v>
       </c>
       <c r="C48" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C51" t="s">
         <v>1970</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1972</v>
       </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="B52" t="s">
         <v>819</v>
       </c>
       <c r="C52" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F52" s="11"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -14690,295 +14724,295 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="B57" t="s">
         <v>904</v>
       </c>
       <c r="C57" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="B58" t="s">
         <v>827</v>
       </c>
       <c r="C58" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C59" t="s">
         <v>1986</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1988</v>
       </c>
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="B60" t="s">
         <v>1169</v>
       </c>
       <c r="C60" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B61" t="s">
         <v>848</v>
       </c>
       <c r="C61" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="B62" t="s">
         <v>845</v>
       </c>
       <c r="C62" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="B63" t="s">
         <v>1047</v>
       </c>
       <c r="C63" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B64" t="s">
         <v>1033</v>
       </c>
       <c r="C64" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B65" t="s">
         <v>1179</v>
       </c>
       <c r="C65" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B66" t="s">
         <v>842</v>
       </c>
       <c r="C66" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C67" t="s">
         <v>2003</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2004</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2005</v>
       </c>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B68" t="s">
         <v>857</v>
       </c>
       <c r="C68" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B69" t="s">
         <v>1044</v>
       </c>
       <c r="C69" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B70" t="s">
         <v>1050</v>
       </c>
       <c r="C70" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B71" t="s">
         <v>854</v>
       </c>
       <c r="C71" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B72" t="s">
         <v>860</v>
       </c>
       <c r="C72" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C73" t="s">
         <v>2016</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2017</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2018</v>
       </c>
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C74" t="s">
         <v>2019</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2021</v>
       </c>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B75" t="s">
         <v>863</v>
       </c>
       <c r="C75" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B76" t="s">
         <v>1065</v>
       </c>
       <c r="C76" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B77" t="s">
         <v>874</v>
       </c>
       <c r="C77" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B78" t="s">
         <v>877</v>
@@ -14990,118 +15024,118 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B79" t="s">
         <v>883</v>
       </c>
       <c r="C79" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B80" t="s">
         <v>880</v>
       </c>
       <c r="C80" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B81" t="s">
         <v>889</v>
       </c>
       <c r="C81" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C82" t="s">
         <v>2035</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2036</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2037</v>
       </c>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B83" t="s">
         <v>886</v>
       </c>
       <c r="C83" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C84" t="s">
         <v>2040</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2041</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2042</v>
       </c>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C85" t="s">
         <v>2043</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2044</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2045</v>
       </c>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C86" t="s">
         <v>2046</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2048</v>
       </c>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C87" t="s">
         <v>2049</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2050</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2051</v>
       </c>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B88" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -15110,10 +15144,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B89" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C89" t="s">
         <v>843</v>
@@ -15122,223 +15156,223 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C90" t="s">
         <v>2056</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2058</v>
       </c>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C91" t="s">
         <v>2059</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2061</v>
       </c>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C92" t="s">
         <v>2062</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2064</v>
       </c>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C93" t="s">
         <v>2065</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2067</v>
       </c>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C94" t="s">
         <v>2068</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2070</v>
       </c>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C95" t="s">
         <v>2071</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2073</v>
       </c>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C96" t="s">
         <v>2074</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2076</v>
       </c>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C97" t="s">
         <v>2077</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2078</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2079</v>
       </c>
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C98" t="s">
         <v>2080</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2082</v>
       </c>
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C99" t="s">
         <v>2083</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2084</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2085</v>
       </c>
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C100" t="s">
         <v>2086</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2087</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2088</v>
       </c>
       <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A101" s="12" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>1339</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F101" s="141"/>
+        <v>2508</v>
+      </c>
+      <c r="F101" s="132"/>
     </row>
     <row r="102" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A102" s="12" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D102" s="12" t="s">
         <v>2091</v>
       </c>
-      <c r="B102" s="12" t="s">
-        <v>2092</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>2093</v>
-      </c>
       <c r="E102" s="12" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F102" s="141"/>
+        <v>2508</v>
+      </c>
+      <c r="F102" s="132"/>
     </row>
     <row r="103" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A103" s="12" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>2094</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>2095</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>2096</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F103" s="141"/>
+        <v>2508</v>
+      </c>
+      <c r="F103" s="132"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C104" t="s">
         <v>2097</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2098</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2099</v>
       </c>
       <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C105" t="s">
         <v>2100</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2102</v>
       </c>
       <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C106" t="s">
         <v>2103</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2105</v>
       </c>
       <c r="F106" s="11"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B107" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C107" t="s">
         <v>941</v>
@@ -15347,262 +15381,262 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C108" t="s">
         <v>2108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2110</v>
       </c>
       <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B109" t="s">
         <v>1352</v>
       </c>
       <c r="C109" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C110" t="s">
         <v>2113</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2114</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2115</v>
       </c>
       <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B111" t="s">
         <v>1386</v>
       </c>
       <c r="C111" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C112" t="s">
         <v>2118</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2119</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2120</v>
       </c>
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B113" t="s">
         <v>1383</v>
       </c>
       <c r="C113" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C114" t="s">
         <v>2123</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2125</v>
       </c>
       <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C115" t="s">
         <v>2126</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2128</v>
       </c>
       <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C116" t="s">
         <v>2129</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2130</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2131</v>
       </c>
       <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B117" t="s">
         <v>1347</v>
       </c>
       <c r="C117" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B118" t="s">
         <v>1362</v>
       </c>
       <c r="C118" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F118" s="11"/>
     </row>
     <row r="119" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A119" s="12" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F119" s="141"/>
+        <v>2508</v>
+      </c>
+      <c r="F119" s="132"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B120" t="s">
         <v>1380</v>
       </c>
       <c r="C120" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B121" t="s">
         <v>1325</v>
       </c>
       <c r="C121" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B122" t="s">
         <v>1377</v>
       </c>
       <c r="C122" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C123" t="s">
         <v>2144</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2145</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2146</v>
       </c>
       <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C124" t="s">
         <v>2147</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2149</v>
       </c>
       <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B125" t="s">
         <v>1416</v>
       </c>
       <c r="C125" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B126" t="s">
         <v>1342</v>
       </c>
       <c r="C126" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C127" t="s">
         <v>2154</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2155</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2156</v>
       </c>
       <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B128" t="s">
         <v>1413</v>
       </c>
       <c r="C128" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B129" t="s">
         <v>1419</v>
@@ -15614,104 +15648,104 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="B130" t="s">
         <v>1422</v>
       </c>
       <c r="C130" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B131" t="s">
         <v>1300</v>
       </c>
       <c r="C131" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C132" t="s">
         <v>2164</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2165</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2166</v>
       </c>
       <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B133" t="s">
         <v>1336</v>
       </c>
       <c r="C133" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C134" t="s">
         <v>2169</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2171</v>
       </c>
       <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B135" t="s">
         <v>1056</v>
       </c>
       <c r="C135" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B136" t="s">
         <v>1428</v>
       </c>
       <c r="C136" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C137" t="s">
         <v>2286</v>
       </c>
-      <c r="B137" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2288</v>
-      </c>
       <c r="D137" s="12" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
@@ -15755,24 +15789,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="38.25" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="E1" s="73"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
       <c r="I1" s="75" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="J1" s="40"/>
       <c r="K1" s="41" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -15804,22 +15838,22 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>206</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3"/>
@@ -15851,10 +15885,10 @@
         <v>203</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="N4" s="42" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4"/>
@@ -15874,25 +15908,25 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="I5" s="36" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="N5" s="42" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="P5"/>
     </row>
@@ -15911,25 +15945,25 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="I6" s="37" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="N6" s="42" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="P6"/>
     </row>
@@ -16006,7 +16040,7 @@
       <c r="D10" s="99"/>
       <c r="E10" s="99"/>
       <c r="F10" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>256</v>
@@ -16044,7 +16078,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="50"/>
       <c r="G12" s="67" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="O12" s="20"/>
       <c r="P12"/>
@@ -16794,7 +16828,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="50"/>
       <c r="G56" s="67" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="O56" s="20"/>
       <c r="P56"/>
@@ -16897,7 +16931,7 @@
       </c>
       <c r="E62" s="99"/>
       <c r="F62" s="97" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="G62" s="65" t="s">
         <v>255</v>
@@ -17018,16 +17052,16 @@
         <v>54</v>
       </c>
       <c r="D69" s="99" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="E69" s="99" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F69" s="97" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G69" s="65" t="s">
         <v>2444</v>
-      </c>
-      <c r="G69" s="65" t="s">
-        <v>2446</v>
       </c>
       <c r="H69" s="101"/>
       <c r="O69" s="71"/>
@@ -17043,7 +17077,7 @@
         <v>98</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="20"/>
@@ -17144,7 +17178,7 @@
         <v>56</v>
       </c>
       <c r="G75" s="67" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="O75" s="20"/>
       <c r="P75"/>
@@ -17179,7 +17213,7 @@
         <v>87</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="20"/>
@@ -17198,7 +17232,7 @@
         <v>89</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="20"/>
@@ -17316,10 +17350,10 @@
         <v>63</v>
       </c>
       <c r="F84" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="G84" s="65" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="O84" s="71"/>
     </row>
@@ -17357,10 +17391,10 @@
       </c>
       <c r="E86" s="99"/>
       <c r="F86" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="G86" s="65" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="O86" s="71"/>
     </row>
@@ -17397,10 +17431,10 @@
       </c>
       <c r="E88" s="99"/>
       <c r="F88" s="97" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="G88" s="65" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="O88" s="71"/>
     </row>
@@ -17439,12 +17473,12 @@
         <v>76</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E90" s="32"/>
       <c r="F90" s="50"/>
       <c r="G90" s="67" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -17474,7 +17508,7 @@
       </c>
       <c r="C92" s="45"/>
       <c r="D92" s="45" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="E92" s="45" t="s">
         <v>181</v>
@@ -17492,7 +17526,7 @@
       </c>
       <c r="C93" s="45"/>
       <c r="D93" s="45" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E93" s="45" t="s">
         <v>117</v>
@@ -17503,36 +17537,36 @@
     </row>
     <row r="94" spans="1:16" s="24" customFormat="1">
       <c r="A94" s="45" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B94" s="46" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="C94" s="46" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D94" s="46" t="s">
         <v>2222</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>2224</v>
       </c>
       <c r="E94" s="46"/>
       <c r="F94" s="50"/>
       <c r="G94" s="67" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="O94" s="25"/>
     </row>
     <row r="95" spans="1:16" s="24" customFormat="1">
       <c r="A95" s="46" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C95" s="46" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D95" s="46" t="s">
         <v>2223</v>
-      </c>
-      <c r="D95" s="46" t="s">
-        <v>2225</v>
       </c>
       <c r="E95" s="46"/>
       <c r="F95" s="25"/>
@@ -17541,20 +17575,20 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="111" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="B96" s="111" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C96" s="111" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D96" s="111"/>
       <c r="E96" s="112" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="G96" s="58"/>
       <c r="O96" s="20"/>
@@ -17562,23 +17596,23 @@
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="2" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="F97" s="58" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="O97" s="20"/>
       <c r="P97"/>
@@ -17639,13 +17673,13 @@
       <c r="P102"/>
     </row>
     <row r="103" spans="1:16" s="24" customFormat="1">
-      <c r="A103" s="135" t="s">
-        <v>2435</v>
-      </c>
-      <c r="B103" s="135"/>
-      <c r="C103" s="135"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="135"/>
+      <c r="A103" s="136" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B103" s="136"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="136"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -17653,20 +17687,20 @@
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="44" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D104" s="44"/>
       <c r="E104" s="66" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="G104" t="s">
         <v>245</v>
@@ -17677,20 +17711,20 @@
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="44" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B105" s="44" t="s">
         <v>2293</v>
       </c>
-      <c r="B105" s="44" t="s">
-        <v>2295</v>
-      </c>
       <c r="C105" s="44" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="D105" s="44"/>
       <c r="E105" s="66" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="G105" t="s">
         <v>242</v>
@@ -17702,26 +17736,26 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="44" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B106" s="44" t="s">
         <v>2294</v>
       </c>
-      <c r="B106" s="44" t="s">
-        <v>2296</v>
-      </c>
       <c r="C106" s="44" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D106" s="44"/>
       <c r="E106" s="66" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="G106" t="s">
         <v>252</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -17779,14 +17813,14 @@
   <sheetData>
     <row r="1" spans="1:10" s="49" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="90" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -17818,7 +17852,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="69"/>
       <c r="J3" s="67" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17873,7 +17907,7 @@
       </c>
       <c r="H6" s="69"/>
       <c r="J6" s="67" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -17916,7 +17950,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>213</v>
@@ -17968,7 +18002,7 @@
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="103" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="E12" s="104" t="s">
         <v>54</v>
@@ -17977,10 +18011,10 @@
       <c r="G12" s="103"/>
       <c r="H12" s="105"/>
       <c r="I12" s="97" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="106" customFormat="1">
@@ -17994,17 +18028,17 @@
         <v>64</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="103"/>
       <c r="G13" s="103"/>
       <c r="H13" s="105"/>
       <c r="I13" s="97" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -18023,7 +18057,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="69"/>
       <c r="J14" s="67" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -18063,7 +18097,7 @@
         <v>255</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C17" s="103" t="s">
         <v>224</v>
@@ -18078,7 +18112,7 @@
       </c>
       <c r="H17" s="105"/>
       <c r="I17" s="97" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="J17" s="65" t="s">
         <v>257</v>
@@ -18104,7 +18138,7 @@
       </c>
       <c r="H18" s="105"/>
       <c r="I18" s="97" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="J18" s="65" t="s">
         <v>258</v>
@@ -18112,27 +18146,27 @@
     </row>
     <row r="19" spans="1:11" s="106" customFormat="1">
       <c r="A19" s="107" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="108" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F19" s="108" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="G19" s="103" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="97" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="J19" s="65" t="s">
         <v>358</v>
@@ -18186,53 +18220,53 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="39" customHeight="1">
-      <c r="A25" s="136" t="s">
-        <v>2437</v>
-      </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="138"/>
+      <c r="A25" s="137" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="139"/>
       <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="67" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="66" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F26" s="66"/>
       <c r="G26" s="68"/>
       <c r="J26" s="17" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="K26" s="98" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="67" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="66" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F27" s="66"/>
       <c r="G27" s="68"/>
@@ -18245,7 +18279,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="67" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B28" s="67" t="s">
         <v>816</v>
@@ -18255,7 +18289,7 @@
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="66" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="F28" s="66"/>
       <c r="G28" s="68"/>
@@ -18268,17 +18302,17 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="67" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B29" s="67" t="s">
         <v>819</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="D29" s="68"/>
       <c r="E29" s="66" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F29" s="66"/>
       <c r="G29" s="68"/>
@@ -18291,17 +18325,17 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="67" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B30" s="67" t="s">
         <v>907</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="D30" s="68"/>
       <c r="E30" s="66" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F30" s="66"/>
       <c r="G30" s="68"/>
@@ -18329,9 +18363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18343,25 +18377,25 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1471</v>
       </c>
@@ -18372,7 +18406,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1474</v>
       </c>
@@ -18383,7 +18417,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1477</v>
       </c>
@@ -18394,7 +18428,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1480</v>
       </c>
@@ -18405,7 +18439,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" t="s">
         <v>1483</v>
       </c>
@@ -18416,1497 +18450,1518 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="51" t="s">
         <v>1486</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="52" t="s">
         <v>1487</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="52" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="91" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A9" s="54" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>1488</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>1489</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>1491</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>1492</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>1494</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>1495</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>1497</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>1498</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>1500</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1501</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>1503</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>1504</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>1506</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>1507</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>1057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B17" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C17" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B18" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C18" t="s">
-        <v>610</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B19" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C19" t="s">
-        <v>1518</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B20" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C20" t="s">
-        <v>1272</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B21" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C21" t="s">
-        <v>1523</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B22" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C22" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B23" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C23" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B24" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C24" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B25" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C25" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B26" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C26" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="B27" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C27" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B28" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C28" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B29" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C29" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B30" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C30" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B31" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C31" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B32" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B33" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C33" t="s">
-        <v>1558</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B34" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C34" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B35" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C35" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B36" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C36" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B37" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C37" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B38" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C38" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B39" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C39" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B40" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C40" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B41" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C41" t="s">
-        <v>685</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B42" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C42" t="s">
-        <v>1584</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B43" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C43" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B44" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C44" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B45" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C45" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B46" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C46" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B47" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C47" t="s">
-        <v>864</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B48" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C48" t="s">
-        <v>1601</v>
+        <v>864</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B49" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C49" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B50" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C50" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B51" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C51" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B52" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C52" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B53" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C53" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="B54" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C54" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B55" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C55" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="B56" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C56" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>1626</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>1627</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
-      <c r="A58" s="12" t="s">
+    <row r="59" spans="1:5" hidden="1">
+      <c r="A59" s="12" t="s">
         <v>1629</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="E59" s="12" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>1632</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>1633</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="12" customFormat="1" hidden="1">
-      <c r="A60" s="12" t="s">
+    <row r="61" spans="1:5" s="12" customFormat="1" hidden="1">
+      <c r="A61" s="12" t="s">
         <v>1635</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>1636</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>1637</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1640</v>
+      <c r="E61" s="1" t="s">
+        <v>2255</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="B62" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B63" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C63" t="s">
-        <v>1645</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B64" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C64" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="B65" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C65" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="B66" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C66" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="B67" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C67" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="B68" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C68" t="s">
-        <v>1291</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B69" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C69" t="s">
-        <v>1662</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B70" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C70" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B71" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C71" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="B72" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C72" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B73" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C73" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="B74" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C74" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="B75" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C75" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="B76" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="C76" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="B77" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C77" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B78" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C78" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B79" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C79" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B80" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C80" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="B81" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C81" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B82" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C82" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="B83" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C83" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B84" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C84" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="B85" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C85" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B86" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C86" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="B87" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C87" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B88" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C88" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="B89" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C89" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B90" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C90" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="B91" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C91" t="s">
-        <v>1729</v>
+        <v>1725</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B92" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C92" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B93" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C93" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="B94" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C94" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="B95" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="C95" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B96" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C96" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B97" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C97" t="s">
-        <v>663</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B98" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C98" t="s">
-        <v>1749</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="B99" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C99" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="B100" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C100" t="s">
-        <v>1564</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B101" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C101" t="s">
-        <v>1757</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B102" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C102" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B103" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C103" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B104" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C104" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="B105" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C105" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B106" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C106" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B107" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="C107" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="B108" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="C108" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="B109" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="C109" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="B110" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="C110" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B111" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C111" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="B112" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C112" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="B113" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C113" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="B114" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="C114" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="B115" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C115" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
         <v>1800</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>1801</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1">
-      <c r="A117" s="12" t="s">
+    <row r="118" spans="1:5" s="12" customFormat="1" hidden="1">
+      <c r="A118" s="12" t="s">
         <v>1803</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>1804</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>1805</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1808</v>
+      <c r="E118" s="1" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="B119" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C119" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="B120" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C120" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B121" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C121" t="s">
-        <v>663</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B122" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C122" t="s">
-        <v>1819</v>
+        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="B123" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C123" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="B124" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="C124" t="s">
-        <v>1250</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B125" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C125" t="s">
-        <v>1827</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B126" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B127" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C127" t="s">
-        <v>515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B128" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C128" t="s">
-        <v>733</v>
+        <v>515</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B129" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C129" t="s">
-        <v>1836</v>
+        <v>733</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="B130" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="C130" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="B131" t="s">
-        <v>1841</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>1842</v>
+        <v>1838</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B132" t="s">
         <v>1843</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>1844</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B133" t="s">
         <v>1846</v>
       </c>
-      <c r="B133" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1848</v>
+      <c r="D133" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2520</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C134" t="s">
         <v>1849</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C135" t="s">
         <v>1852</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="12" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="19" customFormat="1">
       <c r="A137" s="19" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E137" s="91" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="19" customFormat="1">
       <c r="A138" s="19" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="E138" s="91" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="19" customFormat="1">
       <c r="A139" s="19" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B139" s="19" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E139" s="91" t="s">
         <v>2424</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>2312</v>
-      </c>
-      <c r="E139" s="91" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B140" s="19" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>2311</v>
+      </c>
+      <c r="E140" s="91" t="s">
         <v>2425</v>
       </c>
-      <c r="C140" s="19" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E140" s="91" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="19" customFormat="1"/>
+    </row>
+    <row r="141" spans="1:5" s="19" customFormat="1">
+      <c r="A141" s="19" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E141" s="91" t="s">
+        <v>2519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19939,18 +19994,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="H1" s="39"/>
       <c r="I1" s="41" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -20877,7 +20932,7 @@
         <v>785</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="G48" t="s">
         <v>752</v>
@@ -20891,16 +20946,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B49">
         <v>41010</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="G49" t="s">
         <v>760</v>
@@ -20934,7 +20989,7 @@
         <v>765</v>
       </c>
       <c r="K51" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -20972,30 +21027,30 @@
     </row>
     <row r="55" spans="1:11">
       <c r="G55" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="H55">
         <v>40022</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="B56">
         <v>10037</v>
       </c>
       <c r="D56" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
   </sheetData>
@@ -21037,24 +21092,24 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>1469</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="41" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="I1" s="75" t="s">
         <v>1470</v>
       </c>
       <c r="J1" s="39"/>
       <c r="K1" s="41" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="M1" s="125" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -21456,7 +21511,7 @@
         <v>819</v>
       </c>
       <c r="C16" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="E16" t="s">
         <v>1374</v>
@@ -21584,16 +21639,16 @@
         <v>1464</v>
       </c>
       <c r="I20" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="J20" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="K20" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="21" spans="1:12">

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="2569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="2579">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8391,6 +8391,44 @@
   </si>
   <si>
     <t>RM_2J9</t>
+  </si>
+  <si>
+    <t>탈퇴일자 2019-06-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 계약시 입찰 참여할 수도 있다. 사용료 확인!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_J09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사</t>
+  </si>
+  <si>
+    <t>부강레미콘㈜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사 2019-10-01부터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한내레미콘(주)</t>
+  </si>
+  <si>
+    <t>101-305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8758,7 +8796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9194,6 +9232,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9215,17 +9277,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11136,9 +11189,9 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11368,36 +11421,36 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="48" customFormat="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142" t="s">
         <v>2248</v>
       </c>
       <c r="H15" s="48" t="s">
@@ -12571,7 +12624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12598,7 +12651,7 @@
     <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12755,15 +12808,18 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1126</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>1127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2569</v>
       </c>
     </row>
   </sheetData>
@@ -12795,10 +12851,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="153" t="s">
         <v>2491</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="88" t="s">
         <v>2484</v>
       </c>
@@ -13075,13 +13131,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13186,10 +13242,10 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="154" t="s">
         <v>2240</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="155" t="s">
         <v>2244</v>
       </c>
     </row>
@@ -13222,8 +13278,8 @@
       <c r="L4" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="155"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -14294,6 +14350,17 @@
       <c r="E75" s="2"/>
       <c r="F75" s="20" t="s">
         <v>2542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" s="139" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2576</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2578</v>
       </c>
     </row>
   </sheetData>
@@ -16137,9 +16204,9 @@
   </sheetPr>
   <dimension ref="A1:U110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16190,7 +16257,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="10">
         <f>COUNTA(C3:C98)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
@@ -16214,7 +16281,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="32"/>
-      <c r="E3" s="152"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="32"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -16254,7 +16321,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="152"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="32"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -16295,7 +16362,7 @@
         <v>191</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="152"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="32"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -16338,7 +16405,7 @@
         <v>193</v>
       </c>
       <c r="D6" s="32"/>
-      <c r="E6" s="152"/>
+      <c r="E6" s="145"/>
       <c r="F6" s="32"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -16356,7 +16423,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="32"/>
-      <c r="E7" s="152"/>
+      <c r="E7" s="145"/>
       <c r="F7" s="32"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -16372,7 +16439,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="32"/>
-      <c r="E8" s="152"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="32"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -16399,7 +16466,7 @@
         <v>189</v>
       </c>
       <c r="D9" s="32"/>
-      <c r="E9" s="152"/>
+      <c r="E9" s="145"/>
       <c r="F9" s="32"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -16441,7 +16508,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="32"/>
-      <c r="E10" s="152"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="32"/>
       <c r="G10" s="95" t="s">
         <v>2434</v>
@@ -16462,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="D11" s="32"/>
-      <c r="E11" s="152"/>
+      <c r="E11" s="145"/>
       <c r="F11" s="32"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
@@ -16480,7 +16547,7 @@
         <v>187</v>
       </c>
       <c r="D12" s="32"/>
-      <c r="E12" s="152"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="32"/>
       <c r="G12" s="48"/>
       <c r="H12" s="65" t="s">
@@ -16500,7 +16567,7 @@
         <v>183</v>
       </c>
       <c r="D13" s="32"/>
-      <c r="E13" s="152"/>
+      <c r="E13" s="145"/>
       <c r="F13" s="32"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -16518,7 +16585,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="32"/>
-      <c r="E14" s="152"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="32"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
@@ -16536,7 +16603,7 @@
         <v>197</v>
       </c>
       <c r="D15" s="32"/>
-      <c r="E15" s="152"/>
+      <c r="E15" s="145"/>
       <c r="F15" s="32"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -16554,7 +16621,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="32"/>
-      <c r="E16" s="152"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="32"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
@@ -16572,7 +16639,7 @@
         <v>174</v>
       </c>
       <c r="D17" s="32"/>
-      <c r="E17" s="152"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="32"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -16590,7 +16657,7 @@
         <v>176</v>
       </c>
       <c r="D18" s="32"/>
-      <c r="E18" s="152"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="32"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -16608,7 +16675,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="32"/>
-      <c r="E19" s="152"/>
+      <c r="E19" s="145"/>
       <c r="F19" s="32"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
@@ -16626,7 +16693,7 @@
         <v>162</v>
       </c>
       <c r="D20" s="32"/>
-      <c r="E20" s="152"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="32"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -16644,7 +16711,7 @@
         <v>164</v>
       </c>
       <c r="D21" s="32"/>
-      <c r="E21" s="152"/>
+      <c r="E21" s="145"/>
       <c r="F21" s="32"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -16662,7 +16729,7 @@
         <v>166</v>
       </c>
       <c r="D22" s="32"/>
-      <c r="E22" s="152"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="32"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -16680,7 +16747,7 @@
         <v>168</v>
       </c>
       <c r="D23" s="32"/>
-      <c r="E23" s="152"/>
+      <c r="E23" s="145"/>
       <c r="F23" s="32"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -16698,7 +16765,7 @@
         <v>170</v>
       </c>
       <c r="D24" s="32"/>
-      <c r="E24" s="152"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="32"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -16716,7 +16783,7 @@
         <v>172</v>
       </c>
       <c r="D25" s="32"/>
-      <c r="E25" s="152"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="32"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -16734,7 +16801,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="32"/>
-      <c r="E26" s="152"/>
+      <c r="E26" s="145"/>
       <c r="F26" s="32"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -16752,7 +16819,7 @@
         <v>156</v>
       </c>
       <c r="D27" s="32"/>
-      <c r="E27" s="152"/>
+      <c r="E27" s="145"/>
       <c r="F27" s="32"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -16770,7 +16837,7 @@
         <v>158</v>
       </c>
       <c r="D28" s="32"/>
-      <c r="E28" s="152"/>
+      <c r="E28" s="145"/>
       <c r="F28" s="32"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -16788,7 +16855,7 @@
         <v>160</v>
       </c>
       <c r="D29" s="32"/>
-      <c r="E29" s="152"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="32"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -16806,7 +16873,7 @@
         <v>199</v>
       </c>
       <c r="D30" s="32"/>
-      <c r="E30" s="152"/>
+      <c r="E30" s="145"/>
       <c r="F30" s="32"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -16824,7 +16891,7 @@
         <v>42</v>
       </c>
       <c r="D31" s="32"/>
-      <c r="E31" s="152"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="32"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -16842,7 +16909,7 @@
         <v>141</v>
       </c>
       <c r="D32" s="32"/>
-      <c r="E32" s="152"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="32"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -16860,7 +16927,7 @@
         <v>143</v>
       </c>
       <c r="D33" s="32"/>
-      <c r="E33" s="152"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="32"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -16878,7 +16945,7 @@
         <v>145</v>
       </c>
       <c r="D34" s="32"/>
-      <c r="E34" s="152"/>
+      <c r="E34" s="145"/>
       <c r="F34" s="32"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -16896,7 +16963,7 @@
         <v>147</v>
       </c>
       <c r="D35" s="32"/>
-      <c r="E35" s="152"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="32"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
@@ -16914,7 +16981,7 @@
         <v>149</v>
       </c>
       <c r="D36" s="32"/>
-      <c r="E36" s="152"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="32"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -16932,7 +16999,7 @@
         <v>151</v>
       </c>
       <c r="D37" s="32"/>
-      <c r="E37" s="152"/>
+      <c r="E37" s="145"/>
       <c r="F37" s="32"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -16950,7 +17017,7 @@
         <v>104</v>
       </c>
       <c r="D38" s="32"/>
-      <c r="E38" s="152"/>
+      <c r="E38" s="145"/>
       <c r="F38" s="32"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -16968,7 +17035,7 @@
         <v>154</v>
       </c>
       <c r="D39" s="32"/>
-      <c r="E39" s="152"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="32"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -16986,7 +17053,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="32"/>
-      <c r="E40" s="152"/>
+      <c r="E40" s="145"/>
       <c r="F40" s="32"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -17004,7 +17071,7 @@
         <v>134</v>
       </c>
       <c r="D41" s="32"/>
-      <c r="E41" s="152"/>
+      <c r="E41" s="145"/>
       <c r="F41" s="32"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -17022,7 +17089,7 @@
         <v>46</v>
       </c>
       <c r="D42" s="32"/>
-      <c r="E42" s="152"/>
+      <c r="E42" s="145"/>
       <c r="F42" s="32"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -17040,7 +17107,7 @@
         <v>130</v>
       </c>
       <c r="D43" s="32"/>
-      <c r="E43" s="152"/>
+      <c r="E43" s="145"/>
       <c r="F43" s="32"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
@@ -17058,7 +17125,7 @@
         <v>132</v>
       </c>
       <c r="D44" s="32"/>
-      <c r="E44" s="152"/>
+      <c r="E44" s="145"/>
       <c r="F44" s="32"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
@@ -17076,7 +17143,7 @@
         <v>50</v>
       </c>
       <c r="D45" s="32"/>
-      <c r="E45" s="152"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="32"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
@@ -17094,7 +17161,7 @@
         <v>80</v>
       </c>
       <c r="D46" s="32"/>
-      <c r="E46" s="152"/>
+      <c r="E46" s="145"/>
       <c r="F46" s="32"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
@@ -17112,7 +17179,7 @@
         <v>59</v>
       </c>
       <c r="D47" s="32"/>
-      <c r="E47" s="152"/>
+      <c r="E47" s="145"/>
       <c r="F47" s="32"/>
       <c r="G47" s="48"/>
       <c r="H47" s="65" t="s">
@@ -17132,7 +17199,7 @@
         <v>82</v>
       </c>
       <c r="D48" s="32"/>
-      <c r="E48" s="152"/>
+      <c r="E48" s="145"/>
       <c r="F48" s="32"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
@@ -17150,7 +17217,7 @@
         <v>120</v>
       </c>
       <c r="D49" s="32"/>
-      <c r="E49" s="152" t="s">
+      <c r="E49" s="145" t="s">
         <v>119</v>
       </c>
       <c r="F49" s="32"/>
@@ -17170,7 +17237,7 @@
         <v>122</v>
       </c>
       <c r="D50" s="32"/>
-      <c r="E50" s="152"/>
+      <c r="E50" s="145"/>
       <c r="F50" s="32"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
@@ -17184,11 +17251,13 @@
       <c r="B51" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="32"/>
+      <c r="D51" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="13"/>
+      <c r="E51" s="149" t="s">
+        <v>2570</v>
+      </c>
       <c r="F51" s="32"/>
       <c r="G51" s="95" t="s">
         <v>2432</v>
@@ -17210,7 +17279,7 @@
         <v>128</v>
       </c>
       <c r="D52" s="32"/>
-      <c r="E52" s="152"/>
+      <c r="E52" s="145"/>
       <c r="F52" s="32"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -17228,7 +17297,7 @@
         <v>195</v>
       </c>
       <c r="D53" s="32"/>
-      <c r="E53" s="152"/>
+      <c r="E53" s="145"/>
       <c r="F53" s="32"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
@@ -17246,7 +17315,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="32"/>
-      <c r="E54" s="152"/>
+      <c r="E54" s="145"/>
       <c r="F54" s="32"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
@@ -17264,7 +17333,7 @@
         <v>109</v>
       </c>
       <c r="D55" s="32"/>
-      <c r="E55" s="152"/>
+      <c r="E55" s="145"/>
       <c r="F55" s="32"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
@@ -17282,7 +17351,7 @@
         <v>111</v>
       </c>
       <c r="D56" s="32"/>
-      <c r="E56" s="152"/>
+      <c r="E56" s="145"/>
       <c r="F56" s="32"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -17300,7 +17369,7 @@
         <v>113</v>
       </c>
       <c r="D57" s="32"/>
-      <c r="E57" s="152"/>
+      <c r="E57" s="145"/>
       <c r="F57" s="32"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -17318,7 +17387,7 @@
         <v>54</v>
       </c>
       <c r="D58" s="32"/>
-      <c r="E58" s="152" t="s">
+      <c r="E58" s="145" t="s">
         <v>2372</v>
       </c>
       <c r="F58" s="32" t="s">
@@ -17344,7 +17413,7 @@
         <v>98</v>
       </c>
       <c r="D59" s="32"/>
-      <c r="E59" s="152" t="s">
+      <c r="E59" s="145" t="s">
         <v>2210</v>
       </c>
       <c r="F59" s="32"/>
@@ -17364,7 +17433,7 @@
         <v>100</v>
       </c>
       <c r="D60" s="32"/>
-      <c r="E60" s="152"/>
+      <c r="E60" s="145"/>
       <c r="F60" s="32"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -17382,7 +17451,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="32"/>
-      <c r="E61" s="152"/>
+      <c r="E61" s="145"/>
       <c r="F61" s="32"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -17408,7 +17477,7 @@
         <v>106</v>
       </c>
       <c r="D62" s="32"/>
-      <c r="E62" s="152"/>
+      <c r="E62" s="145"/>
       <c r="F62" s="32" t="s">
         <v>56</v>
       </c>
@@ -17428,7 +17497,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="32"/>
-      <c r="E63" s="152"/>
+      <c r="E63" s="145"/>
       <c r="F63" s="32" t="s">
         <v>56</v>
       </c>
@@ -17448,7 +17517,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="32"/>
-      <c r="E64" s="152"/>
+      <c r="E64" s="145"/>
       <c r="F64" s="32" t="s">
         <v>56</v>
       </c>
@@ -17469,7 +17538,7 @@
         <v>87</v>
       </c>
       <c r="D65" s="32"/>
-      <c r="E65" s="152" t="s">
+      <c r="E65" s="145" t="s">
         <v>2211</v>
       </c>
       <c r="F65" s="32"/>
@@ -17489,7 +17558,7 @@
         <v>89</v>
       </c>
       <c r="D66" s="32"/>
-      <c r="E66" s="152" t="s">
+      <c r="E66" s="145" t="s">
         <v>2212</v>
       </c>
       <c r="F66" s="32"/>
@@ -17509,7 +17578,7 @@
         <v>92</v>
       </c>
       <c r="D67" s="32"/>
-      <c r="E67" s="152" t="s">
+      <c r="E67" s="145" t="s">
         <v>91</v>
       </c>
       <c r="F67" s="32"/>
@@ -17529,7 +17598,7 @@
         <v>94</v>
       </c>
       <c r="D68" s="32"/>
-      <c r="E68" s="152"/>
+      <c r="E68" s="145"/>
       <c r="F68" s="32" t="s">
         <v>63</v>
       </c>
@@ -17549,7 +17618,7 @@
         <v>96</v>
       </c>
       <c r="D69" s="32"/>
-      <c r="E69" s="152"/>
+      <c r="E69" s="145"/>
       <c r="F69" s="32" t="s">
         <v>56</v>
       </c>
@@ -17567,7 +17636,7 @@
       </c>
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
-      <c r="E70" s="152" t="s">
+      <c r="E70" s="145" t="s">
         <v>61</v>
       </c>
       <c r="F70" s="32" t="s">
@@ -17587,7 +17656,7 @@
       </c>
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
-      <c r="E71" s="152" t="s">
+      <c r="E71" s="145" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="32" t="s">
@@ -17609,7 +17678,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="32"/>
-      <c r="E72" s="152"/>
+      <c r="E72" s="145"/>
       <c r="F72" s="32" t="s">
         <v>63</v>
       </c>
@@ -17632,7 +17701,7 @@
         <v>66</v>
       </c>
       <c r="D73" s="32"/>
-      <c r="E73" s="152"/>
+      <c r="E73" s="145"/>
       <c r="F73" s="32" t="s">
         <v>56</v>
       </c>
@@ -17652,7 +17721,7 @@
         <v>69</v>
       </c>
       <c r="D74" s="32"/>
-      <c r="E74" s="152" t="s">
+      <c r="E74" s="145" t="s">
         <v>68</v>
       </c>
       <c r="F74" s="32"/>
@@ -17695,7 +17764,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="32"/>
-      <c r="E76" s="152" t="s">
+      <c r="E76" s="145" t="s">
         <v>73</v>
       </c>
       <c r="F76" s="32"/>
@@ -17716,7 +17785,7 @@
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
-      <c r="E77" s="152" t="s">
+      <c r="E77" s="145" t="s">
         <v>584</v>
       </c>
       <c r="F77" s="32" t="s">
@@ -17745,7 +17814,7 @@
         <v>76</v>
       </c>
       <c r="D78" s="32"/>
-      <c r="E78" s="152" t="s">
+      <c r="E78" s="145" t="s">
         <v>2271</v>
       </c>
       <c r="F78" s="32"/>
@@ -17768,7 +17837,7 @@
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
-      <c r="E79" s="152"/>
+      <c r="E79" s="145"/>
       <c r="F79" s="32"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
@@ -17784,7 +17853,7 @@
       </c>
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
-      <c r="E80" s="153" t="s">
+      <c r="E80" s="146" t="s">
         <v>2220</v>
       </c>
       <c r="F80" s="36" t="s">
@@ -17803,7 +17872,7 @@
       </c>
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
-      <c r="E81" s="153" t="s">
+      <c r="E81" s="146" t="s">
         <v>2221</v>
       </c>
       <c r="F81" s="36" t="s">
@@ -17824,7 +17893,7 @@
         <v>2216</v>
       </c>
       <c r="D82" s="37"/>
-      <c r="E82" s="154" t="s">
+      <c r="E82" s="147" t="s">
         <v>2218</v>
       </c>
       <c r="F82" s="37"/>
@@ -17845,7 +17914,7 @@
         <v>2217</v>
       </c>
       <c r="D83" s="37"/>
-      <c r="E83" s="154" t="s">
+      <c r="E83" s="147" t="s">
         <v>2219</v>
       </c>
       <c r="F83" s="37"/>
@@ -17864,7 +17933,7 @@
         <v>2454</v>
       </c>
       <c r="D84" s="37"/>
-      <c r="E84" s="152" t="s">
+      <c r="E84" s="145" t="s">
         <v>2440</v>
       </c>
       <c r="F84" s="130" t="s">
@@ -17877,7 +17946,7 @@
       <c r="S84"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="148" t="s">
         <v>2536</v>
       </c>
       <c r="B85" s="2"/>
@@ -17899,7 +17968,7 @@
         <v>124</v>
       </c>
       <c r="D86" s="36"/>
-      <c r="E86" s="153"/>
+      <c r="E86" s="146"/>
       <c r="F86" s="36"/>
       <c r="G86" s="56"/>
       <c r="H86" s="56"/>
@@ -17917,7 +17986,7 @@
         <v>48</v>
       </c>
       <c r="D87" s="32"/>
-      <c r="E87" s="152"/>
+      <c r="E87" s="145"/>
       <c r="F87" s="32"/>
       <c r="G87" s="56"/>
       <c r="H87" s="56"/>
@@ -17935,7 +18004,7 @@
         <v>137</v>
       </c>
       <c r="D88" s="32"/>
-      <c r="E88" s="152"/>
+      <c r="E88" s="145"/>
       <c r="F88" s="32"/>
       <c r="J88" s="20"/>
       <c r="K88" s="20"/>
@@ -17958,7 +18027,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="32"/>
-      <c r="E89" s="152"/>
+      <c r="E89" s="145"/>
       <c r="F89" s="32"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -17981,16 +18050,16 @@
         <v>21</v>
       </c>
       <c r="D90" s="32"/>
-      <c r="E90" s="152"/>
+      <c r="E90" s="145"/>
       <c r="F90" s="32"/>
-      <c r="J90" s="148" t="s">
+      <c r="J90" s="156" t="s">
         <v>2426</v>
       </c>
-      <c r="K90" s="148"/>
-      <c r="L90" s="148"/>
-      <c r="M90" s="148"/>
-      <c r="N90" s="148"/>
-      <c r="O90" s="148"/>
+      <c r="K90" s="156"/>
+      <c r="L90" s="156"/>
+      <c r="M90" s="156"/>
+      <c r="N90" s="156"/>
+      <c r="O90" s="156"/>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
@@ -18006,7 +18075,7 @@
         <v>85</v>
       </c>
       <c r="D91" s="32"/>
-      <c r="E91" s="152" t="s">
+      <c r="E91" s="145" t="s">
         <v>84</v>
       </c>
       <c r="F91" s="32"/>
@@ -18049,7 +18118,7 @@
         <v>139</v>
       </c>
       <c r="D92" s="32"/>
-      <c r="E92" s="152"/>
+      <c r="E92" s="145"/>
       <c r="F92" s="32"/>
       <c r="J92" s="44" t="s">
         <v>2287</v>
@@ -18087,7 +18156,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="32"/>
-      <c r="E93" s="152"/>
+      <c r="E93" s="145"/>
       <c r="F93" s="32"/>
       <c r="J93" s="44" t="s">
         <v>2288</v>
@@ -18125,7 +18194,7 @@
         <v>32</v>
       </c>
       <c r="D94" s="32"/>
-      <c r="E94" s="152"/>
+      <c r="E94" s="145"/>
       <c r="F94" s="32"/>
       <c r="R94" s="24"/>
       <c r="S94"/>
@@ -18141,7 +18210,7 @@
         <v>2229</v>
       </c>
       <c r="D95" s="32"/>
-      <c r="E95" s="152"/>
+      <c r="E95" s="145"/>
       <c r="F95" s="130" t="s">
         <v>2355</v>
       </c>
@@ -18158,7 +18227,7 @@
         <v>178</v>
       </c>
       <c r="D96" s="32"/>
-      <c r="E96" s="152"/>
+      <c r="E96" s="145"/>
       <c r="F96" s="32"/>
       <c r="R96" s="24"/>
       <c r="S96"/>
@@ -18174,7 +18243,7 @@
         <v>115</v>
       </c>
       <c r="D97" s="32"/>
-      <c r="E97" s="152"/>
+      <c r="E97" s="145"/>
       <c r="F97" s="32"/>
       <c r="I97" s="24"/>
     </row>
@@ -18189,7 +18258,7 @@
         <v>179</v>
       </c>
       <c r="D98" s="32"/>
-      <c r="E98" s="152"/>
+      <c r="E98" s="145"/>
       <c r="F98" s="32"/>
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
@@ -18293,11 +18362,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="A1:D19"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18333,7 +18402,7 @@
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10">
-        <f>COUNTA(C3:C19)</f>
+        <f>COUNTA(C3:C20)</f>
         <v>14</v>
       </c>
       <c r="D2" s="10"/>
@@ -18583,134 +18652,145 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="A15" s="151" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B15" s="152" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E15" s="143" t="s">
+        <v>2575</v>
+      </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="9"/>
       <c r="I15" s="67"/>
+      <c r="K15" s="150"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="46" t="s">
+        <v>2573</v>
+      </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="9"/>
       <c r="I16" s="67"/>
     </row>
-    <row r="17" spans="1:12" s="102" customFormat="1">
+    <row r="17" spans="1:12">
       <c r="A17" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>2423</v>
+        <v>223</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="95" t="s">
-        <v>2432</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>256</v>
-      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="1:12" s="102" customFormat="1">
       <c r="A18" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>15</v>
+        <v>2423</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="99"/>
       <c r="H18" s="99" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I18" s="101"/>
       <c r="J18" s="95" t="s">
         <v>2432</v>
       </c>
       <c r="K18" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="102" customFormat="1">
       <c r="A19" s="45" t="s">
-        <v>2333</v>
+        <v>255</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>2366</v>
+        <v>15</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>2299</v>
+        <v>30</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="103" t="s">
-        <v>2357</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>2367</v>
-      </c>
+      <c r="E19" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="99" t="s">
-        <v>2511</v>
-      </c>
-      <c r="I19" s="99" t="s">
-        <v>2424</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="I19" s="101"/>
       <c r="J19" s="95" t="s">
         <v>2432</v>
       </c>
       <c r="K19" s="63" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="102" customFormat="1">
+      <c r="A20" s="45" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="103" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H20" s="99" t="s">
+        <v>2511</v>
+      </c>
+      <c r="I20" s="99" t="s">
+        <v>2424</v>
+      </c>
+      <c r="J20" s="95" t="s">
+        <v>2432</v>
+      </c>
+      <c r="K20" s="63" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="93"/>
@@ -18746,130 +18826,117 @@
       <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="39" customHeight="1">
-      <c r="A25" s="149" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="39" customHeight="1">
+      <c r="A26" s="157" t="s">
         <v>2428</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="65" t="s">
-        <v>2336</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>2301</v>
-      </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64" t="s">
-        <v>2357</v>
-      </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="66"/>
-      <c r="K26" s="17" t="s">
-        <v>2215</v>
-      </c>
-      <c r="L26" s="96" t="s">
-        <v>2246</v>
-      </c>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="65" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>1875</v>
+        <v>1967</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="64" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="66"/>
       <c r="K27" s="17" t="s">
-        <v>281</v>
+        <v>2215</v>
       </c>
       <c r="L27" s="96" t="s">
-        <v>188</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="65" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>814</v>
+        <v>1875</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>59</v>
+        <v>2303</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="64" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="66"/>
       <c r="K28" s="17" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="L28" s="96" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="65" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>2302</v>
+        <v>59</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="64" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="66"/>
       <c r="K29" s="17" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="L29" s="96" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="65" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>905</v>
+        <v>817</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -18879,9 +18946,33 @@
       <c r="G30" s="64"/>
       <c r="H30" s="66"/>
       <c r="K30" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="L30" s="96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="65" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>905</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="64" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G31" s="64"/>
+      <c r="H31" s="66"/>
+      <c r="K31" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="L30" s="96" t="s">
+      <c r="L31" s="96" t="s">
         <v>58</v>
       </c>
     </row>
@@ -18890,7 +18981,7 @@
     <sortCondition ref="A19:A24"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="2579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2587">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -3615,9 +3615,6 @@
   </si>
   <si>
     <t>103-060</t>
-  </si>
-  <si>
-    <t>대현씨엠(주)부산공장</t>
   </si>
   <si>
     <t>RM_C01</t>
@@ -8427,7 +8424,40 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신규가입</t>
+    <t>100-154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에코닉스레미콘</t>
+  </si>
+  <si>
+    <t>RM_8A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규-배정 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05이후로 탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_1A9</t>
+  </si>
+  <si>
+    <t>RM_1A8</t>
+  </si>
+  <si>
+    <t>시경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 2019-08까지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8796,7 +8826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9277,9 +9307,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -9571,102 +9598,102 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
   </sheetData>
@@ -9677,11 +9704,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9695,20 +9722,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C203)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9867,8 +9894,11 @@
       <c r="B16" t="s">
         <v>820</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>821</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>2581</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9970,7 +10000,7 @@
         <v>847</v>
       </c>
       <c r="E25" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9980,8 +10010,11 @@
       <c r="B26" t="s">
         <v>849</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>850</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>2581</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10132,38 +10165,53 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B41" t="s">
         <v>2254</v>
       </c>
-      <c r="B41" t="s">
-        <v>2255</v>
-      </c>
       <c r="C41" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D41" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>2473</v>
+        <v>2474</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>2472</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B42" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C42" t="s">
-        <v>2310</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>2369</v>
+        <v>2309</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>2580</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10186,11 +10234,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10232,7 +10280,7 @@
         <v>987</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10601,7 +10649,7 @@
         <v>1049</v>
       </c>
       <c r="D38" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10617,16 +10665,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B40" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C40" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1">
@@ -10640,21 +10688,21 @@
         <v>1020</v>
       </c>
       <c r="E41" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B42" t="s">
         <v>2546</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>2547</v>
       </c>
-      <c r="C42" t="s">
-        <v>2548</v>
-      </c>
       <c r="D42" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
   </sheetData>
@@ -10667,9 +10715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10683,17 +10731,17 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" s="4">
         <f>COUNTA(C3:C42)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10825,13 +10873,13 @@
         <v>918</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2340</v>
+      </c>
+      <c r="E14" t="s">
         <v>2339</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2341</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2340</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
@@ -10845,7 +10893,7 @@
         <v>921</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10859,7 +10907,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>925</v>
       </c>
@@ -10870,7 +10918,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>928</v>
       </c>
@@ -10881,7 +10929,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>931</v>
       </c>
@@ -10892,7 +10940,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>934</v>
       </c>
@@ -10903,7 +10951,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>942</v>
       </c>
@@ -10914,7 +10962,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>945</v>
       </c>
@@ -10925,7 +10973,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>950</v>
       </c>
@@ -10936,18 +10984,24 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" s="12" customFormat="1">
+      <c r="A24" s="12" t="s">
         <v>953</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="12" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
         <v>956</v>
       </c>
@@ -10959,10 +11013,10 @@
         <v>958</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>959</v>
       </c>
@@ -10973,7 +11027,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>962</v>
       </c>
@@ -10984,7 +11038,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>965</v>
       </c>
@@ -10995,7 +11049,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" t="s">
         <v>897</v>
       </c>
@@ -11006,7 +11060,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>937</v>
       </c>
@@ -11017,7 +11071,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>967</v>
       </c>
@@ -11028,7 +11082,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>970</v>
       </c>
@@ -11041,16 +11095,16 @@
     </row>
     <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B33" t="s">
         <v>2319</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>2320</v>
       </c>
-      <c r="D33" t="s">
-        <v>2321</v>
-      </c>
       <c r="E33" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11064,24 +11118,24 @@
         <v>972</v>
       </c>
       <c r="D34" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E34" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B35" t="s">
         <v>949</v>
       </c>
       <c r="D35" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E35" t="s">
         <v>2314</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -11095,7 +11149,7 @@
         <v>978</v>
       </c>
       <c r="D36" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E36" t="s">
         <v>948</v>
@@ -11103,16 +11157,16 @@
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B37" t="s">
         <v>941</v>
       </c>
       <c r="D37" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E37" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="23" customFormat="1">
@@ -11120,16 +11174,16 @@
         <v>940</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>2273</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>2274</v>
-      </c>
       <c r="D38" s="23" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11145,30 +11199,30 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B40" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C40" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B41" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C41" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="F41" t="s">
         <v>921</v>
@@ -11189,9 +11243,9 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11207,13 +11261,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11273,17 +11327,17 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="H5" s="21" t="s">
+        <v>2515</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11333,7 +11387,7 @@
     </row>
     <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -11341,29 +11395,29 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>228</v>
@@ -11383,7 +11437,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11438,50 +11492,50 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="48" customFormat="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142" t="s">
-        <v>2248</v>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>2247</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>2453</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="A16" s="134" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>2448</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>2451</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>2450</v>
-      </c>
-      <c r="H16" s="105" t="s">
-        <v>2446</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>2449</v>
       </c>
     </row>
   </sheetData>
@@ -11512,11 +11566,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -11526,26 +11580,26 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1274</v>
-      </c>
       <c r="D3" s="109" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -11554,40 +11608,40 @@
         <v>1080</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B5" t="s">
         <v>1276</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1277</v>
       </c>
-      <c r="C5" t="s">
-        <v>1278</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B7" t="s">
         <v>817</v>
@@ -11596,135 +11650,135 @@
         <v>859</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B8" t="s">
         <v>932</v>
       </c>
       <c r="C8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B9" t="s">
         <v>935</v>
       </c>
       <c r="C9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="26" customFormat="1">
       <c r="A10" s="26" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>1286</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>2226</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>938</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B12" t="s">
         <v>943</v>
       </c>
       <c r="C12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B13" t="s">
         <v>915</v>
       </c>
       <c r="C13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B14" t="s">
         <v>1294</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1295</v>
       </c>
-      <c r="C14" t="s">
-        <v>1296</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B15" s="112" t="s">
         <v>2461</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>2462</v>
       </c>
       <c r="D15" s="109"/>
       <c r="E15" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="113" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="12" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -11732,10 +11786,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>2468</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>2469</v>
       </c>
     </row>
   </sheetData>
@@ -11764,11 +11818,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -11778,99 +11832,99 @@
         <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B3" t="s">
         <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B5" t="s">
         <v>986</v>
       </c>
       <c r="C5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B6" t="s">
         <v>1264</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1265</v>
       </c>
-      <c r="C6" t="s">
-        <v>1266</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B8" t="s">
         <v>938</v>
       </c>
       <c r="C8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E8" t="s">
         <v>2222</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B9" t="s">
         <v>221</v>
@@ -11879,7 +11933,7 @@
         <v>804</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
   </sheetData>
@@ -11907,11 +11961,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11927,287 +11981,287 @@
       <c r="B3" t="s">
         <v>1184</v>
       </c>
-      <c r="C3" t="s">
-        <v>1185</v>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B4" t="s">
         <v>1186</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B5" t="s">
         <v>1189</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B6" t="s">
         <v>1192</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B7" t="s">
         <v>1195</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1196</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B8" t="s">
         <v>1198</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B9" t="s">
         <v>1201</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1">
       <c r="A10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B10" t="s">
         <v>1204</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1205</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="49" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>1207</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="C11" s="50" t="s">
         <v>1208</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>1209</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1">
       <c r="A12" s="52" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>1232</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>1233</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B13" t="s">
         <v>1210</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1211</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B14" t="s">
         <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B15" t="s">
         <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickBot="1">
       <c r="A16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B16" t="s">
         <v>1217</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1218</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="49" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>1220</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="C17" s="50" t="s">
         <v>1221</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>1222</v>
       </c>
       <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" thickBot="1">
       <c r="A18" s="52" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B18" s="53" t="s">
         <v>1223</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>1224</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B19" t="s">
         <v>1226</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>1227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B20" t="s">
         <v>1229</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1230</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B22" t="s">
         <v>1237</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1238</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B23" t="s">
         <v>1240</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1241</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B24" t="s">
         <v>1243</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1244</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B25" t="s">
         <v>1246</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1247</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B26" t="s">
         <v>1249</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>1250</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B27" t="s">
         <v>1252</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1253</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B28" t="s">
         <v>1255</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1256</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -12236,14 +12290,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12441,16 +12495,16 @@
     </row>
     <row r="20" spans="1:4" s="12" customFormat="1">
       <c r="A20" s="12" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>2276</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>2277</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>2278</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
   </sheetData>
@@ -12478,11 +12532,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -12585,30 +12639,30 @@
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>2346</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>2347</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>2348</v>
-      </c>
       <c r="D11" s="60" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
       <c r="A12" s="13" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D12" s="60" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E12" s="133" t="s">
         <v>2525</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>2526</v>
       </c>
     </row>
   </sheetData>
@@ -12638,14 +12692,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12819,7 +12873,7 @@
         <v>1127</v>
       </c>
       <c r="E17" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
   </sheetData>
@@ -12852,11 +12906,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" s="153" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="88" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -12865,23 +12919,23 @@
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2492</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2493</v>
       </c>
       <c r="D4" s="122">
         <f>(F4*G4)*12</f>
         <v>87780000</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="120">
         <v>133</v>
@@ -12896,7 +12950,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B6" s="29"/>
       <c r="D6" s="121"/>
@@ -12904,10 +12958,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D7" s="123">
         <v>50000</v>
@@ -12916,10 +12970,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D8" s="123">
         <v>100000</v>
@@ -12928,10 +12982,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D9" s="123">
         <v>100000</v>
@@ -12968,14 +13022,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13131,13 +13185,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13163,7 +13217,7 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="41" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D1" s="72"/>
       <c r="F1" s="74"/>
@@ -13172,10 +13226,10 @@
       </c>
       <c r="H1" s="104"/>
       <c r="I1" s="41" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K1" s="76" t="s">
         <v>588</v>
@@ -13193,7 +13247,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E2" s="82">
         <f>C2*40000*3</f>
@@ -13208,10 +13262,10 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="79" t="s">
+        <v>2388</v>
+      </c>
+      <c r="L2" s="80" t="s">
         <v>2389</v>
-      </c>
-      <c r="L2" s="80" t="s">
-        <v>2390</v>
       </c>
       <c r="M2" s="61"/>
     </row>
@@ -13236,17 +13290,17 @@
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="32" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="K3" s="33">
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="154" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -13311,10 +13365,10 @@
         <v>587</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="N5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -13338,7 +13392,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="K6" s="15">
         <v>8057.5</v>
@@ -13347,10 +13401,10 @@
         <v>587</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="N6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -13380,13 +13434,13 @@
         <v>3452.65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="O7" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13908,7 +13962,7 @@
         <v>487</v>
       </c>
       <c r="E44" s="135" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -13949,7 +14003,7 @@
         <v>496</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="109"/>
@@ -14027,13 +14081,13 @@
         <v>512</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D53" s="106" t="s">
         <v>513</v>
       </c>
       <c r="E53" s="106" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="136"/>
@@ -14126,10 +14180,9 @@
       <c r="B60" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:13">
@@ -14254,49 +14307,49 @@
         <v>560</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="38" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>2455</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>2456</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>2457</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>2458</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G71" s="107"/>
       <c r="H71" s="107"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>2470</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>2471</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="59"/>
@@ -14305,16 +14358,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>2477</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>2478</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>2479</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>2480</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="59"/>
@@ -14323,44 +14376,58 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>2519</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>2522</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2521</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>2520</v>
       </c>
       <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B75" s="32" t="s">
         <v>2539</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>2540</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E75" s="38" t="s">
         <v>2541</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="20" t="s">
-        <v>2542</v>
-      </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" s="139" t="s">
-        <v>2577</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="A76" s="7" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B76" s="32" t="s">
         <v>2576</v>
       </c>
-      <c r="E76" t="s">
-        <v>2578</v>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B77" s="139" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -14399,15 +14466,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D1" s="72"/>
       <c r="H1" s="73" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -14422,219 +14489,219 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B3" t="s">
         <v>926</v>
       </c>
       <c r="C3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F3" s="11"/>
       <c r="H3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J3" t="s">
         <v>2167</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2168</v>
       </c>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C4" t="s">
         <v>1859</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1860</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="I4" t="s">
         <v>1015</v>
       </c>
       <c r="J4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B5" t="s">
         <v>986</v>
       </c>
       <c r="C5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="F5" s="11"/>
       <c r="H5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="I5" t="s">
         <v>905</v>
       </c>
       <c r="J5" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B6" t="s">
         <v>1157</v>
       </c>
       <c r="C6" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F6" s="11"/>
       <c r="H6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I6" t="s">
         <v>2173</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>2174</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2175</v>
       </c>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B7" t="s">
         <v>929</v>
       </c>
       <c r="C7" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="F7" s="11"/>
       <c r="H7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="I7" t="s">
         <v>2176</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>2177</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2178</v>
       </c>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B8" t="s">
         <v>787</v>
       </c>
       <c r="C8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="F8" s="11"/>
       <c r="H8" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I8" t="s">
         <v>2179</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>2180</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2181</v>
       </c>
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B9" t="s">
         <v>834</v>
       </c>
       <c r="C9" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F9" s="11"/>
       <c r="H9" t="s">
+        <v>2181</v>
+      </c>
+      <c r="I9" t="s">
         <v>2182</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>2183</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2184</v>
       </c>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B10" t="s">
         <v>1871</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1872</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1873</v>
       </c>
       <c r="F10" s="11"/>
       <c r="H10" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I10" t="s">
         <v>2185</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>2186</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2187</v>
       </c>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B11" t="s">
         <v>1874</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1875</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1876</v>
       </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B12" t="s">
         <v>1877</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1878</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1879</v>
       </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B13" t="s">
         <v>938</v>
       </c>
       <c r="C13" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B14" t="s">
         <v>915</v>
@@ -14646,298 +14713,298 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B15" t="s">
         <v>943</v>
       </c>
       <c r="C15" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D15" t="s">
         <v>1884</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1885</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B16" t="s">
         <v>954</v>
       </c>
       <c r="C16" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B17" t="s">
         <v>951</v>
       </c>
       <c r="C17" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B18" t="s">
         <v>1890</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1891</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1892</v>
       </c>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B19" t="s">
         <v>831</v>
       </c>
       <c r="C19" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B20" t="s">
         <v>1006</v>
       </c>
       <c r="C20" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B21" t="s">
         <v>1896</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1897</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1898</v>
       </c>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B22" t="s">
         <v>1051</v>
       </c>
       <c r="C22" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B23" t="s">
         <v>823</v>
       </c>
       <c r="C23" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B24" t="s">
         <v>1903</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1904</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1905</v>
       </c>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B25" t="s">
         <v>1906</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1907</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1908</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C26" t="s">
         <v>1909</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1910</v>
       </c>
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B27" t="s">
         <v>1911</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1912</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1913</v>
       </c>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B28" t="s">
         <v>1914</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1915</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1916</v>
       </c>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B29" t="s">
         <v>1003</v>
       </c>
       <c r="C29" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B30" t="s">
         <v>820</v>
       </c>
       <c r="C30" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B31" t="s">
         <v>968</v>
       </c>
       <c r="C31" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B32" t="s">
         <v>806</v>
       </c>
       <c r="C32" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B33" t="s">
         <v>957</v>
       </c>
       <c r="C33" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B38" t="s">
         <v>1938</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>1939</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1940</v>
       </c>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B39" t="s">
         <v>790</v>
@@ -14949,157 +15016,157 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B40" t="s">
         <v>1942</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>1943</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1944</v>
       </c>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C41" t="s">
         <v>1945</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1946</v>
       </c>
       <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B42" t="s">
         <v>1947</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>1948</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1949</v>
       </c>
       <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B43" t="s">
         <v>1950</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1951</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1952</v>
       </c>
       <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B44" t="s">
         <v>980</v>
       </c>
       <c r="C44" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B45" t="s">
         <v>1955</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1956</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1957</v>
       </c>
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="49" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6" ht="17.25" thickBot="1">
       <c r="A47" s="52" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B47" s="53" t="s">
         <v>993</v>
       </c>
       <c r="C47" s="53"/>
       <c r="D47" s="132" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E47" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F48" s="11"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="F49" s="11"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B50" t="s">
         <v>1966</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>1967</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1968</v>
       </c>
       <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B51" t="s">
         <v>817</v>
       </c>
       <c r="C51" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -15111,295 +15178,295 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B56" t="s">
         <v>902</v>
       </c>
       <c r="C56" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B57" t="s">
         <v>825</v>
       </c>
       <c r="C57" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B58" t="s">
         <v>1982</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>1983</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1984</v>
       </c>
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B59" t="s">
         <v>1167</v>
       </c>
       <c r="C59" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B60" t="s">
         <v>846</v>
       </c>
       <c r="C60" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B61" t="s">
         <v>843</v>
       </c>
       <c r="C61" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B62" t="s">
         <v>1045</v>
       </c>
       <c r="C62" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" t="s">
         <v>1031</v>
       </c>
       <c r="C63" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B64" t="s">
         <v>1177</v>
       </c>
       <c r="C64" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B65" t="s">
         <v>840</v>
       </c>
       <c r="C65" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B66" t="s">
         <v>1999</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>2000</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2001</v>
       </c>
       <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B67" t="s">
         <v>855</v>
       </c>
       <c r="C67" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B68" t="s">
         <v>1042</v>
       </c>
       <c r="C68" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B69" t="s">
         <v>1048</v>
       </c>
       <c r="C69" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B70" t="s">
         <v>852</v>
       </c>
       <c r="C70" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B71" t="s">
         <v>858</v>
       </c>
       <c r="C71" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B72" t="s">
         <v>2012</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>2013</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2014</v>
       </c>
       <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B73" t="s">
         <v>2015</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>2016</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2017</v>
       </c>
       <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B74" t="s">
         <v>861</v>
       </c>
       <c r="C74" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B75" t="s">
         <v>1063</v>
       </c>
       <c r="C75" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="s">
         <v>872</v>
       </c>
       <c r="C76" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B77" t="s">
         <v>875</v>
@@ -15411,118 +15478,118 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B78" t="s">
         <v>881</v>
       </c>
       <c r="C78" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B79" t="s">
         <v>878</v>
       </c>
       <c r="C79" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B80" t="s">
         <v>887</v>
       </c>
       <c r="C80" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B81" t="s">
         <v>2031</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>2032</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2033</v>
       </c>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B82" t="s">
         <v>884</v>
       </c>
       <c r="C82" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B83" t="s">
         <v>2036</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>2037</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2038</v>
       </c>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B84" t="s">
         <v>2039</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>2040</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2041</v>
       </c>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B85" t="s">
         <v>2042</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>2043</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2044</v>
       </c>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B86" t="s">
         <v>2045</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>2046</v>
-      </c>
-      <c r="C86" t="s">
-        <v>2047</v>
       </c>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B87" t="s">
         <v>2048</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2049</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -15531,10 +15598,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B88" t="s">
         <v>2050</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2051</v>
       </c>
       <c r="C88" t="s">
         <v>841</v>
@@ -15543,223 +15610,223 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B89" t="s">
         <v>2052</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>2053</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2054</v>
       </c>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B90" t="s">
         <v>2055</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>2056</v>
-      </c>
-      <c r="C90" t="s">
-        <v>2057</v>
       </c>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B91" t="s">
         <v>2058</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>2059</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2060</v>
       </c>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B92" t="s">
         <v>2061</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>2062</v>
-      </c>
-      <c r="C92" t="s">
-        <v>2063</v>
       </c>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B93" t="s">
         <v>2064</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>2065</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2066</v>
       </c>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B94" t="s">
         <v>2067</v>
       </c>
-      <c r="B94" t="s">
-        <v>2068</v>
-      </c>
       <c r="C94" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B95" t="s">
         <v>2069</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>2070</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2071</v>
       </c>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B96" t="s">
         <v>2072</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>2073</v>
-      </c>
-      <c r="C96" t="s">
-        <v>2074</v>
       </c>
       <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B97" t="s">
         <v>2075</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>2076</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2077</v>
       </c>
       <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B98" t="s">
         <v>2078</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>2079</v>
-      </c>
-      <c r="C98" t="s">
-        <v>2080</v>
       </c>
       <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B99" t="s">
         <v>2081</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>2082</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2083</v>
       </c>
       <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A100" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>2084</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>2085</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="F100" s="126"/>
     </row>
     <row r="101" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A101" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>2086</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="D101" s="12" t="s">
         <v>2087</v>
       </c>
-      <c r="D101" s="12" t="s">
-        <v>2088</v>
-      </c>
       <c r="E101" s="12" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="F101" s="126"/>
     </row>
     <row r="102" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A102" s="12" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>2089</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="D102" s="12" t="s">
         <v>2090</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>2091</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="F102" s="126"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B103" t="s">
         <v>2092</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>2093</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2094</v>
       </c>
       <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B104" t="s">
         <v>2095</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>2096</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2097</v>
       </c>
       <c r="F104" s="11"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B105" t="s">
         <v>2098</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>2099</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2100</v>
       </c>
       <c r="F105" s="11"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B106" t="s">
         <v>2101</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2102</v>
       </c>
       <c r="C106" t="s">
         <v>939</v>
@@ -15768,265 +15835,265 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B107" t="s">
         <v>2103</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>2104</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2105</v>
       </c>
       <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C108" t="s">
         <v>2106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2107</v>
       </c>
       <c r="F108" s="11"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B109" t="s">
         <v>2108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>2109</v>
-      </c>
-      <c r="C109" t="s">
-        <v>2110</v>
       </c>
       <c r="F109" s="11"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C110" t="s">
         <v>2111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2112</v>
       </c>
       <c r="F110" s="11"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B111" t="s">
         <v>2113</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>2114</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2115</v>
       </c>
       <c r="F111" s="11"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C112" t="s">
         <v>2116</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C112" t="s">
-        <v>2117</v>
       </c>
       <c r="F112" s="11"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B113" t="s">
         <v>2118</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>2119</v>
-      </c>
-      <c r="C113" t="s">
-        <v>2120</v>
       </c>
       <c r="F113" s="11"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B114" t="s">
         <v>2121</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>2122</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2123</v>
       </c>
       <c r="F114" s="11"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B115" t="s">
         <v>2124</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>2125</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2126</v>
       </c>
       <c r="F115" s="11"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C116" t="s">
         <v>2127</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2128</v>
       </c>
       <c r="F116" s="11"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C117" t="s">
         <v>2129</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2130</v>
       </c>
       <c r="F117" s="11"/>
     </row>
     <row r="118" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A118" s="12" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="F118" s="126"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C119" t="s">
         <v>2133</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C119" t="s">
-        <v>2134</v>
       </c>
       <c r="F119" s="11"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C120" t="s">
         <v>2135</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C120" t="s">
-        <v>2136</v>
       </c>
       <c r="F120" s="11"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C121" t="s">
         <v>2137</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2138</v>
       </c>
       <c r="F121" s="11"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B122" t="s">
         <v>2139</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>2140</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2141</v>
       </c>
       <c r="F122" s="11"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B123" t="s">
         <v>2142</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>2143</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2144</v>
       </c>
       <c r="F123" s="11"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C124" t="s">
         <v>2145</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2146</v>
       </c>
       <c r="F124" s="11"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C125" t="s">
         <v>2147</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2148</v>
       </c>
       <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B126" t="s">
         <v>2149</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>2150</v>
-      </c>
-      <c r="C126" t="s">
-        <v>2151</v>
       </c>
       <c r="F126" s="11"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C127" t="s">
         <v>2152</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2153</v>
       </c>
       <c r="F127" s="11"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B128" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C128" t="s">
         <v>1137</v>
@@ -16035,159 +16102,159 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C129" t="s">
         <v>2155</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2156</v>
       </c>
       <c r="F129" s="11"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C130" t="s">
         <v>2157</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2158</v>
       </c>
       <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B131" t="s">
         <v>2159</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>2160</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2161</v>
       </c>
       <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C132" t="s">
         <v>2162</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2163</v>
       </c>
       <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B133" t="s">
         <v>2164</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>2165</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2166</v>
       </c>
       <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B134" t="s">
         <v>1054</v>
       </c>
       <c r="C134" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>2497</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C135" t="s">
         <v>2249</v>
       </c>
-      <c r="B135" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2250</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B136" s="20" t="s">
         <v>2280</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="C136" s="20" t="s">
         <v>2281</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>2282</v>
-      </c>
       <c r="D136" s="56" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="12" customFormat="1" hidden="1">
       <c r="A137" s="55" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>1935</v>
-      </c>
-      <c r="B137" s="25" t="s">
-        <v>1936</v>
       </c>
       <c r="C137" s="25"/>
       <c r="D137" s="25" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F137" s="126"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="20" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B138" s="20" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>2529</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="D138" s="20" t="s">
         <v>2530</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>2531</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="20" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>2552</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="D139" s="56" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E139" s="20" t="s">
         <v>2553</v>
-      </c>
-      <c r="D139" s="56" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E139" s="20" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="20" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B140" s="19" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D140" s="56" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E140" s="20" t="s">
         <v>2566</v>
-      </c>
-      <c r="D140" s="56" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>2567</v>
       </c>
     </row>
   </sheetData>
@@ -16231,25 +16298,25 @@
   <sheetData>
     <row r="1" spans="1:19" ht="38.25" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="72" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="F1" s="71"/>
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
       <c r="J1" s="73" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="41" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -16267,7 +16334,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="140" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -16286,26 +16353,26 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="J3" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>206</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="Q3" s="42" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="R3" s="20"/>
       <c r="S3"/>
@@ -16326,29 +16393,29 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="J4" s="36" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="P4" s="141" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -16368,29 +16435,29 @@
       <c r="H5" s="20"/>
       <c r="I5" s="13"/>
       <c r="J5" s="142" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="K5" s="142" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="L5" s="142"/>
       <c r="M5" s="142" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N5" s="142" t="s">
         <v>2264</v>
       </c>
-      <c r="N5" s="142" t="s">
-        <v>2265</v>
-      </c>
       <c r="O5" s="106" t="s">
+        <v>2562</v>
+      </c>
+      <c r="P5" s="143" t="s">
+        <v>1852</v>
+      </c>
+      <c r="Q5" s="143" t="s">
+        <v>2262</v>
+      </c>
+      <c r="R5" s="144" t="s">
         <v>2563</v>
-      </c>
-      <c r="P5" s="143" t="s">
-        <v>1853</v>
-      </c>
-      <c r="Q5" s="143" t="s">
-        <v>2263</v>
-      </c>
-      <c r="R5" s="144" t="s">
-        <v>2564</v>
       </c>
       <c r="S5" s="39"/>
     </row>
@@ -16484,16 +16551,16 @@
         <v>204</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="R9" s="139" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="S9"/>
     </row>
@@ -16511,7 +16578,7 @@
       <c r="E10" s="145"/>
       <c r="F10" s="32"/>
       <c r="G10" s="95" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>255</v>
@@ -16551,7 +16618,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="48"/>
       <c r="H12" s="65" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="R12" s="20"/>
       <c r="S12"/>
@@ -17183,7 +17250,7 @@
       <c r="F47" s="32"/>
       <c r="G47" s="48"/>
       <c r="H47" s="65" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="R47" s="20"/>
       <c r="S47"/>
@@ -17256,11 +17323,11 @@
         <v>126</v>
       </c>
       <c r="E51" s="149" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="95" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="H51" s="63" t="s">
         <v>254</v>
@@ -17388,16 +17455,16 @@
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="145" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>2372</v>
       </c>
-      <c r="F58" s="32" t="s">
-        <v>2373</v>
-      </c>
       <c r="G58" s="95" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="H58" s="63" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="I58" s="98"/>
       <c r="R58" s="69"/>
@@ -17414,7 +17481,7 @@
       </c>
       <c r="D59" s="32"/>
       <c r="E59" s="145" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="20"/>
@@ -17522,7 +17589,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="65" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="R64" s="20"/>
       <c r="S64"/>
@@ -17539,7 +17606,7 @@
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="145" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="20"/>
@@ -17559,7 +17626,7 @@
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="145" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="20"/>
@@ -17683,10 +17750,10 @@
         <v>63</v>
       </c>
       <c r="G72" s="95" t="s">
+        <v>2433</v>
+      </c>
+      <c r="H72" s="63" t="s">
         <v>2434</v>
-      </c>
-      <c r="H72" s="63" t="s">
-        <v>2435</v>
       </c>
       <c r="R72" s="69"/>
     </row>
@@ -17726,10 +17793,10 @@
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="95" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="H74" s="63" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="R74" s="69"/>
     </row>
@@ -17769,10 +17836,10 @@
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="95" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="H76" s="63" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="R76" s="69"/>
     </row>
@@ -17815,12 +17882,12 @@
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="145" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="48"/>
       <c r="H78" s="65" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -17854,7 +17921,7 @@
       <c r="C80" s="36"/>
       <c r="D80" s="36"/>
       <c r="E80" s="146" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F80" s="36" t="s">
         <v>181</v>
@@ -17873,7 +17940,7 @@
       <c r="C81" s="36"/>
       <c r="D81" s="36"/>
       <c r="E81" s="146" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F81" s="36" t="s">
         <v>117</v>
@@ -17884,38 +17951,38 @@
     </row>
     <row r="82" spans="1:21" s="24" customFormat="1">
       <c r="A82" s="36" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C82" s="37" t="s">
         <v>2215</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>2216</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="147" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="48"/>
       <c r="H82" s="65" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="R82" s="25"/>
     </row>
     <row r="83" spans="1:21" s="24" customFormat="1">
       <c r="A83" s="37" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D83" s="37"/>
       <c r="E83" s="147" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="25"/>
@@ -17924,30 +17991,30 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="32" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D84" s="37"/>
       <c r="E84" s="145" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="F84" s="130" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="G84" s="56" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="R84" s="20"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="148" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -18053,7 +18120,7 @@
       <c r="E90" s="145"/>
       <c r="F90" s="32"/>
       <c r="J90" s="156" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="K90" s="156"/>
       <c r="L90" s="156"/>
@@ -18080,21 +18147,21 @@
       </c>
       <c r="F91" s="32"/>
       <c r="J91" s="44" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="K91" s="44" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L91" s="44" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
       <c r="O91" s="64" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="Q91" t="s">
         <v>244</v>
@@ -18104,7 +18171,7 @@
       </c>
       <c r="S91"/>
       <c r="U91" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -18121,21 +18188,21 @@
       <c r="E92" s="145"/>
       <c r="F92" s="32"/>
       <c r="J92" s="44" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="K92" s="44" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="L92" s="44" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
       <c r="O92" s="64" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="Q92" t="s">
         <v>241</v>
@@ -18159,27 +18226,27 @@
       <c r="E93" s="145"/>
       <c r="F93" s="32"/>
       <c r="J93" s="44" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="K93" s="44" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="L93" s="44" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
       <c r="O93" s="64" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="Q93" t="s">
         <v>251</v>
       </c>
       <c r="R93" s="25" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="S93"/>
     </row>
@@ -18201,18 +18268,18 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="32" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C95" s="32" t="s">
         <v>2228</v>
-      </c>
-      <c r="B95" s="32" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C95" s="32" t="s">
-        <v>2229</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="145"/>
       <c r="F95" s="130" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="S95"/>
     </row>
@@ -18320,7 +18387,7 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" s="89" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="H107" s="89"/>
       <c r="R107" s="19"/>
@@ -18387,15 +18454,15 @@
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="88" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="72" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -18429,7 +18496,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="67"/>
       <c r="K3" s="65" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -18487,7 +18554,7 @@
       </c>
       <c r="I6" s="67"/>
       <c r="K6" s="65" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -18534,7 +18601,7 @@
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>213</v>
@@ -18589,7 +18656,7 @@
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="99" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>54</v>
@@ -18598,10 +18665,10 @@
       <c r="H12" s="99"/>
       <c r="I12" s="101"/>
       <c r="J12" s="95" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="102" customFormat="1">
@@ -18613,22 +18680,22 @@
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="99" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="E13" s="99" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F13" s="99" t="s">
         <v>2523</v>
-      </c>
-      <c r="F13" s="99" t="s">
-        <v>2524</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="I13" s="101"/>
       <c r="J13" s="95" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -18648,22 +18715,22 @@
       <c r="H14" s="9"/>
       <c r="I14" s="67"/>
       <c r="K14" s="65" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="151" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B15" s="152" t="s">
         <v>2571</v>
-      </c>
-      <c r="B15" s="152" t="s">
-        <v>2572</v>
       </c>
       <c r="C15" s="143"/>
       <c r="D15" s="143" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E15" s="143" t="s">
         <v>2574</v>
-      </c>
-      <c r="E15" s="143" t="s">
-        <v>2575</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
@@ -18683,7 +18750,7 @@
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
@@ -18712,7 +18779,7 @@
         <v>254</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>224</v>
@@ -18728,7 +18795,7 @@
       </c>
       <c r="I18" s="101"/>
       <c r="J18" s="95" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="K18" s="63" t="s">
         <v>256</v>
@@ -18755,7 +18822,7 @@
       </c>
       <c r="I19" s="101"/>
       <c r="J19" s="95" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="K19" s="63" t="s">
         <v>257</v>
@@ -18763,30 +18830,30 @@
     </row>
     <row r="20" spans="1:12" s="102" customFormat="1">
       <c r="A20" s="45" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="99"/>
       <c r="F20" s="103" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G20" s="103" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="J20" s="95" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="K20" s="63" t="s">
         <v>357</v>
@@ -18845,7 +18912,7 @@
     </row>
     <row r="26" spans="1:12" ht="39" customHeight="1">
       <c r="A26" s="157" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B26" s="158"/>
       <c r="C26" s="158"/>
@@ -18858,42 +18925,42 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="65" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="64" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="66"/>
       <c r="K27" s="17" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="L27" s="96" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="65" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="64" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="66"/>
@@ -18906,7 +18973,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="65" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>814</v>
@@ -18917,7 +18984,7 @@
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="64" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="66"/>
@@ -18930,18 +18997,18 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="65" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>817</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
       <c r="F30" s="64" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="66"/>
@@ -18954,18 +19021,18 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="65" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>905</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="64" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="66"/>
@@ -19009,14 +19076,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19027,158 +19094,158 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B3" t="s">
         <v>1469</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1470</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B4" t="s">
         <v>1472</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1473</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B5" t="s">
         <v>1475</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1476</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B6" t="s">
         <v>1478</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>1479</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B7" t="s">
         <v>1481</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1482</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="49" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>1484</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>1485</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>1024</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="89" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="52" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>1838</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>1839</v>
       </c>
       <c r="C9" s="127"/>
       <c r="D9" s="128" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B10" t="s">
         <v>1486</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>1487</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B11" t="s">
         <v>1489</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>1490</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B12" t="s">
         <v>1492</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1493</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B13" t="s">
         <v>1495</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1496</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B14" t="s">
         <v>1498</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1499</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B15" t="s">
         <v>1501</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1502</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B16" t="s">
         <v>1504</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1505</v>
       </c>
       <c r="C16" t="s">
         <v>1055</v>
@@ -19186,32 +19253,32 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B17" t="s">
         <v>1506</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1507</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B18" t="s">
         <v>1509</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1510</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B19" t="s">
         <v>1512</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1513</v>
       </c>
       <c r="C19" t="s">
         <v>608</v>
@@ -19219,153 +19286,153 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B20" t="s">
         <v>1514</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>1515</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B21" t="s">
         <v>1517</v>
       </c>
-      <c r="B21" t="s">
-        <v>1518</v>
-      </c>
       <c r="C21" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B22" t="s">
         <v>1519</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1520</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B23" t="s">
         <v>1522</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1523</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B24" t="s">
         <v>1525</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1526</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B25" t="s">
         <v>1528</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1529</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B26" t="s">
         <v>1531</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>1532</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B27" t="s">
         <v>1534</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1535</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B28" t="s">
         <v>1537</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1538</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B29" t="s">
         <v>1540</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1541</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B30" t="s">
         <v>1543</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1544</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B31" t="s">
         <v>1546</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1547</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B32" t="s">
         <v>1549</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>1550</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B33" t="s">
         <v>1552</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1553</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -19373,98 +19440,98 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B34" t="s">
         <v>1554</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>1555</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B35" t="s">
         <v>1557</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>1558</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B36" t="s">
         <v>1560</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>1561</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B37" t="s">
         <v>1563</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>1564</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B38" t="s">
         <v>1566</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>1567</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B39" t="s">
         <v>1569</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>1570</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B40" t="s">
         <v>1572</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>1573</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B41" t="s">
         <v>1575</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>1576</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B42" t="s">
         <v>1578</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1579</v>
       </c>
       <c r="C42" t="s">
         <v>683</v>
@@ -19472,65 +19539,65 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B43" t="s">
         <v>1580</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>1581</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B44" t="s">
         <v>1583</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>1584</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B45" t="s">
         <v>1586</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1587</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B46" t="s">
         <v>1589</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>1590</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B47" t="s">
         <v>1592</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>1593</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B48" t="s">
         <v>1595</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1596</v>
       </c>
       <c r="C48" t="s">
         <v>862</v>
@@ -19538,170 +19605,170 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B49" t="s">
         <v>1597</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>1598</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B50" t="s">
         <v>1600</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>1601</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B51" t="s">
         <v>1603</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>1604</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B52" t="s">
         <v>1606</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>1607</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B53" t="s">
         <v>1609</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>1610</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B54" t="s">
         <v>1612</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>1613</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B55" t="s">
         <v>1615</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>1616</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B56" t="s">
         <v>1618</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>1619</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B57" t="s">
         <v>1621</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>1622</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B58" t="s">
         <v>1624</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>1625</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="12" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>1629</v>
-      </c>
       <c r="E59" s="12" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B60" t="s">
         <v>1630</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>1631</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="12" customFormat="1" hidden="1">
       <c r="A61" s="12" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>1633</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>1634</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>1635</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B62" t="s">
         <v>1636</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>1637</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B63" t="s">
         <v>1639</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1640</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -19709,387 +19776,387 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B64" t="s">
         <v>1641</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>1642</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B65" t="s">
         <v>1644</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>1645</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B66" t="s">
         <v>1647</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>1648</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B67" t="s">
         <v>1650</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>1651</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B68" t="s">
         <v>1653</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>1654</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B69" t="s">
         <v>1656</v>
       </c>
-      <c r="B69" t="s">
-        <v>1657</v>
-      </c>
       <c r="C69" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B70" t="s">
         <v>1658</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>1659</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B71" t="s">
         <v>1661</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>1662</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B72" t="s">
         <v>1664</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>1665</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B73" t="s">
         <v>1667</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>1668</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B74" t="s">
         <v>1670</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>1671</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B75" t="s">
         <v>1673</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>1674</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B76" t="s">
         <v>1676</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>1677</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B77" t="s">
         <v>1679</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>1680</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B78" t="s">
         <v>1682</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>1683</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B79" t="s">
         <v>1685</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>1686</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B80" t="s">
         <v>1688</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>1689</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B81" t="s">
         <v>1691</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>1692</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B82" t="s">
         <v>1694</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>1695</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B83" t="s">
         <v>1697</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>1698</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B84" t="s">
         <v>1700</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>1701</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B85" t="s">
         <v>1703</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>1704</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B86" t="s">
         <v>1706</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>1707</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B87" t="s">
         <v>1709</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>1710</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B88" t="s">
         <v>1712</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>1713</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B89" t="s">
         <v>1715</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>1716</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B90" t="s">
         <v>1718</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>1719</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B91" t="s">
         <v>1721</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>1722</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>1723</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B92" t="s">
         <v>1725</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>1726</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B93" t="s">
         <v>1728</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>1729</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B94" t="s">
         <v>1731</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>1732</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B95" t="s">
         <v>1734</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>1735</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B96" t="s">
         <v>1737</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>1738</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B97" t="s">
         <v>1740</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>1741</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B98" t="s">
         <v>1743</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1744</v>
       </c>
       <c r="C98" t="s">
         <v>661</v>
@@ -20097,266 +20164,266 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B99" t="s">
         <v>1745</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>1746</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B100" t="s">
         <v>1748</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>1749</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B101" t="s">
         <v>1751</v>
       </c>
-      <c r="B101" t="s">
-        <v>1752</v>
-      </c>
       <c r="C101" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B102" t="s">
         <v>1753</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>1754</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B103" t="s">
         <v>1756</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>1757</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B104" t="s">
         <v>1759</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>1760</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B105" t="s">
         <v>1762</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>1763</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B106" t="s">
         <v>1765</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>1766</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B107" t="s">
         <v>1768</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>1769</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B108" t="s">
         <v>1771</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>1772</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B109" t="s">
         <v>1774</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>1775</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B110" t="s">
         <v>1777</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>1778</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B111" t="s">
         <v>1780</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>1781</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B112" t="s">
         <v>1783</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>1784</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B113" t="s">
         <v>1786</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>1787</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B114" t="s">
         <v>1789</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>1790</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B115" t="s">
         <v>1792</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>1793</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B116" t="s">
         <v>1795</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>1796</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B117" t="s">
         <v>1798</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>1799</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="12" customFormat="1" hidden="1">
       <c r="A118" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>1801</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>1802</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>1803</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B119" t="s">
         <v>1804</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>1805</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B120" t="s">
         <v>1807</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>1808</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B121" t="s">
         <v>1810</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>1811</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B122" t="s">
         <v>1813</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1814</v>
       </c>
       <c r="C122" t="s">
         <v>661</v>
@@ -20364,54 +20431,54 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B123" t="s">
         <v>1815</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>1816</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B124" t="s">
         <v>1818</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>1819</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B125" t="s">
         <v>1821</v>
       </c>
-      <c r="B125" t="s">
-        <v>1822</v>
-      </c>
       <c r="C125" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B126" t="s">
         <v>1823</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>1824</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B127" t="s">
         <v>1826</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1827</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -20419,10 +20486,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B128" t="s">
         <v>1828</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1829</v>
       </c>
       <c r="C128" t="s">
         <v>513</v>
@@ -20430,10 +20497,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B129" t="s">
         <v>1830</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1831</v>
       </c>
       <c r="C129" t="s">
         <v>731</v>
@@ -20441,155 +20508,155 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B130" t="s">
         <v>1832</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>1833</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B131" t="s">
         <v>1835</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>1836</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B132" t="s">
         <v>1840</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>1841</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B133" t="s">
         <v>1843</v>
       </c>
-      <c r="B133" t="s">
-        <v>1844</v>
-      </c>
       <c r="D133" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="E133" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B134" t="s">
         <v>1845</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>1846</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B135" t="s">
         <v>1848</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>1849</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="12" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>2443</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>1852</v>
-      </c>
       <c r="E136" s="12" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="19" customFormat="1">
       <c r="A137" s="19" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>2414</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>2415</v>
-      </c>
       <c r="C137" s="19" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E137" s="89" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="19" customFormat="1">
       <c r="A138" s="19" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B138" s="19" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E138" s="89" t="s">
         <v>2441</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>2305</v>
-      </c>
-      <c r="E138" s="89" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="19" customFormat="1">
       <c r="A139" s="19" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E139" s="89" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E140" s="89" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="19" customFormat="1">
       <c r="A141" s="19" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>2503</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="E141" s="89" t="s">
         <v>2505</v>
-      </c>
-      <c r="C141" s="19" t="s">
-        <v>2504</v>
-      </c>
-      <c r="E141" s="89" t="s">
-        <v>2506</v>
       </c>
     </row>
   </sheetData>
@@ -20624,18 +20691,18 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H1" s="39"/>
       <c r="I1" s="41" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -21562,7 +21629,7 @@
         <v>783</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="G48" t="s">
         <v>750</v>
@@ -21576,16 +21643,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B49">
         <v>41010</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="G49" t="s">
         <v>758</v>
@@ -21619,7 +21686,7 @@
         <v>763</v>
       </c>
       <c r="K51" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -21657,30 +21724,30 @@
     </row>
     <row r="55" spans="1:11">
       <c r="G55" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="H55">
         <v>40022</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B56">
         <v>10037</v>
       </c>
       <c r="D56" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
   </sheetData>
@@ -21719,28 +21786,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="41" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J1" s="39"/>
       <c r="K1" s="41" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -21759,161 +21826,161 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B3" t="s">
         <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F3" t="s">
         <v>1297</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1298</v>
       </c>
-      <c r="G3" t="s">
-        <v>1299</v>
-      </c>
       <c r="I3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J3" t="s">
         <v>1349</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>1350</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F4" t="s">
         <v>1300</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1301</v>
       </c>
-      <c r="G4" t="s">
-        <v>1302</v>
-      </c>
       <c r="I4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F5" t="s">
         <v>1303</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>1304</v>
       </c>
-      <c r="G5" t="s">
-        <v>1305</v>
-      </c>
       <c r="I5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J5" t="s">
         <v>926</v>
       </c>
       <c r="K5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C6" t="s">
         <v>1314</v>
       </c>
-      <c r="B6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1315</v>
-      </c>
       <c r="E6" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F6" t="s">
         <v>949</v>
       </c>
       <c r="G6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B7" t="s">
         <v>1319</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1320</v>
       </c>
-      <c r="C7" t="s">
-        <v>1321</v>
-      </c>
       <c r="E7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F7" t="s">
         <v>1316</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>1317</v>
       </c>
-      <c r="G7" t="s">
-        <v>1318</v>
-      </c>
       <c r="I7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J7" t="s">
         <v>1374</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>1375</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B8" t="s">
         <v>1322</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1323</v>
       </c>
-      <c r="C8" t="s">
-        <v>1324</v>
-      </c>
       <c r="E8" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F8" t="s">
         <v>960</v>
@@ -21922,56 +21989,56 @@
         <v>483</v>
       </c>
       <c r="I8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J8" t="s">
         <v>1377</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>1378</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B9" t="s">
         <v>1325</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>1326</v>
       </c>
-      <c r="C9" t="s">
-        <v>1327</v>
-      </c>
       <c r="E9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="I9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J9" t="s">
         <v>1380</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>1381</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B10" t="s">
         <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E10" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F10" t="s">
         <v>986</v>
@@ -21980,134 +22047,134 @@
         <v>610</v>
       </c>
       <c r="I10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F11" t="s">
         <v>1359</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>1360</v>
       </c>
-      <c r="G11" t="s">
-        <v>1361</v>
-      </c>
       <c r="I11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="J11" t="s">
         <v>1388</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>1389</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B12" t="s">
         <v>1333</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>1334</v>
       </c>
-      <c r="C12" t="s">
-        <v>1335</v>
-      </c>
       <c r="E12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F12" t="s">
         <v>1364</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1365</v>
       </c>
-      <c r="G12" t="s">
-        <v>1366</v>
-      </c>
       <c r="I12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="J12" t="s">
         <v>221</v>
       </c>
       <c r="K12" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B13" t="s">
         <v>1336</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>1337</v>
       </c>
-      <c r="C13" t="s">
-        <v>1338</v>
-      </c>
       <c r="E13" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F13" t="s">
         <v>1367</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1368</v>
       </c>
-      <c r="G13" t="s">
-        <v>1369</v>
-      </c>
       <c r="I13" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B14" t="s">
         <v>1339</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1340</v>
       </c>
-      <c r="C14" t="s">
-        <v>1341</v>
-      </c>
       <c r="E14" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F14" t="s">
         <v>790</v>
       </c>
       <c r="G14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J14" t="s">
         <v>1398</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>1399</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B15" t="s">
         <v>912</v>
@@ -22116,325 +22183,325 @@
         <v>669</v>
       </c>
       <c r="E15" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F15" t="s">
         <v>946</v>
       </c>
       <c r="G15" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I15" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J15" t="s">
         <v>974</v>
       </c>
       <c r="K15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B16" t="s">
         <v>817</v>
       </c>
       <c r="C16" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E16" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F16" t="s">
         <v>1383</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>1384</v>
       </c>
-      <c r="G16" t="s">
-        <v>1385</v>
-      </c>
       <c r="I16" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J16" t="s">
         <v>1425</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>1426</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B17" t="s">
         <v>1344</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1345</v>
       </c>
-      <c r="C17" t="s">
-        <v>1346</v>
-      </c>
       <c r="E17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F17" t="s">
         <v>1395</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>1396</v>
       </c>
-      <c r="G17" t="s">
-        <v>1397</v>
-      </c>
       <c r="I17" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J17" t="s">
         <v>1428</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>1429</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B18" t="s">
         <v>1403</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1404</v>
       </c>
-      <c r="C18" t="s">
-        <v>1405</v>
-      </c>
       <c r="E18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F18" t="s">
         <v>1445</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1446</v>
       </c>
-      <c r="G18" t="s">
-        <v>1447</v>
-      </c>
       <c r="I18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J18" t="s">
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B19" t="s">
         <v>943</v>
       </c>
       <c r="C19" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F19" t="s">
         <v>1460</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>1461</v>
       </c>
-      <c r="G19" t="s">
-        <v>1462</v>
-      </c>
       <c r="I19" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J19" t="s">
         <v>1442</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>1443</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C20" t="s">
         <v>1408</v>
       </c>
-      <c r="B20" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1409</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="I20" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="J20" t="s">
+        <v>2290</v>
+      </c>
+      <c r="K20" t="s">
         <v>2291</v>
       </c>
-      <c r="K20" t="s">
-        <v>2292</v>
-      </c>
       <c r="L20" s="12" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B21" t="s">
         <v>1410</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>1411</v>
       </c>
-      <c r="C21" t="s">
-        <v>1412</v>
-      </c>
       <c r="E21" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F21" t="s">
         <v>2556</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>2557</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" s="12" t="s">
         <v>2558</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>2559</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B22" t="s">
         <v>1413</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>1414</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B23" t="s">
         <v>1416</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>1417</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B24" t="s">
         <v>1419</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1420</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B25" t="s">
         <v>1422</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>1423</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B26" t="s">
         <v>1431</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>1432</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B27" t="s">
         <v>1434</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>1435</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B28" t="s">
         <v>1437</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>1438</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B29" t="s">
         <v>1448</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1449</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B30" t="s">
         <v>1451</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>1452</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B31" t="s">
         <v>1454</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1455</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B32" t="s">
         <v>1457</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>1458</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B33" t="s">
         <v>1463</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>1464</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1465</v>
       </c>
     </row>
   </sheetData>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="2613">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -6864,10 +6864,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>배정X 탈퇴?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RM_5L4</t>
   </si>
   <si>
@@ -6936,9 +6932,6 @@
   <si>
     <t>월 40,000원 * 3개월</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_E27</t>
   </si>
   <si>
     <t>100-135</t>
@@ -8247,6 +8240,228 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>잔량   299</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_1A7</t>
+  </si>
+  <si>
+    <t>101-304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)성조산업</t>
+  </si>
+  <si>
+    <t>배정안함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔량없어서 2019년 2분기부터 사용 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐업(2019년 4월부터 사용료 X)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>희성레미콘㈜</t>
+  </si>
+  <si>
+    <t>RM_K40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청해개발㈜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_K40로 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_K27에서 사업자번호 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_K16에서 사업자번호 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_2J8</t>
+  </si>
+  <si>
+    <t>100-221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지경콘크리트(주)</t>
+  </si>
+  <si>
+    <t>신규-배정 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_786</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-237</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)두리로드전라 레미콘지점</t>
+  </si>
+  <si>
+    <t>RM_733에서 사업자 변경</t>
+  </si>
+  <si>
+    <t>잔량 / 계산서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔량     95 / 2019-05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사끝나서 2019년 3분기부터 사용 종료(한송이)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 업체수 상관없이 30만원 / 2017-04-01부터 30,000 * 12업체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동강레미콘(주)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_2J9</t>
+  </si>
+  <si>
+    <t>탈퇴일자 2019-06-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 계약시 입찰 참여할 수도 있다. 사용료 확인!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_J09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본사 2019-10-01부터 사용료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한내레미콘(주)</t>
+  </si>
+  <si>
+    <t>101-305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)에코닉스레미콘</t>
+  </si>
+  <si>
+    <t>RM_8A9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규-배정 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05이후로 탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_1A9</t>
+  </si>
+  <si>
+    <t>RM_1A8</t>
+  </si>
+  <si>
+    <t>시경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 2019-08까지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 - 배정X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼스트산업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_K41</t>
+  </si>
+  <si>
+    <t>100-154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_E15에서 사업자 번호 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설하이콘(주)김포공장</t>
+  </si>
+  <si>
+    <t>RM_E27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_E28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_E28로 사업자 번호 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔량 821 / 2019-08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잔량 1,611 / 2019-05 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">(주)동원레미콘세종 / 잔량 </t>
     </r>
@@ -8259,7 +8474,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1550.7 </t>
+      <t xml:space="preserve">1388.7 / 2019-05계산서 / </t>
     </r>
     <r>
       <rPr>
@@ -8274,191 +8489,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>잔량   299</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_1A7</t>
-  </si>
-  <si>
-    <t>101-304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)성조산업</t>
-  </si>
-  <si>
-    <t>배정안함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔량없어서 2019년 2분기부터 사용 종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폐업(2019년 4월부터 사용료 X)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>희성레미콘㈜</t>
-  </si>
-  <si>
-    <t>RM_K40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청해개발㈜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_K40로 사업자 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>← RM_K27에서 사업자번호 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>← RM_K16에서 사업자번호 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_2J8</t>
-  </si>
-  <si>
-    <t>100-221</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지경콘크리트(주)</t>
-  </si>
-  <si>
-    <t>신규-배정 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_786</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-237</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)두리로드전라 레미콘지점</t>
-  </si>
-  <si>
-    <t>RM_733에서 사업자 변경</t>
-  </si>
-  <si>
-    <t xml:space="preserve">잔량 1,604 / 2019-05 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔량 1,113 / 2019-04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔량 / 계산서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔량     95 / 2019-05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사끝나서 2019년 3분기부터 사용 종료(한송이)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 업체수 상관없이 30만원 / 2017-04-01부터 30,000 * 12업체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동강레미콘(주)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_2J9</t>
-  </si>
-  <si>
-    <t>탈퇴일자 2019-06-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 계약시 입찰 참여할 수도 있다. 사용료 확인!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_J09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사</t>
-  </si>
-  <si>
     <t>부강레미콘㈜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>본사 2019-10-01부터 사용료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한내레미콘(주)</t>
-  </si>
-  <si>
-    <t>101-305</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100-154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)에코닉스레미콘</t>
-  </si>
-  <si>
-    <t>RM_8A9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규-배정 X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-05이후로 탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_1A9</t>
-  </si>
-  <si>
-    <t>RM_1A8</t>
-  </si>
-  <si>
-    <t>시경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴 2019-08까지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>지사 2019-09-30까지 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부강레미콘㈜-지사 2019-09-30까지 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대승산업(주)</t>
+  </si>
+  <si>
+    <t>배정X 가동중지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_5L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아041  </t>
+  </si>
+  <si>
+    <t>RM_5L8</t>
+  </si>
+  <si>
+    <t>가034</t>
+  </si>
+  <si>
+    <t>RM_5F0</t>
+  </si>
+  <si>
+    <t>자015</t>
+  </si>
+  <si>
+    <t>(주)점촌레미콘</t>
+  </si>
+  <si>
+    <t>신규 - 배정X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 후 새로운 사업자로 가입할 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금강레미콘_영덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)영진레미콘_김천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명호부장</t>
   </si>
 </sst>
 </file>
@@ -8826,7 +8921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9286,6 +9381,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9704,11 +9805,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9722,19 +9823,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C203)</f>
+        <f>COUNTA(C3:C204)</f>
         <v>34</v>
       </c>
     </row>
@@ -9898,7 +9999,7 @@
         <v>821</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>2581</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10000,7 +10101,7 @@
         <v>847</v>
       </c>
       <c r="E25" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10014,7 +10115,7 @@
         <v>850</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>2581</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10174,10 +10275,10 @@
         <v>1193</v>
       </c>
       <c r="D41" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10188,24 +10289,41 @@
         <v>2251</v>
       </c>
       <c r="C42" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>2579</v>
+        <v>2572</v>
       </c>
       <c r="B43" t="s">
-        <v>2577</v>
+        <v>2570</v>
       </c>
       <c r="D43" t="s">
-        <v>2578</v>
+        <v>2571</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>2580</v>
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D45" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -10217,11 +10335,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -10234,11 +10352,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10649,7 +10767,7 @@
         <v>1049</v>
       </c>
       <c r="D38" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10665,16 +10783,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B40" t="s">
         <v>2031</v>
       </c>
       <c r="C40" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1">
@@ -10688,21 +10806,35 @@
         <v>1020</v>
       </c>
       <c r="E41" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B42" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C42" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D42" t="s">
         <v>2547</v>
       </c>
-      <c r="D42" t="s">
-        <v>2550</v>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2581</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>2580</v>
       </c>
     </row>
   </sheetData>
@@ -10715,7 +10847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
@@ -10731,11 +10863,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10873,13 +11005,13 @@
         <v>918</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D14" t="s">
         <v>2338</v>
       </c>
-      <c r="D14" t="s">
-        <v>2340</v>
-      </c>
       <c r="E14" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1">
@@ -10995,10 +11127,10 @@
         <v>955</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>2586</v>
+        <v>2579</v>
       </c>
       <c r="F24" t="s">
-        <v>2585</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11013,7 +11145,7 @@
         <v>958</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11095,16 +11227,16 @@
     </row>
     <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D33" t="s">
         <v>2318</v>
       </c>
-      <c r="B33" t="s">
-        <v>2319</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2320</v>
-      </c>
       <c r="E33" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -11118,24 +11250,24 @@
         <v>972</v>
       </c>
       <c r="D34" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="E34" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B35" t="s">
         <v>949</v>
       </c>
       <c r="D35" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="E35" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -11149,7 +11281,7 @@
         <v>978</v>
       </c>
       <c r="D36" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="E36" t="s">
         <v>948</v>
@@ -11157,16 +11289,16 @@
     </row>
     <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B37" t="s">
         <v>941</v>
       </c>
       <c r="D37" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E37" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="23" customFormat="1">
@@ -11174,16 +11306,16 @@
         <v>940</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>2272</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>2273</v>
-      </c>
       <c r="D38" s="23" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -11199,30 +11331,30 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B40" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C40" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B41" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C41" t="s">
         <v>1288</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F41" t="s">
         <v>921</v>
@@ -11261,13 +11393,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11327,17 +11459,17 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11387,7 +11519,7 @@
     </row>
     <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="7" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -11395,29 +11527,29 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="32" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>2324</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>2326</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>228</v>
@@ -11437,7 +11569,7 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11508,34 +11640,34 @@
         <v>2247</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="134" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="C16" s="106"/>
       <c r="D16" s="106" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="E16" s="106" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G16" s="142" t="s">
         <v>2447</v>
       </c>
-      <c r="F16" s="143" t="s">
-        <v>2450</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>2449</v>
-      </c>
       <c r="H16" s="105" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
   </sheetData>
@@ -11566,11 +11698,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -11756,29 +11888,29 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="D15" s="109"/>
       <c r="E15" s="1" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="113" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="D16" s="109"/>
       <c r="E16" s="12" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -11786,10 +11918,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
   </sheetData>
@@ -11818,11 +11950,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="D1" s="62"/>
     </row>
@@ -11961,11 +12093,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12272,11 +12404,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12284,29 +12416,32 @@
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2408</v>
-      </c>
-      <c r="D1" s="91" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2406</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="91" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C19)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>COUNTA(C3:C18)</f>
+        <v>16</v>
+      </c>
+      <c r="D2" s="153"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1144</v>
       </c>
@@ -12317,7 +12452,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1146</v>
       </c>
@@ -12328,7 +12463,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1148</v>
       </c>
@@ -12339,7 +12474,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1150</v>
       </c>
@@ -12350,7 +12485,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1152</v>
       </c>
@@ -12361,7 +12496,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1154</v>
       </c>
@@ -12372,7 +12507,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1156</v>
       </c>
@@ -12383,7 +12518,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1159</v>
       </c>
@@ -12394,7 +12529,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1161</v>
       </c>
@@ -12405,106 +12540,123 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1">
+      <c r="A19" s="12" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>1163</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
         <v>1164</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="12" customFormat="1">
-      <c r="A20" s="12" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>2277</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>2361</v>
+      <c r="E20" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2587</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2586</v>
       </c>
     </row>
   </sheetData>
@@ -12532,11 +12684,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
@@ -12639,30 +12791,30 @@
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>2345</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>2346</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>2347</v>
-      </c>
       <c r="D11" s="60" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
       <c r="A12" s="13" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
@@ -12692,14 +12844,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12873,7 +13025,7 @@
         <v>1127</v>
       </c>
       <c r="E17" t="s">
-        <v>2568</v>
+        <v>2563</v>
       </c>
     </row>
   </sheetData>
@@ -12905,12 +13057,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="153" t="s">
-        <v>2490</v>
-      </c>
-      <c r="B1" s="153"/>
+      <c r="A1" s="155" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B1" s="155"/>
       <c r="C1" s="88" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -12919,23 +13071,23 @@
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D4" s="122">
         <f>(F4*G4)*12</f>
         <v>87780000</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="F4" s="120">
         <v>133</v>
@@ -12950,7 +13102,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="B6" s="29"/>
       <c r="D6" s="121"/>
@@ -12958,10 +13110,10 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="B7" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>2486</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2488</v>
       </c>
       <c r="D7" s="123">
         <v>50000</v>
@@ -12970,10 +13122,10 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D8" s="123">
         <v>100000</v>
@@ -12982,10 +13134,10 @@
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="B9" s="7" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2485</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2487</v>
       </c>
       <c r="D9" s="123">
         <v>100000</v>
@@ -13022,14 +13174,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>2564</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13191,7 +13343,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="A77:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13217,7 +13369,7 @@
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="41" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="D1" s="72"/>
       <c r="F1" s="74"/>
@@ -13226,10 +13378,10 @@
       </c>
       <c r="H1" s="104"/>
       <c r="I1" s="41" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="K1" s="76" t="s">
         <v>588</v>
@@ -13247,7 +13399,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E2" s="82">
         <f>C2*40000*3</f>
@@ -13262,10 +13414,10 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="79" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="L2" s="80" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="M2" s="61"/>
     </row>
@@ -13296,10 +13448,10 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="154" t="s">
+      <c r="M3" s="156" t="s">
         <v>2239</v>
       </c>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="157" t="s">
         <v>2243</v>
       </c>
     </row>
@@ -13332,8 +13484,8 @@
       <c r="L4" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="155"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="157"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -13440,7 +13592,7 @@
         <v>2237</v>
       </c>
       <c r="O7" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13962,7 +14114,7 @@
         <v>487</v>
       </c>
       <c r="E44" s="135" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -14003,7 +14155,7 @@
         <v>496</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="109"/>
@@ -14081,13 +14233,13 @@
         <v>512</v>
       </c>
       <c r="B53" s="106" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="D53" s="106" t="s">
         <v>513</v>
       </c>
       <c r="E53" s="106" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="F53" s="85"/>
       <c r="G53" s="136"/>
@@ -14307,49 +14459,49 @@
         <v>560</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="38" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>2454</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>2455</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>2456</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>2457</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="G71" s="107"/>
       <c r="H71" s="107"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="59"/>
@@ -14358,16 +14510,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>2476</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>2477</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>2478</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>2479</v>
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="59"/>
@@ -14376,55 +14528,55 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>2518</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>2521</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>2520</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7" t="s">
-        <v>2584</v>
+        <v>2577</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>2576</v>
+        <v>2569</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>2575</v>
+        <v>2568</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
-        <v>2583</v>
+        <v>2576</v>
       </c>
       <c r="B77" s="139" t="s">
-        <v>2582</v>
+        <v>2575</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>533</v>
@@ -14466,15 +14618,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="D1" s="72"/>
       <c r="H1" s="73" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15097,7 +15249,7 @@
         <v>1958</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="F46" s="11"/>
     </row>
@@ -15113,7 +15265,7 @@
         <v>1960</v>
       </c>
       <c r="E47" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -15676,7 +15828,7 @@
         <v>2067</v>
       </c>
       <c r="C94" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="F94" s="11"/>
     </row>
@@ -15751,7 +15903,7 @@
         <v>2084</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="F100" s="126"/>
     </row>
@@ -15766,7 +15918,7 @@
         <v>2087</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="F101" s="126"/>
     </row>
@@ -15781,7 +15933,7 @@
         <v>2090</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="F102" s="126"/>
     </row>
@@ -15976,7 +16128,7 @@
         <v>2131</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="F118" s="126"/>
     </row>
@@ -16162,16 +16314,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="B134" t="s">
         <v>1054</v>
       </c>
       <c r="C134" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -16185,21 +16337,21 @@
         <v>2249</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C136" s="20" t="s">
         <v>2279</v>
       </c>
-      <c r="B136" s="20" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>2281</v>
-      </c>
       <c r="D136" s="56" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="12" customFormat="1" hidden="1">
@@ -16217,44 +16369,44 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="20" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="B138" s="20" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D138" s="20" t="s">
         <v>2528</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>2529</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="20" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D139" s="56" t="s">
         <v>2551</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>2552</v>
-      </c>
-      <c r="D139" s="56" t="s">
-        <v>2554</v>
-      </c>
       <c r="E139" s="20" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="20" t="s">
-        <v>2567</v>
+        <v>2562</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2565</v>
+        <v>2560</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="E140" s="20" t="s">
-        <v>2566</v>
+        <v>2561</v>
       </c>
     </row>
   </sheetData>
@@ -16272,8 +16424,8 @@
   <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16290,33 +16442,33 @@
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" hidden="1" customWidth="1"/>
-    <col min="14" max="17" width="22.75" customWidth="1"/>
+    <col min="13" max="14" width="22.75" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="22.75" customWidth="1"/>
     <col min="18" max="18" width="45.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="49.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="38.25" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="41" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="72" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F1" s="71"/>
       <c r="H1" s="71"/>
       <c r="I1" s="71"/>
       <c r="J1" s="73" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="41" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -16334,7 +16486,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="140" t="s">
-        <v>2561</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -16353,7 +16505,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="J3" s="2" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>206</v>
@@ -16366,13 +16518,13 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>2560</v>
+        <v>2591</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1852</v>
       </c>
       <c r="Q3" s="42" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="R3" s="20"/>
       <c r="S3"/>
@@ -16393,26 +16545,26 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="J4" s="36" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>2559</v>
+        <v>2592</v>
       </c>
       <c r="P4" s="141" t="s">
         <v>1852</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="S4" s="25" t="s">
         <v>2212</v>
@@ -16435,29 +16587,29 @@
       <c r="H5" s="20"/>
       <c r="I5" s="13"/>
       <c r="J5" s="142" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="K5" s="142" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="L5" s="142"/>
       <c r="M5" s="142" t="s">
+        <v>2262</v>
+      </c>
+      <c r="N5" s="142" t="s">
         <v>2263</v>
       </c>
-      <c r="N5" s="142" t="s">
-        <v>2264</v>
-      </c>
       <c r="O5" s="106" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
       <c r="P5" s="143" t="s">
         <v>1852</v>
       </c>
       <c r="Q5" s="143" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="R5" s="144" t="s">
-        <v>2563</v>
+        <v>2558</v>
       </c>
       <c r="S5" s="39"/>
     </row>
@@ -16551,16 +16703,16 @@
         <v>204</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>1853</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="R9" s="139" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="S9"/>
     </row>
@@ -16578,7 +16730,7 @@
       <c r="E10" s="145"/>
       <c r="F10" s="32"/>
       <c r="G10" s="95" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>255</v>
@@ -16618,7 +16770,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="48"/>
       <c r="H12" s="65" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="R12" s="20"/>
       <c r="S12"/>
@@ -17250,7 +17402,7 @@
       <c r="F47" s="32"/>
       <c r="G47" s="48"/>
       <c r="H47" s="65" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="R47" s="20"/>
       <c r="S47"/>
@@ -17311,7 +17463,7 @@
       <c r="R50" s="20"/>
       <c r="S50"/>
     </row>
-    <row r="51" spans="1:19" s="97" customFormat="1">
+    <row r="51" spans="1:19" s="97" customFormat="1" hidden="1">
       <c r="A51" s="32" t="s">
         <v>256</v>
       </c>
@@ -17323,11 +17475,11 @@
         <v>126</v>
       </c>
       <c r="E51" s="149" t="s">
-        <v>2569</v>
+        <v>2564</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="95" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="H51" s="63" t="s">
         <v>254</v>
@@ -17455,16 +17607,16 @@
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="145" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="G58" s="95" t="s">
+        <v>2431</v>
+      </c>
+      <c r="H58" s="63" t="s">
         <v>2433</v>
-      </c>
-      <c r="H58" s="63" t="s">
-        <v>2435</v>
       </c>
       <c r="I58" s="98"/>
       <c r="R58" s="69"/>
@@ -17589,7 +17741,7 @@
         <v>56</v>
       </c>
       <c r="H64" s="65" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="R64" s="20"/>
       <c r="S64"/>
@@ -17750,10 +17902,10 @@
         <v>63</v>
       </c>
       <c r="G72" s="95" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="H72" s="63" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="R72" s="69"/>
     </row>
@@ -17793,10 +17945,10 @@
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="95" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="H74" s="63" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="R74" s="69"/>
     </row>
@@ -17836,10 +17988,10 @@
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="95" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="H76" s="63" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="R76" s="69"/>
     </row>
@@ -17882,12 +18034,12 @@
       </c>
       <c r="D78" s="32"/>
       <c r="E78" s="145" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="48"/>
       <c r="H78" s="65" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -17966,7 +18118,7 @@
       <c r="F82" s="37"/>
       <c r="G82" s="48"/>
       <c r="H82" s="65" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="R82" s="25"/>
     </row>
@@ -17994,27 +18146,27 @@
         <v>2236</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="D84" s="37"/>
       <c r="E84" s="145" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="F84" s="130" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="G84" s="56" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="R84" s="20"/>
       <c r="S84"/>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="148" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -18119,14 +18271,14 @@
       <c r="D90" s="32"/>
       <c r="E90" s="145"/>
       <c r="F90" s="32"/>
-      <c r="J90" s="156" t="s">
-        <v>2425</v>
-      </c>
-      <c r="K90" s="156"/>
-      <c r="L90" s="156"/>
-      <c r="M90" s="156"/>
-      <c r="N90" s="156"/>
-      <c r="O90" s="156"/>
+      <c r="J90" s="158" t="s">
+        <v>2423</v>
+      </c>
+      <c r="K90" s="158"/>
+      <c r="L90" s="158"/>
+      <c r="M90" s="158"/>
+      <c r="N90" s="158"/>
+      <c r="O90" s="158"/>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
@@ -18147,21 +18299,21 @@
       </c>
       <c r="F91" s="32"/>
       <c r="J91" s="44" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="K91" s="44" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="L91" s="44" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
       <c r="O91" s="64" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="P91" s="17" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="Q91" t="s">
         <v>244</v>
@@ -18171,7 +18323,7 @@
       </c>
       <c r="S91"/>
       <c r="U91" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -18188,21 +18340,21 @@
       <c r="E92" s="145"/>
       <c r="F92" s="32"/>
       <c r="J92" s="44" t="s">
+        <v>2284</v>
+      </c>
+      <c r="K92" s="44" t="s">
         <v>2286</v>
       </c>
-      <c r="K92" s="44" t="s">
-        <v>2288</v>
-      </c>
       <c r="L92" s="44" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
       <c r="O92" s="64" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="P92" s="17" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="Q92" t="s">
         <v>241</v>
@@ -18226,27 +18378,27 @@
       <c r="E93" s="145"/>
       <c r="F93" s="32"/>
       <c r="J93" s="44" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K93" s="44" t="s">
         <v>2287</v>
       </c>
-      <c r="K93" s="44" t="s">
-        <v>2289</v>
-      </c>
       <c r="L93" s="44" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
       <c r="O93" s="64" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="P93" s="17" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="Q93" t="s">
         <v>251</v>
       </c>
       <c r="R93" s="25" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="S93"/>
     </row>
@@ -18279,7 +18431,7 @@
       <c r="D95" s="32"/>
       <c r="E95" s="145"/>
       <c r="F95" s="130" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="S95"/>
     </row>
@@ -18387,7 +18539,7 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" s="89" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="H107" s="89"/>
       <c r="R107" s="19"/>
@@ -18433,7 +18585,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18441,7 +18593,7 @@
     <col min="1" max="1" width="7.875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="27" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="51.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="50.75" style="47" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="47" customWidth="1"/>
@@ -18454,15 +18606,15 @@
   <sheetData>
     <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="88" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="72" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -18496,7 +18648,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="67"/>
       <c r="K3" s="65" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -18554,7 +18706,7 @@
       </c>
       <c r="I6" s="67"/>
       <c r="K6" s="65" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -18601,7 +18753,7 @@
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>213</v>
@@ -18656,7 +18808,7 @@
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="99" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F12" s="100" t="s">
         <v>54</v>
@@ -18665,13 +18817,13 @@
       <c r="H12" s="99"/>
       <c r="I12" s="101"/>
       <c r="J12" s="95" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="K12" s="63" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="102" customFormat="1">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="102" customFormat="1" hidden="1">
       <c r="A13" s="45" t="s">
         <v>250</v>
       </c>
@@ -18680,22 +18832,22 @@
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="99" t="s">
-        <v>2536</v>
+        <v>2593</v>
       </c>
       <c r="E13" s="99" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="F13" s="99" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="I13" s="101"/>
       <c r="J13" s="95" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -18715,47 +18867,49 @@
       <c r="H14" s="9"/>
       <c r="I14" s="67"/>
       <c r="K14" s="65" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="151" t="s">
-        <v>2570</v>
-      </c>
-      <c r="B15" s="152" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143" t="s">
-        <v>2573</v>
-      </c>
-      <c r="E15" s="143" t="s">
-        <v>2574</v>
+      <c r="A15" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>2596</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>2595</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="9"/>
       <c r="I15" s="67"/>
-      <c r="K15" s="150"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46" t="s">
-        <v>2572</v>
+      <c r="A16" s="151" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C16" s="154" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D16" s="143" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E16" s="143" t="s">
+        <v>2567</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="9"/>
       <c r="I16" s="67"/>
+      <c r="K16" s="150"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="45" t="s">
@@ -18779,7 +18933,7 @@
         <v>254</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>224</v>
@@ -18795,7 +18949,7 @@
       </c>
       <c r="I18" s="101"/>
       <c r="J18" s="95" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="K18" s="63" t="s">
         <v>256</v>
@@ -18822,7 +18976,7 @@
       </c>
       <c r="I19" s="101"/>
       <c r="J19" s="95" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="K19" s="63" t="s">
         <v>257</v>
@@ -18830,30 +18984,30 @@
     </row>
     <row r="20" spans="1:12" s="102" customFormat="1">
       <c r="A20" s="45" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="99"/>
       <c r="F20" s="103" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="G20" s="103" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="J20" s="95" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="K20" s="63" t="s">
         <v>357</v>
@@ -18911,32 +19065,32 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="39" customHeight="1">
-      <c r="A26" s="157" t="s">
-        <v>2427</v>
-      </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
+      <c r="A26" s="159" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="161"/>
       <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="65" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>1966</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="64" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="66"/>
@@ -18949,18 +19103,18 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="65" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>1874</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="64" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="66"/>
@@ -18973,7 +19127,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="65" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="B29" s="65" t="s">
         <v>814</v>
@@ -18984,7 +19138,7 @@
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="64" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="66"/>
@@ -18997,18 +19151,18 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="65" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>817</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
       <c r="F30" s="64" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="66"/>
@@ -19021,18 +19175,18 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="65" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>905</v>
       </c>
       <c r="C31" s="66" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="64" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="66"/>
@@ -19052,17 +19206,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19076,19 +19230,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C201)</f>
+        <f>COUNTA(C3:C200)</f>
         <v>133</v>
       </c>
     </row>
@@ -19159,7 +19313,7 @@
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="89" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1">
@@ -19171,7 +19325,7 @@
       </c>
       <c r="C9" s="127"/>
       <c r="D9" s="128" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -20029,634 +20183,682 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="B87" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="C87" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B88" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C88" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="B89" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C89" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="B90" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="C90" t="s">
-        <v>1719</v>
+        <v>1722</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="B91" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="C91" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B92" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C92" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B93" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C93" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B94" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C94" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B95" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C95" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B96" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C96" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B97" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="C97" t="s">
-        <v>1741</v>
+        <v>661</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B98" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="C98" t="s">
-        <v>661</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B99" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="C99" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B100" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="C100" t="s">
-        <v>1749</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="B101" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="C101" t="s">
-        <v>1561</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="B102" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="C102" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B103" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="C103" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B104" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="C104" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="B105" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="C105" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="B106" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="C106" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B107" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="C107" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="B108" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="C108" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="B109" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="C109" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="B110" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="C110" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="B111" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="C111" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="B112" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C112" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="B113" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="C113" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="B114" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="C114" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="B115" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="C115" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="B116" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="C116" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C117" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="12" customFormat="1" hidden="1">
-      <c r="A118" s="12" t="s">
+    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1">
+      <c r="A117" s="12" t="s">
         <v>1800</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>1801</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>1802</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>2241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B119" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C119" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="B120" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="C120" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B121" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C121" t="s">
-        <v>1811</v>
+        <v>661</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="B122" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="C122" t="s">
-        <v>661</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="B123" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="C123" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="B124" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="C124" t="s">
-        <v>1819</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="B125" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="C125" t="s">
-        <v>1247</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="B126" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="C126" t="s">
-        <v>1824</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="B127" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="B128" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="C128" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="B129" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="C129" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="B130" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="C130" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="B131" t="s">
-        <v>1835</v>
+        <v>1840</v>
       </c>
       <c r="C131" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="B132" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>1843</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="B133" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D133" t="s">
-        <v>2498</v>
-      </c>
-      <c r="E133" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>1845</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="B134" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="C134" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C135" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1">
-      <c r="A136" s="12" t="s">
+    <row r="135" spans="1:6" hidden="1">
+      <c r="A135" s="12" t="s">
         <v>1850</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>2442</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="E136" s="12" t="s">
+      <c r="E135" s="12" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="19" customFormat="1">
+      <c r="A136" s="19" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>2412</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E136" s="89" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="19" customFormat="1">
+      <c r="A137" s="19" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>2302</v>
+      </c>
+      <c r="E137" s="89" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" s="19" customFormat="1">
+      <c r="A138" s="19" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E138" s="89" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="19" customFormat="1">
+      <c r="A139" s="19" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" s="19" customFormat="1">
-      <c r="A137" s="19" t="s">
-        <v>2413</v>
-      </c>
-      <c r="B137" s="19" t="s">
+      <c r="B139" s="19" t="s">
         <v>2414</v>
       </c>
-      <c r="C137" s="19" t="s">
-        <v>2303</v>
-      </c>
-      <c r="E137" s="89" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="19" customFormat="1">
-      <c r="A138" s="19" t="s">
-        <v>2308</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>2440</v>
-      </c>
-      <c r="C138" s="19" t="s">
+      <c r="C139" s="19" t="s">
         <v>2304</v>
       </c>
-      <c r="E138" s="89" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="19" customFormat="1">
-      <c r="A139" s="19" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>2415</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>2305</v>
-      </c>
       <c r="E139" s="89" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="19" customFormat="1">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
-        <v>2257</v>
+        <v>2500</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>2416</v>
+        <v>2502</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>2306</v>
+        <v>2501</v>
       </c>
       <c r="E140" s="89" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="19" customFormat="1">
-      <c r="A141" s="19" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>2504</v>
-      </c>
-      <c r="C141" s="19" t="s">
         <v>2503</v>
       </c>
-      <c r="E141" s="89" t="s">
-        <v>2505</v>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2611</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2609</v>
       </c>
     </row>
   </sheetData>
@@ -20671,8 +20873,8 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -20695,14 +20897,14 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>1855</v>
       </c>
       <c r="H1" s="39"/>
       <c r="I1" s="41" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -21315,7 +21517,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -21335,7 +21537,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>728</v>
       </c>
@@ -21355,7 +21557,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>732</v>
       </c>
@@ -21375,7 +21577,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>736</v>
       </c>
@@ -21395,7 +21597,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>746</v>
       </c>
@@ -21418,7 +21620,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>748</v>
       </c>
@@ -21437,8 +21639,11 @@
       <c r="I38" s="13" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" s="12" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>752</v>
       </c>
@@ -21458,7 +21663,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>754</v>
       </c>
@@ -21478,7 +21683,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>756</v>
       </c>
@@ -21498,7 +21703,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>766</v>
       </c>
@@ -21518,7 +21723,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>768</v>
       </c>
@@ -21538,7 +21743,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>772</v>
       </c>
@@ -21558,7 +21763,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>774</v>
       </c>
@@ -21578,7 +21783,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>778</v>
       </c>
@@ -21598,7 +21803,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>780</v>
       </c>
@@ -21618,7 +21823,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>782</v>
       </c>
@@ -21629,7 +21834,7 @@
         <v>783</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="G48" t="s">
         <v>750</v>
@@ -21652,7 +21857,7 @@
         <v>2235</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="G49" t="s">
         <v>758</v>
@@ -21686,7 +21891,7 @@
         <v>763</v>
       </c>
       <c r="K51" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -21733,7 +21938,7 @@
         <v>2233</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -21747,7 +21952,7 @@
         <v>2231</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
   </sheetData>
@@ -21790,24 +21995,24 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="41" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="E1" s="73" t="s">
         <v>1466</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="41" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="I1" s="73" t="s">
         <v>1467</v>
       </c>
       <c r="J1" s="39"/>
       <c r="K1" s="41" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -22209,7 +22414,7 @@
         <v>817</v>
       </c>
       <c r="C16" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="E16" t="s">
         <v>1382</v>
@@ -22337,16 +22542,16 @@
         <v>1357</v>
       </c>
       <c r="I20" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="J20" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="K20" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -22360,16 +22565,16 @@
         <v>1411</v>
       </c>
       <c r="E21" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>2555</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2556</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2557</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="22" spans="1:12">

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="2613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="2639">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8509,51 +8509,148 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>배정X 가동중지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_5L7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아041  </t>
+  </si>
+  <si>
+    <t>RM_5L8</t>
+  </si>
+  <si>
+    <t>가034</t>
+  </si>
+  <si>
+    <t>RM_5F0</t>
+  </si>
+  <si>
+    <t>자015</t>
+  </si>
+  <si>
+    <t>(주)점촌레미콘</t>
+  </si>
+  <si>
+    <t>신규 - 배정X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 후 새로운 사업자로 가입할 예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)금강레미콘_영덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)영진레미콘_김천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최명호부장</t>
+  </si>
+  <si>
+    <t>RM_8B0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부경레미콘㈜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_C35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-158</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>대승산업(주)</t>
-  </si>
-  <si>
-    <t>배정X 가동중지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RM_5L7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아041  </t>
-  </si>
-  <si>
-    <t>RM_5L8</t>
-  </si>
-  <si>
-    <t>가034</t>
-  </si>
-  <si>
-    <t>RM_5F0</t>
-  </si>
-  <si>
-    <t>자015</t>
-  </si>
-  <si>
-    <t>(주)점촌레미콘</t>
-  </si>
-  <si>
-    <t>신규 - 배정X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴 후 새로운 사업자로 가입할 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)금강레미콘_영덕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)영진레미콘_김천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최명호부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)남도</t>
+  </si>
+  <si>
+    <t>(주)대화레</t>
+  </si>
+  <si>
+    <t>RM_8B1</t>
+  </si>
+  <si>
+    <t>RM_8B2</t>
+  </si>
+  <si>
+    <t>RM_8B3</t>
+  </si>
+  <si>
+    <t>계열사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_6D9</t>
+  </si>
+  <si>
+    <t>(주)홍성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규- 2019-11-01부터 배정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합탈퇴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)통일기업</t>
+  </si>
+  <si>
+    <t>RM_1B0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_138에서 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>← RM_1B0으로 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규-배정X 사용료는 부과함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬레미콘㈜    구)대양레미콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜광민산업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_G17</t>
   </si>
 </sst>
 </file>
@@ -8568,7 +8665,7 @@
     <numFmt numFmtId="179" formatCode="&quot;대기업&quot;\ #,##0\ &quot;개 사&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8921,7 +9018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9387,6 +9484,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9695,104 +9795,104 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2206</v>
       </c>
@@ -9805,14 +9905,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -9821,7 +9921,7 @@
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2376</v>
       </c>
@@ -9833,13 +9933,13 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C204)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f>COUNTA(C3:C202)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>784</v>
       </c>
@@ -9850,7 +9950,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>786</v>
       </c>
@@ -9861,7 +9961,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>789</v>
       </c>
@@ -9872,7 +9972,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>792</v>
       </c>
@@ -9886,7 +9986,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>795</v>
       </c>
@@ -9897,7 +9997,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>798</v>
       </c>
@@ -9908,7 +10008,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>801</v>
       </c>
@@ -9919,7 +10019,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>803</v>
       </c>
@@ -9930,401 +10030,449 @@
         <v>804</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B11" t="s">
-        <v>806</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>811</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B13" t="s">
-        <v>811</v>
-      </c>
-      <c r="C13" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>814</v>
+      </c>
+      <c r="D13" t="s">
+        <v>815</v>
+      </c>
+      <c r="E13" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B14" t="s">
-        <v>814</v>
-      </c>
-      <c r="D14" t="s">
-        <v>815</v>
-      </c>
-      <c r="E14" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>817</v>
+      </c>
+      <c r="C14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
-      </c>
-      <c r="C15" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>820</v>
+      </c>
+      <c r="D15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B16" t="s">
-        <v>820</v>
-      </c>
-      <c r="D16" t="s">
-        <v>821</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>824</v>
+      </c>
+      <c r="B17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>827</v>
+      </c>
+      <c r="B18" t="s">
+        <v>828</v>
+      </c>
+      <c r="C18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>830</v>
+      </c>
+      <c r="B19" t="s">
+        <v>831</v>
+      </c>
+      <c r="C19" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>833</v>
+      </c>
+      <c r="B20" t="s">
+        <v>834</v>
+      </c>
+      <c r="C20" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>836</v>
+      </c>
+      <c r="B21" t="s">
+        <v>837</v>
+      </c>
+      <c r="C21" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>839</v>
+      </c>
+      <c r="B22" t="s">
+        <v>840</v>
+      </c>
+      <c r="C22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>845</v>
+      </c>
+      <c r="B24" t="s">
+        <v>846</v>
+      </c>
+      <c r="D24" t="s">
+        <v>847</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>848</v>
+      </c>
+      <c r="B25" t="s">
+        <v>849</v>
+      </c>
+      <c r="D25" t="s">
+        <v>850</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>822</v>
-      </c>
-      <c r="B17" t="s">
-        <v>823</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>824</v>
-      </c>
-      <c r="B18" t="s">
-        <v>825</v>
-      </c>
-      <c r="C18" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>827</v>
-      </c>
-      <c r="B19" t="s">
-        <v>828</v>
-      </c>
-      <c r="C19" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>830</v>
-      </c>
-      <c r="B20" t="s">
-        <v>831</v>
-      </c>
-      <c r="C20" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>833</v>
-      </c>
-      <c r="B21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C21" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>836</v>
-      </c>
-      <c r="B22" t="s">
-        <v>837</v>
-      </c>
-      <c r="C22" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>839</v>
-      </c>
-      <c r="B23" t="s">
-        <v>840</v>
-      </c>
-      <c r="C23" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>842</v>
-      </c>
-      <c r="B24" t="s">
-        <v>843</v>
-      </c>
-      <c r="C24" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1">
-      <c r="A25" t="s">
-        <v>845</v>
-      </c>
-      <c r="B25" t="s">
-        <v>846</v>
-      </c>
-      <c r="D25" t="s">
-        <v>847</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B26" t="s">
-        <v>849</v>
-      </c>
-      <c r="D26" t="s">
-        <v>850</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>852</v>
+      </c>
+      <c r="C26" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B27" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C27" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B28" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C28" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B29" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C29" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B30" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C30" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B31" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B32" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C32" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>715</v>
+      </c>
+      <c r="D32" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B33" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C33" t="s">
-        <v>715</v>
-      </c>
-      <c r="D33" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B34" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="C34" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B35" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C35" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B36" t="s">
-        <v>878</v>
-      </c>
-      <c r="C36" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>881</v>
+      </c>
+      <c r="D36" t="s">
+        <v>882</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B37" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C37" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B38" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C38" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>886</v>
-      </c>
-      <c r="B39" t="s">
-        <v>887</v>
-      </c>
-      <c r="C39" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B41" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="C41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2472</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>2307</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2252</v>
+        <v>2572</v>
       </c>
       <c r="B42" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2307</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2570</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2572</v>
+        <v>2612</v>
       </c>
       <c r="B43" t="s">
-        <v>2570</v>
+        <v>2597</v>
       </c>
       <c r="D43" t="s">
-        <v>2571</v>
+        <v>235</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>2573</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2621</v>
+      </c>
       <c r="B44" t="s">
         <v>2598</v>
       </c>
       <c r="D44" t="s">
-        <v>2599</v>
-      </c>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5">
+        <v>2618</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2622</v>
+      </c>
       <c r="B45" t="s">
-        <v>2597</v>
+        <v>2616</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
-      </c>
+        <v>2619</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50" t="s">
+        <v>2620</v>
+      </c>
+      <c r="E46" s="155" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="52" t="s">
+        <v>805</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>806</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>807</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10342,7 +10490,7 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
@@ -10350,7 +10498,7 @@
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2377</v>
       </c>
@@ -10359,13 +10507,13 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C198)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>979</v>
       </c>
@@ -10376,7 +10524,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>982</v>
       </c>
@@ -10387,7 +10535,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>985</v>
       </c>
@@ -10401,7 +10549,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>988</v>
       </c>
@@ -10412,7 +10560,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>990</v>
       </c>
@@ -10423,7 +10571,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>992</v>
       </c>
@@ -10434,7 +10582,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>995</v>
       </c>
@@ -10445,7 +10593,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>997</v>
       </c>
@@ -10456,7 +10604,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1000</v>
       </c>
@@ -10467,7 +10615,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1002</v>
       </c>
@@ -10478,7 +10626,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1005</v>
       </c>
@@ -10489,7 +10637,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1008</v>
       </c>
@@ -10500,7 +10648,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1011</v>
       </c>
@@ -10511,7 +10659,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1014</v>
       </c>
@@ -10522,7 +10670,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1017</v>
       </c>
@@ -10533,7 +10681,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1021</v>
       </c>
@@ -10544,7 +10692,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1023</v>
       </c>
@@ -10555,7 +10703,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1025</v>
       </c>
@@ -10566,7 +10714,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1027</v>
       </c>
@@ -10577,7 +10725,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1030</v>
       </c>
@@ -10588,7 +10736,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1033</v>
       </c>
@@ -10599,7 +10747,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1036</v>
       </c>
@@ -10610,7 +10758,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1039</v>
       </c>
@@ -10621,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1041</v>
       </c>
@@ -10632,7 +10780,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1044</v>
       </c>
@@ -10643,7 +10791,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1050</v>
       </c>
@@ -10654,7 +10802,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1053</v>
       </c>
@@ -10665,7 +10813,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1056</v>
       </c>
@@ -10676,7 +10824,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1059</v>
       </c>
@@ -10687,7 +10835,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1062</v>
       </c>
@@ -10698,7 +10846,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1065</v>
       </c>
@@ -10709,7 +10857,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1067</v>
       </c>
@@ -10720,7 +10868,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1069</v>
       </c>
@@ -10731,7 +10879,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1071</v>
       </c>
@@ -10742,7 +10890,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1047</v>
       </c>
@@ -10756,7 +10904,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1073</v>
       </c>
@@ -10770,7 +10918,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1074</v>
       </c>
@@ -10781,7 +10929,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2342</v>
       </c>
@@ -10795,7 +10943,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1019</v>
       </c>
@@ -10809,7 +10957,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2542</v>
       </c>
@@ -10823,7 +10971,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2583</v>
       </c>
@@ -10852,7 +11000,7 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -10861,7 +11009,7 @@
     <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2378</v>
       </c>
@@ -10870,13 +11018,13 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="4">
         <f>COUNTA(C3:C42)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>890</v>
       </c>
@@ -10887,7 +11035,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>892</v>
       </c>
@@ -10898,7 +11046,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>894</v>
       </c>
@@ -10909,7 +11057,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>895</v>
       </c>
@@ -10920,7 +11068,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>899</v>
       </c>
@@ -10931,7 +11079,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>901</v>
       </c>
@@ -10942,7 +11090,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>904</v>
       </c>
@@ -10953,7 +11101,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>907</v>
       </c>
@@ -10964,7 +11112,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>908</v>
       </c>
@@ -10975,7 +11123,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>911</v>
       </c>
@@ -10986,7 +11134,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>914</v>
       </c>
@@ -10997,7 +11145,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>917</v>
       </c>
@@ -11014,7 +11162,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>919</v>
       </c>
@@ -11028,7 +11176,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>922</v>
       </c>
@@ -11039,7 +11187,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>925</v>
       </c>
@@ -11050,7 +11198,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>928</v>
       </c>
@@ -11061,7 +11209,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>931</v>
       </c>
@@ -11072,7 +11220,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>934</v>
       </c>
@@ -11083,7 +11231,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>942</v>
       </c>
@@ -11094,7 +11242,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>945</v>
       </c>
@@ -11105,7 +11253,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>950</v>
       </c>
@@ -11116,7 +11264,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1">
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>953</v>
       </c>
@@ -11133,7 +11281,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>956</v>
       </c>
@@ -11148,7 +11296,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>959</v>
       </c>
@@ -11159,7 +11307,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>962</v>
       </c>
@@ -11170,7 +11318,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>965</v>
       </c>
@@ -11181,7 +11329,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>897</v>
       </c>
@@ -11192,7 +11340,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>937</v>
       </c>
@@ -11203,7 +11351,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>967</v>
       </c>
@@ -11214,7 +11362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>970</v>
       </c>
@@ -11225,7 +11373,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2316</v>
       </c>
@@ -11239,7 +11387,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>971</v>
       </c>
@@ -11256,7 +11404,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2309</v>
       </c>
@@ -11270,7 +11418,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>976</v>
       </c>
@@ -11287,7 +11435,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2270</v>
       </c>
@@ -11301,7 +11449,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1">
+    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>940</v>
       </c>
@@ -11318,7 +11466,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>973</v>
       </c>
@@ -11329,7 +11477,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2339</v>
       </c>
@@ -11343,7 +11491,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2340</v>
       </c>
@@ -11380,7 +11528,7 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" hidden="1" customWidth="1"/>
@@ -11391,7 +11539,7 @@
     <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>2442</v>
       </c>
@@ -11402,7 +11550,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
@@ -11419,7 +11567,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>261</v>
       </c>
@@ -11434,7 +11582,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>262</v>
       </c>
@@ -11449,7 +11597,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="108" t="s">
         <v>263</v>
       </c>
@@ -11472,7 +11620,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>264</v>
       </c>
@@ -11487,7 +11635,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
@@ -11502,7 +11650,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>271</v>
       </c>
@@ -11517,7 +11665,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2324</v>
       </c>
@@ -11534,7 +11682,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>2325</v>
       </c>
@@ -11555,7 +11703,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>265</v>
       </c>
@@ -11572,7 +11720,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>266</v>
       </c>
@@ -11589,7 +11737,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>267</v>
       </c>
@@ -11606,7 +11754,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>270</v>
       </c>
@@ -11623,7 +11771,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="48" customFormat="1">
+    <row r="15" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>269</v>
       </c>
@@ -11643,7 +11791,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="134" t="s">
         <v>2292</v>
       </c>
@@ -11686,7 +11834,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11696,7 +11844,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2379</v>
       </c>
@@ -11706,7 +11854,7 @@
       </c>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>11</v>
@@ -11715,7 +11863,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>1271</v>
       </c>
@@ -11729,7 +11877,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1274</v>
       </c>
@@ -11743,7 +11891,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1275</v>
       </c>
@@ -11757,7 +11905,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1278</v>
       </c>
@@ -11771,7 +11919,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1280</v>
       </c>
@@ -11785,7 +11933,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1281</v>
       </c>
@@ -11799,7 +11947,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1283</v>
       </c>
@@ -11813,7 +11961,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="26" customFormat="1">
+    <row r="10" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>1285</v>
       </c>
@@ -11830,7 +11978,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>1287</v>
       </c>
@@ -11844,7 +11992,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1289</v>
       </c>
@@ -11858,7 +12006,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1291</v>
       </c>
@@ -11872,7 +12020,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1293</v>
       </c>
@@ -11886,7 +12034,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>2458</v>
       </c>
@@ -11901,7 +12049,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="113" t="s">
         <v>2462</v>
       </c>
@@ -11913,7 +12061,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
@@ -11937,10 +12085,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
@@ -11948,7 +12096,7 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2380</v>
       </c>
@@ -11958,7 +12106,7 @@
       </c>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>7</v>
@@ -11967,7 +12115,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1257</v>
       </c>
@@ -11981,7 +12129,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1259</v>
       </c>
@@ -11995,7 +12143,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1261</v>
       </c>
@@ -12009,7 +12157,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1263</v>
       </c>
@@ -12023,7 +12171,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1266</v>
       </c>
@@ -12037,7 +12185,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1268</v>
       </c>
@@ -12054,7 +12202,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1270</v>
       </c>
@@ -12076,14 +12224,14 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12091,7 +12239,7 @@
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1">
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2381</v>
       </c>
@@ -12100,13 +12248,13 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
-        <f>COUNTA(C3:C28)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f>COUNTA(C3:C102)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1183</v>
       </c>
@@ -12117,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1185</v>
       </c>
@@ -12128,7 +12276,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1188</v>
       </c>
@@ -12139,7 +12287,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1191</v>
       </c>
@@ -12150,7 +12298,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1194</v>
       </c>
@@ -12161,7 +12309,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1197</v>
       </c>
@@ -12172,7 +12320,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1200</v>
       </c>
@@ -12183,7 +12331,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1203</v>
       </c>
@@ -12194,7 +12342,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>1206</v>
       </c>
@@ -12206,7 +12354,7 @@
       </c>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>1231</v>
       </c>
@@ -12218,7 +12366,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1209</v>
       </c>
@@ -12229,7 +12377,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1212</v>
       </c>
@@ -12240,7 +12388,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1214</v>
       </c>
@@ -12251,7 +12399,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1216</v>
       </c>
@@ -12262,7 +12410,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>1219</v>
       </c>
@@ -12274,7 +12422,7 @@
       </c>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
         <v>1222</v>
       </c>
@@ -12286,7 +12434,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1225</v>
       </c>
@@ -12297,7 +12445,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1228</v>
       </c>
@@ -12308,7 +12456,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1234</v>
       </c>
@@ -12319,7 +12467,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1236</v>
       </c>
@@ -12330,7 +12478,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1239</v>
       </c>
@@ -12341,7 +12489,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1242</v>
       </c>
@@ -12352,7 +12500,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1245</v>
       </c>
@@ -12363,7 +12511,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1248</v>
       </c>
@@ -12374,7 +12522,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1251</v>
       </c>
@@ -12385,7 +12533,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1254</v>
       </c>
@@ -12394,11 +12542,26 @@
       </c>
       <c r="C28" t="s">
         <v>1256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>2634</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12411,7 +12574,7 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12421,7 +12584,7 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2382</v>
       </c>
@@ -12434,14 +12597,14 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>16</v>
       </c>
       <c r="D2" s="153"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1144</v>
       </c>
@@ -12452,7 +12615,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1146</v>
       </c>
@@ -12463,7 +12626,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1148</v>
       </c>
@@ -12474,7 +12637,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1150</v>
       </c>
@@ -12485,7 +12648,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1152</v>
       </c>
@@ -12496,7 +12659,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1154</v>
       </c>
@@ -12507,7 +12670,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1156</v>
       </c>
@@ -12518,7 +12681,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1159</v>
       </c>
@@ -12529,7 +12692,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1161</v>
       </c>
@@ -12540,7 +12703,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1166</v>
       </c>
@@ -12551,7 +12714,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1169</v>
       </c>
@@ -12562,7 +12725,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1171</v>
       </c>
@@ -12573,7 +12736,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1174</v>
       </c>
@@ -12584,7 +12747,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1176</v>
       </c>
@@ -12595,7 +12758,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1179</v>
       </c>
@@ -12606,7 +12769,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1181</v>
       </c>
@@ -12617,7 +12780,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1">
+    <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2588</v>
       </c>
@@ -12631,7 +12794,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1163</v>
       </c>
@@ -12645,7 +12808,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2589</v>
       </c>
@@ -12674,7 +12837,7 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12682,7 +12845,7 @@
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2383</v>
       </c>
@@ -12691,13 +12854,13 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="43">
         <f>COUNTA(C3:C19)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>1128</v>
       </c>
@@ -12709,7 +12872,7 @@
       </c>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>1142</v>
       </c>
@@ -12721,7 +12884,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>1130</v>
       </c>
@@ -12733,7 +12896,7 @@
       </c>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
         <v>1132</v>
       </c>
@@ -12745,7 +12908,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1134</v>
       </c>
@@ -12756,7 +12919,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1136</v>
       </c>
@@ -12767,7 +12930,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1138</v>
       </c>
@@ -12778,7 +12941,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1140</v>
       </c>
@@ -12789,7 +12952,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1">
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>2343</v>
       </c>
@@ -12803,7 +12966,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>2525</v>
       </c>
@@ -12826,14 +12989,14 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12842,7 +13005,7 @@
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2384</v>
       </c>
@@ -12854,13 +13017,13 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1101</v>
       </c>
@@ -12871,7 +13034,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1103</v>
       </c>
@@ -12882,7 +13045,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1104</v>
       </c>
@@ -12893,7 +13056,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1106</v>
       </c>
@@ -12904,7 +13067,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1108</v>
       </c>
@@ -12915,7 +13078,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1109</v>
       </c>
@@ -12926,7 +13089,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1111</v>
       </c>
@@ -12937,7 +13100,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1113</v>
       </c>
@@ -12948,7 +13111,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1115</v>
       </c>
@@ -12959,7 +13122,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1116</v>
       </c>
@@ -12970,18 +13133,21 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1118</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1120</v>
       </c>
@@ -12992,7 +13158,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1122</v>
       </c>
@@ -13003,7 +13169,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1124</v>
       </c>
@@ -13014,7 +13180,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1126</v>
       </c>
@@ -13026,6 +13192,20 @@
       </c>
       <c r="E17" t="s">
         <v>2563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>2551</v>
       </c>
     </row>
   </sheetData>
@@ -13045,7 +13225,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="118" bestFit="1" customWidth="1"/>
@@ -13056,11 +13236,11 @@
     <col min="7" max="7" width="8.375" style="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="156" t="s">
         <v>2488</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="88" t="s">
         <v>2481</v>
       </c>
@@ -13069,13 +13249,13 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>2499</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2489</v>
       </c>
@@ -13096,11 +13276,11 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="121"/>
       <c r="E5" s="121"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>2491</v>
       </c>
@@ -13108,7 +13288,7 @@
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2484</v>
       </c>
@@ -13120,7 +13300,7 @@
       </c>
       <c r="E7" s="124"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>2482</v>
       </c>
@@ -13132,7 +13312,7 @@
       </c>
       <c r="E8" s="124"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2483</v>
       </c>
@@ -13160,10 +13340,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13172,7 +13352,7 @@
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2385</v>
       </c>
@@ -13184,13 +13364,13 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1077</v>
       </c>
@@ -13201,7 +13381,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1079</v>
       </c>
@@ -13212,7 +13392,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1081</v>
       </c>
@@ -13223,7 +13403,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1083</v>
       </c>
@@ -13234,7 +13414,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1085</v>
       </c>
@@ -13245,7 +13425,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1087</v>
       </c>
@@ -13256,7 +13436,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1089</v>
       </c>
@@ -13267,7 +13447,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1091</v>
       </c>
@@ -13281,7 +13461,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1093</v>
       </c>
@@ -13292,7 +13472,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1094</v>
       </c>
@@ -13303,7 +13483,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1096</v>
       </c>
@@ -13314,7 +13494,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1098</v>
       </c>
@@ -13337,16 +13517,16 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="A77:B77"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13363,7 +13543,7 @@
     <col min="14" max="14" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>590</v>
       </c>
@@ -13391,7 +13571,7 @@
       </c>
       <c r="M1" s="78"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
       <c r="B2" s="32"/>
       <c r="C2" s="84">
@@ -13421,7 +13601,7 @@
       </c>
       <c r="M2" s="61"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>363</v>
       </c>
@@ -13448,14 +13628,14 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="156" t="s">
+      <c r="M3" s="157" t="s">
         <v>2239</v>
       </c>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="158" t="s">
         <v>2243</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>366</v>
       </c>
@@ -13484,10 +13664,10 @@
       <c r="L4" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="M4" s="156"/>
-      <c r="N4" s="157"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4" s="157"/>
+      <c r="N4" s="158"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>369</v>
       </c>
@@ -13523,7 +13703,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>371</v>
       </c>
@@ -13559,7 +13739,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>374</v>
       </c>
@@ -13595,7 +13775,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>377</v>
       </c>
@@ -13609,7 +13789,7 @@
       <c r="E8" s="37"/>
       <c r="F8" s="57"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>380</v>
       </c>
@@ -13631,7 +13811,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>383</v>
       </c>
@@ -13653,7 +13833,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>386</v>
       </c>
@@ -13675,7 +13855,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>389</v>
       </c>
@@ -13697,7 +13877,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>392</v>
       </c>
@@ -13710,7 +13890,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>395</v>
       </c>
@@ -13723,7 +13903,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>398</v>
       </c>
@@ -13736,7 +13916,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>401</v>
       </c>
@@ -13749,7 +13929,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>404</v>
       </c>
@@ -13762,7 +13942,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>407</v>
       </c>
@@ -13775,7 +13955,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>410</v>
       </c>
@@ -13788,7 +13968,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>412</v>
       </c>
@@ -13801,7 +13981,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>415</v>
       </c>
@@ -13814,7 +13994,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>418</v>
       </c>
@@ -13827,7 +14007,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>421</v>
       </c>
@@ -13840,7 +14020,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>424</v>
       </c>
@@ -13853,7 +14033,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>427</v>
       </c>
@@ -13866,7 +14046,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>430</v>
       </c>
@@ -13879,20 +14059,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>436</v>
       </c>
@@ -13905,7 +14072,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>439</v>
       </c>
@@ -13918,7 +14085,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>442</v>
       </c>
@@ -13931,7 +14098,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>445</v>
       </c>
@@ -13944,7 +14111,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>448</v>
       </c>
@@ -13957,7 +14124,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>451</v>
       </c>
@@ -13970,7 +14137,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>454</v>
       </c>
@@ -13983,7 +14150,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>457</v>
       </c>
@@ -13996,7 +14163,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>460</v>
       </c>
@@ -14009,7 +14176,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>463</v>
       </c>
@@ -14022,7 +14189,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>466</v>
       </c>
@@ -14035,7 +14202,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>469</v>
       </c>
@@ -14048,7 +14215,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>472</v>
       </c>
@@ -14061,7 +14228,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>475</v>
       </c>
@@ -14074,7 +14241,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>478</v>
       </c>
@@ -14087,7 +14254,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>481</v>
       </c>
@@ -14100,7 +14267,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>484</v>
       </c>
@@ -14117,7 +14284,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>488</v>
       </c>
@@ -14130,7 +14297,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>491</v>
       </c>
@@ -14143,7 +14310,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" hidden="1">
+    <row r="47" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="108" t="s">
         <v>494</v>
       </c>
@@ -14163,7 +14330,7 @@
       <c r="K47" s="110"/>
       <c r="M47" s="111"/>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>497</v>
       </c>
@@ -14176,7 +14343,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>500</v>
       </c>
@@ -14189,7 +14356,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>503</v>
       </c>
@@ -14202,7 +14369,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>506</v>
       </c>
@@ -14215,7 +14382,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>509</v>
       </c>
@@ -14228,7 +14395,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:13" s="39" customFormat="1">
+    <row r="53" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="134" t="s">
         <v>512</v>
       </c>
@@ -14247,7 +14414,7 @@
       <c r="K53" s="137"/>
       <c r="M53" s="138"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>514</v>
       </c>
@@ -14260,7 +14427,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>516</v>
       </c>
@@ -14273,7 +14440,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>519</v>
       </c>
@@ -14286,7 +14453,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>522</v>
       </c>
@@ -14299,7 +14466,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>525</v>
       </c>
@@ -14312,7 +14479,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>528</v>
       </c>
@@ -14325,7 +14492,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>531</v>
       </c>
@@ -14337,7 +14504,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>534</v>
       </c>
@@ -14350,7 +14517,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>537</v>
       </c>
@@ -14363,7 +14530,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>540</v>
       </c>
@@ -14376,7 +14543,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>543</v>
       </c>
@@ -14389,7 +14556,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>545</v>
       </c>
@@ -14402,7 +14569,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>548</v>
       </c>
@@ -14415,7 +14582,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>551</v>
       </c>
@@ -14428,7 +14595,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>554</v>
       </c>
@@ -14441,7 +14608,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>557</v>
       </c>
@@ -14454,7 +14621,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>560</v>
       </c>
@@ -14470,7 +14637,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>2452</v>
       </c>
@@ -14490,7 +14657,7 @@
       <c r="G71" s="107"/>
       <c r="H71" s="107"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>2467</v>
       </c>
@@ -14508,7 +14675,7 @@
       <c r="G72" s="115"/>
       <c r="H72" s="115"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>2474</v>
       </c>
@@ -14526,7 +14693,7 @@
       <c r="G73" s="117"/>
       <c r="H73" s="117"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2516</v>
       </c>
@@ -14541,7 +14708,7 @@
       </c>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2535</v>
       </c>
@@ -14556,7 +14723,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>2577</v>
       </c>
@@ -14571,16 +14738,48 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>2576</v>
       </c>
-      <c r="B77" s="139" t="s">
+      <c r="B77" s="32" t="s">
         <v>2575</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>533</v>
       </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14602,7 +14801,7 @@
       <selection pane="bottomLeft" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -14616,7 +14815,7 @@
     <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1">
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2374</v>
       </c>
@@ -14629,7 +14828,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>130</v>
@@ -14639,7 +14838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1856</v>
       </c>
@@ -14661,7 +14860,7 @@
       </c>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1858</v>
       </c>
@@ -14683,7 +14882,7 @@
       </c>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1860</v>
       </c>
@@ -14705,7 +14904,7 @@
       </c>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1862</v>
       </c>
@@ -14727,7 +14926,7 @@
       </c>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1864</v>
       </c>
@@ -14749,7 +14948,7 @@
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1866</v>
       </c>
@@ -14771,7 +14970,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1868</v>
       </c>
@@ -14793,7 +14992,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1870</v>
       </c>
@@ -14815,7 +15014,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1873</v>
       </c>
@@ -14827,7 +15026,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1876</v>
       </c>
@@ -14839,7 +15038,7 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1879</v>
       </c>
@@ -14851,7 +15050,7 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1881</v>
       </c>
@@ -14863,7 +15062,7 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1882</v>
       </c>
@@ -14878,7 +15077,7 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1885</v>
       </c>
@@ -14890,7 +15089,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1887</v>
       </c>
@@ -14902,7 +15101,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1889</v>
       </c>
@@ -14914,7 +15113,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1892</v>
       </c>
@@ -14926,7 +15125,7 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1893</v>
       </c>
@@ -14938,7 +15137,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1895</v>
       </c>
@@ -14950,7 +15149,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1898</v>
       </c>
@@ -14962,7 +15161,7 @@
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1900</v>
       </c>
@@ -14974,7 +15173,7 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1902</v>
       </c>
@@ -14986,7 +15185,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1905</v>
       </c>
@@ -14998,7 +15197,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1908</v>
       </c>
@@ -15010,7 +15209,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1910</v>
       </c>
@@ -15022,7 +15221,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1913</v>
       </c>
@@ -15034,7 +15233,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1916</v>
       </c>
@@ -15046,7 +15245,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1918</v>
       </c>
@@ -15058,7 +15257,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1920</v>
       </c>
@@ -15070,7 +15269,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1922</v>
       </c>
@@ -15082,7 +15281,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1924</v>
       </c>
@@ -15094,7 +15293,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1926</v>
       </c>
@@ -15106,7 +15305,7 @@
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1928</v>
       </c>
@@ -15118,7 +15317,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1930</v>
       </c>
@@ -15130,7 +15329,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1932</v>
       </c>
@@ -15142,7 +15341,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1937</v>
       </c>
@@ -15154,7 +15353,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1940</v>
       </c>
@@ -15166,7 +15365,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1941</v>
       </c>
@@ -15178,7 +15377,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1944</v>
       </c>
@@ -15190,7 +15389,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1946</v>
       </c>
@@ -15202,7 +15401,7 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1949</v>
       </c>
@@ -15214,7 +15413,7 @@
       </c>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1952</v>
       </c>
@@ -15226,7 +15425,7 @@
       </c>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1954</v>
       </c>
@@ -15238,7 +15437,7 @@
       </c>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>1957</v>
       </c>
@@ -15253,7 +15452,7 @@
       </c>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" ht="17.25" thickBot="1">
+    <row r="47" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="52" t="s">
         <v>1959</v>
       </c>
@@ -15268,7 +15467,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1961</v>
       </c>
@@ -15280,7 +15479,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1963</v>
       </c>
@@ -15292,7 +15491,7 @@
       </c>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1965</v>
       </c>
@@ -15304,7 +15503,7 @@
       </c>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1968</v>
       </c>
@@ -15316,7 +15515,7 @@
       </c>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1970</v>
       </c>
@@ -15328,7 +15527,7 @@
       </c>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1971</v>
       </c>
@@ -15340,7 +15539,7 @@
       </c>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1973</v>
       </c>
@@ -15352,7 +15551,7 @@
       </c>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1975</v>
       </c>
@@ -15364,7 +15563,7 @@
       </c>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1977</v>
       </c>
@@ -15376,7 +15575,7 @@
       </c>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1979</v>
       </c>
@@ -15388,7 +15587,7 @@
       </c>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1981</v>
       </c>
@@ -15400,7 +15599,7 @@
       </c>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1984</v>
       </c>
@@ -15412,7 +15611,7 @@
       </c>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1986</v>
       </c>
@@ -15424,7 +15623,7 @@
       </c>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1988</v>
       </c>
@@ -15436,7 +15635,7 @@
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1990</v>
       </c>
@@ -15448,7 +15647,7 @@
       </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1992</v>
       </c>
@@ -15460,7 +15659,7 @@
       </c>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1994</v>
       </c>
@@ -15472,7 +15671,7 @@
       </c>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1996</v>
       </c>
@@ -15484,7 +15683,7 @@
       </c>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1998</v>
       </c>
@@ -15496,7 +15695,7 @@
       </c>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2001</v>
       </c>
@@ -15508,7 +15707,7 @@
       </c>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2003</v>
       </c>
@@ -15520,7 +15719,7 @@
       </c>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2005</v>
       </c>
@@ -15532,7 +15731,7 @@
       </c>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2007</v>
       </c>
@@ -15544,7 +15743,7 @@
       </c>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2009</v>
       </c>
@@ -15556,7 +15755,7 @@
       </c>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2011</v>
       </c>
@@ -15568,7 +15767,7 @@
       </c>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2014</v>
       </c>
@@ -15580,7 +15779,7 @@
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2017</v>
       </c>
@@ -15592,7 +15791,7 @@
       </c>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2019</v>
       </c>
@@ -15604,7 +15803,7 @@
       </c>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2021</v>
       </c>
@@ -15616,7 +15815,7 @@
       </c>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2023</v>
       </c>
@@ -15628,7 +15827,7 @@
       </c>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2024</v>
       </c>
@@ -15640,7 +15839,7 @@
       </c>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2026</v>
       </c>
@@ -15652,7 +15851,7 @@
       </c>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2028</v>
       </c>
@@ -15664,7 +15863,7 @@
       </c>
       <c r="F80" s="11"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2030</v>
       </c>
@@ -15676,7 +15875,7 @@
       </c>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2033</v>
       </c>
@@ -15688,7 +15887,7 @@
       </c>
       <c r="F82" s="11"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2035</v>
       </c>
@@ -15700,7 +15899,7 @@
       </c>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2038</v>
       </c>
@@ -15712,7 +15911,7 @@
       </c>
       <c r="F84" s="11"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2041</v>
       </c>
@@ -15724,7 +15923,7 @@
       </c>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2044</v>
       </c>
@@ -15736,7 +15935,7 @@
       </c>
       <c r="F86" s="11"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2047</v>
       </c>
@@ -15748,7 +15947,7 @@
       </c>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2049</v>
       </c>
@@ -15760,7 +15959,7 @@
       </c>
       <c r="F88" s="11"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2051</v>
       </c>
@@ -15772,7 +15971,7 @@
       </c>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2054</v>
       </c>
@@ -15784,7 +15983,7 @@
       </c>
       <c r="F90" s="11"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2057</v>
       </c>
@@ -15796,7 +15995,7 @@
       </c>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2060</v>
       </c>
@@ -15808,7 +16007,7 @@
       </c>
       <c r="F92" s="11"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2063</v>
       </c>
@@ -15820,7 +16019,7 @@
       </c>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2066</v>
       </c>
@@ -15832,7 +16031,7 @@
       </c>
       <c r="F94" s="11"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2068</v>
       </c>
@@ -15844,7 +16043,7 @@
       </c>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2071</v>
       </c>
@@ -15856,7 +16055,7 @@
       </c>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2074</v>
       </c>
@@ -15868,7 +16067,7 @@
       </c>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2077</v>
       </c>
@@ -15880,7 +16079,7 @@
       </c>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2080</v>
       </c>
@@ -15892,7 +16091,7 @@
       </c>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="100" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>2083</v>
       </c>
@@ -15907,7 +16106,7 @@
       </c>
       <c r="F100" s="126"/>
     </row>
-    <row r="101" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="101" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>2085</v>
       </c>
@@ -15922,7 +16121,7 @@
       </c>
       <c r="F101" s="126"/>
     </row>
-    <row r="102" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="102" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>2088</v>
       </c>
@@ -15937,7 +16136,7 @@
       </c>
       <c r="F102" s="126"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2091</v>
       </c>
@@ -15949,7 +16148,7 @@
       </c>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2094</v>
       </c>
@@ -15961,7 +16160,7 @@
       </c>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2097</v>
       </c>
@@ -15973,7 +16172,7 @@
       </c>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2100</v>
       </c>
@@ -15985,7 +16184,7 @@
       </c>
       <c r="F106" s="11"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2102</v>
       </c>
@@ -15997,7 +16196,7 @@
       </c>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2105</v>
       </c>
@@ -16009,7 +16208,7 @@
       </c>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2107</v>
       </c>
@@ -16021,7 +16220,7 @@
       </c>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2110</v>
       </c>
@@ -16033,7 +16232,7 @@
       </c>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2112</v>
       </c>
@@ -16045,7 +16244,7 @@
       </c>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2115</v>
       </c>
@@ -16057,7 +16256,7 @@
       </c>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2117</v>
       </c>
@@ -16069,7 +16268,7 @@
       </c>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2120</v>
       </c>
@@ -16081,7 +16280,7 @@
       </c>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2123</v>
       </c>
@@ -16093,7 +16292,7 @@
       </c>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2126</v>
       </c>
@@ -16105,7 +16304,7 @@
       </c>
       <c r="F116" s="11"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>2128</v>
       </c>
@@ -16117,7 +16316,7 @@
       </c>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="118" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>2130</v>
       </c>
@@ -16132,7 +16331,7 @@
       </c>
       <c r="F118" s="126"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>2132</v>
       </c>
@@ -16144,7 +16343,7 @@
       </c>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2134</v>
       </c>
@@ -16156,7 +16355,7 @@
       </c>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>2136</v>
       </c>
@@ -16168,7 +16367,7 @@
       </c>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>2138</v>
       </c>
@@ -16180,7 +16379,7 @@
       </c>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2141</v>
       </c>
@@ -16192,7 +16391,7 @@
       </c>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2144</v>
       </c>
@@ -16204,7 +16403,7 @@
       </c>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>2146</v>
       </c>
@@ -16216,7 +16415,7 @@
       </c>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2148</v>
       </c>
@@ -16228,7 +16427,7 @@
       </c>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2151</v>
       </c>
@@ -16240,7 +16439,7 @@
       </c>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2153</v>
       </c>
@@ -16252,7 +16451,7 @@
       </c>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>2154</v>
       </c>
@@ -16264,7 +16463,7 @@
       </c>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>2156</v>
       </c>
@@ -16276,7 +16475,7 @@
       </c>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>2158</v>
       </c>
@@ -16288,7 +16487,7 @@
       </c>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2161</v>
       </c>
@@ -16300,7 +16499,7 @@
       </c>
       <c r="F132" s="11"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2163</v>
       </c>
@@ -16312,7 +16511,7 @@
       </c>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2493</v>
       </c>
@@ -16326,7 +16525,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>2248</v>
       </c>
@@ -16340,7 +16539,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
         <v>2277</v>
       </c>
@@ -16354,7 +16553,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="12" customFormat="1" hidden="1">
+    <row r="137" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="55" t="s">
         <v>1934</v>
       </c>
@@ -16367,7 +16566,7 @@
       </c>
       <c r="F137" s="126"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="20" t="s">
         <v>2532</v>
       </c>
@@ -16381,7 +16580,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>2548</v>
       </c>
@@ -16395,7 +16594,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="20" t="s">
         <v>2562</v>
       </c>
@@ -16425,10 +16624,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -16448,7 +16647,7 @@
     <col min="19" max="19" width="49.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" customHeight="1">
+    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2258</v>
       </c>
@@ -16471,7 +16670,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -16489,7 +16688,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>273</v>
       </c>
@@ -16529,7 +16728,7 @@
       <c r="R3" s="20"/>
       <c r="S3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>274</v>
       </c>
@@ -16570,7 +16769,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>275</v>
       </c>
@@ -16613,7 +16812,7 @@
       </c>
       <c r="S5" s="39"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>276</v>
       </c>
@@ -16631,7 +16830,7 @@
       <c r="R6" s="20"/>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>277</v>
       </c>
@@ -16647,7 +16846,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>278</v>
       </c>
@@ -16674,7 +16873,7 @@
       <c r="R8" s="20"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>279</v>
       </c>
@@ -16716,7 +16915,7 @@
       </c>
       <c r="S9"/>
     </row>
-    <row r="10" spans="1:19" s="97" customFormat="1">
+    <row r="10" spans="1:19" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>257</v>
       </c>
@@ -16737,7 +16936,7 @@
       </c>
       <c r="R10" s="69"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>280</v>
       </c>
@@ -16755,7 +16954,7 @@
       <c r="R11" s="20"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>281</v>
       </c>
@@ -16775,7 +16974,7 @@
       <c r="R12" s="20"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>286</v>
       </c>
@@ -16793,7 +16992,7 @@
       <c r="R13" s="20"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>287</v>
       </c>
@@ -16811,7 +17010,7 @@
       <c r="R14" s="20"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>288</v>
       </c>
@@ -16829,7 +17028,7 @@
       <c r="R15" s="20"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>289</v>
       </c>
@@ -16847,7 +17046,7 @@
       <c r="R16" s="20"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>290</v>
       </c>
@@ -16865,7 +17064,7 @@
       <c r="R17" s="20"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>291</v>
       </c>
@@ -16883,7 +17082,7 @@
       <c r="R18" s="20"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>295</v>
       </c>
@@ -16901,7 +17100,7 @@
       <c r="R19" s="20"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>296</v>
       </c>
@@ -16919,7 +17118,7 @@
       <c r="R20" s="20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>297</v>
       </c>
@@ -16937,7 +17136,7 @@
       <c r="R21" s="20"/>
       <c r="S21"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>298</v>
       </c>
@@ -16955,7 +17154,7 @@
       <c r="R22" s="20"/>
       <c r="S22"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>299</v>
       </c>
@@ -16973,7 +17172,7 @@
       <c r="R23" s="20"/>
       <c r="S23"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>300</v>
       </c>
@@ -16991,7 +17190,7 @@
       <c r="R24" s="20"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>301</v>
       </c>
@@ -17009,7 +17208,7 @@
       <c r="R25" s="20"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>302</v>
       </c>
@@ -17027,7 +17226,7 @@
       <c r="R26" s="20"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>303</v>
       </c>
@@ -17045,7 +17244,7 @@
       <c r="R27" s="20"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>304</v>
       </c>
@@ -17063,7 +17262,7 @@
       <c r="R28" s="20"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>305</v>
       </c>
@@ -17081,7 +17280,7 @@
       <c r="R29" s="20"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>306</v>
       </c>
@@ -17099,7 +17298,7 @@
       <c r="R30" s="20"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>307</v>
       </c>
@@ -17117,7 +17316,7 @@
       <c r="R31" s="20"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>308</v>
       </c>
@@ -17135,7 +17334,7 @@
       <c r="R32" s="20"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>309</v>
       </c>
@@ -17153,7 +17352,7 @@
       <c r="R33" s="20"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>310</v>
       </c>
@@ -17171,7 +17370,7 @@
       <c r="R34" s="20"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>311</v>
       </c>
@@ -17189,7 +17388,7 @@
       <c r="R35" s="20"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>312</v>
       </c>
@@ -17207,7 +17406,7 @@
       <c r="R36" s="20"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>313</v>
       </c>
@@ -17225,7 +17424,7 @@
       <c r="R37" s="20"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>314</v>
       </c>
@@ -17243,7 +17442,7 @@
       <c r="R38" s="20"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>315</v>
       </c>
@@ -17261,7 +17460,7 @@
       <c r="R39" s="20"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>316</v>
       </c>
@@ -17279,7 +17478,7 @@
       <c r="R40" s="20"/>
       <c r="S40"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>317</v>
       </c>
@@ -17297,7 +17496,7 @@
       <c r="R41" s="20"/>
       <c r="S41"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>318</v>
       </c>
@@ -17315,7 +17514,7 @@
       <c r="R42" s="20"/>
       <c r="S42"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>319</v>
       </c>
@@ -17333,7 +17532,7 @@
       <c r="R43" s="20"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>320</v>
       </c>
@@ -17351,7 +17550,7 @@
       <c r="R44" s="20"/>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>321</v>
       </c>
@@ -17369,7 +17568,7 @@
       <c r="R45" s="20"/>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>325</v>
       </c>
@@ -17387,7 +17586,7 @@
       <c r="R46" s="20"/>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>326</v>
       </c>
@@ -17407,7 +17606,7 @@
       <c r="R47" s="20"/>
       <c r="S47"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>327</v>
       </c>
@@ -17425,7 +17624,7 @@
       <c r="R48" s="20"/>
       <c r="S48"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>330</v>
       </c>
@@ -17445,7 +17644,7 @@
       <c r="R49" s="20"/>
       <c r="S49"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>331</v>
       </c>
@@ -17463,7 +17662,7 @@
       <c r="R50" s="20"/>
       <c r="S50"/>
     </row>
-    <row r="51" spans="1:19" s="97" customFormat="1" hidden="1">
+    <row r="51" spans="1:19" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>256</v>
       </c>
@@ -17487,7 +17686,7 @@
       <c r="I51" s="69"/>
       <c r="R51" s="69"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>333</v>
       </c>
@@ -17505,7 +17704,7 @@
       <c r="R52" s="20"/>
       <c r="S52"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>334</v>
       </c>
@@ -17523,7 +17722,7 @@
       <c r="R53" s="20"/>
       <c r="S53"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>335</v>
       </c>
@@ -17541,7 +17740,7 @@
       <c r="R54" s="20"/>
       <c r="S54"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
         <v>336</v>
       </c>
@@ -17559,7 +17758,7 @@
       <c r="R55" s="20"/>
       <c r="S55"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>337</v>
       </c>
@@ -17577,7 +17776,7 @@
       <c r="R56" s="20"/>
       <c r="S56"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>338</v>
       </c>
@@ -17595,7 +17794,7 @@
       <c r="R57" s="20"/>
       <c r="S57"/>
     </row>
-    <row r="58" spans="1:19" s="97" customFormat="1">
+    <row r="58" spans="1:19" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>339</v>
       </c>
@@ -17621,7 +17820,7 @@
       <c r="I58" s="98"/>
       <c r="R58" s="69"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>340</v>
       </c>
@@ -17641,7 +17840,7 @@
       <c r="R59" s="20"/>
       <c r="S59"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>341</v>
       </c>
@@ -17659,7 +17858,7 @@
       <c r="R60" s="20"/>
       <c r="S60"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>342</v>
       </c>
@@ -17685,7 +17884,7 @@
       <c r="R61" s="20"/>
       <c r="S61"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>344</v>
       </c>
@@ -17705,7 +17904,7 @@
       <c r="R62" s="20"/>
       <c r="S62"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>345</v>
       </c>
@@ -17725,7 +17924,7 @@
       <c r="R63" s="20"/>
       <c r="S63"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>346</v>
       </c>
@@ -17746,7 +17945,7 @@
       <c r="R64" s="20"/>
       <c r="S64"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>348</v>
       </c>
@@ -17766,7 +17965,7 @@
       <c r="R65" s="20"/>
       <c r="S65"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>349</v>
       </c>
@@ -17786,7 +17985,7 @@
       <c r="R66" s="20"/>
       <c r="S66"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>350</v>
       </c>
@@ -17806,7 +18005,7 @@
       <c r="R67" s="20"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>351</v>
       </c>
@@ -17826,7 +18025,7 @@
       <c r="R68" s="20"/>
       <c r="S68"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>352</v>
       </c>
@@ -17846,7 +18045,7 @@
       <c r="R69" s="20"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>353</v>
       </c>
@@ -17866,7 +18065,7 @@
       <c r="R70" s="20"/>
       <c r="S70"/>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>354</v>
       </c>
@@ -17886,7 +18085,7 @@
       <c r="R71" s="20"/>
       <c r="S71"/>
     </row>
-    <row r="72" spans="1:19" s="97" customFormat="1">
+    <row r="72" spans="1:19" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>355</v>
       </c>
@@ -17909,7 +18108,7 @@
       </c>
       <c r="R72" s="69"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>356</v>
       </c>
@@ -17929,7 +18128,7 @@
       <c r="R73" s="20"/>
       <c r="S73"/>
     </row>
-    <row r="74" spans="1:19" s="97" customFormat="1">
+    <row r="74" spans="1:19" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>357</v>
       </c>
@@ -17952,7 +18151,7 @@
       </c>
       <c r="R74" s="69"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>358</v>
       </c>
@@ -17972,7 +18171,7 @@
       <c r="R75" s="20"/>
       <c r="S75"/>
     </row>
-    <row r="76" spans="1:19" s="97" customFormat="1">
+    <row r="76" spans="1:19" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>359</v>
       </c>
@@ -17995,7 +18194,7 @@
       </c>
       <c r="R76" s="69"/>
     </row>
-    <row r="77" spans="1:19" s="13" customFormat="1" hidden="1">
+    <row r="77" spans="1:19" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>343</v>
       </c>
@@ -18022,7 +18221,7 @@
       <c r="Q77"/>
       <c r="R77" s="19"/>
     </row>
-    <row r="78" spans="1:19" s="13" customFormat="1">
+    <row r="78" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>360</v>
       </c>
@@ -18051,7 +18250,7 @@
       <c r="Q78"/>
       <c r="R78" s="19"/>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -18063,7 +18262,7 @@
       <c r="R79" s="20"/>
       <c r="S79"/>
     </row>
-    <row r="80" spans="1:19" s="23" customFormat="1" hidden="1">
+    <row r="80" spans="1:19" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="36" t="s">
         <v>285</v>
       </c>
@@ -18082,7 +18281,7 @@
       <c r="H80" s="70"/>
       <c r="R80" s="25"/>
     </row>
-    <row r="81" spans="1:21" s="23" customFormat="1" hidden="1">
+    <row r="81" spans="1:21" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="36" t="s">
         <v>329</v>
       </c>
@@ -18101,7 +18300,7 @@
       <c r="H81" s="70"/>
       <c r="R81" s="25"/>
     </row>
-    <row r="82" spans="1:21" s="24" customFormat="1">
+    <row r="82" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="36" t="s">
         <v>2214</v>
       </c>
@@ -18122,7 +18321,7 @@
       </c>
       <c r="R82" s="25"/>
     </row>
-    <row r="83" spans="1:21" s="24" customFormat="1">
+    <row r="83" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
         <v>2213</v>
       </c>
@@ -18141,7 +18340,7 @@
       <c r="H83" s="25"/>
       <c r="R83" s="25"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>2236</v>
       </c>
@@ -18164,7 +18363,7 @@
       <c r="R84" s="20"/>
       <c r="S84"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="148" t="s">
         <v>2533</v>
       </c>
@@ -18176,7 +18375,7 @@
       <c r="R85" s="20"/>
       <c r="S85"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="36" t="s">
         <v>332</v>
       </c>
@@ -18194,7 +18393,7 @@
       <c r="R86" s="20"/>
       <c r="S86"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
         <v>328</v>
       </c>
@@ -18212,7 +18411,7 @@
       <c r="R87" s="20"/>
       <c r="S87"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>323</v>
       </c>
@@ -18235,7 +18434,7 @@
       <c r="Q88" s="56"/>
       <c r="S88"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
         <v>282</v>
       </c>
@@ -18258,7 +18457,7 @@
       <c r="Q89" s="56"/>
       <c r="S89"/>
     </row>
-    <row r="90" spans="1:21" s="24" customFormat="1">
+    <row r="90" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
         <v>283</v>
       </c>
@@ -18271,19 +18470,19 @@
       <c r="D90" s="32"/>
       <c r="E90" s="145"/>
       <c r="F90" s="32"/>
-      <c r="J90" s="158" t="s">
+      <c r="J90" s="159" t="s">
         <v>2423</v>
       </c>
-      <c r="K90" s="158"/>
-      <c r="L90" s="158"/>
-      <c r="M90" s="158"/>
-      <c r="N90" s="158"/>
-      <c r="O90" s="158"/>
+      <c r="K90" s="159"/>
+      <c r="L90" s="159"/>
+      <c r="M90" s="159"/>
+      <c r="N90" s="159"/>
+      <c r="O90" s="159"/>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="32" t="s">
         <v>347</v>
       </c>
@@ -18326,7 +18525,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="32" t="s">
         <v>324</v>
       </c>
@@ -18364,7 +18563,7 @@
       </c>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="32" t="s">
         <v>322</v>
       </c>
@@ -18402,7 +18601,7 @@
       </c>
       <c r="S93"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>284</v>
       </c>
@@ -18418,7 +18617,7 @@
       <c r="R94" s="24"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>2227</v>
       </c>
@@ -18435,7 +18634,7 @@
       </c>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>292</v>
       </c>
@@ -18451,7 +18650,7 @@
       <c r="R96" s="24"/>
       <c r="S96"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>294</v>
       </c>
@@ -18466,7 +18665,7 @@
       <c r="F97" s="32"/>
       <c r="I97" s="24"/>
     </row>
-    <row r="98" spans="1:19" s="23" customFormat="1">
+    <row r="98" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>293</v>
       </c>
@@ -18483,55 +18682,55 @@
       <c r="H98" s="55"/>
       <c r="R98" s="25"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
       <c r="R99" s="20"/>
       <c r="S99"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
       <c r="R100" s="20"/>
       <c r="S100"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
       <c r="R101" s="20"/>
       <c r="S101"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
       <c r="R102" s="20"/>
       <c r="S102"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
       <c r="R103" s="20"/>
       <c r="S103"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
       <c r="R104" s="20"/>
       <c r="S104"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
       <c r="R105" s="20"/>
       <c r="S105"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
       <c r="R106" s="20"/>
       <c r="S106"/>
     </row>
-    <row r="107" spans="1:19" s="13" customFormat="1">
+    <row r="107" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -18544,19 +18743,19 @@
       <c r="H107" s="89"/>
       <c r="R107" s="19"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
       <c r="R108" s="20"/>
       <c r="S108"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
       <c r="R109" s="20"/>
       <c r="S109"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
       <c r="R110" s="20"/>
@@ -18588,7 +18787,7 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="27" customWidth="1"/>
@@ -18604,7 +18803,7 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>2257</v>
       </c>
@@ -18617,7 +18816,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10">
@@ -18631,7 +18830,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>241</v>
       </c>
@@ -18651,7 +18850,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>242</v>
       </c>
@@ -18670,7 +18869,7 @@
       </c>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>243</v>
       </c>
@@ -18687,7 +18886,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="67"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>244</v>
       </c>
@@ -18709,7 +18908,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>245</v>
       </c>
@@ -18726,7 +18925,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="67"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>246</v>
       </c>
@@ -18743,7 +18942,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="67"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>247</v>
       </c>
@@ -18762,7 +18961,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="67"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>248</v>
       </c>
@@ -18781,7 +18980,7 @@
       </c>
       <c r="I10" s="67"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>249</v>
       </c>
@@ -18798,7 +18997,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="67"/>
     </row>
-    <row r="12" spans="1:11" s="102" customFormat="1" hidden="1">
+    <row r="12" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="129" t="s">
         <v>238</v>
       </c>
@@ -18823,7 +19022,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="102" customFormat="1" hidden="1">
+    <row r="13" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>250</v>
       </c>
@@ -18850,7 +19049,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>251</v>
       </c>
@@ -18870,7 +19069,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>252</v>
       </c>
@@ -18889,7 +19088,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="67"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="151" t="s">
         <v>2565</v>
       </c>
@@ -18911,7 +19110,7 @@
       <c r="I16" s="67"/>
       <c r="K16" s="150"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>253</v>
       </c>
@@ -18928,7 +19127,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="67"/>
     </row>
-    <row r="18" spans="1:12" s="102" customFormat="1">
+    <row r="18" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>254</v>
       </c>
@@ -18955,7 +19154,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="102" customFormat="1">
+    <row r="19" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>255</v>
       </c>
@@ -18982,7 +19181,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="102" customFormat="1">
+    <row r="20" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>2330</v>
       </c>
@@ -19013,7 +19212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
       <c r="B21" s="94"/>
       <c r="C21" s="68"/>
@@ -19024,7 +19223,7 @@
       <c r="H21" s="68"/>
       <c r="I21" s="67"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="93"/>
       <c r="B22" s="94"/>
       <c r="C22" s="68"/>
@@ -19035,7 +19234,7 @@
       <c r="H22" s="68"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="93"/>
       <c r="B23" s="94"/>
       <c r="C23" s="68"/>
@@ -19046,7 +19245,7 @@
       <c r="H23" s="68"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="93"/>
       <c r="B24" s="94"/>
       <c r="C24" s="68"/>
@@ -19057,27 +19256,27 @@
       <c r="H24" s="68"/>
       <c r="I24" s="67"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="39" customHeight="1">
-      <c r="A26" s="159" t="s">
+    <row r="26" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="160" t="s">
         <v>2425</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
       <c r="I26" s="67"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>2333</v>
       </c>
@@ -19101,7 +19300,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>2332</v>
       </c>
@@ -19125,7 +19324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>2331</v>
       </c>
@@ -19149,7 +19348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>2329</v>
       </c>
@@ -19173,7 +19372,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
         <v>2328</v>
       </c>
@@ -19219,7 +19418,7 @@
       <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -19228,7 +19427,7 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>2375</v>
       </c>
@@ -19240,13 +19439,13 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1468</v>
       </c>
@@ -19257,7 +19456,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1471</v>
       </c>
@@ -19268,7 +19467,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1474</v>
       </c>
@@ -19279,7 +19478,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1477</v>
       </c>
@@ -19290,7 +19489,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1480</v>
       </c>
@@ -19301,7 +19500,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>1483</v>
       </c>
@@ -19316,7 +19515,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>1837</v>
       </c>
@@ -19328,7 +19527,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1485</v>
       </c>
@@ -19339,7 +19538,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1488</v>
       </c>
@@ -19350,7 +19549,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1491</v>
       </c>
@@ -19361,7 +19560,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1494</v>
       </c>
@@ -19372,7 +19571,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1497</v>
       </c>
@@ -19383,7 +19582,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1500</v>
       </c>
@@ -19394,7 +19593,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1503</v>
       </c>
@@ -19405,7 +19604,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1505</v>
       </c>
@@ -19416,7 +19615,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1508</v>
       </c>
@@ -19427,7 +19626,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1511</v>
       </c>
@@ -19438,7 +19637,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1513</v>
       </c>
@@ -19449,7 +19648,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1516</v>
       </c>
@@ -19460,7 +19659,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1518</v>
       </c>
@@ -19471,7 +19670,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1521</v>
       </c>
@@ -19482,7 +19681,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1524</v>
       </c>
@@ -19493,7 +19692,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1527</v>
       </c>
@@ -19504,7 +19703,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1530</v>
       </c>
@@ -19515,7 +19714,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1533</v>
       </c>
@@ -19526,7 +19725,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1536</v>
       </c>
@@ -19537,7 +19736,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1539</v>
       </c>
@@ -19548,7 +19747,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1542</v>
       </c>
@@ -19559,7 +19758,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1545</v>
       </c>
@@ -19570,7 +19769,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1548</v>
       </c>
@@ -19581,7 +19780,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1551</v>
       </c>
@@ -19592,7 +19791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1553</v>
       </c>
@@ -19603,7 +19802,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1556</v>
       </c>
@@ -19614,7 +19813,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1559</v>
       </c>
@@ -19625,7 +19824,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1562</v>
       </c>
@@ -19636,7 +19835,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1565</v>
       </c>
@@ -19647,7 +19846,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1568</v>
       </c>
@@ -19658,7 +19857,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1571</v>
       </c>
@@ -19669,7 +19868,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1574</v>
       </c>
@@ -19680,7 +19879,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1577</v>
       </c>
@@ -19691,7 +19890,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1579</v>
       </c>
@@ -19702,7 +19901,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1582</v>
       </c>
@@ -19713,7 +19912,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1585</v>
       </c>
@@ -19724,7 +19923,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1588</v>
       </c>
@@ -19735,7 +19934,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1591</v>
       </c>
@@ -19746,7 +19945,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1594</v>
       </c>
@@ -19757,7 +19956,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1596</v>
       </c>
@@ -19768,7 +19967,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1599</v>
       </c>
@@ -19779,7 +19978,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1602</v>
       </c>
@@ -19790,7 +19989,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1605</v>
       </c>
@@ -19801,7 +20000,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1608</v>
       </c>
@@ -19812,7 +20011,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1611</v>
       </c>
@@ -19823,7 +20022,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1614</v>
       </c>
@@ -19834,7 +20033,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1617</v>
       </c>
@@ -19845,7 +20044,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1620</v>
       </c>
@@ -19856,7 +20055,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1623</v>
       </c>
@@ -19867,7 +20066,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>1626</v>
       </c>
@@ -19881,7 +20080,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1629</v>
       </c>
@@ -19892,7 +20091,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="12" customFormat="1" hidden="1">
+    <row r="61" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>1632</v>
       </c>
@@ -19906,7 +20105,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1635</v>
       </c>
@@ -19917,7 +20116,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1638</v>
       </c>
@@ -19928,7 +20127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1640</v>
       </c>
@@ -19939,7 +20138,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1643</v>
       </c>
@@ -19950,7 +20149,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1646</v>
       </c>
@@ -19961,7 +20160,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1649</v>
       </c>
@@ -19972,7 +20171,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1652</v>
       </c>
@@ -19983,7 +20182,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1655</v>
       </c>
@@ -19994,7 +20193,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1657</v>
       </c>
@@ -20005,7 +20204,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1660</v>
       </c>
@@ -20016,7 +20215,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1663</v>
       </c>
@@ -20027,7 +20226,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1666</v>
       </c>
@@ -20038,7 +20237,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1669</v>
       </c>
@@ -20049,7 +20248,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1672</v>
       </c>
@@ -20060,7 +20259,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1675</v>
       </c>
@@ -20071,7 +20270,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1678</v>
       </c>
@@ -20082,7 +20281,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1681</v>
       </c>
@@ -20093,7 +20292,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1684</v>
       </c>
@@ -20104,7 +20303,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1687</v>
       </c>
@@ -20115,7 +20314,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1690</v>
       </c>
@@ -20126,7 +20325,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1693</v>
       </c>
@@ -20137,7 +20336,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1696</v>
       </c>
@@ -20148,7 +20347,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1699</v>
       </c>
@@ -20159,7 +20358,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1702</v>
       </c>
@@ -20170,7 +20369,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1705</v>
       </c>
@@ -20181,7 +20380,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1711</v>
       </c>
@@ -20192,7 +20391,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1714</v>
       </c>
@@ -20203,7 +20402,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1717</v>
       </c>
@@ -20214,7 +20413,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1720</v>
       </c>
@@ -20228,7 +20427,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1724</v>
       </c>
@@ -20239,7 +20438,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1727</v>
       </c>
@@ -20250,7 +20449,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1730</v>
       </c>
@@ -20261,7 +20460,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1733</v>
       </c>
@@ -20272,7 +20471,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1736</v>
       </c>
@@ -20283,7 +20482,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1739</v>
       </c>
@@ -20294,7 +20493,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1742</v>
       </c>
@@ -20305,7 +20504,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1744</v>
       </c>
@@ -20316,7 +20515,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1747</v>
       </c>
@@ -20327,7 +20526,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1750</v>
       </c>
@@ -20338,7 +20537,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1752</v>
       </c>
@@ -20349,7 +20548,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1755</v>
       </c>
@@ -20360,7 +20559,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1758</v>
       </c>
@@ -20371,7 +20570,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1761</v>
       </c>
@@ -20382,7 +20581,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1764</v>
       </c>
@@ -20393,7 +20592,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1767</v>
       </c>
@@ -20404,7 +20603,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1770</v>
       </c>
@@ -20415,7 +20614,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1773</v>
       </c>
@@ -20426,7 +20625,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1776</v>
       </c>
@@ -20437,7 +20636,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1779</v>
       </c>
@@ -20448,7 +20647,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1782</v>
       </c>
@@ -20459,7 +20658,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1785</v>
       </c>
@@ -20470,7 +20669,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1788</v>
       </c>
@@ -20481,7 +20680,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1791</v>
       </c>
@@ -20492,7 +20691,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1794</v>
       </c>
@@ -20503,7 +20702,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1797</v>
       </c>
@@ -20514,7 +20713,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1">
+    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>1800</v>
       </c>
@@ -20528,7 +20727,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1803</v>
       </c>
@@ -20539,7 +20738,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1806</v>
       </c>
@@ -20550,7 +20749,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1809</v>
       </c>
@@ -20561,7 +20760,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1812</v>
       </c>
@@ -20572,7 +20771,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1814</v>
       </c>
@@ -20583,7 +20782,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1817</v>
       </c>
@@ -20594,7 +20793,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1820</v>
       </c>
@@ -20605,7 +20804,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1822</v>
       </c>
@@ -20616,7 +20815,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1825</v>
       </c>
@@ -20627,7 +20826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1827</v>
       </c>
@@ -20638,7 +20837,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1829</v>
       </c>
@@ -20649,7 +20848,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1831</v>
       </c>
@@ -20660,7 +20859,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1834</v>
       </c>
@@ -20671,7 +20870,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1839</v>
       </c>
@@ -20682,7 +20881,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1842</v>
       </c>
@@ -20696,7 +20895,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1844</v>
       </c>
@@ -20707,7 +20906,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1847</v>
       </c>
@@ -20718,7 +20917,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>1850</v>
       </c>
@@ -20729,10 +20928,10 @@
         <v>1851</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="19" customFormat="1">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>2411</v>
       </c>
@@ -20746,7 +20945,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="19" customFormat="1">
+    <row r="137" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>2306</v>
       </c>
@@ -20760,7 +20959,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="19" customFormat="1">
+    <row r="138" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
         <v>2305</v>
       </c>
@@ -20774,7 +20973,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="19" customFormat="1">
+    <row r="139" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>2256</v>
       </c>
@@ -20788,7 +20987,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="19" customFormat="1">
+    <row r="140" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="19" t="s">
         <v>2500</v>
       </c>
@@ -20802,52 +21001,52 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B142" t="s">
         <v>2605</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>2606</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" s="12" t="s">
         <v>2607</v>
       </c>
-      <c r="E142" s="12" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B143" t="s">
         <v>2601</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E143" s="12" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>2602</v>
       </c>
-      <c r="D143" t="s">
-        <v>2611</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>2608</v>
-      </c>
-      <c r="F143" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
         <v>2603</v>
       </c>
-      <c r="B144" t="s">
-        <v>2604</v>
-      </c>
       <c r="D144" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1708</v>
       </c>
@@ -20858,7 +21057,7 @@
         <v>1710</v>
       </c>
       <c r="D146" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
   </sheetData>
@@ -20870,14 +21069,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -20891,7 +21090,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>1854</v>
       </c>
@@ -20907,17 +21106,17 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>46</v>
       </c>
       <c r="I2" s="10">
         <f>COUNTA(I3:I200)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>596</v>
       </c>
@@ -20937,7 +21136,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>597</v>
       </c>
@@ -20957,7 +21156,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -20977,7 +21176,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>601</v>
       </c>
@@ -20997,7 +21196,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>603</v>
       </c>
@@ -21017,7 +21216,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>617</v>
       </c>
@@ -21037,7 +21236,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>619</v>
       </c>
@@ -21057,7 +21256,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>627</v>
       </c>
@@ -21077,7 +21276,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>629</v>
       </c>
@@ -21097,7 +21296,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>635</v>
       </c>
@@ -21117,7 +21316,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>637</v>
       </c>
@@ -21137,7 +21336,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>646</v>
       </c>
@@ -21157,7 +21356,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>648</v>
       </c>
@@ -21177,7 +21376,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>650</v>
       </c>
@@ -21197,7 +21396,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>652</v>
       </c>
@@ -21217,7 +21416,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>654</v>
       </c>
@@ -21237,7 +21436,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>660</v>
       </c>
@@ -21257,7 +21456,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>664</v>
       </c>
@@ -21277,7 +21476,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>666</v>
       </c>
@@ -21297,7 +21496,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>668</v>
       </c>
@@ -21317,7 +21516,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>672</v>
       </c>
@@ -21337,7 +21536,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>674</v>
       </c>
@@ -21357,7 +21556,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>692</v>
       </c>
@@ -21377,7 +21576,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>694</v>
       </c>
@@ -21397,7 +21596,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>696</v>
       </c>
@@ -21417,7 +21616,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>698</v>
       </c>
@@ -21437,7 +21636,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>706</v>
       </c>
@@ -21457,7 +21656,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>710</v>
       </c>
@@ -21477,7 +21676,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>714</v>
       </c>
@@ -21497,7 +21696,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>722</v>
       </c>
@@ -21517,7 +21716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -21537,7 +21736,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>728</v>
       </c>
@@ -21557,7 +21756,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>732</v>
       </c>
@@ -21577,7 +21776,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>736</v>
       </c>
@@ -21597,7 +21796,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>746</v>
       </c>
@@ -21620,7 +21819,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>748</v>
       </c>
@@ -21636,14 +21835,14 @@
       <c r="H38">
         <v>40018</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="J38" s="13" t="s">
         <v>717</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>2582</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>752</v>
       </c>
@@ -21663,7 +21862,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>754</v>
       </c>
@@ -21683,7 +21882,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>756</v>
       </c>
@@ -21703,7 +21902,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>766</v>
       </c>
@@ -21723,7 +21922,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>768</v>
       </c>
@@ -21743,7 +21942,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>772</v>
       </c>
@@ -21763,7 +21962,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>774</v>
       </c>
@@ -21783,7 +21982,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>778</v>
       </c>
@@ -21803,7 +22002,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>780</v>
       </c>
@@ -21823,7 +22022,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>782</v>
       </c>
@@ -21846,7 +22045,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2234</v>
       </c>
@@ -21869,7 +22068,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>760</v>
       </c>
@@ -21880,7 +22079,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>762</v>
       </c>
@@ -21894,7 +22093,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>764</v>
       </c>
@@ -21905,7 +22104,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>770</v>
       </c>
@@ -21916,7 +22115,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G54" t="s">
         <v>776</v>
       </c>
@@ -21927,7 +22126,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G55" t="s">
         <v>2232</v>
       </c>
@@ -21941,7 +22140,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2230</v>
       </c>
@@ -21953,6 +22152,31 @@
       </c>
       <c r="E56" s="12" t="s">
         <v>2356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>644</v>
+      </c>
+      <c r="H57">
+        <v>20021</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H58">
+        <v>20056</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>2626</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>2627</v>
       </c>
     </row>
   </sheetData>
@@ -21973,7 +22197,7 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -21989,7 +22213,7 @@
     <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1">
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
         <v>1465</v>
       </c>
@@ -22015,7 +22239,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>31</v>
@@ -22029,7 +22253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1305</v>
       </c>
@@ -22058,7 +22282,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1307</v>
       </c>
@@ -22087,7 +22311,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1309</v>
       </c>
@@ -22116,7 +22340,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1313</v>
       </c>
@@ -22145,7 +22369,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1318</v>
       </c>
@@ -22174,7 +22398,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1321</v>
       </c>
@@ -22203,7 +22427,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1324</v>
       </c>
@@ -22232,7 +22456,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1327</v>
       </c>
@@ -22261,7 +22485,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1330</v>
       </c>
@@ -22290,7 +22514,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1332</v>
       </c>
@@ -22319,7 +22543,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1335</v>
       </c>
@@ -22348,7 +22572,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1338</v>
       </c>
@@ -22377,7 +22601,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1341</v>
       </c>
@@ -22406,7 +22630,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1342</v>
       </c>
@@ -22435,7 +22659,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1343</v>
       </c>
@@ -22464,7 +22688,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1402</v>
       </c>
@@ -22493,7 +22717,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1405</v>
       </c>
@@ -22522,7 +22746,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1407</v>
       </c>
@@ -22554,7 +22778,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1409</v>
       </c>
@@ -22577,7 +22801,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1412</v>
       </c>
@@ -22588,7 +22812,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1415</v>
       </c>
@@ -22599,7 +22823,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1418</v>
       </c>
@@ -22610,7 +22834,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1421</v>
       </c>
@@ -22621,7 +22845,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1430</v>
       </c>
@@ -22632,7 +22856,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1433</v>
       </c>
@@ -22643,7 +22867,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1436</v>
       </c>
@@ -22654,7 +22878,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1447</v>
       </c>
@@ -22665,7 +22889,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1450</v>
       </c>
@@ -22676,7 +22900,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1453</v>
       </c>
@@ -22687,7 +22911,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1456</v>
       </c>
@@ -22698,7 +22922,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1462</v>
       </c>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="2660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="2666">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8736,6 +8736,30 @@
     <t>RM_486</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>100-026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한덕개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM_J26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)한덕산업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ RM_J17에서 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ RM_J26로 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8750,7 +8774,7 @@
     <numFmt numFmtId="180" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9103,7 +9127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9617,6 +9641,12 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9925,104 +9955,104 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>2199</v>
       </c>
@@ -10042,7 +10072,7 @@
       <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -10051,7 +10081,7 @@
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2368</v>
       </c>
@@ -10063,13 +10093,13 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C197)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>778</v>
       </c>
@@ -10080,7 +10110,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>780</v>
       </c>
@@ -10091,7 +10121,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>783</v>
       </c>
@@ -10102,7 +10132,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>786</v>
       </c>
@@ -10116,7 +10146,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>789</v>
       </c>
@@ -10127,7 +10157,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>792</v>
       </c>
@@ -10138,7 +10168,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>795</v>
       </c>
@@ -10149,7 +10179,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>797</v>
       </c>
@@ -10160,7 +10190,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>802</v>
       </c>
@@ -10171,7 +10201,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>804</v>
       </c>
@@ -10182,7 +10212,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>807</v>
       </c>
@@ -10196,7 +10226,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>810</v>
       </c>
@@ -10207,7 +10237,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>813</v>
       </c>
@@ -10221,7 +10251,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>816</v>
       </c>
@@ -10232,7 +10262,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>818</v>
       </c>
@@ -10243,7 +10273,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>821</v>
       </c>
@@ -10254,7 +10284,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>824</v>
       </c>
@@ -10265,7 +10295,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>829</v>
       </c>
@@ -10276,7 +10306,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>832</v>
       </c>
@@ -10287,7 +10317,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>835</v>
       </c>
@@ -10298,7 +10328,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" t="s">
         <v>838</v>
       </c>
@@ -10312,7 +10342,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>841</v>
       </c>
@@ -10326,7 +10356,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>847</v>
       </c>
@@ -10337,7 +10367,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>850</v>
       </c>
@@ -10348,7 +10378,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>853</v>
       </c>
@@ -10359,7 +10389,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>856</v>
       </c>
@@ -10370,7 +10400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>858</v>
       </c>
@@ -10381,7 +10411,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>861</v>
       </c>
@@ -10395,7 +10425,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>864</v>
       </c>
@@ -10406,7 +10436,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>867</v>
       </c>
@@ -10417,7 +10447,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>870</v>
       </c>
@@ -10428,7 +10458,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>873</v>
       </c>
@@ -10442,7 +10472,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>876</v>
       </c>
@@ -10453,7 +10483,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>879</v>
       </c>
@@ -10464,7 +10494,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>2246</v>
       </c>
@@ -10481,7 +10511,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>2245</v>
       </c>
@@ -10495,7 +10525,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>2561</v>
       </c>
@@ -10509,7 +10539,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>2599</v>
       </c>
@@ -10523,7 +10553,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>2608</v>
       </c>
@@ -10537,7 +10567,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1">
       <c r="A43" t="s">
         <v>2609</v>
       </c>
@@ -10551,7 +10581,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="49" t="s">
         <v>2610</v>
       </c>
@@ -10569,7 +10599,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1">
       <c r="A45" s="52" t="s">
         <v>799</v>
       </c>
@@ -10582,7 +10612,7 @@
       <c r="D45" s="53"/>
       <c r="E45" s="54"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>827</v>
       </c>
@@ -10593,7 +10623,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>2638</v>
       </c>
@@ -10607,7 +10637,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>844</v>
       </c>
@@ -10618,7 +10648,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>2639</v>
       </c>
@@ -10648,7 +10678,7 @@
       <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
@@ -10656,7 +10686,7 @@
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2369</v>
       </c>
@@ -10665,13 +10695,13 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C198)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>972</v>
       </c>
@@ -10682,7 +10712,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>975</v>
       </c>
@@ -10693,7 +10723,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>978</v>
       </c>
@@ -10707,7 +10737,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>981</v>
       </c>
@@ -10718,7 +10748,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>983</v>
       </c>
@@ -10729,7 +10759,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>985</v>
       </c>
@@ -10740,7 +10770,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>988</v>
       </c>
@@ -10751,7 +10781,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>990</v>
       </c>
@@ -10762,7 +10792,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>993</v>
       </c>
@@ -10773,7 +10803,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>995</v>
       </c>
@@ -10784,7 +10814,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>998</v>
       </c>
@@ -10795,7 +10825,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1001</v>
       </c>
@@ -10806,7 +10836,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1004</v>
       </c>
@@ -10817,7 +10847,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1007</v>
       </c>
@@ -10828,7 +10858,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1010</v>
       </c>
@@ -10839,7 +10869,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1014</v>
       </c>
@@ -10850,7 +10880,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1016</v>
       </c>
@@ -10861,7 +10891,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1018</v>
       </c>
@@ -10872,7 +10902,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1020</v>
       </c>
@@ -10883,7 +10913,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1023</v>
       </c>
@@ -10894,7 +10924,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1026</v>
       </c>
@@ -10905,7 +10935,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1029</v>
       </c>
@@ -10916,7 +10946,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1032</v>
       </c>
@@ -10927,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1034</v>
       </c>
@@ -10938,7 +10968,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1037</v>
       </c>
@@ -10949,7 +10979,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1043</v>
       </c>
@@ -10960,7 +10990,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1046</v>
       </c>
@@ -10971,7 +11001,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1049</v>
       </c>
@@ -10982,7 +11012,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1052</v>
       </c>
@@ -10993,7 +11023,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1055</v>
       </c>
@@ -11004,7 +11034,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>1058</v>
       </c>
@@ -11015,7 +11045,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>1060</v>
       </c>
@@ -11026,7 +11056,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>1062</v>
       </c>
@@ -11037,7 +11067,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>1064</v>
       </c>
@@ -11048,7 +11078,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>1040</v>
       </c>
@@ -11062,7 +11092,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>1066</v>
       </c>
@@ -11076,7 +11106,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>1067</v>
       </c>
@@ -11087,7 +11117,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>2334</v>
       </c>
@@ -11101,7 +11131,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>1012</v>
       </c>
@@ -11115,7 +11145,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>2533</v>
       </c>
@@ -11129,7 +11159,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>2572</v>
       </c>
@@ -11158,7 +11188,7 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11167,7 +11197,7 @@
     <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2370</v>
       </c>
@@ -11176,13 +11206,13 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="C2" s="4">
         <f>COUNTA(C3:C42)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>883</v>
       </c>
@@ -11193,7 +11223,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>885</v>
       </c>
@@ -11204,7 +11234,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>887</v>
       </c>
@@ -11215,7 +11245,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>888</v>
       </c>
@@ -11226,7 +11256,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>892</v>
       </c>
@@ -11237,7 +11267,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>894</v>
       </c>
@@ -11248,7 +11278,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>897</v>
       </c>
@@ -11259,7 +11289,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>900</v>
       </c>
@@ -11270,7 +11300,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>901</v>
       </c>
@@ -11281,7 +11311,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>904</v>
       </c>
@@ -11292,7 +11322,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>907</v>
       </c>
@@ -11303,7 +11333,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>910</v>
       </c>
@@ -11320,7 +11350,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>912</v>
       </c>
@@ -11334,7 +11364,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>915</v>
       </c>
@@ -11345,7 +11375,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>918</v>
       </c>
@@ -11356,7 +11386,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>921</v>
       </c>
@@ -11367,7 +11397,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>924</v>
       </c>
@@ -11378,7 +11408,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>927</v>
       </c>
@@ -11389,7 +11419,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>935</v>
       </c>
@@ -11400,7 +11430,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>938</v>
       </c>
@@ -11411,7 +11441,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>943</v>
       </c>
@@ -11422,7 +11452,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="12" t="s">
         <v>946</v>
       </c>
@@ -11439,7 +11469,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
         <v>949</v>
       </c>
@@ -11454,7 +11484,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>952</v>
       </c>
@@ -11465,7 +11495,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>955</v>
       </c>
@@ -11476,7 +11506,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>958</v>
       </c>
@@ -11487,7 +11517,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
       <c r="A29" t="s">
         <v>890</v>
       </c>
@@ -11498,7 +11528,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>930</v>
       </c>
@@ -11509,7 +11539,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>960</v>
       </c>
@@ -11520,7 +11550,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>963</v>
       </c>
@@ -11531,7 +11561,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>2308</v>
       </c>
@@ -11545,7 +11575,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>964</v>
       </c>
@@ -11562,7 +11592,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>2301</v>
       </c>
@@ -11576,7 +11606,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>969</v>
       </c>
@@ -11593,7 +11623,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>2262</v>
       </c>
@@ -11607,7 +11637,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
         <v>933</v>
       </c>
@@ -11624,7 +11654,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>966</v>
       </c>
@@ -11635,7 +11665,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>2331</v>
       </c>
@@ -11649,7 +11679,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>2332</v>
       </c>
@@ -11686,7 +11716,7 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" hidden="1" customWidth="1"/>
@@ -11697,7 +11727,7 @@
     <col min="7" max="7" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>2434</v>
       </c>
@@ -11708,7 +11738,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
@@ -11725,7 +11755,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>259</v>
       </c>
@@ -11740,7 +11770,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>260</v>
       </c>
@@ -11755,7 +11785,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="1" customFormat="1">
       <c r="A5" s="108" t="s">
         <v>261</v>
       </c>
@@ -11778,7 +11808,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>262</v>
       </c>
@@ -11793,7 +11823,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
         <v>266</v>
       </c>
@@ -11808,7 +11838,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
         <v>269</v>
       </c>
@@ -11823,7 +11853,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="7" t="s">
         <v>2316</v>
       </c>
@@ -11840,7 +11870,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
         <v>2317</v>
       </c>
@@ -11861,7 +11891,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
         <v>263</v>
       </c>
@@ -11878,7 +11908,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
         <v>264</v>
       </c>
@@ -11895,7 +11925,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
         <v>265</v>
       </c>
@@ -11912,7 +11942,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
         <v>268</v>
       </c>
@@ -11929,7 +11959,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="48" customFormat="1">
       <c r="A15" s="34" t="s">
         <v>267</v>
       </c>
@@ -11949,7 +11979,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="134" t="s">
         <v>2284</v>
       </c>
@@ -11992,7 +12022,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12002,7 +12032,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2371</v>
       </c>
@@ -12012,7 +12042,7 @@
       </c>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>11</v>
@@ -12021,7 +12051,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>1264</v>
       </c>
@@ -12035,7 +12065,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1267</v>
       </c>
@@ -12049,7 +12079,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>1268</v>
       </c>
@@ -12063,7 +12093,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>1271</v>
       </c>
@@ -12077,7 +12107,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>1273</v>
       </c>
@@ -12091,7 +12121,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>1274</v>
       </c>
@@ -12105,7 +12135,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>1276</v>
       </c>
@@ -12119,7 +12149,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="26" customFormat="1">
       <c r="A10" s="26" t="s">
         <v>1278</v>
       </c>
@@ -12136,7 +12166,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="12" t="s">
         <v>1280</v>
       </c>
@@ -12150,7 +12180,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>1282</v>
       </c>
@@ -12164,7 +12194,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>1284</v>
       </c>
@@ -12178,7 +12208,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>1286</v>
       </c>
@@ -12192,7 +12222,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>2450</v>
       </c>
@@ -12207,7 +12237,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="12" customFormat="1">
       <c r="B16" s="113" t="s">
         <v>2454</v>
       </c>
@@ -12219,7 +12249,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17" s="39" t="s">
         <v>8</v>
       </c>
@@ -12246,7 +12276,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
@@ -12254,7 +12284,7 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2372</v>
       </c>
@@ -12264,7 +12294,7 @@
       </c>
       <c r="D1" s="62"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C28)</f>
         <v>7</v>
@@ -12273,7 +12303,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1250</v>
       </c>
@@ -12287,7 +12317,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1252</v>
       </c>
@@ -12301,7 +12331,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1254</v>
       </c>
@@ -12315,7 +12345,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1256</v>
       </c>
@@ -12329,7 +12359,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1259</v>
       </c>
@@ -12343,7 +12373,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1261</v>
       </c>
@@ -12360,7 +12390,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1263</v>
       </c>
@@ -12389,7 +12419,7 @@
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12397,7 +12427,7 @@
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2373</v>
       </c>
@@ -12406,13 +12436,13 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="C2" s="10">
         <f>COUNTA(C3:C102)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1176</v>
       </c>
@@ -12423,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>1178</v>
       </c>
@@ -12434,7 +12464,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>1181</v>
       </c>
@@ -12445,7 +12475,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1184</v>
       </c>
@@ -12456,7 +12486,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1187</v>
       </c>
@@ -12467,7 +12497,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>1190</v>
       </c>
@@ -12478,7 +12508,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1193</v>
       </c>
@@ -12489,7 +12519,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
       <c r="A10" t="s">
         <v>1196</v>
       </c>
@@ -12500,7 +12530,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="49" t="s">
         <v>1199</v>
       </c>
@@ -12512,7 +12542,7 @@
       </c>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1">
       <c r="A12" s="52" t="s">
         <v>1224</v>
       </c>
@@ -12524,7 +12554,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>1202</v>
       </c>
@@ -12535,7 +12565,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1205</v>
       </c>
@@ -12546,7 +12576,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1207</v>
       </c>
@@ -12557,7 +12587,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1">
       <c r="A16" t="s">
         <v>1209</v>
       </c>
@@ -12568,7 +12598,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="49" t="s">
         <v>1212</v>
       </c>
@@ -12580,7 +12610,7 @@
       </c>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1">
       <c r="A18" s="52" t="s">
         <v>1215</v>
       </c>
@@ -12592,7 +12622,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1218</v>
       </c>
@@ -12603,7 +12633,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>1221</v>
       </c>
@@ -12614,7 +12644,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>1227</v>
       </c>
@@ -12625,7 +12655,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>1229</v>
       </c>
@@ -12636,7 +12666,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>1232</v>
       </c>
@@ -12647,7 +12677,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>1235</v>
       </c>
@@ -12658,7 +12688,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>1238</v>
       </c>
@@ -12669,7 +12699,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>1241</v>
       </c>
@@ -12680,7 +12710,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>1244</v>
       </c>
@@ -12691,7 +12721,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>1247</v>
       </c>
@@ -12702,7 +12732,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>2602</v>
       </c>
@@ -12716,7 +12746,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>2654</v>
       </c>
@@ -12746,7 +12776,7 @@
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12756,7 +12786,7 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2374</v>
       </c>
@@ -12769,14 +12799,14 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>16</v>
       </c>
       <c r="D2" s="146"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1137</v>
       </c>
@@ -12787,7 +12817,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1139</v>
       </c>
@@ -12798,7 +12828,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1141</v>
       </c>
@@ -12809,7 +12839,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1143</v>
       </c>
@@ -12820,7 +12850,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1145</v>
       </c>
@@ -12831,7 +12861,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1147</v>
       </c>
@@ -12842,7 +12872,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1149</v>
       </c>
@@ -12853,7 +12883,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1152</v>
       </c>
@@ -12864,7 +12894,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1154</v>
       </c>
@@ -12875,7 +12905,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1159</v>
       </c>
@@ -12886,7 +12916,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1162</v>
       </c>
@@ -12897,7 +12927,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1164</v>
       </c>
@@ -12908,7 +12938,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1167</v>
       </c>
@@ -12919,7 +12949,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1169</v>
       </c>
@@ -12930,7 +12960,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1172</v>
       </c>
@@ -12941,7 +12971,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>1174</v>
       </c>
@@ -12952,7 +12982,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="12" customFormat="1">
       <c r="A19" s="12" t="s">
         <v>2577</v>
       </c>
@@ -12966,7 +12996,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>1156</v>
       </c>
@@ -12980,7 +13010,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>2578</v>
       </c>
@@ -13009,7 +13039,7 @@
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13017,7 +13047,7 @@
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2375</v>
       </c>
@@ -13026,13 +13056,13 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
       <c r="C2" s="43">
         <f>COUNTA(C3:C19)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="49" t="s">
         <v>1121</v>
       </c>
@@ -13044,7 +13074,7 @@
       </c>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1">
       <c r="A4" s="52" t="s">
         <v>1135</v>
       </c>
@@ -13056,7 +13086,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="49" t="s">
         <v>1123</v>
       </c>
@@ -13068,7 +13098,7 @@
       </c>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
       <c r="A6" s="52" t="s">
         <v>1125</v>
       </c>
@@ -13080,7 +13110,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1127</v>
       </c>
@@ -13091,7 +13121,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1129</v>
       </c>
@@ -13102,7 +13132,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1131</v>
       </c>
@@ -13113,7 +13143,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1133</v>
       </c>
@@ -13124,7 +13154,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="13" t="s">
         <v>2335</v>
       </c>
@@ -13138,7 +13168,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="13" t="s">
         <v>2517</v>
       </c>
@@ -13168,7 +13198,7 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13177,7 +13207,7 @@
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2376</v>
       </c>
@@ -13189,13 +13219,13 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1094</v>
       </c>
@@ -13206,7 +13236,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1096</v>
       </c>
@@ -13217,7 +13247,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1097</v>
       </c>
@@ -13228,7 +13258,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1099</v>
       </c>
@@ -13239,7 +13269,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1101</v>
       </c>
@@ -13250,7 +13280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1102</v>
       </c>
@@ -13261,7 +13291,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1104</v>
       </c>
@@ -13272,7 +13302,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1106</v>
       </c>
@@ -13283,7 +13313,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1108</v>
       </c>
@@ -13294,7 +13324,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1109</v>
       </c>
@@ -13305,7 +13335,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1111</v>
       </c>
@@ -13319,7 +13349,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1113</v>
       </c>
@@ -13330,7 +13360,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1115</v>
       </c>
@@ -13341,7 +13371,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1117</v>
       </c>
@@ -13352,7 +13382,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1119</v>
       </c>
@@ -13366,7 +13396,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>2625</v>
       </c>
@@ -13397,7 +13427,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="118" bestFit="1" customWidth="1"/>
@@ -13408,11 +13438,11 @@
     <col min="7" max="7" width="8.375" style="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1">
+      <c r="A1" s="173" t="s">
         <v>2480</v>
       </c>
-      <c r="B1" s="171"/>
+      <c r="B1" s="173"/>
       <c r="C1" s="88" t="s">
         <v>2473</v>
       </c>
@@ -13421,13 +13451,13 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
       <c r="A3" s="29" t="s">
         <v>2491</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>2481</v>
       </c>
@@ -13448,11 +13478,11 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
       <c r="D5" s="121"/>
       <c r="E5" s="121"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
       <c r="A6" s="29" t="s">
         <v>2483</v>
       </c>
@@ -13460,7 +13490,7 @@
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
       <c r="B7" s="7" t="s">
         <v>2476</v>
       </c>
@@ -13472,7 +13502,7 @@
       </c>
       <c r="E7" s="124"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>2474</v>
       </c>
@@ -13484,7 +13514,7 @@
       </c>
       <c r="E8" s="124"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>2475</v>
       </c>
@@ -13515,7 +13545,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13524,7 +13554,7 @@
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2377</v>
       </c>
@@ -13536,13 +13566,13 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C18)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1070</v>
       </c>
@@ -13553,7 +13583,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1072</v>
       </c>
@@ -13564,7 +13594,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1074</v>
       </c>
@@ -13575,7 +13605,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1076</v>
       </c>
@@ -13586,7 +13616,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1078</v>
       </c>
@@ -13597,7 +13627,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1080</v>
       </c>
@@ -13608,7 +13638,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1082</v>
       </c>
@@ -13619,7 +13649,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1084</v>
       </c>
@@ -13633,7 +13663,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1086</v>
       </c>
@@ -13644,7 +13674,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1087</v>
       </c>
@@ -13655,7 +13685,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1089</v>
       </c>
@@ -13666,7 +13696,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1091</v>
       </c>
@@ -13698,7 +13728,7 @@
       <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13715,7 +13745,7 @@
     <col min="14" max="14" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="20" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="75" t="s">
         <v>584</v>
       </c>
@@ -13743,7 +13773,7 @@
       </c>
       <c r="M1" s="78"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="80"/>
       <c r="B2" s="32"/>
       <c r="C2" s="84">
@@ -13773,7 +13803,7 @@
       </c>
       <c r="M2" s="61"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>358</v>
       </c>
@@ -13800,14 +13830,14 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="172" t="s">
+      <c r="M3" s="174" t="s">
         <v>2232</v>
       </c>
-      <c r="N3" s="173" t="s">
+      <c r="N3" s="175" t="s">
         <v>2236</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>361</v>
       </c>
@@ -13836,10 +13866,10 @@
       <c r="L4" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="M4" s="172"/>
-      <c r="N4" s="173"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="174"/>
+      <c r="N4" s="175"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>364</v>
       </c>
@@ -13875,7 +13905,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="7" t="s">
         <v>366</v>
       </c>
@@ -13911,7 +13941,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>369</v>
       </c>
@@ -13947,7 +13977,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="7" t="s">
         <v>372</v>
       </c>
@@ -13961,7 +13991,7 @@
       <c r="E8" s="37"/>
       <c r="F8" s="57"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>375</v>
       </c>
@@ -13983,7 +14013,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="7" t="s">
         <v>378</v>
       </c>
@@ -14005,7 +14035,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>381</v>
       </c>
@@ -14027,7 +14057,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="7" t="s">
         <v>384</v>
       </c>
@@ -14049,7 +14079,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>387</v>
       </c>
@@ -14062,7 +14092,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>390</v>
       </c>
@@ -14075,7 +14105,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15" s="7" t="s">
         <v>393</v>
       </c>
@@ -14088,7 +14118,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>396</v>
       </c>
@@ -14101,7 +14131,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>399</v>
       </c>
@@ -14114,7 +14144,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
         <v>402</v>
       </c>
@@ -14127,7 +14157,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
         <v>405</v>
       </c>
@@ -14140,7 +14170,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
         <v>407</v>
       </c>
@@ -14153,7 +14183,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
         <v>410</v>
       </c>
@@ -14166,7 +14196,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>413</v>
       </c>
@@ -14179,7 +14209,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
         <v>416</v>
       </c>
@@ -14192,7 +14222,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
         <v>419</v>
       </c>
@@ -14205,7 +14235,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
         <v>422</v>
       </c>
@@ -14218,7 +14248,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
         <v>430</v>
       </c>
@@ -14231,7 +14261,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
         <v>433</v>
       </c>
@@ -14244,7 +14274,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
         <v>436</v>
       </c>
@@ -14257,7 +14287,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
         <v>439</v>
       </c>
@@ -14270,7 +14300,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
         <v>442</v>
       </c>
@@ -14283,7 +14313,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
         <v>445</v>
       </c>
@@ -14296,7 +14326,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
         <v>448</v>
       </c>
@@ -14309,7 +14339,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
         <v>451</v>
       </c>
@@ -14322,7 +14352,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
         <v>454</v>
       </c>
@@ -14335,7 +14365,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>457</v>
       </c>
@@ -14348,7 +14378,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>460</v>
       </c>
@@ -14361,7 +14391,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>463</v>
       </c>
@@ -14374,7 +14404,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>466</v>
       </c>
@@ -14387,7 +14417,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
         <v>469</v>
       </c>
@@ -14400,7 +14430,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>472</v>
       </c>
@@ -14413,7 +14443,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>475</v>
       </c>
@@ -14426,7 +14456,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>478</v>
       </c>
@@ -14443,7 +14473,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>482</v>
       </c>
@@ -14456,7 +14486,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
         <v>485</v>
       </c>
@@ -14469,7 +14499,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1">
       <c r="A45" s="108" t="s">
         <v>488</v>
       </c>
@@ -14489,7 +14519,7 @@
       <c r="K45" s="110"/>
       <c r="M45" s="111"/>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="7" t="s">
         <v>491</v>
       </c>
@@ -14502,7 +14532,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
         <v>494</v>
       </c>
@@ -14515,7 +14545,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
         <v>497</v>
       </c>
@@ -14528,7 +14558,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
         <v>500</v>
       </c>
@@ -14541,7 +14571,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
         <v>503</v>
       </c>
@@ -14554,7 +14584,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="39" customFormat="1">
       <c r="A51" s="134" t="s">
         <v>506</v>
       </c>
@@ -14573,7 +14603,7 @@
       <c r="K51" s="137"/>
       <c r="M51" s="138"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
         <v>508</v>
       </c>
@@ -14586,7 +14616,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="7" t="s">
         <v>510</v>
       </c>
@@ -14599,7 +14629,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
         <v>513</v>
       </c>
@@ -14612,7 +14642,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
         <v>516</v>
       </c>
@@ -14625,7 +14655,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
         <v>519</v>
       </c>
@@ -14638,7 +14668,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="7" t="s">
         <v>522</v>
       </c>
@@ -14651,7 +14681,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="7" t="s">
         <v>525</v>
       </c>
@@ -14663,7 +14693,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="7" t="s">
         <v>528</v>
       </c>
@@ -14676,7 +14706,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="7" t="s">
         <v>531</v>
       </c>
@@ -14689,7 +14719,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="7" t="s">
         <v>534</v>
       </c>
@@ -14702,7 +14732,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="7" t="s">
         <v>537</v>
       </c>
@@ -14715,7 +14745,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="7" t="s">
         <v>539</v>
       </c>
@@ -14728,7 +14758,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="7" t="s">
         <v>542</v>
       </c>
@@ -14741,7 +14771,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="7" t="s">
         <v>545</v>
       </c>
@@ -14754,7 +14784,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="7" t="s">
         <v>548</v>
       </c>
@@ -14767,7 +14797,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="7" t="s">
         <v>551</v>
       </c>
@@ -14780,7 +14810,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="7" t="s">
         <v>554</v>
       </c>
@@ -14796,7 +14826,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="7" t="s">
         <v>2444</v>
       </c>
@@ -14816,7 +14846,7 @@
       <c r="G69" s="107"/>
       <c r="H69" s="107"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="7" t="s">
         <v>2459</v>
       </c>
@@ -14834,7 +14864,7 @@
       <c r="G70" s="115"/>
       <c r="H70" s="115"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="7" t="s">
         <v>2466</v>
       </c>
@@ -14852,7 +14882,7 @@
       <c r="G71" s="117"/>
       <c r="H71" s="117"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="7" t="s">
         <v>2508</v>
       </c>
@@ -14867,7 +14897,7 @@
       </c>
       <c r="E72" s="38"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="7" t="s">
         <v>2526</v>
       </c>
@@ -14882,7 +14912,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="7" t="s">
         <v>2566</v>
       </c>
@@ -14897,7 +14927,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="7" t="s">
         <v>2565</v>
       </c>
@@ -14910,7 +14940,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="7" t="s">
         <v>427</v>
       </c>
@@ -14925,7 +14955,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
         <v>2618</v>
       </c>
@@ -14940,7 +14970,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="7" t="s">
         <v>425</v>
       </c>
@@ -14955,7 +14985,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
         <v>2648</v>
       </c>
@@ -14993,7 +15023,7 @@
       <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -15007,7 +15037,7 @@
     <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2366</v>
       </c>
@@ -15020,7 +15050,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>130</v>
@@ -15030,7 +15060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1849</v>
       </c>
@@ -15052,7 +15082,7 @@
       </c>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>1851</v>
       </c>
@@ -15074,7 +15104,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>1853</v>
       </c>
@@ -15096,7 +15126,7 @@
       </c>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>1855</v>
       </c>
@@ -15118,7 +15148,7 @@
       </c>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>1857</v>
       </c>
@@ -15140,7 +15170,7 @@
       </c>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>1859</v>
       </c>
@@ -15162,7 +15192,7 @@
       </c>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>1861</v>
       </c>
@@ -15184,7 +15214,7 @@
       </c>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>1863</v>
       </c>
@@ -15206,7 +15236,7 @@
       </c>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>1866</v>
       </c>
@@ -15218,7 +15248,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>1869</v>
       </c>
@@ -15230,7 +15260,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>1872</v>
       </c>
@@ -15242,7 +15272,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>1874</v>
       </c>
@@ -15254,7 +15284,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>1875</v>
       </c>
@@ -15269,7 +15299,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>1878</v>
       </c>
@@ -15281,7 +15311,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>1880</v>
       </c>
@@ -15293,7 +15323,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>1882</v>
       </c>
@@ -15305,7 +15335,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>1885</v>
       </c>
@@ -15317,7 +15347,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>1886</v>
       </c>
@@ -15329,7 +15359,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>1888</v>
       </c>
@@ -15341,7 +15371,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>1891</v>
       </c>
@@ -15353,7 +15383,7 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>1893</v>
       </c>
@@ -15365,7 +15395,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>1895</v>
       </c>
@@ -15377,7 +15407,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>1898</v>
       </c>
@@ -15389,7 +15419,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1901</v>
       </c>
@@ -15401,7 +15431,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>1903</v>
       </c>
@@ -15413,7 +15443,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>1906</v>
       </c>
@@ -15425,7 +15455,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>1909</v>
       </c>
@@ -15437,7 +15467,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>1911</v>
       </c>
@@ -15449,7 +15479,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>1913</v>
       </c>
@@ -15461,7 +15491,7 @@
       </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>1915</v>
       </c>
@@ -15473,7 +15503,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>1917</v>
       </c>
@@ -15485,7 +15515,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>1919</v>
       </c>
@@ -15497,7 +15527,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>1921</v>
       </c>
@@ -15509,7 +15539,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>1923</v>
       </c>
@@ -15521,7 +15551,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>1925</v>
       </c>
@@ -15533,7 +15563,7 @@
       </c>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>1930</v>
       </c>
@@ -15545,7 +15575,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>1933</v>
       </c>
@@ -15557,7 +15587,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>1934</v>
       </c>
@@ -15569,7 +15599,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>1937</v>
       </c>
@@ -15581,7 +15611,7 @@
       </c>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>1939</v>
       </c>
@@ -15593,7 +15623,7 @@
       </c>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>1942</v>
       </c>
@@ -15605,7 +15635,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>1945</v>
       </c>
@@ -15617,7 +15647,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="17.25" thickBot="1">
       <c r="A45" t="s">
         <v>1947</v>
       </c>
@@ -15629,7 +15659,7 @@
       </c>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="49" t="s">
         <v>1950</v>
       </c>
@@ -15644,7 +15674,7 @@
       </c>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="17.25" thickBot="1">
       <c r="A47" s="52" t="s">
         <v>1952</v>
       </c>
@@ -15659,7 +15689,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>1954</v>
       </c>
@@ -15671,7 +15701,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>1956</v>
       </c>
@@ -15683,7 +15713,7 @@
       </c>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>1958</v>
       </c>
@@ -15695,7 +15725,7 @@
       </c>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>1961</v>
       </c>
@@ -15707,7 +15737,7 @@
       </c>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>1963</v>
       </c>
@@ -15719,7 +15749,7 @@
       </c>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>1964</v>
       </c>
@@ -15731,7 +15761,7 @@
       </c>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>1966</v>
       </c>
@@ -15743,7 +15773,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>1968</v>
       </c>
@@ -15755,7 +15785,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>1970</v>
       </c>
@@ -15767,7 +15797,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>1972</v>
       </c>
@@ -15779,7 +15809,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>1974</v>
       </c>
@@ -15791,7 +15821,7 @@
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>1977</v>
       </c>
@@ -15803,7 +15833,7 @@
       </c>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>1979</v>
       </c>
@@ -15815,7 +15845,7 @@
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>1981</v>
       </c>
@@ -15827,7 +15857,7 @@
       </c>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>1983</v>
       </c>
@@ -15839,7 +15869,7 @@
       </c>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>1985</v>
       </c>
@@ -15851,7 +15881,7 @@
       </c>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>1987</v>
       </c>
@@ -15863,7 +15893,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>1989</v>
       </c>
@@ -15875,7 +15905,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>1991</v>
       </c>
@@ -15887,7 +15917,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>1994</v>
       </c>
@@ -15899,7 +15929,7 @@
       </c>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>1996</v>
       </c>
@@ -15911,7 +15941,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>1998</v>
       </c>
@@ -15923,7 +15953,7 @@
       </c>
       <c r="G69" s="11"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>2000</v>
       </c>
@@ -15935,7 +15965,7 @@
       </c>
       <c r="G70" s="11"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>2002</v>
       </c>
@@ -15947,7 +15977,7 @@
       </c>
       <c r="G71" s="11"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>2004</v>
       </c>
@@ -15959,7 +15989,7 @@
       </c>
       <c r="G72" s="11"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>2007</v>
       </c>
@@ -15971,7 +16001,7 @@
       </c>
       <c r="G73" s="11"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>2010</v>
       </c>
@@ -15983,7 +16013,7 @@
       </c>
       <c r="G74" s="11"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>2012</v>
       </c>
@@ -15995,7 +16025,7 @@
       </c>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>2014</v>
       </c>
@@ -16007,7 +16037,7 @@
       </c>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>2016</v>
       </c>
@@ -16019,7 +16049,7 @@
       </c>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>2017</v>
       </c>
@@ -16031,7 +16061,7 @@
       </c>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>2019</v>
       </c>
@@ -16043,7 +16073,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>2021</v>
       </c>
@@ -16055,7 +16085,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>2023</v>
       </c>
@@ -16067,7 +16097,7 @@
       </c>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>2026</v>
       </c>
@@ -16079,7 +16109,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>2028</v>
       </c>
@@ -16091,7 +16121,7 @@
       </c>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>2031</v>
       </c>
@@ -16103,7 +16133,7 @@
       </c>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>2034</v>
       </c>
@@ -16115,7 +16145,7 @@
       </c>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>2037</v>
       </c>
@@ -16127,7 +16157,7 @@
       </c>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>2040</v>
       </c>
@@ -16139,7 +16169,7 @@
       </c>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>2042</v>
       </c>
@@ -16151,7 +16181,7 @@
       </c>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>2044</v>
       </c>
@@ -16163,7 +16193,7 @@
       </c>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>2047</v>
       </c>
@@ -16175,7 +16205,7 @@
       </c>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>2050</v>
       </c>
@@ -16187,7 +16217,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>2053</v>
       </c>
@@ -16199,7 +16229,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>2056</v>
       </c>
@@ -16211,7 +16241,7 @@
       </c>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>2059</v>
       </c>
@@ -16223,7 +16253,7 @@
       </c>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>2061</v>
       </c>
@@ -16235,7 +16265,7 @@
       </c>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>2064</v>
       </c>
@@ -16247,7 +16277,7 @@
       </c>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>2067</v>
       </c>
@@ -16259,7 +16289,7 @@
       </c>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>2070</v>
       </c>
@@ -16271,7 +16301,7 @@
       </c>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>2073</v>
       </c>
@@ -16283,7 +16313,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A100" s="12" t="s">
         <v>2076</v>
       </c>
@@ -16298,7 +16328,7 @@
       </c>
       <c r="G100" s="126"/>
     </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A101" s="12" t="s">
         <v>2078</v>
       </c>
@@ -16313,7 +16343,7 @@
       </c>
       <c r="G101" s="126"/>
     </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A102" s="12" t="s">
         <v>2081</v>
       </c>
@@ -16328,7 +16358,7 @@
       </c>
       <c r="G102" s="126"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>2084</v>
       </c>
@@ -16340,7 +16370,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>2087</v>
       </c>
@@ -16352,7 +16382,7 @@
       </c>
       <c r="G104" s="11"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>2090</v>
       </c>
@@ -16364,7 +16394,7 @@
       </c>
       <c r="G105" s="11"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>2093</v>
       </c>
@@ -16376,7 +16406,7 @@
       </c>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>2095</v>
       </c>
@@ -16388,7 +16418,7 @@
       </c>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>2098</v>
       </c>
@@ -16400,7 +16430,7 @@
       </c>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>2100</v>
       </c>
@@ -16412,7 +16442,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>2103</v>
       </c>
@@ -16424,7 +16454,7 @@
       </c>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>2105</v>
       </c>
@@ -16436,7 +16466,7 @@
       </c>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>2108</v>
       </c>
@@ -16448,7 +16478,7 @@
       </c>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>2110</v>
       </c>
@@ -16460,7 +16490,7 @@
       </c>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>2113</v>
       </c>
@@ -16472,7 +16502,7 @@
       </c>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>2116</v>
       </c>
@@ -16484,7 +16514,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>2119</v>
       </c>
@@ -16496,7 +16526,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>2121</v>
       </c>
@@ -16508,7 +16538,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A118" s="12" t="s">
         <v>2123</v>
       </c>
@@ -16523,7 +16553,7 @@
       </c>
       <c r="G118" s="126"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>2125</v>
       </c>
@@ -16535,7 +16565,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>2127</v>
       </c>
@@ -16547,7 +16577,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>2129</v>
       </c>
@@ -16559,7 +16589,7 @@
       </c>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>2131</v>
       </c>
@@ -16571,7 +16601,7 @@
       </c>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>2134</v>
       </c>
@@ -16583,7 +16613,7 @@
       </c>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>2137</v>
       </c>
@@ -16595,7 +16625,7 @@
       </c>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>2139</v>
       </c>
@@ -16607,7 +16637,7 @@
       </c>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>2141</v>
       </c>
@@ -16619,7 +16649,7 @@
       </c>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>2144</v>
       </c>
@@ -16631,7 +16661,7 @@
       </c>
       <c r="G127" s="11"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>2146</v>
       </c>
@@ -16643,7 +16673,7 @@
       </c>
       <c r="G128" s="11"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>2147</v>
       </c>
@@ -16655,7 +16685,7 @@
       </c>
       <c r="G129" s="11"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>2149</v>
       </c>
@@ -16667,7 +16697,7 @@
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>2151</v>
       </c>
@@ -16679,7 +16709,7 @@
       </c>
       <c r="G131" s="11"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>2154</v>
       </c>
@@ -16691,7 +16721,7 @@
       </c>
       <c r="G132" s="11"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>2156</v>
       </c>
@@ -16703,7 +16733,7 @@
       </c>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>2485</v>
       </c>
@@ -16717,7 +16747,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>2241</v>
       </c>
@@ -16731,7 +16761,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7">
       <c r="A136" s="20" t="s">
         <v>2269</v>
       </c>
@@ -16745,7 +16775,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="12" customFormat="1" hidden="1">
       <c r="A137" s="55" t="s">
         <v>1927</v>
       </c>
@@ -16758,7 +16788,7 @@
       </c>
       <c r="G137" s="126"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7">
       <c r="A138" s="20" t="s">
         <v>2524</v>
       </c>
@@ -16772,7 +16802,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7">
       <c r="A139" s="20" t="s">
         <v>2539</v>
       </c>
@@ -16786,7 +16816,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7">
       <c r="A140" s="20" t="s">
         <v>2551</v>
       </c>
@@ -16814,12 +16844,12 @@
   </sheetPr>
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -16841,7 +16871,7 @@
     <col min="20" max="20" width="49.25" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="38.25" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2251</v>
       </c>
@@ -16864,7 +16894,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -16885,7 +16915,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="32" t="s">
         <v>271</v>
       </c>
@@ -16928,7 +16958,7 @@
       <c r="S3" s="20"/>
       <c r="T3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="32" t="s">
         <v>272</v>
       </c>
@@ -16972,7 +17002,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="32" t="s">
         <v>273</v>
       </c>
@@ -16989,7 +17019,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="32" t="s">
         <v>274</v>
       </c>
@@ -17007,7 +17037,7 @@
       <c r="S6" s="20"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="32" t="s">
         <v>275</v>
       </c>
@@ -17040,7 +17070,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="32" t="s">
         <v>276</v>
       </c>
@@ -17083,7 +17113,7 @@
       </c>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="32" t="s">
         <v>277</v>
       </c>
@@ -17128,7 +17158,7 @@
       </c>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="97" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>255</v>
       </c>
@@ -17151,7 +17181,7 @@
       <c r="P10" s="157"/>
       <c r="S10" s="69"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="32" t="s">
         <v>278</v>
       </c>
@@ -17169,7 +17199,7 @@
       <c r="S11" s="20"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="32" t="s">
         <v>279</v>
       </c>
@@ -17189,7 +17219,7 @@
       <c r="S12" s="20"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="32" t="s">
         <v>284</v>
       </c>
@@ -17206,7 +17236,7 @@
       <c r="H13" s="20"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="32" t="s">
         <v>285</v>
       </c>
@@ -17223,7 +17253,7 @@
       <c r="H14" s="20"/>
       <c r="T14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="32" t="s">
         <v>286</v>
       </c>
@@ -17240,7 +17270,7 @@
       <c r="H15" s="20"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="32" t="s">
         <v>287</v>
       </c>
@@ -17257,7 +17287,7 @@
       <c r="H16" s="20"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="32" t="s">
         <v>288</v>
       </c>
@@ -17275,7 +17305,7 @@
       <c r="S17" s="20"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20">
       <c r="A18" s="32" t="s">
         <v>289</v>
       </c>
@@ -17293,7 +17323,7 @@
       <c r="S18" s="20"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" s="32" t="s">
         <v>293</v>
       </c>
@@ -17311,7 +17341,7 @@
       <c r="S19" s="20"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20">
       <c r="A20" s="32" t="s">
         <v>294</v>
       </c>
@@ -17329,7 +17359,7 @@
       <c r="S20" s="20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" s="32" t="s">
         <v>295</v>
       </c>
@@ -17347,7 +17377,7 @@
       <c r="S21" s="20"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="32" t="s">
         <v>296</v>
       </c>
@@ -17365,7 +17395,7 @@
       <c r="S22" s="20"/>
       <c r="T22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="32" t="s">
         <v>297</v>
       </c>
@@ -17383,7 +17413,7 @@
       <c r="S23" s="20"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" s="32" t="s">
         <v>298</v>
       </c>
@@ -17401,7 +17431,7 @@
       <c r="S24" s="20"/>
       <c r="T24"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="32" t="s">
         <v>299</v>
       </c>
@@ -17419,7 +17449,7 @@
       <c r="S25" s="20"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="32" t="s">
         <v>300</v>
       </c>
@@ -17437,7 +17467,7 @@
       <c r="S26" s="20"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27" s="32" t="s">
         <v>301</v>
       </c>
@@ -17455,7 +17485,7 @@
       <c r="S27" s="20"/>
       <c r="T27"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28" s="32" t="s">
         <v>302</v>
       </c>
@@ -17473,7 +17503,7 @@
       <c r="S28" s="20"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29" s="32" t="s">
         <v>303</v>
       </c>
@@ -17491,7 +17521,7 @@
       <c r="S29" s="20"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" s="32" t="s">
         <v>304</v>
       </c>
@@ -17509,7 +17539,7 @@
       <c r="S30" s="20"/>
       <c r="T30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20">
       <c r="A31" s="32" t="s">
         <v>305</v>
       </c>
@@ -17527,7 +17557,7 @@
       <c r="S31" s="20"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" s="32" t="s">
         <v>306</v>
       </c>
@@ -17545,7 +17575,7 @@
       <c r="S32" s="20"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="32" t="s">
         <v>307</v>
       </c>
@@ -17563,7 +17593,7 @@
       <c r="S33" s="20"/>
       <c r="T33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="32" t="s">
         <v>308</v>
       </c>
@@ -17581,7 +17611,7 @@
       <c r="S34" s="20"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" s="32" t="s">
         <v>309</v>
       </c>
@@ -17599,7 +17629,7 @@
       <c r="S35" s="20"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20">
       <c r="A36" s="32" t="s">
         <v>310</v>
       </c>
@@ -17617,7 +17647,7 @@
       <c r="S36" s="20"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="32" t="s">
         <v>311</v>
       </c>
@@ -17635,7 +17665,7 @@
       <c r="S37" s="20"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="32" t="s">
         <v>312</v>
       </c>
@@ -17653,7 +17683,7 @@
       <c r="S38" s="20"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="32" t="s">
         <v>313</v>
       </c>
@@ -17671,7 +17701,7 @@
       <c r="S39" s="20"/>
       <c r="T39"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="32" t="s">
         <v>314</v>
       </c>
@@ -17689,7 +17719,7 @@
       <c r="S40" s="20"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="32" t="s">
         <v>315</v>
       </c>
@@ -17707,7 +17737,7 @@
       <c r="S41" s="20"/>
       <c r="T41"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="32" t="s">
         <v>316</v>
       </c>
@@ -17725,7 +17755,7 @@
       <c r="S42" s="20"/>
       <c r="T42"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="32" t="s">
         <v>317</v>
       </c>
@@ -17743,7 +17773,7 @@
       <c r="S43" s="20"/>
       <c r="T43"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="32" t="s">
         <v>318</v>
       </c>
@@ -17761,7 +17791,7 @@
       <c r="S44" s="20"/>
       <c r="T44"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" s="32" t="s">
         <v>319</v>
       </c>
@@ -17779,7 +17809,7 @@
       <c r="S45" s="20"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" s="32" t="s">
         <v>323</v>
       </c>
@@ -17797,7 +17827,7 @@
       <c r="S46" s="20"/>
       <c r="T46"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="32" t="s">
         <v>324</v>
       </c>
@@ -17817,7 +17847,7 @@
       <c r="S47" s="20"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="32" t="s">
         <v>325</v>
       </c>
@@ -17835,7 +17865,7 @@
       <c r="S48" s="20"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" s="32" t="s">
         <v>328</v>
       </c>
@@ -17855,7 +17885,7 @@
       <c r="S49" s="20"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="32" t="s">
         <v>329</v>
       </c>
@@ -17873,7 +17903,7 @@
       <c r="S50" s="20"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" s="97" customFormat="1" hidden="1">
       <c r="A51" s="32" t="s">
         <v>254</v>
       </c>
@@ -17899,7 +17929,7 @@
       <c r="P51" s="157"/>
       <c r="S51" s="69"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="32" t="s">
         <v>2655</v>
       </c>
@@ -17917,7 +17947,7 @@
       <c r="S52" s="20"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" s="32" t="s">
         <v>331</v>
       </c>
@@ -17935,7 +17965,7 @@
       <c r="S53" s="20"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54" s="32" t="s">
         <v>332</v>
       </c>
@@ -17953,7 +17983,7 @@
       <c r="S54" s="20"/>
       <c r="T54"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55" s="32" t="s">
         <v>333</v>
       </c>
@@ -17971,7 +18001,7 @@
       <c r="S55" s="20"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" s="32" t="s">
         <v>334</v>
       </c>
@@ -17989,7 +18019,7 @@
       <c r="S56" s="20"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" s="32" t="s">
         <v>335</v>
       </c>
@@ -18007,7 +18037,7 @@
       <c r="S57" s="20"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" s="97" customFormat="1">
       <c r="A58" s="32" t="s">
         <v>336</v>
       </c>
@@ -18035,7 +18065,7 @@
       <c r="P58" s="157"/>
       <c r="S58" s="69"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" s="32" t="s">
         <v>337</v>
       </c>
@@ -18055,7 +18085,7 @@
       <c r="S59" s="20"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" s="32" t="s">
         <v>338</v>
       </c>
@@ -18073,7 +18103,7 @@
       <c r="S60" s="20"/>
       <c r="T60"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" s="32" t="s">
         <v>339</v>
       </c>
@@ -18100,7 +18130,7 @@
       <c r="S61" s="20"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62" s="32" t="s">
         <v>341</v>
       </c>
@@ -18120,7 +18150,7 @@
       <c r="S62" s="20"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" s="32" t="s">
         <v>342</v>
       </c>
@@ -18140,7 +18170,7 @@
       <c r="S63" s="20"/>
       <c r="T63"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" s="32" t="s">
         <v>343</v>
       </c>
@@ -18161,7 +18191,7 @@
       <c r="S64" s="20"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" s="32" t="s">
         <v>345</v>
       </c>
@@ -18181,7 +18211,7 @@
       <c r="S65" s="20"/>
       <c r="T65"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" s="32" t="s">
         <v>346</v>
       </c>
@@ -18201,7 +18231,7 @@
       <c r="S66" s="20"/>
       <c r="T66"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" s="32" t="s">
         <v>347</v>
       </c>
@@ -18221,7 +18251,7 @@
       <c r="S67" s="20"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" s="32" t="s">
         <v>348</v>
       </c>
@@ -18241,7 +18271,7 @@
       <c r="S68" s="20"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" s="32" t="s">
         <v>349</v>
       </c>
@@ -18261,7 +18291,7 @@
       <c r="S69" s="20"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1">
       <c r="A70" s="32" t="s">
         <v>350</v>
       </c>
@@ -18281,7 +18311,7 @@
       <c r="S70" s="20"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1">
       <c r="A71" s="32" t="s">
         <v>351</v>
       </c>
@@ -18301,7 +18331,7 @@
       <c r="S71" s="20"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" s="97" customFormat="1">
       <c r="A72" s="32" t="s">
         <v>352</v>
       </c>
@@ -18326,7 +18356,7 @@
       <c r="P72" s="157"/>
       <c r="S72" s="69"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" s="32" t="s">
         <v>353</v>
       </c>
@@ -18346,7 +18376,7 @@
       <c r="S73" s="20"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20" s="97" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" s="97" customFormat="1">
       <c r="A74" s="32" t="s">
         <v>354</v>
       </c>
@@ -18371,7 +18401,7 @@
       <c r="P74" s="157"/>
       <c r="S74" s="69"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" s="32" t="s">
         <v>355</v>
       </c>
@@ -18391,7 +18421,7 @@
       <c r="S75" s="20"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" s="97" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" s="97" customFormat="1" hidden="1">
       <c r="A76" s="32" t="s">
         <v>2629</v>
       </c>
@@ -18416,7 +18446,7 @@
       <c r="P76" s="157"/>
       <c r="S76" s="69"/>
     </row>
-    <row r="77" spans="1:20" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" s="13" customFormat="1" hidden="1">
       <c r="A77" s="32" t="s">
         <v>340</v>
       </c>
@@ -18444,7 +18474,7 @@
       <c r="R77"/>
       <c r="S77" s="19"/>
     </row>
-    <row r="78" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" s="13" customFormat="1">
       <c r="A78" s="32" t="s">
         <v>2628</v>
       </c>
@@ -18474,7 +18504,7 @@
       <c r="R78"/>
       <c r="S78" s="19"/>
     </row>
-    <row r="79" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" s="13" customFormat="1">
       <c r="A79" s="32" t="s">
         <v>356</v>
       </c>
@@ -18504,7 +18534,7 @@
       <c r="R79"/>
       <c r="S79" s="19"/>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -18516,7 +18546,7 @@
       <c r="S80" s="20"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="1:22" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="23" customFormat="1" hidden="1">
       <c r="A81" s="36" t="s">
         <v>283</v>
       </c>
@@ -18537,7 +18567,7 @@
       <c r="P81" s="159"/>
       <c r="S81" s="25"/>
     </row>
-    <row r="82" spans="1:22" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="23" customFormat="1" hidden="1">
       <c r="A82" s="36" t="s">
         <v>327</v>
       </c>
@@ -18558,7 +18588,7 @@
       <c r="P82" s="159"/>
       <c r="S82" s="25"/>
     </row>
-    <row r="83" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" s="24" customFormat="1">
       <c r="A83" s="36" t="s">
         <v>2207</v>
       </c>
@@ -18581,7 +18611,7 @@
       <c r="P83" s="160"/>
       <c r="S83" s="25"/>
     </row>
-    <row r="84" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="24" customFormat="1">
       <c r="A84" s="37" t="s">
         <v>2206</v>
       </c>
@@ -18602,7 +18632,7 @@
       <c r="P84" s="160"/>
       <c r="S84" s="25"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22">
       <c r="A85" s="32" t="s">
         <v>2229</v>
       </c>
@@ -18625,7 +18655,7 @@
       <c r="S85" s="20"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22">
       <c r="A86" s="144" t="s">
         <v>2525</v>
       </c>
@@ -18637,7 +18667,7 @@
       <c r="S86" s="20"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22">
       <c r="A87" s="36" t="s">
         <v>330</v>
       </c>
@@ -18655,7 +18685,7 @@
       <c r="S87" s="20"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22">
       <c r="A88" s="32" t="s">
         <v>326</v>
       </c>
@@ -18673,7 +18703,7 @@
       <c r="S88" s="20"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22">
       <c r="A89" s="32" t="s">
         <v>321</v>
       </c>
@@ -18697,7 +18727,7 @@
       <c r="R89" s="56"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22">
       <c r="A90" s="32" t="s">
         <v>280</v>
       </c>
@@ -18720,7 +18750,7 @@
       <c r="R90" s="56"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" s="24" customFormat="1">
       <c r="A91" s="32" t="s">
         <v>281</v>
       </c>
@@ -18733,20 +18763,20 @@
       <c r="D91" s="32"/>
       <c r="E91" s="141"/>
       <c r="F91" s="32"/>
-      <c r="J91" s="174" t="s">
+      <c r="J91" s="176" t="s">
         <v>2415</v>
       </c>
-      <c r="K91" s="174"/>
-      <c r="L91" s="174"/>
-      <c r="M91" s="174"/>
-      <c r="N91" s="174"/>
-      <c r="O91" s="174"/>
-      <c r="P91" s="174"/>
+      <c r="K91" s="176"/>
+      <c r="L91" s="176"/>
+      <c r="M91" s="176"/>
+      <c r="N91" s="176"/>
+      <c r="O91" s="176"/>
+      <c r="P91" s="176"/>
       <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
       <c r="S91" s="25"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22">
       <c r="A92" s="32" t="s">
         <v>344</v>
       </c>
@@ -18792,7 +18822,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22">
       <c r="A93" s="32" t="s">
         <v>322</v>
       </c>
@@ -18833,7 +18863,7 @@
       </c>
       <c r="T93" s="12"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22">
       <c r="A94" s="32" t="s">
         <v>320</v>
       </c>
@@ -18874,7 +18904,7 @@
       </c>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22">
       <c r="A95" s="32" t="s">
         <v>282</v>
       </c>
@@ -18890,7 +18920,7 @@
       <c r="S95" s="24"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22">
       <c r="A96" s="32" t="s">
         <v>2220</v>
       </c>
@@ -18907,7 +18937,7 @@
       </c>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20">
       <c r="A97" s="32" t="s">
         <v>290</v>
       </c>
@@ -18923,7 +18953,7 @@
       <c r="S97" s="24"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20">
       <c r="A98" s="32" t="s">
         <v>292</v>
       </c>
@@ -18938,7 +18968,7 @@
       <c r="F98" s="32"/>
       <c r="I98" s="24"/>
     </row>
-    <row r="99" spans="1:20" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" s="23" customFormat="1">
       <c r="A99" s="32" t="s">
         <v>291</v>
       </c>
@@ -18957,55 +18987,55 @@
       <c r="P99" s="159"/>
       <c r="S99" s="25"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20">
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
       <c r="S100" s="20"/>
       <c r="T100"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20">
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
       <c r="S101" s="20"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20">
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
       <c r="S102" s="20"/>
       <c r="T102"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20">
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
       <c r="S103" s="20"/>
       <c r="T103"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
       <c r="S104" s="20"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20">
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
       <c r="S105" s="20"/>
       <c r="T105"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20">
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
       <c r="S106" s="20"/>
       <c r="T106"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20">
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
       <c r="S107" s="20"/>
       <c r="T107"/>
     </row>
-    <row r="108" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" s="13" customFormat="1">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -19020,19 +19050,19 @@
       <c r="P108" s="158"/>
       <c r="S108" s="19"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20">
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
       <c r="S109" s="20"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20">
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
       <c r="S110" s="20"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20">
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
       <c r="S111" s="20"/>
@@ -19057,14 +19087,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D20"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="27" customWidth="1"/>
@@ -19080,7 +19110,7 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="47" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>2250</v>
       </c>
@@ -19093,12 +19123,12 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="10">
-        <f>COUNTA(C3:C20)</f>
-        <v>14</v>
+        <f>COUNTA(C3:C19)</f>
+        <v>13</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="46"/>
@@ -19107,7 +19137,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="45" t="s">
         <v>239</v>
       </c>
@@ -19127,7 +19157,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="45" t="s">
         <v>240</v>
       </c>
@@ -19146,7 +19176,7 @@
       </c>
       <c r="I4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="45" t="s">
         <v>241</v>
       </c>
@@ -19163,7 +19193,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="67"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="45" t="s">
         <v>242</v>
       </c>
@@ -19185,7 +19215,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="45" t="s">
         <v>243</v>
       </c>
@@ -19202,7 +19232,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="67"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="45" t="s">
         <v>244</v>
       </c>
@@ -19219,7 +19249,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="67"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="45" t="s">
         <v>245</v>
       </c>
@@ -19238,7 +19268,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="67"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="45" t="s">
         <v>246</v>
       </c>
@@ -19257,7 +19287,7 @@
       </c>
       <c r="I10" s="67"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="45" t="s">
         <v>247</v>
       </c>
@@ -19274,7 +19304,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="67"/>
     </row>
-    <row r="12" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="102" customFormat="1" hidden="1">
       <c r="A12" s="129" t="s">
         <v>236</v>
       </c>
@@ -19299,7 +19329,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="102" customFormat="1" hidden="1">
       <c r="A13" s="45" t="s">
         <v>248</v>
       </c>
@@ -19326,7 +19356,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="45" t="s">
         <v>249</v>
       </c>
@@ -19346,7 +19376,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="45" t="s">
         <v>250</v>
       </c>
@@ -19365,7 +19395,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="67"/>
     </row>
-    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="48" customFormat="1">
       <c r="A16" s="34" t="s">
         <v>2554</v>
       </c>
@@ -19385,120 +19415,129 @@
       <c r="I16" s="57"/>
       <c r="K16" s="149"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="102" customFormat="1">
       <c r="A17" s="45" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>221</v>
+        <v>2412</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="67"/>
-    </row>
-    <row r="18" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="101"/>
+      <c r="J17" s="95" t="s">
+        <v>2421</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="102" customFormat="1">
       <c r="A18" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2412</v>
+        <v>15</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="99"/>
       <c r="H18" s="99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I18" s="101"/>
       <c r="J18" s="95" t="s">
         <v>2421</v>
       </c>
       <c r="K18" s="63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="102" customFormat="1">
       <c r="A19" s="45" t="s">
-        <v>253</v>
+        <v>2322</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>15</v>
+        <v>2355</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>30</v>
+        <v>2288</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="103" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>2356</v>
+      </c>
       <c r="H19" s="99" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="101"/>
+        <v>2500</v>
+      </c>
+      <c r="I19" s="99" t="s">
+        <v>2413</v>
+      </c>
       <c r="J19" s="95" t="s">
         <v>2421</v>
       </c>
       <c r="K19" s="63" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="45" t="s">
-        <v>2322</v>
+        <v>251</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2355</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="103" t="s">
-        <v>2346</v>
-      </c>
-      <c r="G20" s="103" t="s">
-        <v>2356</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>2500</v>
-      </c>
-      <c r="I20" s="99" t="s">
-        <v>2413</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>2421</v>
-      </c>
-      <c r="K20" s="63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="68"/>
+        <v>221</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="67"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="45" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="67"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="93"/>
       <c r="B22" s="94"/>
       <c r="C22" s="68"/>
@@ -19509,7 +19548,7 @@
       <c r="H22" s="68"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="93"/>
       <c r="B23" s="94"/>
       <c r="C23" s="68"/>
@@ -19520,118 +19559,131 @@
       <c r="H23" s="68"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="39" customHeight="1">
+      <c r="A25" s="177" t="s">
         <v>2417</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="65" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64" t="s">
+        <v>2346</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="66"/>
+      <c r="K26" s="17" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L26" s="96" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="65" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>1959</v>
+        <v>1867</v>
       </c>
       <c r="C27" s="66" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="64" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="66"/>
       <c r="K27" s="17" t="s">
-        <v>2207</v>
+        <v>279</v>
       </c>
       <c r="L27" s="96" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="65" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>1867</v>
+        <v>808</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>2292</v>
+        <v>59</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="64" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="66"/>
       <c r="K28" s="17" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="L28" s="96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="65" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>59</v>
+        <v>2291</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="64" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="66"/>
       <c r="K29" s="17" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="L29" s="96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="65" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>811</v>
+        <v>898</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -19641,33 +19693,9 @@
       <c r="G30" s="64"/>
       <c r="H30" s="66"/>
       <c r="K30" s="17" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="L30" s="96" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
-        <v>2320</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>898</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>2289</v>
-      </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="64" t="s">
-        <v>2346</v>
-      </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="66"/>
-      <c r="K31" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="L31" s="96" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19676,7 +19704,7 @@
     <sortCondition ref="A19:A24"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19693,7 +19721,7 @@
       <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -19702,7 +19730,7 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>2367</v>
       </c>
@@ -19714,13 +19742,13 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="C2" s="10">
         <f>COUNTA(C3:C200)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1461</v>
       </c>
@@ -19731,7 +19759,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1464</v>
       </c>
@@ -19742,7 +19770,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1467</v>
       </c>
@@ -19753,7 +19781,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1470</v>
       </c>
@@ -19764,7 +19792,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="A7" t="s">
         <v>1473</v>
       </c>
@@ -19775,7 +19803,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="49" t="s">
         <v>1476</v>
       </c>
@@ -19790,7 +19818,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="A9" s="52" t="s">
         <v>1830</v>
       </c>
@@ -19802,7 +19830,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1478</v>
       </c>
@@ -19813,7 +19841,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1481</v>
       </c>
@@ -19824,7 +19852,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1484</v>
       </c>
@@ -19835,7 +19863,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1487</v>
       </c>
@@ -19846,7 +19874,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1490</v>
       </c>
@@ -19857,7 +19885,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1493</v>
       </c>
@@ -19868,7 +19896,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1496</v>
       </c>
@@ -19879,7 +19907,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>1498</v>
       </c>
@@ -19890,7 +19918,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>1501</v>
       </c>
@@ -19901,7 +19929,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1504</v>
       </c>
@@ -19912,7 +19940,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>1506</v>
       </c>
@@ -19923,7 +19951,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>1509</v>
       </c>
@@ -19934,7 +19962,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1511</v>
       </c>
@@ -19945,7 +19973,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1514</v>
       </c>
@@ -19956,7 +19984,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1517</v>
       </c>
@@ -19967,7 +19995,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1520</v>
       </c>
@@ -19978,7 +20006,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1523</v>
       </c>
@@ -19989,7 +20017,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1526</v>
       </c>
@@ -20000,7 +20028,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1529</v>
       </c>
@@ -20011,7 +20039,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1532</v>
       </c>
@@ -20022,7 +20050,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1535</v>
       </c>
@@ -20033,7 +20061,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1538</v>
       </c>
@@ -20044,7 +20072,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1541</v>
       </c>
@@ -20055,7 +20083,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1544</v>
       </c>
@@ -20066,7 +20094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1546</v>
       </c>
@@ -20077,7 +20105,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1549</v>
       </c>
@@ -20088,7 +20116,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1552</v>
       </c>
@@ -20099,7 +20127,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1555</v>
       </c>
@@ -20110,7 +20138,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1558</v>
       </c>
@@ -20121,7 +20149,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1561</v>
       </c>
@@ -20132,7 +20160,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1564</v>
       </c>
@@ -20143,7 +20171,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1567</v>
       </c>
@@ -20154,7 +20182,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>1570</v>
       </c>
@@ -20165,7 +20193,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>1572</v>
       </c>
@@ -20176,7 +20204,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>1575</v>
       </c>
@@ -20187,7 +20215,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>1578</v>
       </c>
@@ -20198,7 +20226,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>1581</v>
       </c>
@@ -20209,7 +20237,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>1584</v>
       </c>
@@ -20220,7 +20248,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>1587</v>
       </c>
@@ -20231,7 +20259,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>1589</v>
       </c>
@@ -20242,7 +20270,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>1592</v>
       </c>
@@ -20253,7 +20281,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>1595</v>
       </c>
@@ -20264,7 +20292,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>1598</v>
       </c>
@@ -20275,7 +20303,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>1601</v>
       </c>
@@ -20286,7 +20314,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>1604</v>
       </c>
@@ -20297,7 +20325,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>1607</v>
       </c>
@@ -20308,7 +20336,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>1610</v>
       </c>
@@ -20319,7 +20347,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>1613</v>
       </c>
@@ -20330,7 +20358,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>1616</v>
       </c>
@@ -20341,7 +20369,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="12" t="s">
         <v>1619</v>
       </c>
@@ -20355,7 +20383,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>1622</v>
       </c>
@@ -20366,7 +20394,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" s="12" customFormat="1" hidden="1">
       <c r="A61" s="12" t="s">
         <v>1625</v>
       </c>
@@ -20380,7 +20408,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>1628</v>
       </c>
@@ -20391,7 +20419,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>1631</v>
       </c>
@@ -20402,7 +20430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>1633</v>
       </c>
@@ -20413,7 +20441,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1636</v>
       </c>
@@ -20424,7 +20452,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>1639</v>
       </c>
@@ -20435,7 +20463,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>1642</v>
       </c>
@@ -20446,7 +20474,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>1645</v>
       </c>
@@ -20457,7 +20485,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>1648</v>
       </c>
@@ -20468,7 +20496,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>1650</v>
       </c>
@@ -20479,7 +20507,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>1653</v>
       </c>
@@ -20490,7 +20518,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>1656</v>
       </c>
@@ -20501,7 +20529,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>1659</v>
       </c>
@@ -20512,7 +20540,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>1662</v>
       </c>
@@ -20523,7 +20551,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>1665</v>
       </c>
@@ -20534,7 +20562,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>1668</v>
       </c>
@@ -20545,7 +20573,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>1671</v>
       </c>
@@ -20556,7 +20584,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>1674</v>
       </c>
@@ -20567,7 +20595,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>1677</v>
       </c>
@@ -20578,7 +20606,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>1680</v>
       </c>
@@ -20589,7 +20617,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>1683</v>
       </c>
@@ -20600,7 +20628,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>1686</v>
       </c>
@@ -20611,7 +20639,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>1689</v>
       </c>
@@ -20622,7 +20650,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>1692</v>
       </c>
@@ -20633,7 +20661,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>1695</v>
       </c>
@@ -20644,7 +20672,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>1698</v>
       </c>
@@ -20655,7 +20683,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>1704</v>
       </c>
@@ -20666,7 +20694,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>1707</v>
       </c>
@@ -20677,7 +20705,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>1710</v>
       </c>
@@ -20688,7 +20716,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>1713</v>
       </c>
@@ -20702,7 +20730,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>1717</v>
       </c>
@@ -20713,7 +20741,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>1720</v>
       </c>
@@ -20724,7 +20752,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>1723</v>
       </c>
@@ -20735,7 +20763,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>1726</v>
       </c>
@@ -20746,7 +20774,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>1729</v>
       </c>
@@ -20757,7 +20785,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>1732</v>
       </c>
@@ -20768,7 +20796,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>1735</v>
       </c>
@@ -20779,7 +20807,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>1737</v>
       </c>
@@ -20790,7 +20818,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>1740</v>
       </c>
@@ -20801,7 +20829,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>1743</v>
       </c>
@@ -20812,7 +20840,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>1745</v>
       </c>
@@ -20823,7 +20851,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>1748</v>
       </c>
@@ -20834,7 +20862,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>1751</v>
       </c>
@@ -20845,7 +20873,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>1754</v>
       </c>
@@ -20856,7 +20884,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>1757</v>
       </c>
@@ -20867,7 +20895,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>1760</v>
       </c>
@@ -20878,7 +20906,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>1763</v>
       </c>
@@ -20889,7 +20917,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>1766</v>
       </c>
@@ -20900,7 +20928,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>1769</v>
       </c>
@@ -20911,7 +20939,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>1772</v>
       </c>
@@ -20922,7 +20950,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>1775</v>
       </c>
@@ -20933,7 +20961,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>1778</v>
       </c>
@@ -20944,7 +20972,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>1781</v>
       </c>
@@ -20955,7 +20983,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>1784</v>
       </c>
@@ -20966,7 +20994,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>1787</v>
       </c>
@@ -20977,7 +21005,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>1790</v>
       </c>
@@ -20988,7 +21016,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" s="12" customFormat="1" hidden="1">
       <c r="A117" s="12" t="s">
         <v>1793</v>
       </c>
@@ -21002,7 +21030,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>1796</v>
       </c>
@@ -21013,7 +21041,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>1799</v>
       </c>
@@ -21024,7 +21052,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>1802</v>
       </c>
@@ -21035,7 +21063,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>1805</v>
       </c>
@@ -21046,7 +21074,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>1807</v>
       </c>
@@ -21057,7 +21085,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>1810</v>
       </c>
@@ -21068,7 +21096,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>1813</v>
       </c>
@@ -21079,7 +21107,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>1815</v>
       </c>
@@ -21090,7 +21118,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>1818</v>
       </c>
@@ -21101,7 +21129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>1820</v>
       </c>
@@ -21112,7 +21140,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>1822</v>
       </c>
@@ -21123,7 +21151,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>1824</v>
       </c>
@@ -21134,7 +21162,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>1827</v>
       </c>
@@ -21145,7 +21173,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>1832</v>
       </c>
@@ -21156,7 +21184,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>1835</v>
       </c>
@@ -21170,7 +21198,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>1837</v>
       </c>
@@ -21181,7 +21209,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>1840</v>
       </c>
@@ -21192,7 +21220,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="12" t="s">
         <v>1843</v>
       </c>
@@ -21206,7 +21234,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="19" customFormat="1">
       <c r="A136" s="19" t="s">
         <v>2403</v>
       </c>
@@ -21220,7 +21248,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="19" customFormat="1">
       <c r="A137" s="19" t="s">
         <v>2298</v>
       </c>
@@ -21234,7 +21262,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" s="19" customFormat="1">
       <c r="A138" s="19" t="s">
         <v>2297</v>
       </c>
@@ -21248,7 +21276,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" s="19" customFormat="1">
       <c r="A139" s="19" t="s">
         <v>2249</v>
       </c>
@@ -21262,7 +21290,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" s="19" customFormat="1">
       <c r="A140" s="19" t="s">
         <v>2492</v>
       </c>
@@ -21276,7 +21304,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>2591</v>
       </c>
@@ -21290,7 +21318,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>2587</v>
       </c>
@@ -21307,7 +21335,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>2589</v>
       </c>
@@ -21321,7 +21349,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>1701</v>
       </c>
@@ -21348,10 +21376,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
@@ -21365,7 +21393,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>1847</v>
       </c>
@@ -21381,17 +21409,17 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="C2" s="10">
         <f>COUNTA(C3:C190)</f>
         <v>46</v>
       </c>
       <c r="I2" s="10">
         <f>COUNTA(I3:I196)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>590</v>
       </c>
@@ -21411,7 +21439,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -21431,7 +21459,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>593</v>
       </c>
@@ -21451,7 +21479,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>595</v>
       </c>
@@ -21471,7 +21499,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>597</v>
       </c>
@@ -21491,7 +21519,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>611</v>
       </c>
@@ -21511,7 +21539,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -21531,7 +21559,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>621</v>
       </c>
@@ -21551,7 +21579,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>623</v>
       </c>
@@ -21571,7 +21599,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>629</v>
       </c>
@@ -21591,7 +21619,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -21611,7 +21639,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>640</v>
       </c>
@@ -21631,7 +21659,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>642</v>
       </c>
@@ -21651,7 +21679,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>644</v>
       </c>
@@ -21671,7 +21699,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>646</v>
       </c>
@@ -21691,7 +21719,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>648</v>
       </c>
@@ -21711,7 +21739,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>654</v>
       </c>
@@ -21731,7 +21759,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>658</v>
       </c>
@@ -21751,7 +21779,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>660</v>
       </c>
@@ -21771,7 +21799,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>662</v>
       </c>
@@ -21791,7 +21819,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>666</v>
       </c>
@@ -21811,7 +21839,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>668</v>
       </c>
@@ -21831,7 +21859,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>686</v>
       </c>
@@ -21851,7 +21879,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>688</v>
       </c>
@@ -21871,7 +21899,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>690</v>
       </c>
@@ -21891,7 +21919,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>692</v>
       </c>
@@ -21911,7 +21939,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>700</v>
       </c>
@@ -21931,7 +21959,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>704</v>
       </c>
@@ -21951,7 +21979,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>708</v>
       </c>
@@ -21971,7 +21999,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>716</v>
       </c>
@@ -21991,7 +22019,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>718</v>
       </c>
@@ -22011,7 +22039,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>722</v>
       </c>
@@ -22031,7 +22059,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>726</v>
       </c>
@@ -22051,7 +22079,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>730</v>
       </c>
@@ -22071,7 +22099,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>740</v>
       </c>
@@ -22094,7 +22122,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>742</v>
       </c>
@@ -22117,7 +22145,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>746</v>
       </c>
@@ -22137,7 +22165,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>748</v>
       </c>
@@ -22157,7 +22185,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>750</v>
       </c>
@@ -22177,7 +22205,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>760</v>
       </c>
@@ -22197,7 +22225,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>762</v>
       </c>
@@ -22217,7 +22245,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>766</v>
       </c>
@@ -22237,7 +22265,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>768</v>
       </c>
@@ -22257,7 +22285,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>772</v>
       </c>
@@ -22277,7 +22305,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>774</v>
       </c>
@@ -22297,7 +22325,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>776</v>
       </c>
@@ -22320,7 +22348,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>2227</v>
       </c>
@@ -22343,7 +22371,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>2223</v>
       </c>
@@ -22366,7 +22394,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="G51" t="s">
         <v>756</v>
       </c>
@@ -22380,7 +22408,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="G52" t="s">
         <v>758</v>
       </c>
@@ -22391,7 +22419,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="G53" t="s">
         <v>764</v>
       </c>
@@ -22402,7 +22430,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="G54" t="s">
         <v>770</v>
       </c>
@@ -22413,7 +22441,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="17.25" thickBot="1">
       <c r="G55" t="s">
         <v>2225</v>
       </c>
@@ -22427,32 +22455,34 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G56" t="s">
+    <row r="56" spans="1:11">
+      <c r="G56" s="49" t="s">
         <v>638</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="50">
         <v>20021</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="171"/>
+      <c r="J56" s="172" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G57" t="s">
+    <row r="57" spans="1:11" ht="17.25" thickBot="1">
+      <c r="G57" s="52" t="s">
         <v>2612</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="53">
         <v>20056</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="127" t="s">
         <v>2613</v>
       </c>
+      <c r="J57" s="54"/>
       <c r="K57" s="12" t="s">
         <v>2614</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="G58" t="s">
         <v>2652</v>
       </c>
@@ -22466,7 +22496,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="G59" t="s">
         <v>2651</v>
       </c>
@@ -22499,7 +22529,7 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -22515,7 +22545,7 @@
     <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="39" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>1458</v>
       </c>
@@ -22541,7 +22571,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="C2" s="10">
         <f>COUNTA(C3:C201)</f>
         <v>31</v>
@@ -22555,7 +22585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>1298</v>
       </c>
@@ -22584,7 +22614,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>1300</v>
       </c>
@@ -22613,7 +22643,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>1302</v>
       </c>
@@ -22642,7 +22672,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>1306</v>
       </c>
@@ -22671,7 +22701,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>1311</v>
       </c>
@@ -22700,7 +22730,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>1314</v>
       </c>
@@ -22729,7 +22759,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>1317</v>
       </c>
@@ -22758,7 +22788,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>1320</v>
       </c>
@@ -22787,7 +22817,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>1323</v>
       </c>
@@ -22816,7 +22846,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>1325</v>
       </c>
@@ -22845,7 +22875,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1328</v>
       </c>
@@ -22874,7 +22904,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>1331</v>
       </c>
@@ -22903,7 +22933,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>1334</v>
       </c>
@@ -22932,7 +22962,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>1335</v>
       </c>
@@ -22961,7 +22991,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>1336</v>
       </c>
@@ -22990,7 +23020,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>1395</v>
       </c>
@@ -23019,7 +23049,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>1398</v>
       </c>
@@ -23048,7 +23078,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>1400</v>
       </c>
@@ -23080,7 +23110,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>1402</v>
       </c>
@@ -23103,7 +23133,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>1405</v>
       </c>
@@ -23114,7 +23144,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>1408</v>
       </c>
@@ -23125,7 +23155,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>1411</v>
       </c>
@@ -23136,7 +23166,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>1414</v>
       </c>
@@ -23147,7 +23177,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>1423</v>
       </c>
@@ -23158,7 +23188,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>1426</v>
       </c>
@@ -23169,7 +23199,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>1429</v>
       </c>
@@ -23180,7 +23210,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>1440</v>
       </c>
@@ -23191,7 +23221,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>1443</v>
       </c>
@@ -23202,7 +23232,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>1446</v>
       </c>
@@ -23213,7 +23243,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>1449</v>
       </c>
@@ -23224,7 +23254,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1455</v>
       </c>

--- a/02 레미콘.xlsx
+++ b/02 레미콘.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="743" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="쿼리" sheetId="19" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="2715">
   <si>
     <t>부강레미콘(주)</t>
   </si>
@@ -8959,10 +8959,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>신규예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RM_5M1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -8997,6 +8993,26 @@
   </si>
   <si>
     <t>RM_5L9로 사업자 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-04설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사079  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사080  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서벽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -9013,7 +9029,7 @@
     <numFmt numFmtId="180" formatCode="#,##0&quot;원&quot;"/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9895,6 +9911,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9926,21 +9957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10230,104 +10246,104 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2164</v>
       </c>
@@ -10347,7 +10363,7 @@
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -10356,7 +10372,7 @@
     <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2307</v>
       </c>
@@ -10368,13 +10384,13 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C197)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>745</v>
       </c>
@@ -10385,7 +10401,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>747</v>
       </c>
@@ -10396,7 +10412,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>750</v>
       </c>
@@ -10407,7 +10423,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>753</v>
       </c>
@@ -10421,7 +10437,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>756</v>
       </c>
@@ -10432,7 +10448,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>759</v>
       </c>
@@ -10443,7 +10459,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>762</v>
       </c>
@@ -10454,7 +10470,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>764</v>
       </c>
@@ -10465,7 +10481,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>769</v>
       </c>
@@ -10476,7 +10492,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>771</v>
       </c>
@@ -10487,7 +10503,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>774</v>
       </c>
@@ -10501,7 +10517,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>777</v>
       </c>
@@ -10512,7 +10528,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>780</v>
       </c>
@@ -10526,7 +10542,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>783</v>
       </c>
@@ -10537,7 +10553,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>785</v>
       </c>
@@ -10548,7 +10564,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>788</v>
       </c>
@@ -10559,7 +10575,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>791</v>
       </c>
@@ -10570,7 +10586,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>796</v>
       </c>
@@ -10581,7 +10597,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>799</v>
       </c>
@@ -10592,7 +10608,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>802</v>
       </c>
@@ -10603,7 +10619,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>805</v>
       </c>
@@ -10617,7 +10633,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>808</v>
       </c>
@@ -10631,7 +10647,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>814</v>
       </c>
@@ -10642,7 +10658,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>817</v>
       </c>
@@ -10653,7 +10669,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>820</v>
       </c>
@@ -10664,7 +10680,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>823</v>
       </c>
@@ -10675,7 +10691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>825</v>
       </c>
@@ -10686,7 +10702,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>828</v>
       </c>
@@ -10700,7 +10716,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>831</v>
       </c>
@@ -10711,7 +10727,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>834</v>
       </c>
@@ -10722,7 +10738,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>837</v>
       </c>
@@ -10733,7 +10749,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>840</v>
       </c>
@@ -10747,7 +10763,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>843</v>
       </c>
@@ -10758,7 +10774,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>846</v>
       </c>
@@ -10769,7 +10785,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2209</v>
       </c>
@@ -10786,7 +10802,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2208</v>
       </c>
@@ -10800,7 +10816,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2473</v>
       </c>
@@ -10814,7 +10830,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2506</v>
       </c>
@@ -10828,7 +10844,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2514</v>
       </c>
@@ -10842,7 +10858,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.25" thickBot="1">
+    <row r="43" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2515</v>
       </c>
@@ -10856,7 +10872,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>2516</v>
       </c>
@@ -10874,7 +10890,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" thickBot="1">
+    <row r="45" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="47" t="s">
         <v>766</v>
       </c>
@@ -10887,7 +10903,7 @@
       <c r="D45" s="48"/>
       <c r="E45" s="49"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>794</v>
       </c>
@@ -10898,7 +10914,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2536</v>
       </c>
@@ -10912,7 +10928,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>811</v>
       </c>
@@ -10923,7 +10939,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2537</v>
       </c>
@@ -10953,7 +10969,7 @@
       <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
@@ -10961,7 +10977,7 @@
     <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2308</v>
       </c>
@@ -10970,13 +10986,13 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C198)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>939</v>
       </c>
@@ -10987,7 +11003,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>942</v>
       </c>
@@ -10998,7 +11014,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>945</v>
       </c>
@@ -11012,7 +11028,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>948</v>
       </c>
@@ -11023,7 +11039,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>950</v>
       </c>
@@ -11034,7 +11050,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>952</v>
       </c>
@@ -11045,7 +11061,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>955</v>
       </c>
@@ -11056,7 +11072,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>957</v>
       </c>
@@ -11067,7 +11083,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>960</v>
       </c>
@@ -11078,7 +11094,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>962</v>
       </c>
@@ -11089,7 +11105,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>965</v>
       </c>
@@ -11100,7 +11116,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>968</v>
       </c>
@@ -11111,7 +11127,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>971</v>
       </c>
@@ -11122,7 +11138,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>974</v>
       </c>
@@ -11133,7 +11149,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>977</v>
       </c>
@@ -11144,7 +11160,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>981</v>
       </c>
@@ -11155,7 +11171,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>983</v>
       </c>
@@ -11166,7 +11182,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>985</v>
       </c>
@@ -11177,7 +11193,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>987</v>
       </c>
@@ -11188,7 +11204,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>990</v>
       </c>
@@ -11199,7 +11215,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>993</v>
       </c>
@@ -11210,7 +11226,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>996</v>
       </c>
@@ -11221,7 +11237,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>999</v>
       </c>
@@ -11232,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1001</v>
       </c>
@@ -11243,7 +11259,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1004</v>
       </c>
@@ -11254,7 +11270,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1010</v>
       </c>
@@ -11265,7 +11281,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1013</v>
       </c>
@@ -11276,7 +11292,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1016</v>
       </c>
@@ -11287,7 +11303,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1019</v>
       </c>
@@ -11298,7 +11314,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1022</v>
       </c>
@@ -11309,7 +11325,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1025</v>
       </c>
@@ -11320,7 +11336,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1027</v>
       </c>
@@ -11331,7 +11347,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1029</v>
       </c>
@@ -11342,7 +11358,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1031</v>
       </c>
@@ -11353,7 +11369,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1007</v>
       </c>
@@ -11367,7 +11383,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1033</v>
       </c>
@@ -11381,7 +11397,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1034</v>
       </c>
@@ -11392,7 +11408,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2288</v>
       </c>
@@ -11406,7 +11422,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>979</v>
       </c>
@@ -11420,7 +11436,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2447</v>
       </c>
@@ -11434,7 +11450,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2482</v>
       </c>
@@ -11463,7 +11479,7 @@
       <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -11472,7 +11488,7 @@
     <col min="5" max="5" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2309</v>
       </c>
@@ -11481,13 +11497,13 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="4">
         <f>COUNTA(C3:C55)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>852</v>
       </c>
@@ -11509,7 +11525,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>854</v>
       </c>
@@ -11520,7 +11536,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>855</v>
       </c>
@@ -11531,7 +11547,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>859</v>
       </c>
@@ -11542,7 +11558,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>861</v>
       </c>
@@ -11553,7 +11569,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>864</v>
       </c>
@@ -11564,7 +11580,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -11575,7 +11591,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>868</v>
       </c>
@@ -11586,7 +11602,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>871</v>
       </c>
@@ -11597,7 +11613,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>874</v>
       </c>
@@ -11608,7 +11624,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>877</v>
       </c>
@@ -11625,7 +11641,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>879</v>
       </c>
@@ -11639,7 +11655,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>882</v>
       </c>
@@ -11650,7 +11666,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>885</v>
       </c>
@@ -11661,7 +11677,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>888</v>
       </c>
@@ -11672,7 +11688,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>891</v>
       </c>
@@ -11683,7 +11699,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>894</v>
       </c>
@@ -11694,7 +11710,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>902</v>
       </c>
@@ -11705,7 +11721,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>905</v>
       </c>
@@ -11716,7 +11732,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>910</v>
       </c>
@@ -11727,7 +11743,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1">
+    <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>913</v>
       </c>
@@ -11744,7 +11760,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>916</v>
       </c>
@@ -11759,7 +11775,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>919</v>
       </c>
@@ -11770,7 +11786,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>922</v>
       </c>
@@ -11781,7 +11797,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>925</v>
       </c>
@@ -11792,7 +11808,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>857</v>
       </c>
@@ -11803,7 +11819,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>897</v>
       </c>
@@ -11814,7 +11830,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>927</v>
       </c>
@@ -11825,7 +11841,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>930</v>
       </c>
@@ -11836,7 +11852,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2263</v>
       </c>
@@ -11850,7 +11866,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>931</v>
       </c>
@@ -11867,7 +11883,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2256</v>
       </c>
@@ -11881,7 +11897,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>936</v>
       </c>
@@ -11898,7 +11914,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2224</v>
       </c>
@@ -11912,7 +11928,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="21" customFormat="1">
+    <row r="38" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>900</v>
       </c>
@@ -11929,7 +11945,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>933</v>
       </c>
@@ -11940,7 +11956,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2285</v>
       </c>
@@ -11954,7 +11970,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2286</v>
       </c>
@@ -11971,7 +11987,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2586</v>
       </c>
@@ -11985,7 +12001,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2587</v>
       </c>
@@ -12019,7 +12035,7 @@
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" hidden="1" customWidth="1"/>
@@ -12032,7 +12048,7 @@
     <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>2357</v>
       </c>
@@ -12043,7 +12059,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4">
@@ -12060,7 +12076,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>233</v>
       </c>
@@ -12075,7 +12091,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>234</v>
       </c>
@@ -12090,7 +12106,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93" t="s">
         <v>235</v>
       </c>
@@ -12113,7 +12129,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>236</v>
       </c>
@@ -12128,7 +12144,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>240</v>
       </c>
@@ -12143,7 +12159,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>243</v>
       </c>
@@ -12158,7 +12174,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2271</v>
       </c>
@@ -12175,7 +12191,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>2272</v>
       </c>
@@ -12196,7 +12212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>237</v>
       </c>
@@ -12213,7 +12229,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>238</v>
       </c>
@@ -12230,7 +12246,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>239</v>
       </c>
@@ -12247,7 +12263,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="119" t="s">
         <v>242</v>
       </c>
@@ -12273,7 +12289,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="43" customFormat="1">
+    <row r="15" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>241</v>
       </c>
@@ -12293,7 +12309,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>2239</v>
       </c>
@@ -12336,7 +12352,7 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12346,7 +12362,7 @@
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2310</v>
       </c>
@@ -12356,7 +12372,7 @@
       </c>
       <c r="D1" s="56"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C28)</f>
         <v>10</v>
@@ -12365,7 +12381,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1231</v>
       </c>
@@ -12379,7 +12395,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1234</v>
       </c>
@@ -12393,7 +12409,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1235</v>
       </c>
@@ -12407,7 +12423,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1238</v>
       </c>
@@ -12421,7 +12437,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1240</v>
       </c>
@@ -12435,7 +12451,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1241</v>
       </c>
@@ -12449,7 +12465,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1243</v>
       </c>
@@ -12463,7 +12479,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="24" customFormat="1">
+    <row r="10" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>1245</v>
       </c>
@@ -12480,7 +12496,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>1247</v>
       </c>
@@ -12494,7 +12510,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1249</v>
       </c>
@@ -12508,7 +12524,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1251</v>
       </c>
@@ -12525,7 +12541,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1253</v>
       </c>
@@ -12539,7 +12555,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>2373</v>
       </c>
@@ -12554,7 +12570,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1">
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="98" t="s">
         <v>2377</v>
       </c>
@@ -12566,7 +12582,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
@@ -12593,7 +12609,7 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
@@ -12601,7 +12617,7 @@
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2311</v>
       </c>
@@ -12611,7 +12627,7 @@
       </c>
       <c r="D1" s="56"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C28)</f>
         <v>7</v>
@@ -12620,7 +12636,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1217</v>
       </c>
@@ -12634,7 +12650,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1219</v>
       </c>
@@ -12648,7 +12664,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1221</v>
       </c>
@@ -12662,7 +12678,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1223</v>
       </c>
@@ -12676,7 +12692,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1226</v>
       </c>
@@ -12690,7 +12706,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1228</v>
       </c>
@@ -12707,7 +12723,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1230</v>
       </c>
@@ -12736,7 +12752,7 @@
       <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -12745,7 +12761,7 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1">
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2312</v>
       </c>
@@ -12754,13 +12770,13 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C102)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1143</v>
       </c>
@@ -12771,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1145</v>
       </c>
@@ -12782,7 +12798,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1148</v>
       </c>
@@ -12793,7 +12809,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1151</v>
       </c>
@@ -12804,7 +12820,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1154</v>
       </c>
@@ -12815,7 +12831,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1157</v>
       </c>
@@ -12826,7 +12842,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1160</v>
       </c>
@@ -12837,7 +12853,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1163</v>
       </c>
@@ -12848,7 +12864,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>1166</v>
       </c>
@@ -12860,7 +12876,7 @@
       </c>
       <c r="D11" s="46"/>
     </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="47" t="s">
         <v>1191</v>
       </c>
@@ -12872,7 +12888,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1169</v>
       </c>
@@ -12883,7 +12899,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1172</v>
       </c>
@@ -12894,7 +12910,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1174</v>
       </c>
@@ -12905,7 +12921,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1176</v>
       </c>
@@ -12916,7 +12932,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>1179</v>
       </c>
@@ -12928,7 +12944,7 @@
       </c>
       <c r="D17" s="46"/>
     </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
         <v>1182</v>
       </c>
@@ -12940,7 +12956,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1185</v>
       </c>
@@ -12951,7 +12967,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1188</v>
       </c>
@@ -12962,7 +12978,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1194</v>
       </c>
@@ -12973,7 +12989,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1196</v>
       </c>
@@ -12984,7 +13000,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1199</v>
       </c>
@@ -12995,7 +13011,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1202</v>
       </c>
@@ -13006,7 +13022,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1205</v>
       </c>
@@ -13017,7 +13033,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1208</v>
       </c>
@@ -13028,7 +13044,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1211</v>
       </c>
@@ -13039,7 +13055,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1214</v>
       </c>
@@ -13050,7 +13066,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2509</v>
       </c>
@@ -13064,7 +13080,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2549</v>
       </c>
@@ -13094,7 +13110,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13104,7 +13120,7 @@
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2313</v>
       </c>
@@ -13117,14 +13133,14 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C28)</f>
         <v>18</v>
       </c>
       <c r="D2" s="125"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1104</v>
       </c>
@@ -13135,7 +13151,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1106</v>
       </c>
@@ -13146,7 +13162,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1108</v>
       </c>
@@ -13157,7 +13173,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1110</v>
       </c>
@@ -13168,7 +13184,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1112</v>
       </c>
@@ -13179,7 +13195,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1114</v>
       </c>
@@ -13190,7 +13206,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1116</v>
       </c>
@@ -13201,7 +13217,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1119</v>
       </c>
@@ -13212,7 +13228,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1121</v>
       </c>
@@ -13223,7 +13239,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1126</v>
       </c>
@@ -13234,7 +13250,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1129</v>
       </c>
@@ -13245,7 +13261,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1131</v>
       </c>
@@ -13256,7 +13272,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1134</v>
       </c>
@@ -13267,7 +13283,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1136</v>
       </c>
@@ -13278,7 +13294,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1139</v>
       </c>
@@ -13289,7 +13305,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1141</v>
       </c>
@@ -13300,7 +13316,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>2486</v>
       </c>
@@ -13314,7 +13330,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1123</v>
       </c>
@@ -13328,7 +13344,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2487</v>
       </c>
@@ -13357,7 +13373,7 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13365,7 +13381,7 @@
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2314</v>
       </c>
@@ -13374,13 +13390,13 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="39">
         <f>COUNTA(C3:C19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>1088</v>
       </c>
@@ -13392,7 +13408,7 @@
       </c>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>1102</v>
       </c>
@@ -13404,7 +13420,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>1090</v>
       </c>
@@ -13416,7 +13432,7 @@
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="47" t="s">
         <v>1092</v>
       </c>
@@ -13428,7 +13444,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1094</v>
       </c>
@@ -13439,7 +13455,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1096</v>
       </c>
@@ -13450,7 +13466,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1098</v>
       </c>
@@ -13461,7 +13477,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1100</v>
       </c>
@@ -13472,7 +13488,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>2289</v>
       </c>
@@ -13486,7 +13502,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>2432</v>
       </c>
@@ -13517,7 +13533,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13526,7 +13542,7 @@
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2315</v>
       </c>
@@ -13538,13 +13554,13 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C21)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1061</v>
       </c>
@@ -13555,7 +13571,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1063</v>
       </c>
@@ -13566,7 +13582,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1064</v>
       </c>
@@ -13577,7 +13593,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1066</v>
       </c>
@@ -13588,7 +13604,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1068</v>
       </c>
@@ -13599,7 +13615,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1069</v>
       </c>
@@ -13610,7 +13626,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1071</v>
       </c>
@@ -13621,7 +13637,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1073</v>
       </c>
@@ -13632,7 +13648,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1075</v>
       </c>
@@ -13643,7 +13659,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1076</v>
       </c>
@@ -13654,7 +13670,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1078</v>
       </c>
@@ -13668,7 +13684,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1080</v>
       </c>
@@ -13679,7 +13695,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1082</v>
       </c>
@@ -13690,7 +13706,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1084</v>
       </c>
@@ -13701,7 +13717,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1086</v>
       </c>
@@ -13715,7 +13731,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2527</v>
       </c>
@@ -13746,7 +13762,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="103" bestFit="1" customWidth="1"/>
@@ -13757,11 +13773,11 @@
     <col min="7" max="7" width="8.375" style="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="174" t="s">
         <v>2403</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="174"/>
       <c r="C1" s="78" t="s">
         <v>2396</v>
       </c>
@@ -13770,13 +13786,13 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>2413</v>
       </c>
       <c r="B3" s="26"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2404</v>
       </c>
@@ -13797,11 +13813,11 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="106"/>
       <c r="E5" s="106"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>2406</v>
       </c>
@@ -13809,7 +13825,7 @@
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2399</v>
       </c>
@@ -13821,7 +13837,7 @@
       </c>
       <c r="E7" s="109"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>2397</v>
       </c>
@@ -13833,7 +13849,7 @@
       </c>
       <c r="E8" s="109"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2398</v>
       </c>
@@ -13864,7 +13880,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -13873,7 +13889,7 @@
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2316</v>
       </c>
@@ -13885,13 +13901,13 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C18)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1037</v>
       </c>
@@ -13902,7 +13918,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1039</v>
       </c>
@@ -13913,7 +13929,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1041</v>
       </c>
@@ -13924,7 +13940,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1043</v>
       </c>
@@ -13935,7 +13951,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1045</v>
       </c>
@@ -13946,7 +13962,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1047</v>
       </c>
@@ -13957,7 +13973,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1049</v>
       </c>
@@ -13968,7 +13984,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1051</v>
       </c>
@@ -13982,7 +13998,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1053</v>
       </c>
@@ -13993,7 +14009,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1054</v>
       </c>
@@ -14004,7 +14020,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1056</v>
       </c>
@@ -14015,7 +14031,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1058</v>
       </c>
@@ -14047,7 +14063,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -14064,7 +14080,7 @@
     <col min="14" max="14" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="18" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:15" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>553</v>
       </c>
@@ -14092,7 +14108,7 @@
       </c>
       <c r="M1" s="68"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="70"/>
       <c r="B2" s="29"/>
       <c r="C2" s="74">
@@ -14122,7 +14138,7 @@
       </c>
       <c r="M2" s="55"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>329</v>
       </c>
@@ -14149,14 +14165,14 @@
         <v>54</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="170" t="s">
+      <c r="M3" s="175" t="s">
         <v>2195</v>
       </c>
-      <c r="N3" s="171" t="s">
+      <c r="N3" s="176" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>332</v>
       </c>
@@ -14185,10 +14201,10 @@
       <c r="L4" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="171"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="M4" s="175"/>
+      <c r="N4" s="176"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>335</v>
       </c>
@@ -14224,7 +14240,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
@@ -14260,7 +14276,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>340</v>
       </c>
@@ -14296,7 +14312,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>343</v>
       </c>
@@ -14310,7 +14326,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>346</v>
       </c>
@@ -14332,7 +14348,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>349</v>
       </c>
@@ -14354,7 +14370,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>352</v>
       </c>
@@ -14376,7 +14392,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>355</v>
       </c>
@@ -14398,7 +14414,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>358</v>
       </c>
@@ -14411,7 +14427,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>361</v>
       </c>
@@ -14424,7 +14440,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>364</v>
       </c>
@@ -14437,7 +14453,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>367</v>
       </c>
@@ -14450,7 +14466,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>370</v>
       </c>
@@ -14463,7 +14479,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>373</v>
       </c>
@@ -14476,7 +14492,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>376</v>
       </c>
@@ -14489,7 +14505,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>378</v>
       </c>
@@ -14502,7 +14518,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>381</v>
       </c>
@@ -14515,7 +14531,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>384</v>
       </c>
@@ -14528,7 +14544,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>387</v>
       </c>
@@ -14541,7 +14557,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>390</v>
       </c>
@@ -14554,7 +14570,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>393</v>
       </c>
@@ -14567,7 +14583,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>401</v>
       </c>
@@ -14580,7 +14596,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>404</v>
       </c>
@@ -14593,7 +14609,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>407</v>
       </c>
@@ -14606,7 +14622,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>410</v>
       </c>
@@ -14619,7 +14635,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>413</v>
       </c>
@@ -14632,7 +14648,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>416</v>
       </c>
@@ -14645,7 +14661,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>419</v>
       </c>
@@ -14658,7 +14674,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>422</v>
       </c>
@@ -14671,7 +14687,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>425</v>
       </c>
@@ -14684,7 +14700,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>428</v>
       </c>
@@ -14697,7 +14713,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>431</v>
       </c>
@@ -14710,7 +14726,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>434</v>
       </c>
@@ -14723,7 +14739,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>437</v>
       </c>
@@ -14736,7 +14752,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>440</v>
       </c>
@@ -14749,7 +14765,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>443</v>
       </c>
@@ -14762,7 +14778,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>446</v>
       </c>
@@ -14775,7 +14791,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>449</v>
       </c>
@@ -14792,7 +14808,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>453</v>
       </c>
@@ -14805,7 +14821,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>456</v>
       </c>
@@ -14818,7 +14834,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1">
+    <row r="45" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="93" t="s">
         <v>459</v>
       </c>
@@ -14838,7 +14854,7 @@
       <c r="K45" s="95"/>
       <c r="M45" s="96"/>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>462</v>
       </c>
@@ -14851,7 +14867,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>465</v>
       </c>
@@ -14864,7 +14880,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>468</v>
       </c>
@@ -14877,7 +14893,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>471</v>
       </c>
@@ -14890,7 +14906,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>474</v>
       </c>
@@ -14903,7 +14919,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:13" s="35" customFormat="1">
+    <row r="51" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="119" t="s">
         <v>477</v>
       </c>
@@ -14922,7 +14938,7 @@
       <c r="K51" s="122"/>
       <c r="M51" s="123"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>479</v>
       </c>
@@ -14935,7 +14951,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>481</v>
       </c>
@@ -14948,7 +14964,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>484</v>
       </c>
@@ -14961,7 +14977,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>487</v>
       </c>
@@ -14974,7 +14990,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>490</v>
       </c>
@@ -14987,7 +15003,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>493</v>
       </c>
@@ -15000,7 +15016,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>496</v>
       </c>
@@ -15012,7 +15028,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>499</v>
       </c>
@@ -15025,7 +15041,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>502</v>
       </c>
@@ -15038,7 +15054,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>505</v>
       </c>
@@ -15051,7 +15067,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>508</v>
       </c>
@@ -15064,7 +15080,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>510</v>
       </c>
@@ -15077,7 +15093,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>513</v>
       </c>
@@ -15090,7 +15106,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>516</v>
       </c>
@@ -15103,7 +15119,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>519</v>
       </c>
@@ -15116,7 +15132,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>522</v>
       </c>
@@ -15129,7 +15145,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>525</v>
       </c>
@@ -15145,7 +15161,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>2367</v>
       </c>
@@ -15165,7 +15181,7 @@
       <c r="G69" s="92"/>
       <c r="H69" s="92"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>2382</v>
       </c>
@@ -15183,7 +15199,7 @@
       <c r="G70" s="100"/>
       <c r="H70" s="100"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>2389</v>
       </c>
@@ -15201,7 +15217,7 @@
       <c r="G71" s="102"/>
       <c r="H71" s="102"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>2425</v>
       </c>
@@ -15216,7 +15232,7 @@
       </c>
       <c r="E72" s="34"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>2440</v>
       </c>
@@ -15231,7 +15247,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2477</v>
       </c>
@@ -15246,7 +15262,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2476</v>
       </c>
@@ -15259,7 +15275,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>398</v>
       </c>
@@ -15274,7 +15290,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>2521</v>
       </c>
@@ -15289,7 +15305,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>396</v>
       </c>
@@ -15304,7 +15320,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>2546</v>
       </c>
@@ -15322,7 +15338,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>2589</v>
       </c>
@@ -15357,7 +15373,7 @@
       <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -15371,7 +15387,7 @@
     <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1">
+    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2305</v>
       </c>
@@ -15384,7 +15400,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C199)</f>
         <v>130</v>
@@ -15394,7 +15410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1814</v>
       </c>
@@ -15416,7 +15432,7 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1816</v>
       </c>
@@ -15438,7 +15454,7 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1818</v>
       </c>
@@ -15460,7 +15476,7 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1820</v>
       </c>
@@ -15482,7 +15498,7 @@
       </c>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1822</v>
       </c>
@@ -15504,7 +15520,7 @@
       </c>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1824</v>
       </c>
@@ -15526,7 +15542,7 @@
       </c>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1826</v>
       </c>
@@ -15548,7 +15564,7 @@
       </c>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1828</v>
       </c>
@@ -15570,7 +15586,7 @@
       </c>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1831</v>
       </c>
@@ -15582,7 +15598,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1834</v>
       </c>
@@ -15594,7 +15610,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1837</v>
       </c>
@@ -15606,7 +15622,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1839</v>
       </c>
@@ -15618,7 +15634,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1840</v>
       </c>
@@ -15633,7 +15649,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1843</v>
       </c>
@@ -15645,7 +15661,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1845</v>
       </c>
@@ -15657,7 +15673,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1847</v>
       </c>
@@ -15669,7 +15685,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1850</v>
       </c>
@@ -15681,7 +15697,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1851</v>
       </c>
@@ -15693,7 +15709,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1853</v>
       </c>
@@ -15705,7 +15721,7 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1856</v>
       </c>
@@ -15717,7 +15733,7 @@
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1858</v>
       </c>
@@ -15729,7 +15745,7 @@
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1860</v>
       </c>
@@ -15741,7 +15757,7 @@
       </c>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1863</v>
       </c>
@@ -15753,7 +15769,7 @@
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1866</v>
       </c>
@@ -15765,7 +15781,7 @@
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1868</v>
       </c>
@@ -15777,7 +15793,7 @@
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1871</v>
       </c>
@@ -15789,7 +15805,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1874</v>
       </c>
@@ -15801,7 +15817,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1876</v>
       </c>
@@ -15813,7 +15829,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1878</v>
       </c>
@@ -15825,7 +15841,7 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1880</v>
       </c>
@@ -15837,7 +15853,7 @@
       </c>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1882</v>
       </c>
@@ -15849,7 +15865,7 @@
       </c>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1884</v>
       </c>
@@ -15861,7 +15877,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1886</v>
       </c>
@@ -15873,7 +15889,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1888</v>
       </c>
@@ -15885,7 +15901,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1890</v>
       </c>
@@ -15897,7 +15913,7 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1895</v>
       </c>
@@ -15909,7 +15925,7 @@
       </c>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1898</v>
       </c>
@@ -15921,7 +15937,7 @@
       </c>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1899</v>
       </c>
@@ -15933,7 +15949,7 @@
       </c>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1902</v>
       </c>
@@ -15945,7 +15961,7 @@
       </c>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1904</v>
       </c>
@@ -15957,7 +15973,7 @@
       </c>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1907</v>
       </c>
@@ -15969,7 +15985,7 @@
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1910</v>
       </c>
@@ -15981,7 +15997,7 @@
       </c>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="17.25" thickBot="1">
+    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1912</v>
       </c>
@@ -15993,7 +16009,7 @@
       </c>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>1915</v>
       </c>
@@ -16008,7 +16024,7 @@
       </c>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:7" ht="17.25" thickBot="1">
+    <row r="47" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="47" t="s">
         <v>1917</v>
       </c>
@@ -16023,7 +16039,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1919</v>
       </c>
@@ -16035,7 +16051,7 @@
       </c>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1921</v>
       </c>
@@ -16047,7 +16063,7 @@
       </c>
       <c r="G49" s="10"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1923</v>
       </c>
@@ -16059,7 +16075,7 @@
       </c>
       <c r="G50" s="10"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1926</v>
       </c>
@@ -16071,7 +16087,7 @@
       </c>
       <c r="G51" s="10"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1928</v>
       </c>
@@ -16083,7 +16099,7 @@
       </c>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1929</v>
       </c>
@@ -16095,7 +16111,7 @@
       </c>
       <c r="G53" s="10"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1931</v>
       </c>
@@ -16107,7 +16123,7 @@
       </c>
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1933</v>
       </c>
@@ -16119,7 +16135,7 @@
       </c>
       <c r="G55" s="10"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1935</v>
       </c>
@@ -16131,7 +16147,7 @@
       </c>
       <c r="G56" s="10"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1937</v>
       </c>
@@ -16143,7 +16159,7 @@
       </c>
       <c r="G57" s="10"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1939</v>
       </c>
@@ -16155,7 +16171,7 @@
       </c>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1942</v>
       </c>
@@ -16167,7 +16183,7 @@
       </c>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1944</v>
       </c>
@@ -16179,7 +16195,7 @@
       </c>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1946</v>
       </c>
@@ -16191,7 +16207,7 @@
       </c>
       <c r="G61" s="10"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1948</v>
       </c>
@@ -16203,7 +16219,7 @@
       </c>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1950</v>
       </c>
@@ -16215,7 +16231,7 @@
       </c>
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1952</v>
       </c>
@@ -16227,7 +16243,7 @@
       </c>
       <c r="G64" s="10"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1954</v>
       </c>
@@ -16239,7 +16255,7 @@
       </c>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1956</v>
       </c>
@@ -16251,7 +16267,7 @@
       </c>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1959</v>
       </c>
@@ -16263,7 +16279,7 @@
       </c>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1961</v>
       </c>
@@ -16275,7 +16291,7 @@
       </c>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1963</v>
       </c>
@@ -16287,7 +16303,7 @@
       </c>
       <c r="G69" s="10"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1965</v>
       </c>
@@ -16299,7 +16315,7 @@
       </c>
       <c r="G70" s="10"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1967</v>
       </c>
@@ -16311,7 +16327,7 @@
       </c>
       <c r="G71" s="10"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1969</v>
       </c>
@@ -16323,7 +16339,7 @@
       </c>
       <c r="G72" s="10"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1972</v>
       </c>
@@ -16335,7 +16351,7 @@
       </c>
       <c r="G73" s="10"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1975</v>
       </c>
@@ -16347,7 +16363,7 @@
       </c>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1977</v>
       </c>
@@ -16359,7 +16375,7 @@
       </c>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1979</v>
       </c>
@@ -16371,7 +16387,7 @@
       </c>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1981</v>
       </c>
@@ -16383,7 +16399,7 @@
       </c>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1982</v>
       </c>
@@ -16395,7 +16411,7 @@
       </c>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1984</v>
       </c>
@@ -16407,7 +16423,7 @@
       </c>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1986</v>
       </c>
@@ -16419,7 +16435,7 @@
       </c>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1988</v>
       </c>
@@ -16431,7 +16447,7 @@
       </c>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1991</v>
       </c>
@@ -16443,7 +16459,7 @@
       </c>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1993</v>
       </c>
@@ -16455,7 +16471,7 @@
       </c>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1996</v>
       </c>
@@ -16467,7 +16483,7 @@
       </c>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1999</v>
       </c>
@@ -16479,7 +16495,7 @@
       </c>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2002</v>
       </c>
@@ -16491,7 +16507,7 @@
       </c>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2005</v>
       </c>
@@ -16503,7 +16519,7 @@
       </c>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2007</v>
       </c>
@@ -16518,7 +16534,7 @@
       </c>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2009</v>
       </c>
@@ -16530,7 +16546,7 @@
       </c>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2012</v>
       </c>
@@ -16542,7 +16558,7 @@
       </c>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2015</v>
       </c>
@@ -16554,7 +16570,7 @@
       </c>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2021</v>
       </c>
@@ -16566,7 +16582,7 @@
       </c>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2024</v>
       </c>
@@ -16578,7 +16594,7 @@
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2026</v>
       </c>
@@ -16590,7 +16606,7 @@
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2029</v>
       </c>
@@ -16602,7 +16618,7 @@
       </c>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2032</v>
       </c>
@@ -16614,7 +16630,7 @@
       </c>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2035</v>
       </c>
@@ -16626,7 +16642,7 @@
       </c>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2038</v>
       </c>
@@ -16638,7 +16654,7 @@
       </c>
       <c r="G98" s="10"/>
     </row>
-    <row r="99" spans="1:7" s="11" customFormat="1" hidden="1">
+    <row r="99" spans="1:7" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>2041</v>
       </c>
@@ -16653,7 +16669,7 @@
       </c>
       <c r="G99" s="111"/>
     </row>
-    <row r="100" spans="1:7" s="11" customFormat="1" hidden="1">
+    <row r="100" spans="1:7" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>2043</v>
       </c>
@@ -16668,7 +16684,7 @@
       </c>
       <c r="G100" s="111"/>
     </row>
-    <row r="101" spans="1:7" s="11" customFormat="1" hidden="1">
+    <row r="101" spans="1:7" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>2046</v>
       </c>
@@ -16683,7 +16699,7 @@
       </c>
       <c r="G101" s="111"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2049</v>
       </c>
@@ -16695,7 +16711,7 @@
       </c>
       <c r="G102" s="10"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2052</v>
       </c>
@@ -16707,7 +16723,7 @@
       </c>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2055</v>
       </c>
@@ -16719,7 +16735,7 @@
       </c>
       <c r="G104" s="10"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2058</v>
       </c>
@@ -16731,7 +16747,7 @@
       </c>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2060</v>
       </c>
@@ -16743,7 +16759,7 @@
       </c>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2063</v>
       </c>
@@ -16755,7 +16771,7 @@
       </c>
       <c r="G107" s="10"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2065</v>
       </c>
@@ -16767,7 +16783,7 @@
       </c>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2068</v>
       </c>
@@ -16779,7 +16795,7 @@
       </c>
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2070</v>
       </c>
@@ -16791,7 +16807,7 @@
       </c>
       <c r="G110" s="10"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>2073</v>
       </c>
@@ -16803,7 +16819,7 @@
       </c>
       <c r="G111" s="10"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>2075</v>
       </c>
@@ -16815,7 +16831,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>2078</v>
       </c>
@@ -16827,7 +16843,7 @@
       </c>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2081</v>
       </c>
@@ -16839,7 +16855,7 @@
       </c>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>2084</v>
       </c>
@@ -16851,7 +16867,7 @@
       </c>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>2086</v>
       </c>
@@ -16863,7 +16879,7 @@
       </c>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" s="11" customFormat="1" hidden="1">
+    <row r="117" spans="1:7" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>2088</v>
       </c>
@@ -16878,7 +16894,7 @@
       </c>
       <c r="G117" s="111"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>2090</v>
       </c>
@@ -16890,7 +16906,7 @@
       </c>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>2092</v>
       </c>
@@ -16902,7 +16918,7 @@
       </c>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>2094</v>
       </c>
@@ -16914,7 +16930,7 @@
       </c>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>2096</v>
       </c>
@@ -16926,7 +16942,7 @@
       </c>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>2099</v>
       </c>
@@ -16938,7 +16954,7 @@
       </c>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>2102</v>
       </c>
@@ -16950,7 +16966,7 @@
       </c>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>2104</v>
       </c>
@@ -16962,7 +16978,7 @@
       </c>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>2106</v>
       </c>
@@ -16974,7 +16990,7 @@
       </c>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2109</v>
       </c>
@@ -16986,7 +17002,7 @@
       </c>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>2111</v>
       </c>
@@ -17001,7 +17017,7 @@
       </c>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2112</v>
       </c>
@@ -17016,7 +17032,7 @@
       </c>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>2114</v>
       </c>
@@ -17028,7 +17044,7 @@
       </c>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>2116</v>
       </c>
@@ -17040,7 +17056,7 @@
       </c>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>2119</v>
       </c>
@@ -17052,7 +17068,7 @@
       </c>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>2121</v>
       </c>
@@ -17064,7 +17080,7 @@
       </c>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>2408</v>
       </c>
@@ -17076,7 +17092,7 @@
       </c>
       <c r="E133" s="11"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>2204</v>
       </c>
@@ -17088,7 +17104,7 @@
       </c>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>2230</v>
       </c>
@@ -17100,7 +17116,7 @@
       </c>
       <c r="E135" s="51"/>
     </row>
-    <row r="136" spans="1:7" s="11" customFormat="1" hidden="1">
+    <row r="136" spans="1:7" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="50" t="s">
         <v>1892</v>
       </c>
@@ -17113,7 +17129,7 @@
       </c>
       <c r="G136" s="111"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="18" t="s">
         <v>2439</v>
       </c>
@@ -17127,7 +17143,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>2453</v>
       </c>
@@ -17143,7 +17159,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.25" thickBot="1">
+    <row r="139" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="18" t="s">
         <v>2464</v>
       </c>
@@ -17159,7 +17175,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="44" t="s">
         <v>2577</v>
       </c>
@@ -17175,7 +17191,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17.25" thickBot="1">
+    <row r="141" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="47" t="s">
         <v>2018</v>
       </c>
@@ -17206,12 +17222,12 @@
   </sheetPr>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.5" style="103" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="103" customWidth="1"/>
@@ -17232,7 +17248,7 @@
     <col min="21" max="21" width="49.25" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="38.25" customHeight="1">
+    <row r="1" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="158" t="s">
         <v>2214</v>
       </c>
@@ -17256,13 +17272,13 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="177" t="s">
         <v>2621</v>
       </c>
-      <c r="E2" s="173"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="9">
         <f>COUNTA(F3:F94)</f>
         <v>84</v>
@@ -17281,7 +17297,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2660</v>
       </c>
@@ -17329,7 +17345,7 @@
       </c>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2660</v>
       </c>
@@ -17379,7 +17395,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2660</v>
       </c>
@@ -17416,7 +17432,7 @@
       <c r="T5" s="52"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2660</v>
       </c>
@@ -17462,7 +17478,7 @@
       </c>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2660</v>
       </c>
@@ -17510,7 +17526,7 @@
       </c>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="156"/>
       <c r="B8" s="160" t="s">
         <v>250</v>
@@ -17529,7 +17545,7 @@
       <c r="T8" s="18"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="156" t="s">
         <v>2660</v>
       </c>
@@ -17554,7 +17570,7 @@
       <c r="T9" s="18"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2660</v>
       </c>
@@ -17575,7 +17591,7 @@
       <c r="T10" s="18"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2660</v>
       </c>
@@ -17595,7 +17611,7 @@
       <c r="I11" s="29"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2660</v>
       </c>
@@ -17615,7 +17631,7 @@
       <c r="I12" s="29"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17635,7 +17651,7 @@
       <c r="I13" s="29"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" s="131" customFormat="1" hidden="1">
+    <row r="14" spans="1:21" s="131" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="148" t="s">
         <v>2660</v>
       </c>
@@ -17651,13 +17667,13 @@
         <v>46</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="I14" s="38"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17678,7 +17694,7 @@
       <c r="T15" s="18"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17699,7 +17715,7 @@
       <c r="T16" s="18"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17722,7 +17738,7 @@
       <c r="T17" s="18"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17743,7 +17759,7 @@
       <c r="T18" s="18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17764,7 +17780,7 @@
       <c r="T19" s="18"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17785,7 +17801,7 @@
       <c r="T20" s="18"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17808,7 +17824,7 @@
       <c r="T21" s="18"/>
       <c r="U21"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17829,7 +17845,7 @@
       <c r="T22" s="18"/>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17855,7 +17871,7 @@
       <c r="T23" s="18"/>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17879,7 +17895,7 @@
       <c r="T24" s="18"/>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17902,7 +17918,7 @@
       <c r="T25" s="18"/>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17925,7 +17941,7 @@
       <c r="T26" s="18"/>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17946,7 +17962,7 @@
       <c r="T27" s="18"/>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>2660</v>
       </c>
@@ -17978,7 +17994,7 @@
       <c r="T28" s="20"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2661</v>
       </c>
@@ -17999,7 +18015,7 @@
       <c r="T29" s="18"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="1:21" s="21" customFormat="1">
+    <row r="30" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>2661</v>
       </c>
@@ -18022,14 +18038,14 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="170"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="23"/>
       <c r="U30" s="22"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2661</v>
       </c>
@@ -18050,7 +18066,7 @@
       <c r="T31" s="18"/>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2661</v>
       </c>
@@ -18071,7 +18087,7 @@
       <c r="T32" s="18"/>
       <c r="U32"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2661</v>
       </c>
@@ -18092,7 +18108,7 @@
       <c r="T33" s="18"/>
       <c r="U33"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2661</v>
       </c>
@@ -18113,7 +18129,7 @@
       <c r="T34" s="18"/>
       <c r="U34"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18134,7 +18150,7 @@
       <c r="T35" s="18"/>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18155,7 +18171,7 @@
       <c r="T36" s="18"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18176,7 +18192,7 @@
       <c r="T37" s="18"/>
       <c r="U37"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18197,7 +18213,7 @@
       <c r="T38" s="18"/>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" s="131" customFormat="1" hidden="1">
+    <row r="39" spans="1:21" s="131" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="148" t="s">
         <v>2661</v>
       </c>
@@ -18213,14 +18229,14 @@
         <v>90</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="I39" s="38"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="184"/>
-      <c r="T39" s="182"/>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="P39" s="172"/>
+      <c r="Q39" s="173"/>
+      <c r="T39" s="171"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18243,7 +18259,7 @@
       <c r="T40" s="18"/>
       <c r="U40"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>2661</v>
       </c>
@@ -18264,7 +18280,7 @@
       <c r="T41" s="18"/>
       <c r="U41"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2662</v>
       </c>
@@ -18285,7 +18301,7 @@
       <c r="T42" s="18"/>
       <c r="U42"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2662</v>
       </c>
@@ -18306,7 +18322,7 @@
       <c r="T43" s="18"/>
       <c r="U43"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2662</v>
       </c>
@@ -18327,7 +18343,7 @@
       <c r="T44" s="18"/>
       <c r="U44"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2662</v>
       </c>
@@ -18348,7 +18364,7 @@
       <c r="T45" s="18"/>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2662</v>
       </c>
@@ -18369,7 +18385,7 @@
       <c r="T46" s="18"/>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2662</v>
       </c>
@@ -18390,7 +18406,7 @@
       <c r="T47" s="18"/>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2662</v>
       </c>
@@ -18420,7 +18436,7 @@
       <c r="T48" s="17"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2662</v>
       </c>
@@ -18450,7 +18466,7 @@
       <c r="T49" s="17"/>
       <c r="U49" s="12"/>
     </row>
-    <row r="50" spans="1:21" s="12" customFormat="1">
+    <row r="50" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2662</v>
       </c>
@@ -18472,7 +18488,7 @@
       <c r="Q50" s="127"/>
       <c r="T50" s="17"/>
     </row>
-    <row r="51" spans="1:21" s="12" customFormat="1">
+    <row r="51" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2662</v>
       </c>
@@ -18494,7 +18510,7 @@
       <c r="Q51" s="127"/>
       <c r="T51" s="17"/>
     </row>
-    <row r="52" spans="1:21" s="12" customFormat="1">
+    <row r="52" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2662</v>
       </c>
@@ -18516,7 +18532,7 @@
       <c r="Q52" s="127"/>
       <c r="T52" s="17"/>
     </row>
-    <row r="53" spans="1:21" s="12" customFormat="1">
+    <row r="53" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2662</v>
       </c>
@@ -18538,7 +18554,7 @@
       <c r="Q53" s="127"/>
       <c r="T53" s="17"/>
     </row>
-    <row r="54" spans="1:21" s="12" customFormat="1">
+    <row r="54" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2662</v>
       </c>
@@ -18560,7 +18576,7 @@
       <c r="Q54" s="127"/>
       <c r="T54" s="17"/>
     </row>
-    <row r="55" spans="1:21" s="12" customFormat="1">
+    <row r="55" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2662</v>
       </c>
@@ -18582,7 +18598,7 @@
       <c r="Q55" s="127"/>
       <c r="T55" s="17"/>
     </row>
-    <row r="56" spans="1:21" s="12" customFormat="1">
+    <row r="56" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2662</v>
       </c>
@@ -18604,7 +18620,7 @@
       <c r="Q56" s="127"/>
       <c r="T56" s="17"/>
     </row>
-    <row r="57" spans="1:21" s="12" customFormat="1">
+    <row r="57" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2662</v>
       </c>
@@ -18626,7 +18642,7 @@
       <c r="Q57" s="127"/>
       <c r="T57" s="17"/>
     </row>
-    <row r="58" spans="1:21" s="12" customFormat="1">
+    <row r="58" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2662</v>
       </c>
@@ -18648,7 +18664,7 @@
       <c r="Q58" s="127"/>
       <c r="T58" s="17"/>
     </row>
-    <row r="59" spans="1:21" s="12" customFormat="1">
+    <row r="59" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2662</v>
       </c>
@@ -18670,7 +18686,7 @@
       <c r="Q59" s="127"/>
       <c r="T59" s="17"/>
     </row>
-    <row r="60" spans="1:21" s="12" customFormat="1">
+    <row r="60" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2662</v>
       </c>
@@ -18692,7 +18708,7 @@
       <c r="Q60" s="127"/>
       <c r="T60" s="17"/>
     </row>
-    <row r="61" spans="1:21" s="12" customFormat="1">
+    <row r="61" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2662</v>
       </c>
@@ -18714,7 +18730,7 @@
       <c r="Q61" s="127"/>
       <c r="T61" s="17"/>
     </row>
-    <row r="62" spans="1:21" s="12" customFormat="1">
+    <row r="62" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2662</v>
       </c>
@@ -18736,7 +18752,7 @@
       <c r="Q62" s="127"/>
       <c r="T62" s="17"/>
     </row>
-    <row r="63" spans="1:21" s="12" customFormat="1">
+    <row r="63" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2662</v>
       </c>
@@ -18758,7 +18774,7 @@
       <c r="Q63" s="127"/>
       <c r="T63" s="17"/>
     </row>
-    <row r="64" spans="1:21" s="12" customFormat="1">
+    <row r="64" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2662</v>
       </c>
@@ -18780,7 +18796,7 @@
       <c r="Q64" s="127"/>
       <c r="T64" s="17"/>
     </row>
-    <row r="65" spans="1:21" s="12" customFormat="1">
+    <row r="65" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2662</v>
       </c>
@@ -18802,7 +18818,7 @@
       <c r="Q65" s="127"/>
       <c r="T65" s="17"/>
     </row>
-    <row r="66" spans="1:21" s="12" customFormat="1">
+    <row r="66" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2662</v>
       </c>
@@ -18824,7 +18840,7 @@
       <c r="Q66" s="127"/>
       <c r="T66" s="17"/>
     </row>
-    <row r="67" spans="1:21" s="12" customFormat="1">
+    <row r="67" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2662</v>
       </c>
@@ -18846,7 +18862,7 @@
       <c r="Q67" s="127"/>
       <c r="T67" s="17"/>
     </row>
-    <row r="68" spans="1:21" s="12" customFormat="1">
+    <row r="68" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2662</v>
       </c>
@@ -18869,7 +18885,7 @@
       <c r="Q68" s="127"/>
       <c r="T68" s="17"/>
     </row>
-    <row r="69" spans="1:21" s="12" customFormat="1">
+    <row r="69" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2662</v>
       </c>
@@ -18891,7 +18907,7 @@
       <c r="Q69" s="127"/>
       <c r="T69" s="17"/>
     </row>
-    <row r="70" spans="1:21" s="12" customFormat="1">
+    <row r="70" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2662</v>
       </c>
@@ -18913,7 +18929,7 @@
       <c r="Q70" s="127"/>
       <c r="T70" s="17"/>
     </row>
-    <row r="71" spans="1:21" s="12" customFormat="1">
+    <row r="71" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2662</v>
       </c>
@@ -18935,7 +18951,7 @@
       <c r="Q71" s="127"/>
       <c r="U71" s="17"/>
     </row>
-    <row r="72" spans="1:21" s="12" customFormat="1">
+    <row r="72" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2662</v>
       </c>
@@ -18957,7 +18973,7 @@
       <c r="Q72" s="127"/>
       <c r="T72" s="17"/>
     </row>
-    <row r="73" spans="1:21" s="12" customFormat="1">
+    <row r="73" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>2662</v>
       </c>
@@ -18979,7 +18995,7 @@
       <c r="Q73" s="127"/>
       <c r="T73" s="17"/>
     </row>
-    <row r="74" spans="1:21" s="12" customFormat="1">
+    <row r="74" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19001,7 +19017,7 @@
       <c r="Q74" s="127"/>
       <c r="T74" s="17"/>
     </row>
-    <row r="75" spans="1:21" s="12" customFormat="1">
+    <row r="75" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19031,7 +19047,7 @@
       <c r="T75" s="52"/>
       <c r="U75" s="43"/>
     </row>
-    <row r="76" spans="1:21" s="12" customFormat="1">
+    <row r="76" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19061,7 +19077,7 @@
       <c r="T76" s="52"/>
       <c r="U76" s="43"/>
     </row>
-    <row r="77" spans="1:21" s="43" customFormat="1">
+    <row r="77" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19094,7 +19110,7 @@
       <c r="T77" s="17"/>
       <c r="U77" s="12"/>
     </row>
-    <row r="78" spans="1:21" s="43" customFormat="1">
+    <row r="78" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2662</v>
       </c>
@@ -19125,7 +19141,7 @@
       <c r="T78" s="17"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="1:21" s="12" customFormat="1">
+    <row r="79" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2662</v>
       </c>
@@ -19147,7 +19163,7 @@
       <c r="Q79" s="127"/>
       <c r="T79" s="17"/>
     </row>
-    <row r="80" spans="1:21" s="12" customFormat="1">
+    <row r="80" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19169,7 +19185,7 @@
       <c r="Q80" s="127"/>
       <c r="T80" s="17"/>
     </row>
-    <row r="81" spans="1:21" s="12" customFormat="1">
+    <row r="81" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19191,7 +19207,7 @@
       <c r="Q81" s="127"/>
       <c r="T81" s="17"/>
     </row>
-    <row r="82" spans="1:21" s="12" customFormat="1" hidden="1">
+    <row r="82" spans="1:21" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="156" t="s">
         <v>2662</v>
       </c>
@@ -19219,7 +19235,7 @@
       <c r="R82" s="79"/>
       <c r="S82" s="79"/>
     </row>
-    <row r="83" spans="1:21" s="12" customFormat="1">
+    <row r="83" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19249,7 +19265,7 @@
       <c r="R83" s="42"/>
       <c r="S83" s="79"/>
     </row>
-    <row r="84" spans="1:21" s="12" customFormat="1">
+    <row r="84" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19281,7 +19297,7 @@
       <c r="T84" s="43"/>
       <c r="U84" s="43"/>
     </row>
-    <row r="85" spans="1:21" s="12" customFormat="1">
+    <row r="85" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19303,7 +19319,7 @@
       <c r="Q85" s="127"/>
       <c r="U85" s="17"/>
     </row>
-    <row r="86" spans="1:21" s="43" customFormat="1">
+    <row r="86" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
         <v>2662</v>
       </c>
@@ -19336,7 +19352,7 @@
       <c r="T86" s="12"/>
       <c r="U86" s="17"/>
     </row>
-    <row r="87" spans="1:21" s="12" customFormat="1">
+    <row r="87" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19361,7 +19377,7 @@
       <c r="Q87" s="127"/>
       <c r="U87" s="17"/>
     </row>
-    <row r="88" spans="1:21" s="12" customFormat="1">
+    <row r="88" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19383,7 +19399,7 @@
       <c r="Q88" s="127"/>
       <c r="T88" s="43"/>
     </row>
-    <row r="89" spans="1:21" s="12" customFormat="1">
+    <row r="89" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19405,7 +19421,7 @@
       <c r="P89" s="126"/>
       <c r="Q89" s="127"/>
     </row>
-    <row r="90" spans="1:21" s="12" customFormat="1">
+    <row r="90" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>2662</v>
       </c>
@@ -19430,7 +19446,7 @@
       <c r="Q90" s="127"/>
       <c r="T90" s="43"/>
     </row>
-    <row r="91" spans="1:21" s="12" customFormat="1">
+    <row r="91" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="28" t="s">
         <v>321</v>
       </c>
@@ -19451,7 +19467,7 @@
       <c r="Q91" s="127"/>
       <c r="U91" s="17"/>
     </row>
-    <row r="92" spans="1:21" s="12" customFormat="1">
+    <row r="92" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="28" t="s">
         <v>322</v>
       </c>
@@ -19480,7 +19496,7 @@
       <c r="T92"/>
       <c r="U92" s="18"/>
     </row>
-    <row r="93" spans="1:21" s="12" customFormat="1">
+    <row r="93" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="28" t="s">
         <v>324</v>
@@ -19510,11 +19526,11 @@
       <c r="T93" s="18"/>
       <c r="U93"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="T94" s="18"/>
       <c r="U94"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K95" s="23"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
@@ -19522,20 +19538,20 @@
       <c r="T95" s="18"/>
       <c r="U95"/>
     </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="174" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="179" t="s">
         <v>2350</v>
       </c>
-      <c r="C97" s="175"/>
-      <c r="D97" s="175"/>
-      <c r="E97" s="175"/>
-      <c r="F97" s="175"/>
-      <c r="G97" s="175"/>
-      <c r="H97" s="175"/>
-      <c r="I97" s="176"/>
+      <c r="C97" s="180"/>
+      <c r="D97" s="180"/>
+      <c r="E97" s="180"/>
+      <c r="F97" s="180"/>
+      <c r="G97" s="180"/>
+      <c r="H97" s="180"/>
+      <c r="I97" s="181"/>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="146" t="s">
         <v>2675</v>
       </c>
@@ -19555,7 +19571,7 @@
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="146" t="s">
         <v>2623</v>
       </c>
@@ -19575,7 +19591,7 @@
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="40" t="s">
         <v>2630</v>
       </c>
@@ -19595,7 +19611,7 @@
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="40" t="s">
         <v>2634</v>
       </c>
@@ -19615,7 +19631,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="40" t="s">
         <v>2234</v>
       </c>
@@ -19635,7 +19651,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="40" t="s">
         <v>2628</v>
       </c>
@@ -19655,7 +19671,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="146" t="s">
         <v>232</v>
       </c>
@@ -19675,7 +19691,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="40" t="s">
         <v>2625</v>
       </c>
@@ -19695,7 +19711,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="40" t="s">
         <v>2636</v>
       </c>
@@ -19715,7 +19731,7 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="146" t="s">
         <v>2632</v>
       </c>
@@ -19735,7 +19751,7 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="146" t="s">
         <v>231</v>
       </c>
@@ -19755,7 +19771,7 @@
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="76" t="s">
         <v>2638</v>
       </c>
@@ -19775,7 +19791,7 @@
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="146" t="s">
         <v>325</v>
       </c>
@@ -19795,7 +19811,7 @@
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="40" t="s">
         <v>2580</v>
       </c>
@@ -19844,7 +19860,7 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.875" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="25" customWidth="1"/>
@@ -19857,7 +19873,7 @@
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="42" customFormat="1" ht="39" customHeight="1">
+    <row r="1" spans="1:10" s="42" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>2213</v>
       </c>
@@ -19873,13 +19889,13 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="178"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="178" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="183" t="s">
         <v>2598</v>
       </c>
-      <c r="D2" s="179"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="9">
         <f>COUNTA(E3:E23)</f>
         <v>14</v>
@@ -19889,7 +19905,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="59"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>216</v>
       </c>
@@ -19912,7 +19928,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="59"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>217</v>
       </c>
@@ -19933,7 +19949,7 @@
       <c r="H4" s="41"/>
       <c r="I4" s="59"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
         <v>218</v>
       </c>
@@ -19954,7 +19970,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="59"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>219</v>
       </c>
@@ -19975,7 +19991,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="59"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>220</v>
       </c>
@@ -19996,7 +20012,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="59"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>221</v>
       </c>
@@ -20017,7 +20033,7 @@
       <c r="H8" s="41"/>
       <c r="I8" s="59"/>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>222</v>
       </c>
@@ -20034,7 +20050,7 @@
       </c>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>223</v>
       </c>
@@ -20055,7 +20071,7 @@
       <c r="H10" s="41"/>
       <c r="I10" s="59"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>224</v>
       </c>
@@ -20076,7 +20092,7 @@
       <c r="H11" s="41"/>
       <c r="I11" s="59"/>
     </row>
-    <row r="12" spans="1:10" s="88" customFormat="1" hidden="1">
+    <row r="12" spans="1:10" s="88" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="114" t="s">
         <v>213</v>
       </c>
@@ -20096,7 +20112,7 @@
       <c r="I12" s="87"/>
       <c r="J12" s="85"/>
     </row>
-    <row r="13" spans="1:10" s="88" customFormat="1" hidden="1">
+    <row r="13" spans="1:10" s="88" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>225</v>
       </c>
@@ -20118,7 +20134,7 @@
       <c r="I13" s="87"/>
       <c r="J13" s="85"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
         <v>226</v>
       </c>
@@ -20139,7 +20155,7 @@
       <c r="H14" s="41"/>
       <c r="I14" s="59"/>
     </row>
-    <row r="15" spans="1:10" hidden="1">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
         <v>227</v>
       </c>
@@ -20158,7 +20174,7 @@
       </c>
       <c r="I15" s="59"/>
     </row>
-    <row r="16" spans="1:10" s="43" customFormat="1">
+    <row r="16" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>2466</v>
       </c>
@@ -20181,7 +20197,7 @@
       </c>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="1:10" s="42" customFormat="1">
+    <row r="17" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -20207,7 +20223,7 @@
       <c r="I17" s="60"/>
       <c r="J17" s="43"/>
     </row>
-    <row r="18" spans="1:10" s="42" customFormat="1">
+    <row r="18" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
         <v>230</v>
       </c>
@@ -20231,7 +20247,7 @@
       <c r="I18" s="60"/>
       <c r="J18" s="43"/>
     </row>
-    <row r="19" spans="1:10" s="42" customFormat="1">
+    <row r="19" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>2277</v>
       </c>
@@ -20253,7 +20269,7 @@
       <c r="I19" s="60"/>
       <c r="J19" s="43"/>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
         <v>228</v>
       </c>
@@ -20270,7 +20286,7 @@
       </c>
       <c r="I20" s="59"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>2557</v>
       </c>
@@ -20293,7 +20309,7 @@
       </c>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
@@ -20304,7 +20320,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="59"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="83"/>
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
@@ -20315,27 +20331,27 @@
       <c r="H23" s="60"/>
       <c r="I23" s="59"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="39" customHeight="1">
-      <c r="A25" s="177" t="s">
+    <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="182" t="s">
         <v>2351</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
       <c r="I25" s="59"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>2280</v>
       </c>
@@ -20355,7 +20371,7 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
         <v>2279</v>
       </c>
@@ -20375,7 +20391,7 @@
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="57" t="s">
         <v>2278</v>
       </c>
@@ -20395,7 +20411,7 @@
       <c r="G28" s="58"/>
       <c r="H28" s="58"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="57" t="s">
         <v>2276</v>
       </c>
@@ -20415,7 +20431,7 @@
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
         <v>2275</v>
       </c>
@@ -20455,12 +20471,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -20469,7 +20485,7 @@
     <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>2306</v>
       </c>
@@ -20481,13 +20497,13 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C200)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1428</v>
       </c>
@@ -20498,7 +20514,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1431</v>
       </c>
@@ -20509,7 +20525,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1434</v>
       </c>
@@ -20520,7 +20536,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1437</v>
       </c>
@@ -20531,7 +20547,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1440</v>
       </c>
@@ -20542,7 +20558,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>1443</v>
       </c>
@@ -20557,7 +20573,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="47" t="s">
         <v>1795</v>
       </c>
@@ -20569,7 +20585,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1445</v>
       </c>
@@ -20580,7 +20596,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1448</v>
       </c>
@@ -20591,7 +20607,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1451</v>
       </c>
@@ -20602,7 +20618,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1454</v>
       </c>
@@ -20613,7 +20629,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1457</v>
       </c>
@@ -20624,7 +20640,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1460</v>
       </c>
@@ -20635,7 +20651,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1463</v>
       </c>
@@ -20646,7 +20662,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1465</v>
       </c>
@@ -20657,7 +20673,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1468</v>
       </c>
@@ -20668,7 +20684,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1471</v>
       </c>
@@ -20679,7 +20695,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1473</v>
       </c>
@@ -20690,7 +20706,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1476</v>
       </c>
@@ -20701,7 +20717,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1478</v>
       </c>
@@ -20712,7 +20728,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1481</v>
       </c>
@@ -20723,7 +20739,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1484</v>
       </c>
@@ -20734,7 +20750,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1487</v>
       </c>
@@ -20745,7 +20761,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1490</v>
       </c>
@@ -20756,7 +20772,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1493</v>
       </c>
@@ -20767,7 +20783,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1496</v>
       </c>
@@ -20778,7 +20794,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1499</v>
       </c>
@@ -20789,7 +20805,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1502</v>
       </c>
@@ -20800,7 +20816,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1505</v>
       </c>
@@ -20811,7 +20827,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1508</v>
       </c>
@@ -20822,7 +20838,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1511</v>
       </c>
@@ -20833,7 +20849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1513</v>
       </c>
@@ -20844,7 +20860,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1516</v>
       </c>
@@ -20855,7 +20871,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1519</v>
       </c>
@@ -20866,7 +20882,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1522</v>
       </c>
@@ -20877,7 +20893,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1525</v>
       </c>
@@ -20888,7 +20904,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1528</v>
       </c>
@@ -20899,7 +20915,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1531</v>
       </c>
@@ -20910,7 +20926,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1534</v>
       </c>
@@ -20921,7 +20937,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1537</v>
       </c>
@@ -20932,7 +20948,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1539</v>
       </c>
@@ -20943,7 +20959,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1542</v>
       </c>
@@ -20954,7 +20970,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1545</v>
       </c>
@@ -20965,7 +20981,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1548</v>
       </c>
@@ -20976,7 +20992,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1551</v>
       </c>
@@ -20987,7 +21003,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1554</v>
       </c>
@@ -20998,7 +21014,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1556</v>
       </c>
@@ -21009,7 +21025,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1559</v>
       </c>
@@ -21020,7 +21036,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1562</v>
       </c>
@@ -21031,7 +21047,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1565</v>
       </c>
@@ -21042,7 +21058,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1568</v>
       </c>
@@ -21053,7 +21069,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1571</v>
       </c>
@@ -21064,7 +21080,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1574</v>
       </c>
@@ -21075,7 +21091,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1577</v>
       </c>
@@ -21086,7 +21102,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1580</v>
       </c>
@@ -21097,7 +21113,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1583</v>
       </c>
@@ -21108,7 +21124,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>1586</v>
       </c>
@@ -21122,7 +21138,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1589</v>
       </c>
@@ -21133,7 +21149,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="11" customFormat="1" hidden="1">
+    <row r="61" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>1592</v>
       </c>
@@ -21147,7 +21163,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1595</v>
       </c>
@@ -21158,7 +21174,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1598</v>
       </c>
@@ -21169,7 +21185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1600</v>
       </c>
@@ -21180,7 +21196,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1603</v>
       </c>
@@ -21191,7 +21207,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1606</v>
       </c>
@@ -21202,7 +21218,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1609</v>
       </c>
@@ -21213,7 +21229,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1612</v>
       </c>
@@ -21224,7 +21240,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1615</v>
       </c>
@@ -21235,7 +21251,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1617</v>
       </c>
@@ -21246,7 +21262,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1620</v>
       </c>
@@ -21257,7 +21273,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="12" customFormat="1">
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>1623</v>
       </c>
@@ -21271,7 +21287,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1626</v>
       </c>
@@ -21282,7 +21298,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1629</v>
       </c>
@@ -21293,7 +21309,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1632</v>
       </c>
@@ -21304,7 +21320,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1635</v>
       </c>
@@ -21315,7 +21331,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1638</v>
       </c>
@@ -21326,7 +21342,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1641</v>
       </c>
@@ -21337,7 +21353,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1644</v>
       </c>
@@ -21348,7 +21364,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1647</v>
       </c>
@@ -21359,7 +21375,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1650</v>
       </c>
@@ -21370,7 +21386,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1653</v>
       </c>
@@ -21381,7 +21397,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1656</v>
       </c>
@@ -21392,7 +21408,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1659</v>
       </c>
@@ -21403,7 +21419,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1662</v>
       </c>
@@ -21414,7 +21430,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1665</v>
       </c>
@@ -21425,7 +21441,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1669</v>
       </c>
@@ -21436,7 +21452,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1672</v>
       </c>
@@ -21447,7 +21463,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1675</v>
       </c>
@@ -21458,7 +21474,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1678</v>
       </c>
@@ -21472,7 +21488,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1682</v>
       </c>
@@ -21483,7 +21499,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1685</v>
       </c>
@@ -21494,7 +21510,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1688</v>
       </c>
@@ -21505,7 +21521,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1691</v>
       </c>
@@ -21516,7 +21532,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1694</v>
       </c>
@@ -21527,7 +21543,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1697</v>
       </c>
@@ -21538,7 +21554,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1700</v>
       </c>
@@ -21549,7 +21565,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1702</v>
       </c>
@@ -21560,7 +21576,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1705</v>
       </c>
@@ -21571,7 +21587,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1708</v>
       </c>
@@ -21582,7 +21598,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1710</v>
       </c>
@@ -21593,7 +21609,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1713</v>
       </c>
@@ -21604,7 +21620,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1716</v>
       </c>
@@ -21615,7 +21631,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1719</v>
       </c>
@@ -21626,7 +21642,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1722</v>
       </c>
@@ -21637,7 +21653,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1725</v>
       </c>
@@ -21648,7 +21664,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1728</v>
       </c>
@@ -21659,7 +21675,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1731</v>
       </c>
@@ -21670,7 +21686,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1734</v>
       </c>
@@ -21681,7 +21697,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1737</v>
       </c>
@@ -21692,7 +21708,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1740</v>
       </c>
@@ -21703,7 +21719,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1743</v>
       </c>
@@ -21714,7 +21730,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1746</v>
       </c>
@@ -21725,7 +21741,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1749</v>
       </c>
@@ -21736,7 +21752,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1752</v>
       </c>
@@ -21747,7 +21763,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1755</v>
       </c>
@@ -21758,7 +21774,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" hidden="1">
+    <row r="117" spans="1:5" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>1758</v>
       </c>
@@ -21772,7 +21788,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1761</v>
       </c>
@@ -21783,7 +21799,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1764</v>
       </c>
@@ -21794,7 +21810,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1767</v>
       </c>
@@ -21805,7 +21821,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1770</v>
       </c>
@@ -21816,7 +21832,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1772</v>
       </c>
@@ -21827,7 +21843,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1775</v>
       </c>
@@ -21838,7 +21854,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1780</v>
       </c>
@@ -21849,7 +21865,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1783</v>
       </c>
@@ -21860,7 +21876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1785</v>
       </c>
@@ -21871,7 +21887,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1787</v>
       </c>
@@ -21882,7 +21898,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1789</v>
       </c>
@@ -21893,7 +21909,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1792</v>
       </c>
@@ -21904,7 +21920,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1797</v>
       </c>
@@ -21915,7 +21931,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1800</v>
       </c>
@@ -21929,7 +21945,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1802</v>
       </c>
@@ -21940,7 +21956,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1805</v>
       </c>
@@ -21951,7 +21967,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>1808</v>
       </c>
@@ -21965,7 +21981,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="17" customFormat="1">
+    <row r="135" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>2342</v>
       </c>
@@ -21977,7 +21993,7 @@
       </c>
       <c r="E135" s="79"/>
     </row>
-    <row r="136" spans="1:6" s="17" customFormat="1">
+    <row r="136" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>2252</v>
       </c>
@@ -21989,7 +22005,7 @@
       </c>
       <c r="E136" s="79"/>
     </row>
-    <row r="137" spans="1:6" s="17" customFormat="1">
+    <row r="137" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>2212</v>
       </c>
@@ -22001,7 +22017,7 @@
       </c>
       <c r="E137" s="79"/>
     </row>
-    <row r="138" spans="1:6" s="17" customFormat="1">
+    <row r="138" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>2414</v>
       </c>
@@ -22013,7 +22029,7 @@
       </c>
       <c r="E138" s="79"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>2500</v>
       </c>
@@ -22025,7 +22041,7 @@
       </c>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>2496</v>
       </c>
@@ -22040,7 +22056,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>2498</v>
       </c>
@@ -22052,21 +22068,21 @@
       </c>
       <c r="E142" s="11"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B144" t="s">
         <v>1668</v>
       </c>
       <c r="D144" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E144" t="s">
         <v>2709</v>
       </c>
-      <c r="E144" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>2563</v>
       </c>
@@ -22074,16 +22090,16 @@
         <v>2561</v>
       </c>
       <c r="C145" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D145" s="131" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="E145" s="131" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="11" customFormat="1">
+    <row r="146" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>1778</v>
       </c>
@@ -22096,41 +22112,55 @@
       <c r="E146" s="1" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" s="182" customFormat="1">
-      <c r="A147" s="182" t="s">
+      <c r="F146" s="11" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="171" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="171" t="s">
         <v>2253</v>
       </c>
-      <c r="B147" s="182" t="s">
+      <c r="B147" s="171" t="s">
         <v>2354</v>
       </c>
-      <c r="D147" s="182" t="s">
+      <c r="D147" s="171" t="s">
         <v>2249</v>
       </c>
-      <c r="E147" s="182" t="s">
+      <c r="E147" s="171" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="171" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="171" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>2701</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C149" t="s">
         <v>2704</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C149" t="s">
-        <v>2705</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>2700</v>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>2710</v>
       </c>
     </row>
   </sheetData>
@@ -22149,7 +22179,7 @@
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" style="103" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="103" bestFit="1" customWidth="1"/>
@@ -22163,7 +22193,7 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
         <v>1812</v>
       </c>
@@ -22179,7 +22209,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C113)</f>
         <v>57</v>
@@ -22189,7 +22219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>559</v>
       </c>
@@ -22210,7 +22240,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="103" t="s">
         <v>560</v>
       </c>
@@ -22231,7 +22261,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="103" t="s">
         <v>562</v>
       </c>
@@ -22251,7 +22281,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="103" t="s">
         <v>564</v>
       </c>
@@ -22271,7 +22301,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="103" t="s">
         <v>568</v>
       </c>
@@ -22291,7 +22321,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="103" t="s">
         <v>570</v>
       </c>
@@ -22311,7 +22341,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>572</v>
       </c>
@@ -22331,7 +22361,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>574</v>
       </c>
@@ -22351,7 +22381,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="103" t="s">
         <v>576</v>
       </c>
@@ -22371,7 +22401,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="103" t="s">
         <v>578</v>
       </c>
@@ -22391,7 +22421,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="103" t="s">
         <v>580</v>
       </c>
@@ -22411,7 +22441,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="103" t="s">
         <v>582</v>
       </c>
@@ -22431,7 +22461,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="103" t="s">
         <v>594</v>
       </c>
@@ -22451,7 +22481,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="103" t="s">
         <v>596</v>
       </c>
@@ -22471,7 +22501,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="103" t="s">
         <v>598</v>
       </c>
@@ -22491,7 +22521,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="103" t="s">
         <v>600</v>
       </c>
@@ -22511,7 +22541,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="103" t="s">
         <v>602</v>
       </c>
@@ -22531,7 +22561,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="103" t="s">
         <v>604</v>
       </c>
@@ -22551,7 +22581,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="103" t="s">
         <v>605</v>
       </c>
@@ -22571,7 +22601,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="103" t="s">
         <v>608</v>
       </c>
@@ -22591,7 +22621,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="103" t="s">
         <v>610</v>
       </c>
@@ -22611,7 +22641,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="103" t="s">
         <v>612</v>
       </c>
@@ -22631,7 +22661,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
         <v>614</v>
       </c>
@@ -22651,7 +22681,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="103" t="s">
         <v>616</v>
       </c>
@@ -22671,7 +22701,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="103" t="s">
         <v>620</v>
       </c>
@@ -22691,7 +22721,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="103" t="s">
         <v>622</v>
       </c>
@@ -22714,7 +22744,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="103" t="s">
         <v>624</v>
       </c>
@@ -22734,7 +22764,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
         <v>654</v>
       </c>
@@ -22754,7 +22784,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>656</v>
       </c>
@@ -22774,7 +22804,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>658</v>
       </c>
@@ -22794,7 +22824,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="103" t="s">
         <v>660</v>
       </c>
@@ -22814,7 +22844,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
         <v>662</v>
       </c>
@@ -22834,7 +22864,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="103" t="s">
         <v>664</v>
       </c>
@@ -22854,7 +22884,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="103" t="s">
         <v>666</v>
       </c>
@@ -22874,7 +22904,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="103" t="s">
         <v>668</v>
       </c>
@@ -22897,7 +22927,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="103" t="s">
         <v>670</v>
       </c>
@@ -22917,7 +22947,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="103" t="s">
         <v>674</v>
       </c>
@@ -22937,7 +22967,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="103" t="s">
         <v>676</v>
       </c>
@@ -22957,7 +22987,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="103" t="s">
         <v>684</v>
       </c>
@@ -22980,7 +23010,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="103" t="s">
         <v>688</v>
       </c>
@@ -23000,7 +23030,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="103" t="s">
         <v>690</v>
       </c>
@@ -23020,7 +23050,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="103" t="s">
         <v>696</v>
       </c>
@@ -23040,7 +23070,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="103" t="s">
         <v>700</v>
       </c>
@@ -23060,7 +23090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="103" t="s">
         <v>2186</v>
       </c>
@@ -23083,7 +23113,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="103" t="s">
         <v>743</v>
       </c>
@@ -23097,7 +23127,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="103" t="s">
         <v>706</v>
       </c>
@@ -23109,7 +23139,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="103" t="s">
         <v>713</v>
       </c>
@@ -23120,7 +23150,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="103" t="s">
         <v>715</v>
       </c>
@@ -23131,7 +23161,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="103" t="s">
         <v>719</v>
       </c>
@@ -23142,7 +23172,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="103" t="s">
         <v>721</v>
       </c>
@@ -23153,7 +23183,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="103" t="s">
         <v>727</v>
       </c>
@@ -23164,7 +23194,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="103" t="s">
         <v>729</v>
       </c>
@@ -23175,7 +23205,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="103" t="s">
         <v>731</v>
       </c>
@@ -23186,7 +23216,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="103" t="s">
         <v>733</v>
       </c>
@@ -23197,7 +23227,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="103" t="s">
         <v>739</v>
       </c>
@@ -23208,7 +23238,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="103" t="s">
         <v>2188</v>
       </c>
@@ -23219,7 +23249,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="103" t="s">
         <v>741</v>
       </c>
@@ -23230,7 +23260,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" thickBot="1">
+    <row r="60" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="164" t="s">
         <v>2190</v>
       </c>
@@ -23243,7 +23273,7 @@
       <c r="D60" s="143"/>
       <c r="E60" s="143"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="165" t="s">
         <v>2690</v>
       </c>
@@ -23258,7 +23288,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.25" thickBot="1">
+    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="166" t="s">
         <v>2692</v>
       </c>
@@ -23292,7 +23322,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -23309,7 +23339,7 @@
     <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1">
+    <row r="1" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>1425</v>
       </c>
@@ -23335,7 +23365,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C2" s="9">
         <f>COUNTA(C3:C200)</f>
         <v>30</v>
@@ -23349,7 +23379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1265</v>
       </c>
@@ -23378,7 +23408,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1267</v>
       </c>
@@ -23407,7 +23437,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1269</v>
       </c>
@@ -23436,7 +23466,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1273</v>
       </c>
@@ -23465,7 +23495,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1278</v>
       </c>
@@ -23494,7 +23524,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1281</v>
       </c>
@@ -23523,7 +23553,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1284</v>
       </c>
@@ -23552,7 +23582,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1287</v>
       </c>
@@ -23581,7 +23611,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1290</v>
       </c>
@@ -23610,7 +23640,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1292</v>
       </c>
@@ -23639,7 +23669,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1295</v>
       </c>
@@ -23668,7 +23698,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1298</v>
       </c>
@@ -23697,7 +23727,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1301</v>
       </c>
@@ -23726,7 +23756,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1302</v>
       </c>
@@ -23755,7 +23785,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1303</v>
       </c>
@@ -23784,7 +23814,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1362</v>
       </c>
@@ -23813,7 +23843,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1365</v>
       </c>
@@ -23842,7 +23872,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1367</v>
       </c>
@@ -23874,7 +23904,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1369</v>
       </c>
@@ -23897,7 +23927,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1372</v>
       </c>
@@ -23908,7 +23938,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1375</v>
       </c>
@@ -23919,7 +23949,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1378</v>
       </c>
@@ -23930,7 +23960,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1381</v>
       </c>
@@ -23941,7 +23971,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1390</v>
       </c>
@@ -23952,7 +23982,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1396</v>
       </c>
@@ -23963,7 +23993,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1407</v>
       </c>
@@ -23974,7 +24004,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1410</v>
       </c>
@@ -23985,7 +24015,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1413</v>
       </c>
@@ -23996,7 +24026,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1416</v>
       </c>
@@ -24010,7 +24040,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1422</v>
       </c>
@@ -24021,7 +24051,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1393</v>
       </c>
@@ -24035,7 +24065,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2679</v>
       </c>
